--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="1156">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4305,6 +4305,33 @@
   </si>
   <si>
     <t>lengua-pollo-jamon-quesos-chorizo-arabe</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-ARABE-Chorizo</t>
+  </si>
+  <si>
+    <t>Angelica Jimenez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUESOS-POLLO  </t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>PAPAS-QUESOS-´POLLO-Chul Ahum,</t>
+  </si>
+  <si>
+    <t>NOMINA # 31</t>
+  </si>
+  <si>
+    <t>QUESOS-PEPERONI-SALAMI-CHISTORRA</t>
+  </si>
+  <si>
+    <t>QUESOS-LOMO-SALCHICHONERIA-POLLO-ARABE-PATA-JAMON</t>
+  </si>
+  <si>
+    <t>QUESOS-CHORIZO-SALCHICAH-GELATINA-</t>
   </si>
 </sst>
 </file>
@@ -7864,7 +7891,6 @@
     <xf numFmtId="44" fontId="3" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7924,6 +7950,58 @@
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7997,76 +8075,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8110,6 +8122,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8321,6 +8366,15 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8335,15 +8389,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8363,22 +8408,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8388,9 +8417,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
@@ -13742,23 +13771,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="737" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="738"/>
+      <c r="E1" s="738"/>
+      <c r="F1" s="738"/>
+      <c r="G1" s="738"/>
+      <c r="H1" s="738"/>
+      <c r="I1" s="738"/>
+      <c r="J1" s="738"/>
+      <c r="K1" s="738"/>
+      <c r="L1" s="738"/>
+      <c r="M1" s="738"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13768,17 +13797,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13792,14 +13821,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13809,10 +13838,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="734" t="s">
+      <c r="P4" s="751" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="735"/>
+      <c r="Q4" s="752"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15253,11 +15282,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="736">
+      <c r="M39" s="753">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="738">
+      <c r="N39" s="755">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15283,8 +15312,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="737"/>
-      <c r="N40" s="739"/>
+      <c r="M40" s="754"/>
+      <c r="N40" s="756"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15499,29 +15528,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="740" t="s">
+      <c r="H52" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="741"/>
+      <c r="I52" s="758"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="742">
+      <c r="K52" s="759">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="743"/>
-      <c r="M52" s="744">
+      <c r="L52" s="760"/>
+      <c r="M52" s="761">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="745"/>
+      <c r="N52" s="762"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="746" t="s">
+      <c r="D53" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="746"/>
+      <c r="E53" s="763"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15532,22 +15561,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="746" t="s">
+      <c r="D54" s="763" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="746"/>
+      <c r="E54" s="763"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="747" t="s">
+      <c r="I54" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="748"/>
-      <c r="K54" s="749">
+      <c r="J54" s="765"/>
+      <c r="K54" s="766">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="750"/>
+      <c r="L54" s="767"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15580,11 +15609,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="751">
+      <c r="K56" s="768">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="752"/>
+      <c r="L56" s="769"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15601,22 +15630,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="729" t="s">
+      <c r="D58" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="730"/>
+      <c r="E58" s="747"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="731" t="s">
+      <c r="I58" s="748" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="732"/>
-      <c r="K58" s="733">
+      <c r="J58" s="749"/>
+      <c r="K58" s="750">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="733"/>
+      <c r="L58" s="750"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15760,12 +15789,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -15780,6 +15803,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18240,10 +18269,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="825" t="s">
+      <c r="I76" s="831" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="826"/>
+      <c r="J76" s="832"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -18262,8 +18291,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="827"/>
-      <c r="J77" s="828"/>
+      <c r="I77" s="833"/>
+      <c r="J77" s="834"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -18330,7 +18359,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="791" t="s">
+      <c r="F80" s="797" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18345,7 +18374,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="792"/>
+      <c r="F81" s="798"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18353,10 +18382,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="824" t="s">
+      <c r="B82" s="830" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="824"/>
+      <c r="C82" s="830"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -18638,23 +18667,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18664,24 +18693,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18696,14 +18725,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18713,15 +18742,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
-      <c r="W4" s="766" t="s">
+      <c r="R4" s="800"/>
+      <c r="W4" s="788" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="766"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18772,8 +18801,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="766"/>
-      <c r="X5" s="766"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19536,7 +19565,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="770">
+      <c r="W19" s="792">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19588,7 +19617,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="771"/>
+      <c r="W20" s="793"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19637,8 +19666,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="772"/>
-      <c r="X21" s="772"/>
+      <c r="W21" s="794"/>
+      <c r="X21" s="794"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19738,8 +19767,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="773"/>
-      <c r="X23" s="773"/>
+      <c r="W23" s="795"/>
+      <c r="X23" s="795"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19794,8 +19823,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="773"/>
-      <c r="X24" s="773"/>
+      <c r="W24" s="795"/>
+      <c r="X24" s="795"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19843,8 +19872,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="774"/>
-      <c r="X25" s="774"/>
+      <c r="W25" s="796"/>
+      <c r="X25" s="796"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19893,8 +19922,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="774"/>
-      <c r="X26" s="774"/>
+      <c r="W26" s="796"/>
+      <c r="X26" s="796"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -19942,9 +19971,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="767"/>
-      <c r="X27" s="768"/>
-      <c r="Y27" s="769"/>
+      <c r="W27" s="789"/>
+      <c r="X27" s="790"/>
+      <c r="Y27" s="791"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19992,9 +20021,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="768"/>
-      <c r="X28" s="768"/>
-      <c r="Y28" s="769"/>
+      <c r="W28" s="790"/>
+      <c r="X28" s="790"/>
+      <c r="Y28" s="791"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20326,11 +20355,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="785">
+      <c r="M36" s="780">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="782">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20338,7 +20367,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="820">
+      <c r="Q36" s="826">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -20363,13 +20392,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="781"/>
+      <c r="N37" s="783"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="821"/>
+      <c r="Q37" s="827"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20419,11 +20448,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="822">
+      <c r="M39" s="828">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="823"/>
+      <c r="N39" s="829"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21051,26 +21080,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="740" t="s">
+      <c r="H68" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="741"/>
+      <c r="I68" s="758"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="742">
+      <c r="K68" s="759">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="775"/>
+      <c r="L68" s="786"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="746" t="s">
+      <c r="D69" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="746"/>
+      <c r="E69" s="763"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21079,22 +21108,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="776" t="s">
+      <c r="D70" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="776"/>
+      <c r="E70" s="787"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="747" t="s">
+      <c r="I70" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="748"/>
-      <c r="K70" s="749">
+      <c r="J70" s="765"/>
+      <c r="K70" s="766">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="749"/>
+      <c r="L70" s="766"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21135,11 +21164,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="751">
+      <c r="K72" s="768">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="752"/>
+      <c r="L72" s="769"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21156,22 +21185,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="729" t="s">
+      <c r="D74" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="730"/>
+      <c r="E74" s="747"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="731" t="s">
+      <c r="I74" s="748" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="732"/>
-      <c r="K74" s="733">
+      <c r="J74" s="749"/>
+      <c r="K74" s="750">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="733"/>
+      <c r="L74" s="750"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21318,21 +21347,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21348,6 +21362,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22357,10 +22386,10 @@
       <c r="K25" s="499">
         <v>36766.699999999997</v>
       </c>
-      <c r="L25" s="709">
+      <c r="L25" s="708">
         <v>44744</v>
       </c>
-      <c r="M25" s="708">
+      <c r="M25" s="707">
         <v>36766.699999999997</v>
       </c>
       <c r="N25" s="137">
@@ -22397,10 +22426,10 @@
       <c r="K26" s="502">
         <v>6425.6</v>
       </c>
-      <c r="L26" s="709">
+      <c r="L26" s="708">
         <v>44744</v>
       </c>
-      <c r="M26" s="708">
+      <c r="M26" s="707">
         <v>6425.6</v>
       </c>
       <c r="N26" s="137">
@@ -22437,10 +22466,10 @@
       <c r="K27" s="502">
         <v>360</v>
       </c>
-      <c r="L27" s="709">
+      <c r="L27" s="708">
         <v>44744</v>
       </c>
-      <c r="M27" s="708">
+      <c r="M27" s="707">
         <v>360</v>
       </c>
       <c r="N27" s="137">
@@ -22477,10 +22506,10 @@
       <c r="K28" s="499">
         <v>23962.400000000001</v>
       </c>
-      <c r="L28" s="709">
+      <c r="L28" s="708">
         <v>44744</v>
       </c>
-      <c r="M28" s="708">
+      <c r="M28" s="707">
         <v>23962.400000000001</v>
       </c>
       <c r="N28" s="137">
@@ -22517,10 +22546,10 @@
       <c r="K29" s="499">
         <v>180</v>
       </c>
-      <c r="L29" s="709">
+      <c r="L29" s="708">
         <v>44744</v>
       </c>
-      <c r="M29" s="708">
+      <c r="M29" s="707">
         <v>180</v>
       </c>
       <c r="N29" s="137">
@@ -22558,10 +22587,10 @@
       <c r="K30" s="502">
         <v>44504</v>
       </c>
-      <c r="L30" s="709">
+      <c r="L30" s="708">
         <v>44744</v>
       </c>
-      <c r="M30" s="710">
+      <c r="M30" s="709">
         <v>44504</v>
       </c>
       <c r="N30" s="137">
@@ -22909,10 +22938,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="833" t="s">
+      <c r="I44" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="834"/>
+      <c r="J44" s="840"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -22931,8 +22960,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="835"/>
-      <c r="J45" s="836"/>
+      <c r="I45" s="841"/>
+      <c r="J45" s="842"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -22951,8 +22980,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="837"/>
-      <c r="J46" s="838"/>
+      <c r="I46" s="843"/>
+      <c r="J46" s="844"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -23641,7 +23670,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="791" t="s">
+      <c r="F80" s="797" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -23654,7 +23683,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="792"/>
+      <c r="F81" s="798"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -23674,10 +23703,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="829" t="s">
+      <c r="I83" s="835" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="830"/>
+      <c r="J83" s="836"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -23686,8 +23715,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="831"/>
-      <c r="J84" s="832"/>
+      <c r="I84" s="837"/>
+      <c r="J84" s="838"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -23960,23 +23989,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -23986,24 +24015,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24018,14 +24047,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24035,15 +24064,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
-      <c r="W4" s="766" t="s">
+      <c r="R4" s="800"/>
+      <c r="W4" s="788" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="766"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24094,8 +24123,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="766"/>
-      <c r="X5" s="766"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24854,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="770">
+      <c r="W19" s="792">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -24906,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="771"/>
+      <c r="W20" s="793"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -24955,8 +24984,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="772"/>
-      <c r="X21" s="772"/>
+      <c r="W21" s="794"/>
+      <c r="X21" s="794"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25053,8 +25082,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="773"/>
-      <c r="X23" s="773"/>
+      <c r="W23" s="795"/>
+      <c r="X23" s="795"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25109,8 +25138,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="773"/>
-      <c r="X24" s="773"/>
+      <c r="W24" s="795"/>
+      <c r="X24" s="795"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25156,8 +25185,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="774"/>
-      <c r="X25" s="774"/>
+      <c r="W25" s="796"/>
+      <c r="X25" s="796"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25208,8 +25237,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="774"/>
-      <c r="X26" s="774"/>
+      <c r="W26" s="796"/>
+      <c r="X26" s="796"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25260,9 +25289,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="767"/>
-      <c r="X27" s="768"/>
-      <c r="Y27" s="769"/>
+      <c r="W27" s="789"/>
+      <c r="X27" s="790"/>
+      <c r="Y27" s="791"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25312,9 +25341,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="768"/>
-      <c r="X28" s="768"/>
-      <c r="Y28" s="769"/>
+      <c r="W28" s="790"/>
+      <c r="X28" s="790"/>
+      <c r="Y28" s="791"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25918,11 +25947,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="785">
+      <c r="M41" s="780">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="780">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -25930,7 +25959,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="839">
+      <c r="Q41" s="845">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -25960,10 +25989,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="781"/>
+      <c r="N42" s="781"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="840"/>
+      <c r="Q42" s="846"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26051,11 +26080,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="841">
+      <c r="M45" s="847">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="842"/>
+      <c r="N45" s="848"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -26648,26 +26677,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="740" t="s">
+      <c r="H70" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="741"/>
+      <c r="I70" s="758"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="742">
+      <c r="K70" s="759">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="775"/>
+      <c r="L70" s="786"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="746" t="s">
+      <c r="D71" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="746"/>
+      <c r="E71" s="763"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26677,22 +26706,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="776" t="s">
+      <c r="D72" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="776"/>
+      <c r="E72" s="787"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="747" t="s">
+      <c r="I72" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="748"/>
-      <c r="K72" s="749">
+      <c r="J72" s="765"/>
+      <c r="K72" s="766">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="749"/>
+      <c r="L72" s="766"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26733,11 +26762,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="751">
+      <c r="K74" s="768">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="752"/>
+      <c r="L74" s="769"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26756,22 +26785,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="729" t="s">
+      <c r="D76" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="730"/>
+      <c r="E76" s="747"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="731" t="s">
+      <c r="I76" s="748" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="732"/>
-      <c r="K76" s="733">
+      <c r="J76" s="749"/>
+      <c r="K76" s="750">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="733"/>
+      <c r="L76" s="750"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -26931,21 +26960,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26961,6 +26975,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27087,10 +27116,10 @@
       <c r="K3" s="499">
         <v>0</v>
       </c>
-      <c r="L3" s="713">
+      <c r="L3" s="712">
         <v>44744</v>
       </c>
-      <c r="M3" s="711"/>
+      <c r="M3" s="710"/>
       <c r="N3" s="183">
         <f>K3-M3</f>
         <v>0</v>
@@ -27126,10 +27155,10 @@
       <c r="K4" s="502">
         <v>16921.599999999999</v>
       </c>
-      <c r="L4" s="713">
+      <c r="L4" s="712">
         <v>44744</v>
       </c>
-      <c r="M4" s="712">
+      <c r="M4" s="711">
         <v>16921.599999999999</v>
       </c>
       <c r="N4" s="137">
@@ -27166,10 +27195,10 @@
       <c r="K5" s="499">
         <v>24058.799999999999</v>
       </c>
-      <c r="L5" s="713">
+      <c r="L5" s="712">
         <v>44744</v>
       </c>
-      <c r="M5" s="711">
+      <c r="M5" s="710">
         <v>24058.799999999999</v>
       </c>
       <c r="N5" s="137">
@@ -27206,10 +27235,10 @@
       <c r="K6" s="499">
         <v>11335.2</v>
       </c>
-      <c r="L6" s="713">
+      <c r="L6" s="712">
         <v>44744</v>
       </c>
-      <c r="M6" s="711">
+      <c r="M6" s="710">
         <v>11335.2</v>
       </c>
       <c r="N6" s="137">
@@ -27246,10 +27275,10 @@
       <c r="K7" s="502">
         <v>529</v>
       </c>
-      <c r="L7" s="713">
+      <c r="L7" s="712">
         <v>44744</v>
       </c>
-      <c r="M7" s="712">
+      <c r="M7" s="711">
         <v>529</v>
       </c>
       <c r="N7" s="137">
@@ -27286,10 +27315,10 @@
       <c r="K8" s="499">
         <v>4369.8</v>
       </c>
-      <c r="L8" s="713">
+      <c r="L8" s="712">
         <v>44744</v>
       </c>
-      <c r="M8" s="711">
+      <c r="M8" s="710">
         <v>4369.8</v>
       </c>
       <c r="N8" s="137">
@@ -27326,10 +27355,10 @@
       <c r="K9" s="502">
         <v>1236.5999999999999</v>
       </c>
-      <c r="L9" s="713">
+      <c r="L9" s="712">
         <v>44744</v>
       </c>
-      <c r="M9" s="712">
+      <c r="M9" s="711">
         <v>1236.5999999999999</v>
       </c>
       <c r="N9" s="137">
@@ -27367,10 +27396,10 @@
       <c r="K10" s="502">
         <v>450</v>
       </c>
-      <c r="L10" s="713">
+      <c r="L10" s="712">
         <v>44744</v>
       </c>
-      <c r="M10" s="712">
+      <c r="M10" s="711">
         <v>450</v>
       </c>
       <c r="N10" s="137">
@@ -27407,10 +27436,10 @@
       <c r="K11" s="499">
         <v>1472</v>
       </c>
-      <c r="L11" s="713">
+      <c r="L11" s="712">
         <v>44744</v>
       </c>
-      <c r="M11" s="711">
+      <c r="M11" s="710">
         <v>1472</v>
       </c>
       <c r="N11" s="137">
@@ -27447,10 +27476,10 @@
       <c r="K12" s="502">
         <v>1584</v>
       </c>
-      <c r="L12" s="713">
+      <c r="L12" s="712">
         <v>44744</v>
       </c>
-      <c r="M12" s="712">
+      <c r="M12" s="711">
         <v>1584</v>
       </c>
       <c r="N12" s="137">
@@ -27487,10 +27516,10 @@
       <c r="K13" s="499">
         <v>930</v>
       </c>
-      <c r="L13" s="713">
+      <c r="L13" s="712">
         <v>44744</v>
       </c>
-      <c r="M13" s="711">
+      <c r="M13" s="710">
         <v>930</v>
       </c>
       <c r="N13" s="137">
@@ -27527,10 +27556,10 @@
       <c r="K14" s="502">
         <v>450</v>
       </c>
-      <c r="L14" s="713">
+      <c r="L14" s="712">
         <v>44744</v>
       </c>
-      <c r="M14" s="712">
+      <c r="M14" s="711">
         <v>450</v>
       </c>
       <c r="N14" s="137">
@@ -27567,10 +27596,10 @@
       <c r="K15" s="499">
         <v>1080</v>
       </c>
-      <c r="L15" s="713">
+      <c r="L15" s="712">
         <v>44744</v>
       </c>
-      <c r="M15" s="711">
+      <c r="M15" s="710">
         <v>1080</v>
       </c>
       <c r="N15" s="137">
@@ -27607,10 +27636,10 @@
       <c r="K16" s="499">
         <v>21899.8</v>
       </c>
-      <c r="L16" s="713">
+      <c r="L16" s="712">
         <v>44744</v>
       </c>
-      <c r="M16" s="711">
+      <c r="M16" s="710">
         <v>21899.8</v>
       </c>
       <c r="N16" s="137">
@@ -27647,10 +27676,10 @@
       <c r="K17" s="499">
         <v>1180</v>
       </c>
-      <c r="L17" s="713">
+      <c r="L17" s="712">
         <v>44744</v>
       </c>
-      <c r="M17" s="711">
+      <c r="M17" s="710">
         <v>1180</v>
       </c>
       <c r="N17" s="137">
@@ -27687,10 +27716,10 @@
       <c r="K18" s="499">
         <v>1200</v>
       </c>
-      <c r="L18" s="713">
+      <c r="L18" s="712">
         <v>44744</v>
       </c>
-      <c r="M18" s="711">
+      <c r="M18" s="710">
         <v>1200</v>
       </c>
       <c r="N18" s="137">
@@ -27727,10 +27756,10 @@
       <c r="K19" s="499">
         <v>1081</v>
       </c>
-      <c r="L19" s="713">
+      <c r="L19" s="712">
         <v>44744</v>
       </c>
-      <c r="M19" s="711">
+      <c r="M19" s="710">
         <v>1081</v>
       </c>
       <c r="N19" s="137">
@@ -27767,10 +27796,10 @@
       <c r="K20" s="502">
         <v>270</v>
       </c>
-      <c r="L20" s="713">
+      <c r="L20" s="712">
         <v>44744</v>
       </c>
-      <c r="M20" s="712">
+      <c r="M20" s="711">
         <v>270</v>
       </c>
       <c r="N20" s="137">
@@ -27807,10 +27836,10 @@
       <c r="K21" s="502">
         <v>1894.8</v>
       </c>
-      <c r="L21" s="713">
+      <c r="L21" s="712">
         <v>44744</v>
       </c>
-      <c r="M21" s="712">
+      <c r="M21" s="711">
         <v>1894.8</v>
       </c>
       <c r="N21" s="137">
@@ -27848,10 +27877,10 @@
       <c r="K22" s="499">
         <v>2360</v>
       </c>
-      <c r="L22" s="713">
+      <c r="L22" s="712">
         <v>44744</v>
       </c>
-      <c r="M22" s="711">
+      <c r="M22" s="710">
         <v>2360</v>
       </c>
       <c r="N22" s="137">
@@ -27888,10 +27917,10 @@
       <c r="K23" s="499">
         <v>19679.400000000001</v>
       </c>
-      <c r="L23" s="713">
+      <c r="L23" s="712">
         <v>44744</v>
       </c>
-      <c r="M23" s="711">
+      <c r="M23" s="710">
         <v>19679.400000000001</v>
       </c>
       <c r="N23" s="137">
@@ -27928,10 +27957,10 @@
       <c r="K24" s="499">
         <v>36567.599999999999</v>
       </c>
-      <c r="L24" s="713">
+      <c r="L24" s="712">
         <v>44744</v>
       </c>
-      <c r="M24" s="711">
+      <c r="M24" s="710">
         <v>36567.599999999999</v>
       </c>
       <c r="N24" s="137">
@@ -27968,10 +27997,10 @@
       <c r="K25" s="499">
         <v>2588.64</v>
       </c>
-      <c r="L25" s="713">
+      <c r="L25" s="712">
         <v>44744</v>
       </c>
-      <c r="M25" s="711">
+      <c r="M25" s="710">
         <v>2588.64</v>
       </c>
       <c r="N25" s="137">
@@ -28008,10 +28037,10 @@
       <c r="K26" s="502">
         <v>1080</v>
       </c>
-      <c r="L26" s="713">
+      <c r="L26" s="712">
         <v>44744</v>
       </c>
-      <c r="M26" s="712">
+      <c r="M26" s="711">
         <v>1080</v>
       </c>
       <c r="N26" s="137">
@@ -28048,10 +28077,10 @@
       <c r="K27" s="502">
         <v>28960.799999999999</v>
       </c>
-      <c r="L27" s="713">
+      <c r="L27" s="712">
         <v>44744</v>
       </c>
-      <c r="M27" s="712">
+      <c r="M27" s="711">
         <v>28960.799999999999</v>
       </c>
       <c r="N27" s="137">
@@ -28088,10 +28117,10 @@
       <c r="K28" s="502">
         <v>2238.5</v>
       </c>
-      <c r="L28" s="713">
+      <c r="L28" s="712">
         <v>44744</v>
       </c>
-      <c r="M28" s="712">
+      <c r="M28" s="711">
         <v>2238.5</v>
       </c>
       <c r="N28" s="137">
@@ -28128,10 +28157,10 @@
       <c r="K29" s="499">
         <v>1771.6</v>
       </c>
-      <c r="L29" s="713">
+      <c r="L29" s="712">
         <v>44744</v>
       </c>
-      <c r="M29" s="711">
+      <c r="M29" s="710">
         <v>1771.6</v>
       </c>
       <c r="N29" s="137">
@@ -28169,10 +28198,10 @@
       <c r="K30" s="502">
         <v>36114.800000000003</v>
       </c>
-      <c r="L30" s="713">
+      <c r="L30" s="712">
         <v>44744</v>
       </c>
-      <c r="M30" s="712">
+      <c r="M30" s="711">
         <v>36114.800000000003</v>
       </c>
       <c r="N30" s="137">
@@ -28209,10 +28238,10 @@
       <c r="K31" s="499">
         <v>744</v>
       </c>
-      <c r="L31" s="713">
+      <c r="L31" s="712">
         <v>44744</v>
       </c>
-      <c r="M31" s="711">
+      <c r="M31" s="710">
         <v>744</v>
       </c>
       <c r="N31" s="137">
@@ -28249,10 +28278,10 @@
       <c r="K32" s="502">
         <v>25869.8</v>
       </c>
-      <c r="L32" s="713">
+      <c r="L32" s="712">
         <v>44744</v>
       </c>
-      <c r="M32" s="712">
+      <c r="M32" s="711">
         <v>25869.8</v>
       </c>
       <c r="N32" s="137">
@@ -28289,10 +28318,10 @@
       <c r="K33" s="499">
         <v>5027</v>
       </c>
-      <c r="L33" s="713">
+      <c r="L33" s="712">
         <v>44744</v>
       </c>
-      <c r="M33" s="711">
+      <c r="M33" s="710">
         <v>5027</v>
       </c>
       <c r="N33" s="137">
@@ -28329,10 +28358,10 @@
       <c r="K34" s="502">
         <v>1820.8</v>
       </c>
-      <c r="L34" s="713">
+      <c r="L34" s="712">
         <v>44744</v>
       </c>
-      <c r="M34" s="712">
+      <c r="M34" s="711">
         <v>1820.8</v>
       </c>
       <c r="N34" s="137">
@@ -28369,10 +28398,10 @@
       <c r="K35" s="499">
         <v>43759.6</v>
       </c>
-      <c r="L35" s="713">
+      <c r="L35" s="712">
         <v>44744</v>
       </c>
-      <c r="M35" s="711">
+      <c r="M35" s="710">
         <v>43759.6</v>
       </c>
       <c r="N35" s="137">
@@ -28409,10 +28438,10 @@
       <c r="K36" s="502">
         <v>1331</v>
       </c>
-      <c r="L36" s="713">
+      <c r="L36" s="712">
         <v>44744</v>
       </c>
-      <c r="M36" s="712">
+      <c r="M36" s="711">
         <v>1331</v>
       </c>
       <c r="N36" s="137">
@@ -28449,10 +28478,10 @@
       <c r="K37" s="499">
         <v>32504.400000000001</v>
       </c>
-      <c r="L37" s="713">
+      <c r="L37" s="712">
         <v>44744</v>
       </c>
-      <c r="M37" s="711">
+      <c r="M37" s="710">
         <v>32504.400000000001</v>
       </c>
       <c r="N37" s="137">
@@ -28489,10 +28518,10 @@
       <c r="K38" s="499">
         <v>15257</v>
       </c>
-      <c r="L38" s="713">
+      <c r="L38" s="712">
         <v>44744</v>
       </c>
-      <c r="M38" s="711">
+      <c r="M38" s="710">
         <v>15257</v>
       </c>
       <c r="N38" s="137">
@@ -28529,10 +28558,10 @@
       <c r="K39" s="499">
         <v>5516</v>
       </c>
-      <c r="L39" s="713">
+      <c r="L39" s="712">
         <v>44744</v>
       </c>
-      <c r="M39" s="711">
+      <c r="M39" s="710">
         <v>5516</v>
       </c>
       <c r="N39" s="137">
@@ -28569,10 +28598,10 @@
       <c r="K40" s="502">
         <v>600</v>
       </c>
-      <c r="L40" s="713">
+      <c r="L40" s="712">
         <v>44744</v>
       </c>
-      <c r="M40" s="712">
+      <c r="M40" s="711">
         <v>600</v>
       </c>
       <c r="N40" s="137">
@@ -28610,10 +28639,10 @@
       <c r="K41" s="502">
         <v>6614.7</v>
       </c>
-      <c r="L41" s="713">
+      <c r="L41" s="712">
         <v>44744</v>
       </c>
-      <c r="M41" s="712">
+      <c r="M41" s="711">
         <v>6614.7</v>
       </c>
       <c r="N41" s="137">
@@ -28650,10 +28679,10 @@
       <c r="K42" s="502">
         <v>1080</v>
       </c>
-      <c r="L42" s="713">
+      <c r="L42" s="712">
         <v>44744</v>
       </c>
-      <c r="M42" s="712">
+      <c r="M42" s="711">
         <v>1080</v>
       </c>
       <c r="N42" s="137">
@@ -28931,10 +28960,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="833" t="s">
+      <c r="I54" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="834"/>
+      <c r="J54" s="840"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -28950,8 +28979,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="835"/>
-      <c r="J55" s="836"/>
+      <c r="I55" s="841"/>
+      <c r="J55" s="842"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -28967,8 +28996,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="837"/>
-      <c r="J56" s="838"/>
+      <c r="I56" s="843"/>
+      <c r="J56" s="844"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -29621,7 +29650,7 @@
         <f>SUM(K3:K88)</f>
         <v>363428.24</v>
       </c>
-      <c r="L89" s="714"/>
+      <c r="L89" s="713"/>
       <c r="M89" s="209">
         <f>SUM(M3:M88)</f>
         <v>363428.24</v>
@@ -29636,7 +29665,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="791" t="s">
+      <c r="F90" s="797" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29649,7 +29678,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="792"/>
+      <c r="F91" s="798"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -29662,16 +29691,16 @@
       <c r="I92" s="14"/>
       <c r="J92" s="503"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="715"/>
+      <c r="L92" s="714"/>
       <c r="M92" s="6"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="829" t="s">
+      <c r="I93" s="835" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="830"/>
+      <c r="J93" s="836"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -29681,8 +29710,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="831"/>
-      <c r="J94" s="832"/>
+      <c r="I94" s="837"/>
+      <c r="J94" s="838"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30123,11 +30152,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="843">
+      <c r="C130" s="849">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="844"/>
+      <c r="D130" s="850"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30164,21 +30193,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="849" t="s">
+      <c r="F2" s="855" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="850"/>
-      <c r="H2" s="851"/>
+      <c r="G2" s="856"/>
+      <c r="H2" s="857"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="846" t="s">
+      <c r="B3" s="852" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="847"/>
-      <c r="D3" s="848"/>
-      <c r="F3" s="852"/>
-      <c r="G3" s="853"/>
-      <c r="H3" s="854"/>
+      <c r="C3" s="853"/>
+      <c r="D3" s="854"/>
+      <c r="F3" s="858"/>
+      <c r="G3" s="859"/>
+      <c r="H3" s="860"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -30323,11 +30352,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="855">
+      <c r="G11" s="861">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="856"/>
+      <c r="H11" s="862"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -30344,23 +30373,23 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="859" t="s">
+      <c r="C15" s="865" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="857">
+      <c r="D15" s="863">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="860"/>
-      <c r="D16" s="858"/>
+      <c r="C16" s="866"/>
+      <c r="D16" s="864"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="845" t="s">
+      <c r="C17" s="851" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="845"/>
+      <c r="D17" s="851"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30418,23 +30447,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30444,24 +30473,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -30480,14 +30509,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30497,11 +30526,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
+      <c r="R4" s="800"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
       <c r="W4" s="867"/>
@@ -31435,8 +31464,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="772"/>
-      <c r="X21" s="772"/>
+      <c r="W21" s="794"/>
+      <c r="X21" s="794"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31547,8 +31576,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="773"/>
-      <c r="X23" s="773"/>
+      <c r="W23" s="795"/>
+      <c r="X23" s="795"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31609,8 +31638,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="773"/>
-      <c r="X24" s="773"/>
+      <c r="W24" s="795"/>
+      <c r="X24" s="795"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31663,8 +31692,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="774"/>
-      <c r="X25" s="774"/>
+      <c r="W25" s="796"/>
+      <c r="X25" s="796"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31719,8 +31748,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="774"/>
-      <c r="X26" s="774"/>
+      <c r="W26" s="796"/>
+      <c r="X26" s="796"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31775,9 +31804,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="767"/>
-      <c r="X27" s="768"/>
-      <c r="Y27" s="769"/>
+      <c r="W27" s="789"/>
+      <c r="X27" s="790"/>
+      <c r="Y27" s="791"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31831,9 +31860,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="768"/>
-      <c r="X28" s="768"/>
-      <c r="Y28" s="769"/>
+      <c r="W28" s="790"/>
+      <c r="X28" s="790"/>
+      <c r="Y28" s="791"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32424,11 +32453,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="785">
+      <c r="M41" s="780">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="780">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32436,7 +32465,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="839">
+      <c r="Q41" s="845">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -32460,10 +32489,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="781"/>
+      <c r="N42" s="781"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="840"/>
+      <c r="Q42" s="846"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -32532,11 +32561,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="841">
+      <c r="M45" s="847">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="842"/>
+      <c r="N45" s="848"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -32952,26 +32981,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="740" t="s">
+      <c r="H63" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="741"/>
+      <c r="I63" s="758"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="864">
+      <c r="K63" s="873">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="865"/>
+      <c r="L63" s="874"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="746" t="s">
+      <c r="D64" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="746"/>
+      <c r="E64" s="763"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -32980,22 +33009,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="776" t="s">
+      <c r="D65" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="776"/>
+      <c r="E65" s="787"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="747" t="s">
+      <c r="I65" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="748"/>
-      <c r="K65" s="749">
+      <c r="J65" s="765"/>
+      <c r="K65" s="766">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="749"/>
+      <c r="L65" s="766"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33036,11 +33065,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="866">
+      <c r="K67" s="869">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="749"/>
+      <c r="L67" s="766"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33057,22 +33086,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="729" t="s">
+      <c r="D69" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="730"/>
+      <c r="E69" s="747"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="861" t="s">
+      <c r="I69" s="870" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="862"/>
-      <c r="K69" s="863">
+      <c r="J69" s="871"/>
+      <c r="K69" s="872">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="863"/>
+      <c r="L69" s="872"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33219,6 +33248,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33234,21 +33278,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33374,10 +33403,10 @@
       <c r="K3" s="641">
         <v>2151.6</v>
       </c>
-      <c r="L3" s="716">
+      <c r="L3" s="715">
         <v>44744</v>
       </c>
-      <c r="M3" s="717">
+      <c r="M3" s="716">
         <v>2151.6</v>
       </c>
       <c r="N3" s="183">
@@ -33415,10 +33444,10 @@
       <c r="K4" s="392">
         <v>3210</v>
       </c>
-      <c r="L4" s="716">
+      <c r="L4" s="715">
         <v>44744</v>
       </c>
-      <c r="M4" s="711">
+      <c r="M4" s="710">
         <v>3210</v>
       </c>
       <c r="N4" s="137">
@@ -33455,10 +33484,10 @@
       <c r="K5" s="392">
         <v>972</v>
       </c>
-      <c r="L5" s="716">
+      <c r="L5" s="715">
         <v>44744</v>
       </c>
-      <c r="M5" s="711">
+      <c r="M5" s="710">
         <v>972</v>
       </c>
       <c r="N5" s="137">
@@ -33495,10 +33524,10 @@
       <c r="K6" s="392">
         <v>270</v>
       </c>
-      <c r="L6" s="716">
+      <c r="L6" s="715">
         <v>44744</v>
       </c>
-      <c r="M6" s="711">
+      <c r="M6" s="710">
         <v>270</v>
       </c>
       <c r="N6" s="137">
@@ -33535,10 +33564,10 @@
       <c r="K7" s="392">
         <v>8528.4</v>
       </c>
-      <c r="L7" s="716">
+      <c r="L7" s="715">
         <v>44744</v>
       </c>
-      <c r="M7" s="711">
+      <c r="M7" s="710">
         <v>8528.4</v>
       </c>
       <c r="N7" s="137">
@@ -33575,10 +33604,10 @@
       <c r="K8" s="392">
         <v>3216</v>
       </c>
-      <c r="L8" s="716">
+      <c r="L8" s="715">
         <v>44744</v>
       </c>
-      <c r="M8" s="711">
+      <c r="M8" s="710">
         <v>3216</v>
       </c>
       <c r="N8" s="137">
@@ -33615,10 +33644,10 @@
       <c r="K9" s="392">
         <v>3240</v>
       </c>
-      <c r="L9" s="716">
+      <c r="L9" s="715">
         <v>44744</v>
       </c>
-      <c r="M9" s="711">
+      <c r="M9" s="710">
         <v>3240</v>
       </c>
       <c r="N9" s="137">
@@ -33656,10 +33685,10 @@
       <c r="K10" s="392">
         <v>4735.2</v>
       </c>
-      <c r="L10" s="716">
+      <c r="L10" s="715">
         <v>44744</v>
       </c>
-      <c r="M10" s="711">
+      <c r="M10" s="710">
         <v>4735.2</v>
       </c>
       <c r="N10" s="137">
@@ -33696,10 +33725,10 @@
       <c r="K11" s="392">
         <v>5370</v>
       </c>
-      <c r="L11" s="716">
+      <c r="L11" s="715">
         <v>44744</v>
       </c>
-      <c r="M11" s="711">
+      <c r="M11" s="710">
         <v>5370</v>
       </c>
       <c r="N11" s="137">
@@ -33736,10 +33765,10 @@
       <c r="K12" s="392">
         <v>22042.6</v>
       </c>
-      <c r="L12" s="716">
+      <c r="L12" s="715">
         <v>44744</v>
       </c>
-      <c r="M12" s="711">
+      <c r="M12" s="710">
         <v>22042.6</v>
       </c>
       <c r="N12" s="137">
@@ -33776,10 +33805,10 @@
       <c r="K13" s="392">
         <v>13787.7</v>
       </c>
-      <c r="L13" s="720" t="s">
+      <c r="L13" s="719" t="s">
         <v>1143</v>
       </c>
-      <c r="M13" s="708">
+      <c r="M13" s="707">
         <f>11454.26+2333.44</f>
         <v>13787.7</v>
       </c>
@@ -33817,10 +33846,10 @@
       <c r="K14" s="392">
         <v>450</v>
       </c>
-      <c r="L14" s="719">
+      <c r="L14" s="718">
         <v>44766</v>
       </c>
-      <c r="M14" s="721">
+      <c r="M14" s="720">
         <v>450</v>
       </c>
       <c r="N14" s="137">
@@ -33857,10 +33886,10 @@
       <c r="K15" s="392">
         <v>3200</v>
       </c>
-      <c r="L15" s="719">
+      <c r="L15" s="718">
         <v>44766</v>
       </c>
-      <c r="M15" s="721">
+      <c r="M15" s="720">
         <v>3200</v>
       </c>
       <c r="N15" s="137">
@@ -33897,10 +33926,10 @@
       <c r="K16" s="392">
         <v>2160</v>
       </c>
-      <c r="L16" s="719">
+      <c r="L16" s="718">
         <v>44766</v>
       </c>
-      <c r="M16" s="721">
+      <c r="M16" s="720">
         <v>2160</v>
       </c>
       <c r="N16" s="137">
@@ -33937,10 +33966,10 @@
       <c r="K17" s="392">
         <v>72229</v>
       </c>
-      <c r="L17" s="719">
+      <c r="L17" s="718">
         <v>44766</v>
       </c>
-      <c r="M17" s="721">
+      <c r="M17" s="720">
         <v>72229</v>
       </c>
       <c r="N17" s="137">
@@ -33977,10 +34006,10 @@
       <c r="K18" s="392">
         <v>1078</v>
       </c>
-      <c r="L18" s="719">
+      <c r="L18" s="718">
         <v>44766</v>
       </c>
-      <c r="M18" s="721">
+      <c r="M18" s="720">
         <v>1078</v>
       </c>
       <c r="N18" s="137">
@@ -34017,10 +34046,10 @@
       <c r="K19" s="392">
         <v>450</v>
       </c>
-      <c r="L19" s="719">
+      <c r="L19" s="718">
         <v>44766</v>
       </c>
-      <c r="M19" s="721">
+      <c r="M19" s="720">
         <v>450</v>
       </c>
       <c r="N19" s="137">
@@ -34057,10 +34086,10 @@
       <c r="K20" s="392">
         <v>63214.400000000001</v>
       </c>
-      <c r="L20" s="719">
+      <c r="L20" s="718">
         <v>44766</v>
       </c>
-      <c r="M20" s="721">
+      <c r="M20" s="720">
         <v>63214.400000000001</v>
       </c>
       <c r="N20" s="137">
@@ -34097,10 +34126,10 @@
       <c r="K21" s="392">
         <v>1344</v>
       </c>
-      <c r="L21" s="719">
+      <c r="L21" s="718">
         <v>44766</v>
       </c>
-      <c r="M21" s="721">
+      <c r="M21" s="720">
         <v>1344</v>
       </c>
       <c r="N21" s="137">
@@ -34138,10 +34167,10 @@
       <c r="K22" s="392">
         <v>270</v>
       </c>
-      <c r="L22" s="719">
+      <c r="L22" s="718">
         <v>44766</v>
       </c>
-      <c r="M22" s="721">
+      <c r="M22" s="720">
         <v>270</v>
       </c>
       <c r="N22" s="137">
@@ -34178,10 +34207,10 @@
       <c r="K23" s="392">
         <v>17666.36</v>
       </c>
-      <c r="L23" s="719">
+      <c r="L23" s="718">
         <v>44766</v>
       </c>
-      <c r="M23" s="721">
+      <c r="M23" s="720">
         <v>17666.36</v>
       </c>
       <c r="N23" s="137">
@@ -34218,10 +34247,10 @@
       <c r="K24" s="392">
         <v>7822.8</v>
       </c>
-      <c r="L24" s="719">
+      <c r="L24" s="718">
         <v>44766</v>
       </c>
-      <c r="M24" s="721">
+      <c r="M24" s="720">
         <v>7822.8</v>
       </c>
       <c r="N24" s="137">
@@ -34262,10 +34291,10 @@
       <c r="K25" s="392">
         <v>7504</v>
       </c>
-      <c r="L25" s="719">
+      <c r="L25" s="718">
         <v>44766</v>
       </c>
-      <c r="M25" s="721">
+      <c r="M25" s="720">
         <v>7504</v>
       </c>
       <c r="N25" s="137">
@@ -34306,10 +34335,10 @@
       <c r="K26" s="392">
         <v>52764.800000000003</v>
       </c>
-      <c r="L26" s="719">
+      <c r="L26" s="718">
         <v>44766</v>
       </c>
-      <c r="M26" s="721">
+      <c r="M26" s="720">
         <v>52764.800000000003</v>
       </c>
       <c r="N26" s="137">
@@ -34350,10 +34379,10 @@
       <c r="K27" s="392">
         <v>38206.699999999997</v>
       </c>
-      <c r="L27" s="719">
+      <c r="L27" s="718">
         <v>44766</v>
       </c>
-      <c r="M27" s="721">
+      <c r="M27" s="720">
         <v>38206.699999999997</v>
       </c>
       <c r="N27" s="137">
@@ -34394,10 +34423,10 @@
       <c r="K28" s="392">
         <v>12759.3</v>
       </c>
-      <c r="L28" s="719">
+      <c r="L28" s="718">
         <v>44766</v>
       </c>
-      <c r="M28" s="721">
+      <c r="M28" s="720">
         <v>12759.3</v>
       </c>
       <c r="N28" s="137">
@@ -34438,10 +34467,10 @@
       <c r="K29" s="392">
         <v>43816.2</v>
       </c>
-      <c r="L29" s="719">
+      <c r="L29" s="718">
         <v>44766</v>
       </c>
-      <c r="M29" s="721">
+      <c r="M29" s="720">
         <v>43816.2</v>
       </c>
       <c r="N29" s="137">
@@ -34482,10 +34511,10 @@
       <c r="K30" s="392">
         <v>2622.4</v>
       </c>
-      <c r="L30" s="719">
+      <c r="L30" s="718">
         <v>44766</v>
       </c>
-      <c r="M30" s="721">
+      <c r="M30" s="720">
         <v>2622.4</v>
       </c>
       <c r="N30" s="137">
@@ -34522,10 +34551,10 @@
       <c r="K31" s="392">
         <v>13511.6</v>
       </c>
-      <c r="L31" s="719">
+      <c r="L31" s="718">
         <v>44766</v>
       </c>
-      <c r="M31" s="721">
+      <c r="M31" s="720">
         <v>13511.6</v>
       </c>
       <c r="N31" s="137">
@@ -34562,10 +34591,10 @@
       <c r="K32" s="392">
         <v>1243.8</v>
       </c>
-      <c r="L32" s="719">
+      <c r="L32" s="718">
         <v>44766</v>
       </c>
-      <c r="M32" s="721">
+      <c r="M32" s="720">
         <v>1243.8</v>
       </c>
       <c r="N32" s="137">
@@ -34602,10 +34631,10 @@
       <c r="K33" s="392">
         <v>450</v>
       </c>
-      <c r="L33" s="719">
+      <c r="L33" s="718">
         <v>44766</v>
       </c>
-      <c r="M33" s="721">
+      <c r="M33" s="720">
         <v>450</v>
       </c>
       <c r="N33" s="137">
@@ -34642,10 +34671,10 @@
       <c r="K34" s="392">
         <v>5511</v>
       </c>
-      <c r="L34" s="719">
+      <c r="L34" s="718">
         <v>44766</v>
       </c>
-      <c r="M34" s="721">
+      <c r="M34" s="720">
         <v>5511</v>
       </c>
       <c r="N34" s="137">
@@ -34706,7 +34735,7 @@
       <c r="I36" s="245"/>
       <c r="J36" s="57"/>
       <c r="K36" s="111"/>
-      <c r="L36" s="718">
+      <c r="L36" s="717">
         <v>350607.8</v>
       </c>
       <c r="M36" s="111"/>
@@ -34745,10 +34774,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="833" t="s">
+      <c r="I38" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="834"/>
+      <c r="J38" s="840"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -34767,8 +34796,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="835"/>
-      <c r="J39" s="836"/>
+      <c r="I39" s="841"/>
+      <c r="J39" s="842"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -34787,8 +34816,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="837"/>
-      <c r="J40" s="838"/>
+      <c r="I40" s="843"/>
+      <c r="J40" s="844"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -35396,7 +35425,7 @@
         <f>SUM(K3:K69)</f>
         <v>415797.86</v>
       </c>
-      <c r="L70" s="714"/>
+      <c r="L70" s="713"/>
       <c r="M70" s="209">
         <f>SUM(M3:M69)</f>
         <v>415797.86</v>
@@ -35411,7 +35440,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="791" t="s">
+      <c r="F71" s="797" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -35424,7 +35453,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="792"/>
+      <c r="F72" s="798"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -35437,16 +35466,16 @@
       <c r="I73" s="14"/>
       <c r="J73" s="503"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="715"/>
+      <c r="L73" s="714"/>
       <c r="M73" s="6"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="829" t="s">
+      <c r="I74" s="835" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="830"/>
+      <c r="J74" s="836"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -35455,8 +35484,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="831"/>
-      <c r="J75" s="832"/>
+      <c r="I75" s="837"/>
+      <c r="J75" s="838"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -35590,11 +35619,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="871" t="s">
+      <c r="A89" s="877" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="872"/>
-      <c r="C89" s="872"/>
+      <c r="B89" s="878"/>
+      <c r="C89" s="878"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -35604,10 +35633,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="873" t="s">
+      <c r="B90" s="879" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="874"/>
+      <c r="C90" s="880"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -35708,7 +35737,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="869">
+      <c r="C97" s="875">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -35722,7 +35751,7 @@
       <c r="B98" s="659" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="870"/>
+      <c r="C98" s="876"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -35823,23 +35852,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35849,24 +35878,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
@@ -35881,14 +35910,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -35898,11 +35927,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
+      <c r="R4" s="800"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37670,11 +37699,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="785">
+      <c r="M41" s="780">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="780">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37682,7 +37711,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="839">
+      <c r="Q41" s="845">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -37712,10 +37741,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="781"/>
+      <c r="N42" s="781"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="840"/>
+      <c r="Q42" s="846"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -37802,11 +37831,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="841">
+      <c r="M45" s="847">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="842"/>
+      <c r="N45" s="848"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -38392,26 +38421,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="740" t="s">
+      <c r="H69" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="741"/>
+      <c r="I69" s="758"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="864">
+      <c r="K69" s="873">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="865"/>
+      <c r="L69" s="874"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="746" t="s">
+      <c r="D70" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="746"/>
+      <c r="E70" s="763"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38420,22 +38449,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="776" t="s">
+      <c r="D71" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="776"/>
+      <c r="E71" s="787"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="747" t="s">
+      <c r="I71" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="748"/>
-      <c r="K71" s="749">
+      <c r="J71" s="765"/>
+      <c r="K71" s="766">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="749"/>
+      <c r="L71" s="766"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38476,11 +38505,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="866">
+      <c r="K73" s="869">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="749"/>
+      <c r="L73" s="766"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38497,22 +38526,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="729" t="s">
+      <c r="D75" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="730"/>
+      <c r="E75" s="747"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="731" t="s">
+      <c r="I75" s="748" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="732"/>
-      <c r="K75" s="733">
+      <c r="J75" s="749"/>
+      <c r="K75" s="750">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="733"/>
+      <c r="L75" s="750"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38659,17 +38688,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -38681,6 +38699,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38806,10 +38835,10 @@
       <c r="J3" s="502">
         <v>1393.2</v>
       </c>
-      <c r="K3" s="722">
+      <c r="K3" s="721">
         <v>44766</v>
       </c>
-      <c r="L3" s="723">
+      <c r="L3" s="722">
         <v>1393.2</v>
       </c>
       <c r="M3" s="183">
@@ -38847,10 +38876,10 @@
       <c r="J4" s="499">
         <v>1519.7</v>
       </c>
-      <c r="K4" s="722">
+      <c r="K4" s="721">
         <v>44766</v>
       </c>
-      <c r="L4" s="721">
+      <c r="L4" s="720">
         <v>1519.7</v>
       </c>
       <c r="M4" s="137">
@@ -38887,10 +38916,10 @@
       <c r="J5" s="674">
         <v>1470</v>
       </c>
-      <c r="K5" s="722">
+      <c r="K5" s="721">
         <v>44766</v>
       </c>
-      <c r="L5" s="724">
+      <c r="L5" s="723">
         <v>1470</v>
       </c>
       <c r="M5" s="137">
@@ -38927,10 +38956,10 @@
       <c r="J6" s="674">
         <v>550</v>
       </c>
-      <c r="K6" s="722">
+      <c r="K6" s="721">
         <v>44766</v>
       </c>
-      <c r="L6" s="724">
+      <c r="L6" s="723">
         <v>550</v>
       </c>
       <c r="M6" s="137">
@@ -38967,10 +38996,10 @@
       <c r="J7" s="677">
         <v>2114</v>
       </c>
-      <c r="K7" s="722">
+      <c r="K7" s="721">
         <v>44766</v>
       </c>
-      <c r="L7" s="725">
+      <c r="L7" s="724">
         <v>2114</v>
       </c>
       <c r="M7" s="137">
@@ -39007,10 +39036,10 @@
       <c r="J8" s="677">
         <v>14229.9</v>
       </c>
-      <c r="K8" s="722">
+      <c r="K8" s="721">
         <v>44766</v>
       </c>
-      <c r="L8" s="725">
+      <c r="L8" s="724">
         <v>14229.9</v>
       </c>
       <c r="M8" s="137">
@@ -39047,10 +39076,10 @@
       <c r="J9" s="674">
         <v>6100</v>
       </c>
-      <c r="K9" s="722">
+      <c r="K9" s="721">
         <v>44766</v>
       </c>
-      <c r="L9" s="724">
+      <c r="L9" s="723">
         <v>6100</v>
       </c>
       <c r="M9" s="137">
@@ -39088,10 +39117,10 @@
       <c r="J10" s="674">
         <v>2232</v>
       </c>
-      <c r="K10" s="722">
+      <c r="K10" s="721">
         <v>44766</v>
       </c>
-      <c r="L10" s="724">
+      <c r="L10" s="723">
         <v>2232</v>
       </c>
       <c r="M10" s="137">
@@ -39128,10 +39157,10 @@
       <c r="J11" s="674">
         <v>10033.6</v>
       </c>
-      <c r="K11" s="722">
+      <c r="K11" s="721">
         <v>44766</v>
       </c>
-      <c r="L11" s="724">
+      <c r="L11" s="723">
         <v>10033.6</v>
       </c>
       <c r="M11" s="137">
@@ -39168,10 +39197,10 @@
       <c r="J12" s="674">
         <v>12212</v>
       </c>
-      <c r="K12" s="722">
+      <c r="K12" s="721">
         <v>44766</v>
       </c>
-      <c r="L12" s="724">
+      <c r="L12" s="723">
         <v>12212</v>
       </c>
       <c r="M12" s="137">
@@ -39208,10 +39237,10 @@
       <c r="J13" s="677">
         <v>12465</v>
       </c>
-      <c r="K13" s="722">
+      <c r="K13" s="721">
         <v>44766</v>
       </c>
-      <c r="L13" s="725">
+      <c r="L13" s="724">
         <v>12465</v>
       </c>
       <c r="M13" s="137">
@@ -39248,10 +39277,10 @@
       <c r="J14" s="677">
         <v>7129.75</v>
       </c>
-      <c r="K14" s="722">
+      <c r="K14" s="721">
         <v>44766</v>
       </c>
-      <c r="L14" s="725">
+      <c r="L14" s="724">
         <v>7129.75</v>
       </c>
       <c r="M14" s="137">
@@ -39288,10 +39317,10 @@
       <c r="J15" s="674">
         <v>847</v>
       </c>
-      <c r="K15" s="722">
+      <c r="K15" s="721">
         <v>44766</v>
       </c>
-      <c r="L15" s="724">
+      <c r="L15" s="723">
         <v>847</v>
       </c>
       <c r="M15" s="137">
@@ -39328,10 +39357,10 @@
       <c r="J16" s="677">
         <v>31103.1</v>
       </c>
-      <c r="K16" s="722">
+      <c r="K16" s="721">
         <v>44766</v>
       </c>
-      <c r="L16" s="725">
+      <c r="L16" s="724">
         <v>31103.1</v>
       </c>
       <c r="M16" s="137">
@@ -39368,10 +39397,10 @@
       <c r="J17" s="677">
         <v>1016</v>
       </c>
-      <c r="K17" s="722">
+      <c r="K17" s="721">
         <v>44766</v>
       </c>
-      <c r="L17" s="725">
+      <c r="L17" s="724">
         <v>1016</v>
       </c>
       <c r="M17" s="137">
@@ -39408,10 +39437,10 @@
       <c r="J18" s="674">
         <v>2400</v>
       </c>
-      <c r="K18" s="722">
+      <c r="K18" s="721">
         <v>44766</v>
       </c>
-      <c r="L18" s="724">
+      <c r="L18" s="723">
         <v>2400</v>
       </c>
       <c r="M18" s="137">
@@ -39429,10 +39458,10 @@
       <c r="C19" s="111">
         <v>75251.399999999994</v>
       </c>
-      <c r="D19" s="719">
+      <c r="D19" s="718">
         <v>44769</v>
       </c>
-      <c r="E19" s="718">
+      <c r="E19" s="717">
         <v>75251.399999999994</v>
       </c>
       <c r="F19" s="544">
@@ -39448,10 +39477,10 @@
       <c r="J19" s="677">
         <v>3150.5</v>
       </c>
-      <c r="K19" s="722">
+      <c r="K19" s="721">
         <v>44766</v>
       </c>
-      <c r="L19" s="725">
+      <c r="L19" s="724">
         <v>3150.5</v>
       </c>
       <c r="M19" s="137">
@@ -39469,10 +39498,10 @@
       <c r="C20" s="111">
         <v>59986.66</v>
       </c>
-      <c r="D20" s="719">
+      <c r="D20" s="718">
         <v>44769</v>
       </c>
-      <c r="E20" s="718">
+      <c r="E20" s="717">
         <v>59986.66</v>
       </c>
       <c r="F20" s="544">
@@ -39488,10 +39517,10 @@
       <c r="J20" s="674">
         <v>40918.800000000003</v>
       </c>
-      <c r="K20" s="722">
+      <c r="K20" s="721">
         <v>44766</v>
       </c>
-      <c r="L20" s="724">
+      <c r="L20" s="723">
         <v>40918.800000000003</v>
       </c>
       <c r="M20" s="137">
@@ -39509,10 +39538,10 @@
       <c r="C21" s="111">
         <v>28057.52</v>
       </c>
-      <c r="D21" s="719">
+      <c r="D21" s="718">
         <v>44769</v>
       </c>
-      <c r="E21" s="718">
+      <c r="E21" s="717">
         <v>28057.52</v>
       </c>
       <c r="F21" s="544">
@@ -39528,10 +39557,10 @@
       <c r="J21" s="677">
         <v>300</v>
       </c>
-      <c r="K21" s="722">
+      <c r="K21" s="721">
         <v>44766</v>
       </c>
-      <c r="L21" s="725">
+      <c r="L21" s="724">
         <v>300</v>
       </c>
       <c r="M21" s="137">
@@ -39549,10 +39578,10 @@
       <c r="C22" s="111">
         <v>4554</v>
       </c>
-      <c r="D22" s="719">
+      <c r="D22" s="718">
         <v>44769</v>
       </c>
-      <c r="E22" s="718">
+      <c r="E22" s="717">
         <v>4554</v>
       </c>
       <c r="F22" s="544">
@@ -39569,10 +39598,10 @@
       <c r="J22" s="674">
         <v>6240</v>
       </c>
-      <c r="K22" s="722">
+      <c r="K22" s="721">
         <v>44766</v>
       </c>
-      <c r="L22" s="724">
+      <c r="L22" s="723">
         <v>6240</v>
       </c>
       <c r="M22" s="137">
@@ -39590,10 +39619,10 @@
       <c r="C23" s="111">
         <v>20506.8</v>
       </c>
-      <c r="D23" s="719">
+      <c r="D23" s="718">
         <v>44769</v>
       </c>
-      <c r="E23" s="718">
+      <c r="E23" s="717">
         <v>20506.8</v>
       </c>
       <c r="F23" s="544">
@@ -39610,10 +39639,10 @@
       <c r="J23" s="674">
         <v>64859.8</v>
       </c>
-      <c r="K23" s="722">
+      <c r="K23" s="721">
         <v>44766</v>
       </c>
-      <c r="L23" s="724">
+      <c r="L23" s="723">
         <v>64859.8</v>
       </c>
       <c r="M23" s="137">
@@ -39631,10 +39660,10 @@
       <c r="C24" s="111">
         <v>70754.91</v>
       </c>
-      <c r="D24" s="719">
+      <c r="D24" s="718">
         <v>44769</v>
       </c>
-      <c r="E24" s="718">
+      <c r="E24" s="717">
         <v>70754.91</v>
       </c>
       <c r="F24" s="544">
@@ -39651,10 +39680,10 @@
       <c r="J24" s="674">
         <v>2900</v>
       </c>
-      <c r="K24" s="722">
+      <c r="K24" s="721">
         <v>44766</v>
       </c>
-      <c r="L24" s="724">
+      <c r="L24" s="723">
         <v>2900</v>
       </c>
       <c r="M24" s="137">
@@ -39672,10 +39701,10 @@
       <c r="C25" s="111">
         <v>102195.9</v>
       </c>
-      <c r="D25" s="719">
+      <c r="D25" s="718">
         <v>44769</v>
       </c>
-      <c r="E25" s="718">
+      <c r="E25" s="717">
         <v>102195.9</v>
       </c>
       <c r="F25" s="544">
@@ -39692,10 +39721,10 @@
       <c r="J25" s="677">
         <v>333.6</v>
       </c>
-      <c r="K25" s="722">
+      <c r="K25" s="721">
         <v>44766</v>
       </c>
-      <c r="L25" s="725">
+      <c r="L25" s="724">
         <v>333.6</v>
       </c>
       <c r="M25" s="137">
@@ -39713,10 +39742,10 @@
       <c r="C26" s="111">
         <v>64559.72</v>
       </c>
-      <c r="D26" s="719">
+      <c r="D26" s="718">
         <v>44769</v>
       </c>
-      <c r="E26" s="718">
+      <c r="E26" s="717">
         <v>64559.72</v>
       </c>
       <c r="F26" s="544">
@@ -39733,10 +39762,10 @@
       <c r="J26" s="674">
         <v>500</v>
       </c>
-      <c r="K26" s="722">
+      <c r="K26" s="721">
         <v>44766</v>
       </c>
-      <c r="L26" s="724">
+      <c r="L26" s="723">
         <v>500</v>
       </c>
       <c r="M26" s="137">
@@ -39754,10 +39783,10 @@
       <c r="C27" s="111">
         <v>68026</v>
       </c>
-      <c r="D27" s="719">
+      <c r="D27" s="718">
         <v>44769</v>
       </c>
-      <c r="E27" s="718">
+      <c r="E27" s="717">
         <v>68026</v>
       </c>
       <c r="F27" s="544">
@@ -39774,10 +39803,10 @@
       <c r="J27" s="677">
         <v>7288.2</v>
       </c>
-      <c r="K27" s="722">
+      <c r="K27" s="721">
         <v>44766</v>
       </c>
-      <c r="L27" s="725">
+      <c r="L27" s="724">
         <v>7288.2</v>
       </c>
       <c r="M27" s="137">
@@ -39795,10 +39824,10 @@
       <c r="C28" s="111">
         <v>66413.16</v>
       </c>
-      <c r="D28" s="719">
+      <c r="D28" s="718">
         <v>44769</v>
       </c>
-      <c r="E28" s="718">
+      <c r="E28" s="717">
         <v>66413.16</v>
       </c>
       <c r="F28" s="544">
@@ -39815,10 +39844,10 @@
       <c r="J28" s="677">
         <v>32983.1</v>
       </c>
-      <c r="K28" s="722">
+      <c r="K28" s="721">
         <v>44766</v>
       </c>
-      <c r="L28" s="725">
+      <c r="L28" s="724">
         <v>32983.1</v>
       </c>
       <c r="M28" s="137">
@@ -39836,10 +39865,10 @@
       <c r="C29" s="111">
         <v>2197.8000000000002</v>
       </c>
-      <c r="D29" s="719">
+      <c r="D29" s="718">
         <v>44769</v>
       </c>
-      <c r="E29" s="718">
+      <c r="E29" s="717">
         <v>2197.8000000000002</v>
       </c>
       <c r="F29" s="544">
@@ -39856,10 +39885,10 @@
       <c r="J29" s="677">
         <v>3363</v>
       </c>
-      <c r="K29" s="722">
+      <c r="K29" s="721">
         <v>44766</v>
       </c>
-      <c r="L29" s="725">
+      <c r="L29" s="724">
         <v>3363</v>
       </c>
       <c r="M29" s="137">
@@ -39877,10 +39906,10 @@
       <c r="C30" s="111">
         <v>55732.800000000003</v>
       </c>
-      <c r="D30" s="719">
+      <c r="D30" s="718">
         <v>44769</v>
       </c>
-      <c r="E30" s="718">
+      <c r="E30" s="717">
         <v>55732.800000000003</v>
       </c>
       <c r="F30" s="544">
@@ -39897,10 +39926,10 @@
       <c r="J30" s="677">
         <v>300</v>
       </c>
-      <c r="K30" s="722">
+      <c r="K30" s="721">
         <v>44766</v>
       </c>
-      <c r="L30" s="725">
+      <c r="L30" s="724">
         <v>300</v>
       </c>
       <c r="M30" s="137">
@@ -39918,10 +39947,10 @@
       <c r="C31" s="111">
         <v>106959.76</v>
       </c>
-      <c r="D31" s="719">
+      <c r="D31" s="718">
         <v>44769</v>
       </c>
-      <c r="E31" s="718">
+      <c r="E31" s="717">
         <v>106959.76</v>
       </c>
       <c r="F31" s="544">
@@ -39938,10 +39967,10 @@
       <c r="J31" s="677">
         <v>780</v>
       </c>
-      <c r="K31" s="722">
+      <c r="K31" s="721">
         <v>44766</v>
       </c>
-      <c r="L31" s="725">
+      <c r="L31" s="724">
         <v>780</v>
       </c>
       <c r="M31" s="137">
@@ -39959,10 +39988,10 @@
       <c r="C32" s="111">
         <v>69961.259999999995</v>
       </c>
-      <c r="D32" s="719">
+      <c r="D32" s="718">
         <v>44769</v>
       </c>
-      <c r="E32" s="718">
+      <c r="E32" s="717">
         <v>69961.259999999995</v>
       </c>
       <c r="F32" s="544">
@@ -39979,10 +40008,10 @@
       <c r="J32" s="674">
         <v>5345.6</v>
       </c>
-      <c r="K32" s="722">
+      <c r="K32" s="721">
         <v>44766</v>
       </c>
-      <c r="L32" s="724">
+      <c r="L32" s="723">
         <v>5345.6</v>
       </c>
       <c r="M32" s="137">
@@ -40000,10 +40029,10 @@
       <c r="C33" s="111">
         <v>81212.86</v>
       </c>
-      <c r="D33" s="719">
+      <c r="D33" s="718">
         <v>44769</v>
       </c>
-      <c r="E33" s="718">
+      <c r="E33" s="717">
         <v>81212.86</v>
       </c>
       <c r="F33" s="544">
@@ -40019,10 +40048,10 @@
       <c r="J33" s="674">
         <v>1150</v>
       </c>
-      <c r="K33" s="722">
+      <c r="K33" s="721">
         <v>44766</v>
       </c>
-      <c r="L33" s="724">
+      <c r="L33" s="723">
         <v>1150</v>
       </c>
       <c r="M33" s="137">
@@ -40040,10 +40069,10 @@
       <c r="C34" s="111">
         <v>49528.800000000003</v>
       </c>
-      <c r="D34" s="719">
+      <c r="D34" s="718">
         <v>44769</v>
       </c>
-      <c r="E34" s="718">
+      <c r="E34" s="717">
         <v>24074.75</v>
       </c>
       <c r="F34" s="544">
@@ -40059,10 +40088,10 @@
       <c r="J34" s="674">
         <v>6406.9</v>
       </c>
-      <c r="K34" s="722">
+      <c r="K34" s="721">
         <v>44766</v>
       </c>
-      <c r="L34" s="724">
+      <c r="L34" s="723">
         <v>6406.9</v>
       </c>
       <c r="M34" s="137">
@@ -40095,10 +40124,10 @@
       <c r="J35" s="677">
         <v>3200</v>
       </c>
-      <c r="K35" s="722">
+      <c r="K35" s="721">
         <v>44766</v>
       </c>
-      <c r="L35" s="725">
+      <c r="L35" s="724">
         <v>3200</v>
       </c>
       <c r="M35" s="137">
@@ -40131,10 +40160,10 @@
       <c r="J36" s="677">
         <v>550</v>
       </c>
-      <c r="K36" s="722">
+      <c r="K36" s="721">
         <v>44766</v>
       </c>
-      <c r="L36" s="725">
+      <c r="L36" s="724">
         <v>550</v>
       </c>
       <c r="M36" s="137">
@@ -40167,10 +40196,10 @@
       <c r="J37" s="674">
         <v>773.5</v>
       </c>
-      <c r="K37" s="722">
+      <c r="K37" s="721">
         <v>44766</v>
       </c>
-      <c r="L37" s="724">
+      <c r="L37" s="723">
         <v>773.5</v>
       </c>
       <c r="M37" s="137">
@@ -40203,10 +40232,10 @@
       <c r="J38" s="677">
         <v>1316.8</v>
       </c>
-      <c r="K38" s="722">
+      <c r="K38" s="721">
         <v>44766</v>
       </c>
-      <c r="L38" s="725">
+      <c r="L38" s="724">
         <v>1316.8</v>
       </c>
       <c r="M38" s="137">
@@ -40328,10 +40357,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="833" t="s">
+      <c r="H43" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="834"/>
+      <c r="I43" s="840"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -40350,8 +40379,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="835"/>
-      <c r="I44" s="836"/>
+      <c r="H44" s="841"/>
+      <c r="I44" s="842"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -40370,8 +40399,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="837"/>
-      <c r="I45" s="838"/>
+      <c r="H45" s="843"/>
+      <c r="I45" s="844"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -40815,15 +40844,15 @@
         <f>SUM(F3:F66)</f>
         <v>403455.10000000009</v>
       </c>
-      <c r="H67" s="829" t="s">
+      <c r="H67" s="835" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="830"/>
+      <c r="I67" s="836"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
       </c>
-      <c r="K67" s="714"/>
+      <c r="K67" s="713"/>
       <c r="L67" s="209">
         <f>SUM(L3:L66)</f>
         <v>289475.05</v>
@@ -40838,11 +40867,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="791" t="s">
+      <c r="F68" s="797" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="831"/>
-      <c r="I68" s="832"/>
+      <c r="H68" s="837"/>
+      <c r="I68" s="838"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -40853,7 +40882,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="792"/>
+      <c r="F69" s="798"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -42757,7 +42786,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="764" t="s">
+      <c r="B41" s="770" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -42789,7 +42818,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="765"/>
+      <c r="B42" s="771"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -44356,8 +44385,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44383,23 +44412,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44409,24 +44438,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44441,14 +44470,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44458,11 +44487,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
+      <c r="R4" s="800"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -45282,7 +45311,7 @@
       <c r="N21" s="33">
         <v>31157</v>
       </c>
-      <c r="O21" s="690" t="s">
+      <c r="O21" s="689" t="s">
         <v>1069</v>
       </c>
       <c r="P21" s="39">
@@ -45575,9 +45604,15 @@
       <c r="I27" s="30">
         <v>1764</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="54"/>
+      <c r="J27" s="55">
+        <v>44768</v>
+      </c>
+      <c r="K27" s="734" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L27" s="54">
+        <v>50000</v>
+      </c>
       <c r="M27" s="32">
         <v>17556</v>
       </c>
@@ -45589,11 +45624,11 @@
       </c>
       <c r="P27" s="283">
         <f t="shared" si="1"/>
-        <v>66279</v>
-      </c>
-      <c r="Q27" s="688">
-        <f t="shared" si="0"/>
-        <v>-50000</v>
+        <v>116279</v>
+      </c>
+      <c r="Q27" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R27" s="319">
         <v>0</v>
@@ -45925,7 +45960,7 @@
       <c r="B35" s="24">
         <v>44743</v>
       </c>
-      <c r="C35" s="691">
+      <c r="C35" s="690">
         <v>200000</v>
       </c>
       <c r="D35" s="67" t="s">
@@ -45967,10 +46002,10 @@
       <c r="B36" s="24">
         <v>44746</v>
       </c>
-      <c r="C36" s="694">
+      <c r="C36" s="693">
         <v>5681.25</v>
       </c>
-      <c r="D36" s="697" t="s">
+      <c r="D36" s="696" t="s">
         <v>1116</v>
       </c>
       <c r="E36" s="27"/>
@@ -45981,7 +46016,7 @@
       <c r="J36" s="557">
         <v>44765</v>
       </c>
-      <c r="K36" s="689" t="s">
+      <c r="K36" s="688" t="s">
         <v>1056</v>
       </c>
       <c r="L36" s="9">
@@ -46009,10 +46044,10 @@
       <c r="B37" s="24">
         <v>44747</v>
       </c>
-      <c r="C37" s="693">
+      <c r="C37" s="692">
         <v>96768</v>
       </c>
-      <c r="D37" s="696" t="s">
+      <c r="D37" s="695" t="s">
         <v>49</v>
       </c>
       <c r="E37" s="27"/>
@@ -46050,10 +46085,10 @@
       <c r="B38" s="24">
         <v>44747</v>
       </c>
-      <c r="C38" s="693">
+      <c r="C38" s="692">
         <v>187187.20000000001</v>
       </c>
-      <c r="D38" s="696" t="s">
+      <c r="D38" s="695" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="27"/>
@@ -46086,10 +46121,10 @@
       <c r="B39" s="24">
         <v>44748</v>
       </c>
-      <c r="C39" s="693">
+      <c r="C39" s="692">
         <v>26640</v>
       </c>
-      <c r="D39" s="696" t="s">
+      <c r="D39" s="695" t="s">
         <v>1117</v>
       </c>
       <c r="E39" s="27"/>
@@ -46128,10 +46163,10 @@
       <c r="B40" s="24">
         <v>44753</v>
       </c>
-      <c r="C40" s="693">
+      <c r="C40" s="692">
         <v>5337.5</v>
       </c>
-      <c r="D40" s="697" t="s">
+      <c r="D40" s="696" t="s">
         <v>1105</v>
       </c>
       <c r="E40" s="27"/>
@@ -46170,10 +46205,10 @@
       <c r="B41" s="24">
         <v>44757</v>
       </c>
-      <c r="C41" s="693">
+      <c r="C41" s="692">
         <v>200000</v>
       </c>
-      <c r="D41" s="698" t="s">
+      <c r="D41" s="697" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="74"/>
@@ -46190,21 +46225,21 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="785">
+      <c r="M41" s="780">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="780">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>4757723.83</v>
-      </c>
-      <c r="Q41" s="839">
+        <v>4807723.83</v>
+      </c>
+      <c r="Q41" s="845">
         <f>SUM(Q5:Q40)</f>
-        <v>-49988</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46212,10 +46247,10 @@
       <c r="B42" s="24">
         <v>44761</v>
       </c>
-      <c r="C42" s="693">
+      <c r="C42" s="692">
         <v>189760</v>
       </c>
-      <c r="D42" s="698" t="s">
+      <c r="D42" s="697" t="s">
         <v>49</v>
       </c>
       <c r="E42" s="74"/>
@@ -46223,29 +46258,29 @@
       <c r="G42" s="572"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="699">
+      <c r="J42" s="698">
         <v>44750</v>
       </c>
-      <c r="K42" s="702" t="s">
+      <c r="K42" s="701" t="s">
         <v>1104</v>
       </c>
-      <c r="L42" s="703">
+      <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="781"/>
+      <c r="N42" s="781"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="840"/>
+      <c r="Q42" s="846"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24">
         <v>44762</v>
       </c>
-      <c r="C43" s="693">
+      <c r="C43" s="692">
         <v>379843.2</v>
       </c>
-      <c r="D43" s="698" t="s">
+      <c r="D43" s="697" t="s">
         <v>1111</v>
       </c>
       <c r="E43" s="74"/>
@@ -46272,10 +46307,10 @@
       <c r="B44" s="24">
         <v>44768</v>
       </c>
-      <c r="C44" s="693">
+      <c r="C44" s="692">
         <v>18528.64</v>
       </c>
-      <c r="D44" s="698" t="s">
+      <c r="D44" s="697" t="s">
         <v>1114</v>
       </c>
       <c r="E44" s="74"/>
@@ -46300,7 +46335,7 @@
     <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="693"/>
+      <c r="C45" s="692"/>
       <c r="D45" s="73"/>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
@@ -46316,18 +46351,18 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="841">
+      <c r="M45" s="847">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="842"/>
+      <c r="N45" s="848"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="693"/>
+      <c r="C46" s="692"/>
       <c r="D46" s="73"/>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
@@ -46351,7 +46386,7 @@
     <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="693"/>
+      <c r="C47" s="692"/>
       <c r="D47" s="73"/>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
@@ -46375,7 +46410,7 @@
     <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="693"/>
+      <c r="C48" s="692"/>
       <c r="D48" s="73"/>
       <c r="E48" s="74"/>
       <c r="F48" s="75"/>
@@ -46399,7 +46434,7 @@
     <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="693"/>
+      <c r="C49" s="692"/>
       <c r="D49" s="73"/>
       <c r="E49" s="74"/>
       <c r="F49" s="75"/>
@@ -46423,7 +46458,7 @@
     <row r="50" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="693"/>
+      <c r="C50" s="692"/>
       <c r="D50" s="73"/>
       <c r="E50" s="74"/>
       <c r="F50" s="75"/>
@@ -46447,7 +46482,7 @@
     <row r="51" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="693"/>
+      <c r="C51" s="692"/>
       <c r="D51" s="73"/>
       <c r="E51" s="74"/>
       <c r="F51" s="75"/>
@@ -46471,7 +46506,7 @@
     <row r="52" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="693"/>
+      <c r="C52" s="692"/>
       <c r="D52" s="73"/>
       <c r="E52" s="74"/>
       <c r="F52" s="75"/>
@@ -46495,7 +46530,7 @@
     <row r="53" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="693">
+      <c r="C53" s="692">
         <v>0</v>
       </c>
       <c r="D53" s="73"/>
@@ -46521,7 +46556,7 @@
     <row r="54" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="695">
+      <c r="C54" s="694">
         <v>0</v>
       </c>
       <c r="D54" s="73"/>
@@ -46547,7 +46582,7 @@
     <row r="55" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="692">
+      <c r="C55" s="691">
         <v>0</v>
       </c>
       <c r="D55" s="73"/>
@@ -46634,13 +46669,13 @@
       <c r="G58" s="572"/>
       <c r="H58" s="76"/>
       <c r="I58" s="77"/>
-      <c r="J58" s="700">
+      <c r="J58" s="699">
         <v>44771</v>
       </c>
       <c r="K58" s="623" t="s">
         <v>1118</v>
       </c>
-      <c r="L58" s="704">
+      <c r="L58" s="703">
         <v>24956.78</v>
       </c>
       <c r="M58" s="680"/>
@@ -46661,7 +46696,7 @@
       <c r="H59" s="76"/>
       <c r="I59" s="77"/>
       <c r="J59" s="466"/>
-      <c r="K59" s="701"/>
+      <c r="K59" s="700"/>
       <c r="L59" s="54"/>
       <c r="M59" s="680"/>
       <c r="N59" s="680"/>
@@ -46819,7 +46854,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>385060.15</v>
+        <v>435060.15000000026</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -46837,50 +46872,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="740" t="s">
+      <c r="H69" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="741"/>
+      <c r="I69" s="758"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="864">
+      <c r="K69" s="873">
         <f>I67+L67</f>
-        <v>465778.65</v>
-      </c>
-      <c r="L69" s="865"/>
+        <v>515778.65000000026</v>
+      </c>
+      <c r="L69" s="874"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="746" t="s">
+      <c r="D70" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="746"/>
+      <c r="E70" s="763"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1623910.5600000003</v>
+        <v>1573910.5599999998</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="776" t="s">
+      <c r="D71" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="776"/>
+      <c r="E71" s="787"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="747" t="s">
+      <c r="I71" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="748"/>
-      <c r="K71" s="749">
+      <c r="J71" s="765"/>
+      <c r="K71" s="766">
         <f>F73+F74+F75</f>
-        <v>2191254.89</v>
-      </c>
-      <c r="L71" s="749"/>
+        <v>2141254.8899999997</v>
+      </c>
+      <c r="L71" s="766"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46914,18 +46949,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>-232368.19999999972</v>
+        <v>-282368.20000000019</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="866">
+      <c r="K73" s="869">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="749"/>
+      <c r="L73" s="766"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -46942,22 +46977,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="729" t="s">
+      <c r="D75" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="730"/>
+      <c r="E75" s="747"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="861" t="s">
+      <c r="I75" s="870" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="862"/>
-      <c r="K75" s="863">
+      <c r="J75" s="871"/>
+      <c r="K75" s="872">
         <f>K71+K73</f>
-        <v>-164171.64999999991</v>
-      </c>
-      <c r="L75" s="863"/>
+        <v>-214171.65000000037</v>
+      </c>
+      <c r="L75" s="872"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47104,6 +47139,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47120,12 +47161,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47238,19 +47273,19 @@
         <f>C3-E3</f>
         <v>67911.399999999994</v>
       </c>
-      <c r="H3" s="705" t="s">
+      <c r="H3" s="704" t="s">
         <v>1119</v>
       </c>
-      <c r="I3" s="706">
+      <c r="I3" s="705">
         <v>9701</v>
       </c>
-      <c r="J3" s="707">
+      <c r="J3" s="706">
         <v>18214.599999999999</v>
       </c>
-      <c r="K3" s="722">
+      <c r="K3" s="721">
         <v>44766</v>
       </c>
-      <c r="L3" s="724">
+      <c r="L3" s="723">
         <v>18214.599999999999</v>
       </c>
       <c r="M3" s="183">
@@ -47275,19 +47310,19 @@
         <v>73363.8</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="H4" s="705" t="s">
+      <c r="H4" s="704" t="s">
         <v>1120</v>
       </c>
-      <c r="I4" s="706">
+      <c r="I4" s="705">
         <v>9713</v>
       </c>
-      <c r="J4" s="707">
+      <c r="J4" s="706">
         <v>2634.6</v>
       </c>
-      <c r="K4" s="722">
+      <c r="K4" s="721">
         <v>44766</v>
       </c>
-      <c r="L4" s="724">
+      <c r="L4" s="723">
         <v>2634.6</v>
       </c>
       <c r="M4" s="137">
@@ -47311,19 +47346,19 @@
         <f t="shared" si="0"/>
         <v>31164.35</v>
       </c>
-      <c r="H5" s="705" t="s">
+      <c r="H5" s="704" t="s">
         <v>1121</v>
       </c>
-      <c r="I5" s="706">
+      <c r="I5" s="705">
         <v>9719</v>
       </c>
-      <c r="J5" s="707">
+      <c r="J5" s="706">
         <v>370</v>
       </c>
-      <c r="K5" s="722">
+      <c r="K5" s="721">
         <v>44766</v>
       </c>
-      <c r="L5" s="724">
+      <c r="L5" s="723">
         <v>370</v>
       </c>
       <c r="M5" s="137">
@@ -47347,19 +47382,19 @@
         <f t="shared" si="0"/>
         <v>58616</v>
       </c>
-      <c r="H6" s="705" t="s">
+      <c r="H6" s="704" t="s">
         <v>1122</v>
       </c>
-      <c r="I6" s="706">
+      <c r="I6" s="705">
         <v>9736</v>
       </c>
-      <c r="J6" s="707">
+      <c r="J6" s="706">
         <v>10040</v>
       </c>
-      <c r="K6" s="722">
+      <c r="K6" s="721">
         <v>44766</v>
       </c>
-      <c r="L6" s="724">
+      <c r="L6" s="723">
         <v>10040</v>
       </c>
       <c r="M6" s="137">
@@ -47383,19 +47418,19 @@
         <f t="shared" si="0"/>
         <v>106705.96</v>
       </c>
-      <c r="H7" s="705" t="s">
+      <c r="H7" s="704" t="s">
         <v>1123</v>
       </c>
-      <c r="I7" s="706">
+      <c r="I7" s="705">
         <v>9745</v>
       </c>
-      <c r="J7" s="707">
+      <c r="J7" s="706">
         <v>4921.2</v>
       </c>
-      <c r="K7" s="722">
+      <c r="K7" s="721">
         <v>44766</v>
       </c>
-      <c r="L7" s="724">
+      <c r="L7" s="723">
         <v>4921.2</v>
       </c>
       <c r="M7" s="137">
@@ -47419,19 +47454,19 @@
         <f t="shared" si="0"/>
         <v>68357.89</v>
       </c>
-      <c r="H8" s="705" t="s">
+      <c r="H8" s="704" t="s">
         <v>1124</v>
       </c>
-      <c r="I8" s="706">
+      <c r="I8" s="705">
         <v>9756</v>
       </c>
-      <c r="J8" s="707">
+      <c r="J8" s="706">
         <v>6859</v>
       </c>
-      <c r="K8" s="722">
+      <c r="K8" s="721">
         <v>44766</v>
       </c>
-      <c r="L8" s="724">
+      <c r="L8" s="723">
         <v>6859</v>
       </c>
       <c r="M8" s="137">
@@ -47455,19 +47490,19 @@
         <f t="shared" si="0"/>
         <v>39927.050000000003</v>
       </c>
-      <c r="H9" s="705" t="s">
+      <c r="H9" s="704" t="s">
         <v>1124</v>
       </c>
-      <c r="I9" s="706">
+      <c r="I9" s="705">
         <v>9764</v>
       </c>
-      <c r="J9" s="707">
+      <c r="J9" s="706">
         <v>9300</v>
       </c>
-      <c r="K9" s="722">
+      <c r="K9" s="721">
         <v>44766</v>
       </c>
-      <c r="L9" s="724">
+      <c r="L9" s="723">
         <v>9300</v>
       </c>
       <c r="M9" s="137">
@@ -47492,19 +47527,19 @@
         <v>121513</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="H10" s="705" t="s">
+      <c r="H10" s="704" t="s">
         <v>1125</v>
       </c>
-      <c r="I10" s="706">
+      <c r="I10" s="705">
         <v>9765</v>
       </c>
-      <c r="J10" s="707">
-        <v>0</v>
-      </c>
-      <c r="K10" s="722">
+      <c r="J10" s="706">
+        <v>0</v>
+      </c>
+      <c r="K10" s="721">
         <v>44766</v>
       </c>
-      <c r="L10" s="724">
+      <c r="L10" s="723">
         <v>0</v>
       </c>
       <c r="M10" s="137">
@@ -47528,19 +47563,19 @@
         <f t="shared" si="0"/>
         <v>60297.8</v>
       </c>
-      <c r="H11" s="705" t="s">
+      <c r="H11" s="704" t="s">
         <v>1125</v>
       </c>
-      <c r="I11" s="706">
+      <c r="I11" s="705">
         <v>9767</v>
       </c>
-      <c r="J11" s="707">
+      <c r="J11" s="706">
         <v>20290</v>
       </c>
-      <c r="K11" s="722">
+      <c r="K11" s="721">
         <v>44766</v>
       </c>
-      <c r="L11" s="724">
+      <c r="L11" s="723">
         <v>20290</v>
       </c>
       <c r="M11" s="137">
@@ -47564,19 +47599,19 @@
         <f t="shared" si="0"/>
         <v>105453.7</v>
       </c>
-      <c r="H12" s="705" t="s">
+      <c r="H12" s="704" t="s">
         <v>1126</v>
       </c>
-      <c r="I12" s="706">
+      <c r="I12" s="705">
         <v>9771</v>
       </c>
-      <c r="J12" s="707">
+      <c r="J12" s="706">
         <v>300</v>
       </c>
-      <c r="K12" s="722">
+      <c r="K12" s="721">
         <v>44766</v>
       </c>
-      <c r="L12" s="724">
+      <c r="L12" s="723">
         <v>300</v>
       </c>
       <c r="M12" s="137">
@@ -47600,19 +47635,19 @@
         <f t="shared" si="0"/>
         <v>65012.85</v>
       </c>
-      <c r="H13" s="705" t="s">
+      <c r="H13" s="704" t="s">
         <v>1127</v>
       </c>
-      <c r="I13" s="706">
+      <c r="I13" s="705">
         <v>9780</v>
       </c>
-      <c r="J13" s="707">
+      <c r="J13" s="706">
         <v>12180</v>
       </c>
-      <c r="K13" s="722">
+      <c r="K13" s="721">
         <v>44766</v>
       </c>
-      <c r="L13" s="724">
+      <c r="L13" s="723">
         <v>12180</v>
       </c>
       <c r="M13" s="137">
@@ -47636,19 +47671,19 @@
         <f t="shared" si="0"/>
         <v>83843.7</v>
       </c>
-      <c r="H14" s="705" t="s">
+      <c r="H14" s="704" t="s">
         <v>1128</v>
       </c>
-      <c r="I14" s="706">
+      <c r="I14" s="705">
         <v>9807</v>
       </c>
-      <c r="J14" s="707">
+      <c r="J14" s="706">
         <v>5600.2</v>
       </c>
-      <c r="K14" s="722">
+      <c r="K14" s="721">
         <v>44766</v>
       </c>
-      <c r="L14" s="724">
+      <c r="L14" s="723">
         <v>5600.2</v>
       </c>
       <c r="M14" s="137">
@@ -47672,19 +47707,19 @@
         <f t="shared" si="0"/>
         <v>11248</v>
       </c>
-      <c r="H15" s="705" t="s">
+      <c r="H15" s="704" t="s">
         <v>1128</v>
       </c>
-      <c r="I15" s="706">
+      <c r="I15" s="705">
         <v>9811</v>
       </c>
-      <c r="J15" s="707">
+      <c r="J15" s="706">
         <v>1830</v>
       </c>
-      <c r="K15" s="722">
+      <c r="K15" s="721">
         <v>44766</v>
       </c>
-      <c r="L15" s="724">
+      <c r="L15" s="723">
         <v>1830</v>
       </c>
       <c r="M15" s="137">
@@ -47708,19 +47743,19 @@
         <f t="shared" si="0"/>
         <v>30498.9</v>
       </c>
-      <c r="H16" s="705" t="s">
+      <c r="H16" s="704" t="s">
         <v>1129</v>
       </c>
-      <c r="I16" s="706">
+      <c r="I16" s="705">
         <v>9816</v>
       </c>
-      <c r="J16" s="707">
+      <c r="J16" s="706">
         <v>500</v>
       </c>
-      <c r="K16" s="722">
+      <c r="K16" s="721">
         <v>44766</v>
       </c>
-      <c r="L16" s="724">
+      <c r="L16" s="723">
         <v>500</v>
       </c>
       <c r="M16" s="137">
@@ -47744,19 +47779,19 @@
         <f t="shared" si="0"/>
         <v>4920</v>
       </c>
-      <c r="H17" s="705" t="s">
+      <c r="H17" s="704" t="s">
         <v>1130</v>
       </c>
-      <c r="I17" s="706">
+      <c r="I17" s="705">
         <v>9819</v>
       </c>
-      <c r="J17" s="707">
+      <c r="J17" s="706">
         <v>300</v>
       </c>
-      <c r="K17" s="722">
+      <c r="K17" s="721">
         <v>44766</v>
       </c>
-      <c r="L17" s="724">
+      <c r="L17" s="723">
         <v>300</v>
       </c>
       <c r="M17" s="137">
@@ -47780,19 +47815,19 @@
         <f t="shared" si="0"/>
         <v>97808.75</v>
       </c>
-      <c r="H18" s="705" t="s">
+      <c r="H18" s="704" t="s">
         <v>1131</v>
       </c>
-      <c r="I18" s="706">
+      <c r="I18" s="705">
         <v>9827</v>
       </c>
-      <c r="J18" s="707">
+      <c r="J18" s="706">
         <v>10437.4</v>
       </c>
-      <c r="K18" s="722">
+      <c r="K18" s="721">
         <v>44766</v>
       </c>
-      <c r="L18" s="724">
+      <c r="L18" s="723">
         <v>10437.4</v>
       </c>
       <c r="M18" s="137">
@@ -47816,19 +47851,19 @@
         <f t="shared" si="0"/>
         <v>70509.3</v>
       </c>
-      <c r="H19" s="705" t="s">
+      <c r="H19" s="704" t="s">
         <v>1132</v>
       </c>
-      <c r="I19" s="706">
+      <c r="I19" s="705">
         <v>9831</v>
       </c>
-      <c r="J19" s="707">
+      <c r="J19" s="706">
         <v>4367.8999999999996</v>
       </c>
-      <c r="K19" s="722">
+      <c r="K19" s="721">
         <v>44766</v>
       </c>
-      <c r="L19" s="724">
+      <c r="L19" s="723">
         <v>4367.8999999999996</v>
       </c>
       <c r="M19" s="137">
@@ -47852,19 +47887,19 @@
         <f t="shared" si="0"/>
         <v>72783.5</v>
       </c>
-      <c r="H20" s="705" t="s">
+      <c r="H20" s="704" t="s">
         <v>1133</v>
       </c>
-      <c r="I20" s="706">
+      <c r="I20" s="705">
         <v>9840</v>
       </c>
-      <c r="J20" s="707">
+      <c r="J20" s="706">
         <v>300</v>
       </c>
-      <c r="K20" s="722">
+      <c r="K20" s="721">
         <v>44766</v>
       </c>
-      <c r="L20" s="724">
+      <c r="L20" s="723">
         <v>300</v>
       </c>
       <c r="M20" s="137">
@@ -47888,19 +47923,19 @@
         <f t="shared" si="0"/>
         <v>40894.36</v>
       </c>
-      <c r="H21" s="705" t="s">
+      <c r="H21" s="704" t="s">
         <v>1134</v>
       </c>
-      <c r="I21" s="706">
+      <c r="I21" s="705">
         <v>9857</v>
       </c>
-      <c r="J21" s="707">
+      <c r="J21" s="706">
         <v>8199.4</v>
       </c>
-      <c r="K21" s="722">
+      <c r="K21" s="721">
         <v>44766</v>
       </c>
-      <c r="L21" s="724">
+      <c r="L21" s="723">
         <v>8199.4</v>
       </c>
       <c r="M21" s="137">
@@ -47925,19 +47960,19 @@
         <v>69612.42</v>
       </c>
       <c r="G22" s="644"/>
-      <c r="H22" s="705" t="s">
+      <c r="H22" s="704" t="s">
         <v>1135</v>
       </c>
-      <c r="I22" s="706">
+      <c r="I22" s="705">
         <v>9867</v>
       </c>
-      <c r="J22" s="707">
+      <c r="J22" s="706">
         <v>1520.4</v>
       </c>
-      <c r="K22" s="722">
+      <c r="K22" s="721">
         <v>44766</v>
       </c>
-      <c r="L22" s="724">
+      <c r="L22" s="723">
         <v>1520.4</v>
       </c>
       <c r="M22" s="137">
@@ -47962,13 +47997,13 @@
         <v>111046</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="705" t="s">
+      <c r="H23" s="704" t="s">
         <v>1136</v>
       </c>
-      <c r="I23" s="706">
+      <c r="I23" s="705">
         <v>9874</v>
       </c>
-      <c r="J23" s="707">
+      <c r="J23" s="706">
         <v>300</v>
       </c>
       <c r="K23" s="412"/>
@@ -47979,10 +48014,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="726">
+      <c r="A24" s="725">
         <v>44765</v>
       </c>
-      <c r="B24" s="727" t="s">
+      <c r="B24" s="726" t="s">
         <v>1091</v>
       </c>
       <c r="C24" s="583">
@@ -47995,13 +48030,13 @@
         <v>3984</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="705" t="s">
+      <c r="H24" s="704" t="s">
         <v>1137</v>
       </c>
-      <c r="I24" s="706">
+      <c r="I24" s="705">
         <v>9881</v>
       </c>
-      <c r="J24" s="707">
+      <c r="J24" s="706">
         <v>4003.3</v>
       </c>
       <c r="K24" s="412"/>
@@ -48028,13 +48063,13 @@
         <v>26094.639999999999</v>
       </c>
       <c r="G25" s="645"/>
-      <c r="H25" s="705" t="s">
+      <c r="H25" s="704" t="s">
         <v>1138</v>
       </c>
-      <c r="I25" s="706">
+      <c r="I25" s="705">
         <v>9891</v>
       </c>
-      <c r="J25" s="707">
+      <c r="J25" s="706">
         <v>300</v>
       </c>
       <c r="K25" s="412"/>
@@ -48061,13 +48096,13 @@
         <v>6990.16</v>
       </c>
       <c r="G26" s="645"/>
-      <c r="H26" s="705" t="s">
+      <c r="H26" s="704" t="s">
         <v>1139</v>
       </c>
-      <c r="I26" s="706">
+      <c r="I26" s="705">
         <v>9897</v>
       </c>
-      <c r="J26" s="707">
+      <c r="J26" s="706">
         <v>880</v>
       </c>
       <c r="K26" s="412"/>
@@ -48094,13 +48129,13 @@
         <v>97965.58</v>
       </c>
       <c r="G27" s="645"/>
-      <c r="H27" s="705" t="s">
+      <c r="H27" s="704" t="s">
         <v>1139</v>
       </c>
-      <c r="I27" s="706">
+      <c r="I27" s="705">
         <v>9898</v>
       </c>
-      <c r="J27" s="707">
+      <c r="J27" s="706">
         <v>2989.5</v>
       </c>
       <c r="K27" s="412"/>
@@ -48127,13 +48162,13 @@
         <v>10947.2</v>
       </c>
       <c r="G28" s="645"/>
-      <c r="H28" s="705" t="s">
+      <c r="H28" s="704" t="s">
         <v>1139</v>
       </c>
-      <c r="I28" s="706">
+      <c r="I28" s="705">
         <v>9902</v>
       </c>
-      <c r="J28" s="707">
+      <c r="J28" s="706">
         <v>300</v>
       </c>
       <c r="K28" s="412"/>
@@ -48160,13 +48195,13 @@
         <v>29495.85</v>
       </c>
       <c r="G29" s="645"/>
-      <c r="H29" s="705" t="s">
+      <c r="H29" s="704" t="s">
         <v>1140</v>
       </c>
-      <c r="I29" s="706">
+      <c r="I29" s="705">
         <v>9905</v>
       </c>
-      <c r="J29" s="707">
+      <c r="J29" s="706">
         <v>300</v>
       </c>
       <c r="K29" s="412"/>
@@ -48193,13 +48228,13 @@
         <v>9222</v>
       </c>
       <c r="G30" s="645"/>
-      <c r="H30" s="705" t="s">
+      <c r="H30" s="704" t="s">
         <v>1141</v>
       </c>
-      <c r="I30" s="706">
+      <c r="I30" s="705">
         <v>9919</v>
       </c>
-      <c r="J30" s="707">
+      <c r="J30" s="706">
         <v>440</v>
       </c>
       <c r="K30" s="412"/>
@@ -48226,13 +48261,13 @@
         <v>73071.5</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="705" t="s">
+      <c r="H31" s="704" t="s">
         <v>1142</v>
       </c>
-      <c r="I31" s="706">
+      <c r="I31" s="705">
         <v>9929</v>
       </c>
-      <c r="J31" s="707">
+      <c r="J31" s="706">
         <v>500</v>
       </c>
       <c r="K31" s="412"/>
@@ -48259,9 +48294,9 @@
         <v>78511.600000000006</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="705"/>
-      <c r="I32" s="706"/>
-      <c r="J32" s="707"/>
+      <c r="H32" s="704"/>
+      <c r="I32" s="705"/>
+      <c r="J32" s="706"/>
       <c r="K32" s="412"/>
       <c r="L32" s="111"/>
       <c r="M32" s="137">
@@ -48279,9 +48314,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="705"/>
-      <c r="I33" s="706"/>
-      <c r="J33" s="707"/>
+      <c r="H33" s="704"/>
+      <c r="I33" s="705"/>
+      <c r="J33" s="706"/>
       <c r="K33" s="412"/>
       <c r="L33" s="111"/>
       <c r="M33" s="137">
@@ -48299,9 +48334,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="705"/>
-      <c r="I34" s="706"/>
-      <c r="J34" s="707"/>
+      <c r="H34" s="704"/>
+      <c r="I34" s="705"/>
+      <c r="J34" s="706"/>
       <c r="K34" s="412"/>
       <c r="L34" s="111"/>
       <c r="M34" s="137">
@@ -48319,9 +48354,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="705"/>
-      <c r="I35" s="706"/>
-      <c r="J35" s="707"/>
+      <c r="H35" s="704"/>
+      <c r="I35" s="705"/>
+      <c r="J35" s="706"/>
       <c r="K35" s="412"/>
       <c r="L35" s="111"/>
       <c r="M35" s="137">
@@ -48339,9 +48374,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="705"/>
-      <c r="I36" s="706"/>
-      <c r="J36" s="707"/>
+      <c r="H36" s="704"/>
+      <c r="I36" s="705"/>
+      <c r="J36" s="706"/>
       <c r="K36" s="412"/>
       <c r="L36" s="111"/>
       <c r="M36" s="137">
@@ -48359,9 +48394,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="705"/>
-      <c r="I37" s="706"/>
-      <c r="J37" s="707"/>
+      <c r="H37" s="704"/>
+      <c r="I37" s="705"/>
+      <c r="J37" s="706"/>
       <c r="K37" s="412"/>
       <c r="L37" s="111"/>
       <c r="M37" s="137">
@@ -48379,9 +48414,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="705"/>
-      <c r="I38" s="706"/>
-      <c r="J38" s="707"/>
+      <c r="H38" s="704"/>
+      <c r="I38" s="705"/>
+      <c r="J38" s="706"/>
       <c r="K38" s="412"/>
       <c r="L38" s="111"/>
       <c r="M38" s="137">
@@ -48419,10 +48454,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="833" t="s">
+      <c r="H40" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="834"/>
+      <c r="I40" s="840"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -48441,8 +48476,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="835"/>
-      <c r="I41" s="836"/>
+      <c r="H41" s="841"/>
+      <c r="I41" s="842"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -48461,8 +48496,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="837"/>
-      <c r="I42" s="838"/>
+      <c r="H42" s="843"/>
+      <c r="I42" s="844"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -48966,15 +49001,15 @@
         <f>SUM(F3:F66)</f>
         <v>1727771.26</v>
       </c>
-      <c r="H67" s="829" t="s">
+      <c r="H67" s="835" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="830"/>
+      <c r="I67" s="836"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
       </c>
-      <c r="K67" s="714"/>
+      <c r="K67" s="713"/>
       <c r="L67" s="209">
         <f>SUM(L3:L66)</f>
         <v>118164.69999999997</v>
@@ -48989,11 +49024,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="791" t="s">
+      <c r="F68" s="797" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="831"/>
-      <c r="I68" s="832"/>
+      <c r="H68" s="837"/>
+      <c r="I68" s="838"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49004,7 +49039,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="792"/>
+      <c r="F69" s="798"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -49596,8 +49631,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49622,24 +49657,24 @@
     <col min="18" max="18" width="15.28515625" style="227" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>1144</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49648,29 +49683,29 @@
       <c r="M2" s="6"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+    <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -49681,14 +49716,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49698,13 +49733,13 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
-    </row>
-    <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="800"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
@@ -49739,7 +49774,7 @@
       <c r="N5" s="33">
         <v>62130</v>
       </c>
-      <c r="O5" s="877" t="s">
+      <c r="O5" s="730" t="s">
         <v>939</v>
       </c>
       <c r="P5" s="34">
@@ -49754,7 +49789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="24">
         <v>44775</v>
@@ -49802,142 +49837,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="24">
         <v>44776</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="25">
+        <v>22217</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>1147</v>
+      </c>
       <c r="E7" s="27">
         <v>44776</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>118970</v>
+      </c>
       <c r="G7" s="572"/>
       <c r="H7" s="29">
         <v>44776</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>2177</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <v>45403</v>
       </c>
       <c r="N7" s="33">
-        <v>0</v>
+        <v>50819</v>
+      </c>
+      <c r="O7" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P7" s="39">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>120616</v>
       </c>
       <c r="Q7" s="325">
         <v>0</v>
       </c>
-      <c r="R7" s="319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R7" s="388">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="24">
         <v>44777</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="25">
+        <v>7307</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>1149</v>
+      </c>
       <c r="E8" s="27">
         <v>44777</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>121211</v>
+      </c>
       <c r="G8" s="572"/>
       <c r="H8" s="29">
         <v>44777</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>2459</v>
+      </c>
       <c r="J8" s="43"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <v>156941</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>29250</v>
+      </c>
+      <c r="O8" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P8" s="39">
         <f t="shared" ref="P8:P33" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>195957</v>
       </c>
       <c r="Q8" s="325">
         <v>0</v>
       </c>
-      <c r="R8" s="319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R8" s="388">
+        <v>74746</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="24">
         <v>44778</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="25">
+        <v>13782</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="E9" s="27">
         <v>44778</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>136795</v>
+      </c>
       <c r="G9" s="572"/>
       <c r="H9" s="29">
         <v>44778</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>2786</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <f>72825+500</f>
+        <v>73325</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>46902</v>
+      </c>
+      <c r="O9" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P9" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136795</v>
       </c>
       <c r="Q9" s="325">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="319">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24">
         <v>44779</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="25">
+        <v>15115</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>1151</v>
+      </c>
       <c r="E10" s="27">
         <v>44779</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>150888</v>
+      </c>
       <c r="G10" s="572"/>
       <c r="H10" s="29">
         <v>44779</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="30">
+        <v>11535</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44779</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L10" s="45">
+        <v>17752</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <v>33319</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>73167</v>
+      </c>
+      <c r="O10" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>150888</v>
       </c>
       <c r="Q10" s="325">
         <f t="shared" si="0"/>
@@ -49947,34 +50037,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <v>44780</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="25">
+        <v>7874</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>1153</v>
+      </c>
       <c r="E11" s="27">
         <v>44780</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>88541</v>
+      </c>
       <c r="G11" s="572"/>
       <c r="H11" s="29">
         <v>44780</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>2678</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <v>44630</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>33359</v>
+      </c>
+      <c r="O11" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>88541</v>
       </c>
       <c r="Q11" s="325">
         <f t="shared" si="0"/>
@@ -49984,34 +50085,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
       <c r="B12" s="24">
         <v>44781</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="25">
+        <v>26522</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>1154</v>
+      </c>
       <c r="E12" s="27">
         <v>44781</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>110315</v>
+      </c>
       <c r="G12" s="572"/>
       <c r="H12" s="29">
         <v>44781</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>1627</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <v>47182</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>34984</v>
+      </c>
+      <c r="O12" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110315</v>
       </c>
       <c r="Q12" s="325">
         <f t="shared" si="0"/>
@@ -50021,34 +50133,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23"/>
       <c r="B13" s="24">
         <v>44782</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="25">
+        <v>18936</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>1155</v>
+      </c>
       <c r="E13" s="27">
         <v>44782</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>117529</v>
+      </c>
       <c r="G13" s="572"/>
       <c r="H13" s="29">
         <v>44782</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>1003</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <v>54684</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>42906</v>
+      </c>
+      <c r="O13" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117529</v>
       </c>
       <c r="Q13" s="325">
         <f t="shared" si="0"/>
@@ -50058,35 +50181,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="24">
         <v>44783</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="25">
+        <v>20568</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>330</v>
+      </c>
       <c r="E14" s="27">
         <v>44783</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>104010</v>
+      </c>
       <c r="G14" s="572"/>
       <c r="H14" s="29">
         <v>44783</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>2073</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <v>40412</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="878"/>
+        <v>40957</v>
+      </c>
+      <c r="O14" s="731" t="s">
+        <v>939</v>
+      </c>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104010</v>
       </c>
       <c r="Q14" s="325">
         <f t="shared" si="0"/>
@@ -50096,7 +50229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23"/>
       <c r="B15" s="24">
         <v>44784</v>
@@ -50133,7 +50266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23"/>
       <c r="B16" s="24">
         <v>44785</v>
@@ -50343,7 +50476,7 @@
       <c r="N21" s="33">
         <v>0</v>
       </c>
-      <c r="O21" s="879"/>
+      <c r="O21" s="732"/>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50521,8 +50654,8 @@
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="875"/>
-      <c r="L26" s="876"/>
+      <c r="K26" s="728"/>
+      <c r="L26" s="729"/>
       <c r="M26" s="32">
         <v>0</v>
       </c>
@@ -50843,7 +50976,7 @@
       <c r="B35" s="24">
         <v>44804</v>
       </c>
-      <c r="C35" s="691"/>
+      <c r="C35" s="690"/>
       <c r="D35" s="67"/>
       <c r="E35" s="27">
         <v>44804</v>
@@ -50879,8 +51012,8 @@
       <c r="B36" s="24">
         <v>44805</v>
       </c>
-      <c r="C36" s="694"/>
-      <c r="D36" s="697"/>
+      <c r="C36" s="693"/>
+      <c r="D36" s="696"/>
       <c r="E36" s="27">
         <v>44805</v>
       </c>
@@ -50891,7 +51024,7 @@
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="557"/>
-      <c r="K36" s="689"/>
+      <c r="K36" s="688"/>
       <c r="L36" s="9"/>
       <c r="M36" s="32">
         <v>0</v>
@@ -50915,8 +51048,8 @@
       <c r="B37" s="24">
         <v>44806</v>
       </c>
-      <c r="C37" s="693"/>
-      <c r="D37" s="696"/>
+      <c r="C37" s="692"/>
+      <c r="D37" s="695"/>
       <c r="E37" s="27">
         <v>44806</v>
       </c>
@@ -50950,8 +51083,8 @@
       <c r="B38" s="24">
         <v>44807</v>
       </c>
-      <c r="C38" s="693"/>
-      <c r="D38" s="696"/>
+      <c r="C38" s="692"/>
+      <c r="D38" s="695"/>
       <c r="E38" s="27">
         <v>44807</v>
       </c>
@@ -50986,8 +51119,8 @@
       <c r="B39" s="24">
         <v>44808</v>
       </c>
-      <c r="C39" s="693"/>
-      <c r="D39" s="696"/>
+      <c r="C39" s="692"/>
+      <c r="D39" s="695"/>
       <c r="E39" s="27">
         <v>44808</v>
       </c>
@@ -51020,8 +51153,8 @@
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="693"/>
-      <c r="D40" s="697"/>
+      <c r="C40" s="692"/>
+      <c r="D40" s="696"/>
       <c r="E40" s="27"/>
       <c r="F40" s="70"/>
       <c r="G40" s="572"/>
@@ -51050,29 +51183,35 @@
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="693"/>
-      <c r="D41" s="698"/>
+      <c r="C41" s="692"/>
+      <c r="D41" s="697"/>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
       <c r="G41" s="572"/>
       <c r="H41" s="76"/>
       <c r="I41" s="77"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="661"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="785">
+      <c r="J41" s="56">
+        <v>44779</v>
+      </c>
+      <c r="K41" s="661" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L41" s="39">
+        <v>15889</v>
+      </c>
+      <c r="M41" s="780">
         <f>SUM(M5:M40)</f>
-        <v>144120</v>
-      </c>
-      <c r="N41" s="785">
+        <v>640016</v>
+      </c>
+      <c r="N41" s="780">
         <f>SUM(N5:N40)</f>
-        <v>101476</v>
+        <v>453820</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>297553</v>
-      </c>
-      <c r="Q41" s="839">
+        <v>1322204</v>
+      </c>
+      <c r="Q41" s="845">
         <f>SUM(Q5:Q40)</f>
         <v>0</v>
       </c>
@@ -51080,26 +51219,26 @@
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="693"/>
-      <c r="D42" s="698"/>
+      <c r="C42" s="692"/>
+      <c r="D42" s="697"/>
       <c r="E42" s="74"/>
       <c r="F42" s="75"/>
       <c r="G42" s="572"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="699"/>
-      <c r="K42" s="702"/>
-      <c r="L42" s="703"/>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="J42" s="698"/>
+      <c r="K42" s="701"/>
+      <c r="L42" s="702"/>
+      <c r="M42" s="781"/>
+      <c r="N42" s="781"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="840"/>
+      <c r="Q42" s="846"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="693"/>
-      <c r="D43" s="698"/>
+      <c r="C43" s="692"/>
+      <c r="D43" s="697"/>
       <c r="E43" s="74"/>
       <c r="F43" s="75"/>
       <c r="G43" s="572"/>
@@ -51108,16 +51247,16 @@
       <c r="J43" s="56"/>
       <c r="K43" s="38"/>
       <c r="L43" s="39"/>
-      <c r="M43" s="728"/>
-      <c r="N43" s="728"/>
+      <c r="M43" s="727"/>
+      <c r="N43" s="727"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="13"/>
     </row>
     <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
-      <c r="C44" s="693"/>
-      <c r="D44" s="698"/>
+      <c r="C44" s="692"/>
+      <c r="D44" s="697"/>
       <c r="E44" s="74"/>
       <c r="F44" s="75"/>
       <c r="G44" s="572"/>
@@ -51126,15 +51265,15 @@
       <c r="J44" s="56"/>
       <c r="K44" s="38"/>
       <c r="L44" s="39"/>
-      <c r="M44" s="728"/>
-      <c r="N44" s="728"/>
+      <c r="M44" s="727"/>
+      <c r="N44" s="727"/>
       <c r="P44" s="34"/>
       <c r="Q44" s="13"/>
     </row>
     <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="693"/>
+      <c r="C45" s="692"/>
       <c r="D45" s="73"/>
       <c r="E45" s="74"/>
       <c r="F45" s="75"/>
@@ -51144,18 +51283,18 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="841">
+      <c r="M45" s="847">
         <f>M41+N41</f>
-        <v>245596</v>
-      </c>
-      <c r="N45" s="842"/>
+        <v>1093836</v>
+      </c>
+      <c r="N45" s="848"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
     <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="693"/>
+      <c r="C46" s="692"/>
       <c r="D46" s="73"/>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
@@ -51165,15 +51304,15 @@
       <c r="J46" s="56"/>
       <c r="K46" s="38"/>
       <c r="L46" s="39"/>
-      <c r="M46" s="728"/>
-      <c r="N46" s="728"/>
+      <c r="M46" s="727"/>
+      <c r="N46" s="727"/>
       <c r="P46" s="34"/>
       <c r="Q46" s="13"/>
     </row>
     <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="693"/>
+      <c r="C47" s="692"/>
       <c r="D47" s="73"/>
       <c r="E47" s="74"/>
       <c r="F47" s="75"/>
@@ -51183,15 +51322,15 @@
       <c r="J47" s="56"/>
       <c r="K47" s="38"/>
       <c r="L47" s="39"/>
-      <c r="M47" s="728"/>
-      <c r="N47" s="728"/>
+      <c r="M47" s="727"/>
+      <c r="N47" s="727"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="13"/>
     </row>
     <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="693"/>
+      <c r="C48" s="692"/>
       <c r="D48" s="73"/>
       <c r="E48" s="74"/>
       <c r="F48" s="75"/>
@@ -51201,15 +51340,15 @@
       <c r="J48" s="56"/>
       <c r="K48" s="38"/>
       <c r="L48" s="39"/>
-      <c r="M48" s="728"/>
-      <c r="N48" s="728"/>
+      <c r="M48" s="727"/>
+      <c r="N48" s="727"/>
       <c r="P48" s="34"/>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="693"/>
+      <c r="C49" s="692"/>
       <c r="D49" s="73"/>
       <c r="E49" s="74"/>
       <c r="F49" s="75"/>
@@ -51219,15 +51358,15 @@
       <c r="J49" s="601"/>
       <c r="K49" s="38"/>
       <c r="L49" s="69"/>
-      <c r="M49" s="728"/>
-      <c r="N49" s="728"/>
+      <c r="M49" s="727"/>
+      <c r="N49" s="727"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="13"/>
     </row>
     <row r="50" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="693"/>
+      <c r="C50" s="692"/>
       <c r="D50" s="73"/>
       <c r="E50" s="74"/>
       <c r="F50" s="75"/>
@@ -51237,15 +51376,15 @@
       <c r="J50" s="601"/>
       <c r="K50" s="38"/>
       <c r="L50" s="69"/>
-      <c r="M50" s="728"/>
-      <c r="N50" s="728"/>
+      <c r="M50" s="727"/>
+      <c r="N50" s="727"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="13"/>
     </row>
     <row r="51" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="693"/>
+      <c r="C51" s="692"/>
       <c r="D51" s="73"/>
       <c r="E51" s="74"/>
       <c r="F51" s="75"/>
@@ -51255,15 +51394,15 @@
       <c r="J51" s="601"/>
       <c r="K51" s="38"/>
       <c r="L51" s="69"/>
-      <c r="M51" s="728"/>
-      <c r="N51" s="728"/>
+      <c r="M51" s="727"/>
+      <c r="N51" s="727"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="693"/>
+      <c r="C52" s="692"/>
       <c r="D52" s="73"/>
       <c r="E52" s="74"/>
       <c r="F52" s="75"/>
@@ -51273,15 +51412,15 @@
       <c r="J52" s="601"/>
       <c r="K52" s="38"/>
       <c r="L52" s="69"/>
-      <c r="M52" s="728"/>
-      <c r="N52" s="728"/>
+      <c r="M52" s="727"/>
+      <c r="N52" s="727"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="693"/>
+      <c r="C53" s="692"/>
       <c r="D53" s="73"/>
       <c r="E53" s="74"/>
       <c r="F53" s="75"/>
@@ -51291,15 +51430,15 @@
       <c r="J53" s="601"/>
       <c r="K53" s="38"/>
       <c r="L53" s="69"/>
-      <c r="M53" s="728"/>
-      <c r="N53" s="728"/>
+      <c r="M53" s="727"/>
+      <c r="N53" s="727"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
-      <c r="C54" s="695"/>
+      <c r="C54" s="694"/>
       <c r="D54" s="73"/>
       <c r="E54" s="74"/>
       <c r="F54" s="75"/>
@@ -51309,15 +51448,15 @@
       <c r="J54" s="601"/>
       <c r="K54" s="38"/>
       <c r="L54" s="69"/>
-      <c r="M54" s="728"/>
-      <c r="N54" s="728"/>
+      <c r="M54" s="727"/>
+      <c r="N54" s="727"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="13"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="692"/>
+      <c r="C55" s="691"/>
       <c r="D55" s="73"/>
       <c r="E55" s="74"/>
       <c r="F55" s="75"/>
@@ -51327,8 +51466,8 @@
       <c r="J55" s="601"/>
       <c r="K55" s="38"/>
       <c r="L55" s="69"/>
-      <c r="M55" s="728"/>
-      <c r="N55" s="728"/>
+      <c r="M55" s="727"/>
+      <c r="N55" s="727"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="13"/>
     </row>
@@ -51345,8 +51484,8 @@
       <c r="J56" s="601"/>
       <c r="K56" s="38"/>
       <c r="L56" s="69"/>
-      <c r="M56" s="728"/>
-      <c r="N56" s="728"/>
+      <c r="M56" s="727"/>
+      <c r="N56" s="727"/>
       <c r="P56" s="34"/>
       <c r="Q56" s="13"/>
     </row>
@@ -51363,8 +51502,8 @@
       <c r="J57" s="601"/>
       <c r="K57" s="38"/>
       <c r="L57" s="69"/>
-      <c r="M57" s="728"/>
-      <c r="N57" s="728"/>
+      <c r="M57" s="727"/>
+      <c r="N57" s="727"/>
       <c r="P57" s="34"/>
       <c r="Q57" s="13"/>
     </row>
@@ -51378,11 +51517,11 @@
       <c r="G58" s="572"/>
       <c r="H58" s="76"/>
       <c r="I58" s="77"/>
-      <c r="J58" s="700"/>
+      <c r="J58" s="699"/>
       <c r="K58" s="623"/>
-      <c r="L58" s="704"/>
-      <c r="M58" s="728"/>
-      <c r="N58" s="728"/>
+      <c r="L58" s="703"/>
+      <c r="M58" s="727"/>
+      <c r="N58" s="727"/>
       <c r="P58" s="34"/>
       <c r="Q58" s="13"/>
     </row>
@@ -51397,10 +51536,10 @@
       <c r="H59" s="76"/>
       <c r="I59" s="77"/>
       <c r="J59" s="466"/>
-      <c r="K59" s="701"/>
+      <c r="K59" s="700"/>
       <c r="L59" s="54"/>
-      <c r="M59" s="728"/>
-      <c r="N59" s="728"/>
+      <c r="M59" s="727"/>
+      <c r="N59" s="727"/>
       <c r="P59" s="34"/>
       <c r="Q59" s="13"/>
     </row>
@@ -51531,7 +51670,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>47534</v>
+        <v>179855</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -51539,7 +51678,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>297553</v>
+        <v>1245812</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -51547,7 +51686,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>4423</v>
+        <v>30761</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -51555,7 +51694,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>0</v>
+        <v>33641</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -51573,50 +51712,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="740" t="s">
+      <c r="H69" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="741"/>
+      <c r="I69" s="758"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="864">
+      <c r="K69" s="873">
         <f>I67+L67</f>
-        <v>4423</v>
-      </c>
-      <c r="L69" s="865"/>
+        <v>64402</v>
+      </c>
+      <c r="L69" s="874"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="746" t="s">
+      <c r="D70" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="746"/>
+      <c r="E70" s="763"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>245596</v>
+        <v>1001555</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="776" t="s">
+      <c r="D71" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="776"/>
+      <c r="E71" s="787"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="747" t="s">
+      <c r="I71" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="748"/>
-      <c r="K71" s="749">
+      <c r="J71" s="765"/>
+      <c r="K71" s="766">
         <f>F73+F74+F75</f>
-        <v>245596</v>
-      </c>
-      <c r="L71" s="749"/>
+        <v>1001555</v>
+      </c>
+      <c r="L71" s="766"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -51650,18 +51789,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>245596</v>
+        <v>1001555</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="866">
+      <c r="K73" s="869">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="749"/>
+      <c r="L73" s="766"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -51676,22 +51815,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="729" t="s">
+      <c r="D75" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="730"/>
+      <c r="E75" s="747"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="861" t="s">
+      <c r="I75" s="870" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="862"/>
-      <c r="K75" s="863">
+      <c r="J75" s="871"/>
+      <c r="K75" s="872">
         <f>K71+K73</f>
-        <v>-2029057.0899999999</v>
-      </c>
-      <c r="L75" s="863"/>
+        <v>-1273098.0899999999</v>
+      </c>
+      <c r="L75" s="872"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -51835,28 +51974,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51963,11 +52102,11 @@
         <f>C3-E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="705"/>
-      <c r="I3" s="706"/>
-      <c r="J3" s="707"/>
-      <c r="K3" s="880"/>
-      <c r="L3" s="707"/>
+      <c r="H3" s="704"/>
+      <c r="I3" s="705"/>
+      <c r="J3" s="706"/>
+      <c r="K3" s="733"/>
+      <c r="L3" s="706"/>
       <c r="M3" s="183">
         <f>J3-L3</f>
         <v>0</v>
@@ -51984,11 +52123,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="H4" s="705"/>
-      <c r="I4" s="706"/>
-      <c r="J4" s="707"/>
-      <c r="K4" s="880"/>
-      <c r="L4" s="707"/>
+      <c r="H4" s="704"/>
+      <c r="I4" s="705"/>
+      <c r="J4" s="706"/>
+      <c r="K4" s="733"/>
+      <c r="L4" s="706"/>
       <c r="M4" s="137">
         <f>M3+J4-L4</f>
         <v>0</v>
@@ -52004,11 +52143,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="705"/>
-      <c r="I5" s="706"/>
-      <c r="J5" s="707"/>
-      <c r="K5" s="880"/>
-      <c r="L5" s="707"/>
+      <c r="H5" s="704"/>
+      <c r="I5" s="705"/>
+      <c r="J5" s="706"/>
+      <c r="K5" s="733"/>
+      <c r="L5" s="706"/>
       <c r="M5" s="137">
         <f t="shared" ref="M5:M65" si="1">M4+J5-L5</f>
         <v>0</v>
@@ -52024,11 +52163,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="705"/>
-      <c r="I6" s="706"/>
-      <c r="J6" s="707"/>
-      <c r="K6" s="880"/>
-      <c r="L6" s="707"/>
+      <c r="H6" s="704"/>
+      <c r="I6" s="705"/>
+      <c r="J6" s="706"/>
+      <c r="K6" s="733"/>
+      <c r="L6" s="706"/>
       <c r="M6" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52044,11 +52183,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="705"/>
-      <c r="I7" s="706"/>
-      <c r="J7" s="707"/>
-      <c r="K7" s="880"/>
-      <c r="L7" s="707"/>
+      <c r="H7" s="704"/>
+      <c r="I7" s="705"/>
+      <c r="J7" s="706"/>
+      <c r="K7" s="733"/>
+      <c r="L7" s="706"/>
       <c r="M7" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52064,11 +52203,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="705"/>
-      <c r="I8" s="706"/>
-      <c r="J8" s="707"/>
-      <c r="K8" s="880"/>
-      <c r="L8" s="707"/>
+      <c r="H8" s="704"/>
+      <c r="I8" s="705"/>
+      <c r="J8" s="706"/>
+      <c r="K8" s="733"/>
+      <c r="L8" s="706"/>
       <c r="M8" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52084,11 +52223,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="705"/>
-      <c r="I9" s="706"/>
-      <c r="J9" s="707"/>
-      <c r="K9" s="880"/>
-      <c r="L9" s="707"/>
+      <c r="H9" s="704"/>
+      <c r="I9" s="705"/>
+      <c r="J9" s="706"/>
+      <c r="K9" s="733"/>
+      <c r="L9" s="706"/>
       <c r="M9" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52105,11 +52244,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="H10" s="705"/>
-      <c r="I10" s="706"/>
-      <c r="J10" s="707"/>
-      <c r="K10" s="880"/>
-      <c r="L10" s="707"/>
+      <c r="H10" s="704"/>
+      <c r="I10" s="705"/>
+      <c r="J10" s="706"/>
+      <c r="K10" s="733"/>
+      <c r="L10" s="706"/>
       <c r="M10" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52125,11 +52264,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="705"/>
-      <c r="I11" s="706"/>
-      <c r="J11" s="707"/>
-      <c r="K11" s="880"/>
-      <c r="L11" s="707"/>
+      <c r="H11" s="704"/>
+      <c r="I11" s="705"/>
+      <c r="J11" s="706"/>
+      <c r="K11" s="733"/>
+      <c r="L11" s="706"/>
       <c r="M11" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52145,11 +52284,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="705"/>
-      <c r="I12" s="706"/>
-      <c r="J12" s="707"/>
-      <c r="K12" s="880"/>
-      <c r="L12" s="707"/>
+      <c r="H12" s="704"/>
+      <c r="I12" s="705"/>
+      <c r="J12" s="706"/>
+      <c r="K12" s="733"/>
+      <c r="L12" s="706"/>
       <c r="M12" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52165,11 +52304,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="705"/>
-      <c r="I13" s="706"/>
-      <c r="J13" s="707"/>
-      <c r="K13" s="880"/>
-      <c r="L13" s="707"/>
+      <c r="H13" s="704"/>
+      <c r="I13" s="705"/>
+      <c r="J13" s="706"/>
+      <c r="K13" s="733"/>
+      <c r="L13" s="706"/>
       <c r="M13" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52185,11 +52324,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="705"/>
-      <c r="I14" s="706"/>
-      <c r="J14" s="707"/>
-      <c r="K14" s="880"/>
-      <c r="L14" s="707"/>
+      <c r="H14" s="704"/>
+      <c r="I14" s="705"/>
+      <c r="J14" s="706"/>
+      <c r="K14" s="733"/>
+      <c r="L14" s="706"/>
       <c r="M14" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52205,11 +52344,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="705"/>
-      <c r="I15" s="706"/>
-      <c r="J15" s="707"/>
-      <c r="K15" s="880"/>
-      <c r="L15" s="707"/>
+      <c r="H15" s="704"/>
+      <c r="I15" s="705"/>
+      <c r="J15" s="706"/>
+      <c r="K15" s="733"/>
+      <c r="L15" s="706"/>
       <c r="M15" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52225,11 +52364,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="705"/>
-      <c r="I16" s="706"/>
-      <c r="J16" s="707"/>
-      <c r="K16" s="880"/>
-      <c r="L16" s="707"/>
+      <c r="H16" s="704"/>
+      <c r="I16" s="705"/>
+      <c r="J16" s="706"/>
+      <c r="K16" s="733"/>
+      <c r="L16" s="706"/>
       <c r="M16" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52245,11 +52384,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="705"/>
-      <c r="I17" s="706"/>
-      <c r="J17" s="707"/>
-      <c r="K17" s="880"/>
-      <c r="L17" s="707"/>
+      <c r="H17" s="704"/>
+      <c r="I17" s="705"/>
+      <c r="J17" s="706"/>
+      <c r="K17" s="733"/>
+      <c r="L17" s="706"/>
       <c r="M17" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52265,11 +52404,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="705"/>
-      <c r="I18" s="706"/>
-      <c r="J18" s="707"/>
-      <c r="K18" s="880"/>
-      <c r="L18" s="707"/>
+      <c r="H18" s="704"/>
+      <c r="I18" s="705"/>
+      <c r="J18" s="706"/>
+      <c r="K18" s="733"/>
+      <c r="L18" s="706"/>
       <c r="M18" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52285,11 +52424,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="705"/>
-      <c r="I19" s="706"/>
-      <c r="J19" s="707"/>
-      <c r="K19" s="880"/>
-      <c r="L19" s="707"/>
+      <c r="H19" s="704"/>
+      <c r="I19" s="705"/>
+      <c r="J19" s="706"/>
+      <c r="K19" s="733"/>
+      <c r="L19" s="706"/>
       <c r="M19" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52305,11 +52444,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="705"/>
-      <c r="I20" s="706"/>
-      <c r="J20" s="707"/>
-      <c r="K20" s="880"/>
-      <c r="L20" s="707"/>
+      <c r="H20" s="704"/>
+      <c r="I20" s="705"/>
+      <c r="J20" s="706"/>
+      <c r="K20" s="733"/>
+      <c r="L20" s="706"/>
       <c r="M20" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52325,11 +52464,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="705"/>
-      <c r="I21" s="706"/>
-      <c r="J21" s="707"/>
-      <c r="K21" s="880"/>
-      <c r="L21" s="707"/>
+      <c r="H21" s="704"/>
+      <c r="I21" s="705"/>
+      <c r="J21" s="706"/>
+      <c r="K21" s="733"/>
+      <c r="L21" s="706"/>
       <c r="M21" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52346,11 +52485,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="644"/>
-      <c r="H22" s="705"/>
-      <c r="I22" s="706"/>
-      <c r="J22" s="707"/>
-      <c r="K22" s="880"/>
-      <c r="L22" s="707"/>
+      <c r="H22" s="704"/>
+      <c r="I22" s="705"/>
+      <c r="J22" s="706"/>
+      <c r="K22" s="733"/>
+      <c r="L22" s="706"/>
       <c r="M22" s="137">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -52367,9 +52506,9 @@
         <v>0</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="705"/>
-      <c r="I23" s="706"/>
-      <c r="J23" s="707"/>
+      <c r="H23" s="704"/>
+      <c r="I23" s="705"/>
+      <c r="J23" s="706"/>
       <c r="K23" s="412"/>
       <c r="L23" s="111"/>
       <c r="M23" s="137">
@@ -52388,9 +52527,9 @@
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="705"/>
-      <c r="I24" s="706"/>
-      <c r="J24" s="707"/>
+      <c r="H24" s="704"/>
+      <c r="I24" s="705"/>
+      <c r="J24" s="706"/>
       <c r="K24" s="412"/>
       <c r="L24" s="111"/>
       <c r="M24" s="137">
@@ -52409,9 +52548,9 @@
         <v>0</v>
       </c>
       <c r="G25" s="645"/>
-      <c r="H25" s="705"/>
-      <c r="I25" s="706"/>
-      <c r="J25" s="707"/>
+      <c r="H25" s="704"/>
+      <c r="I25" s="705"/>
+      <c r="J25" s="706"/>
       <c r="K25" s="412"/>
       <c r="L25" s="111"/>
       <c r="M25" s="137">
@@ -52430,9 +52569,9 @@
         <v>0</v>
       </c>
       <c r="G26" s="645"/>
-      <c r="H26" s="705"/>
-      <c r="I26" s="706"/>
-      <c r="J26" s="707"/>
+      <c r="H26" s="704"/>
+      <c r="I26" s="705"/>
+      <c r="J26" s="706"/>
       <c r="K26" s="412"/>
       <c r="L26" s="111"/>
       <c r="M26" s="137">
@@ -52451,9 +52590,9 @@
         <v>0</v>
       </c>
       <c r="G27" s="645"/>
-      <c r="H27" s="705"/>
-      <c r="I27" s="706"/>
-      <c r="J27" s="707"/>
+      <c r="H27" s="704"/>
+      <c r="I27" s="705"/>
+      <c r="J27" s="706"/>
       <c r="K27" s="412"/>
       <c r="L27" s="111"/>
       <c r="M27" s="137">
@@ -52472,9 +52611,9 @@
         <v>0</v>
       </c>
       <c r="G28" s="645"/>
-      <c r="H28" s="705"/>
-      <c r="I28" s="706"/>
-      <c r="J28" s="707"/>
+      <c r="H28" s="704"/>
+      <c r="I28" s="705"/>
+      <c r="J28" s="706"/>
       <c r="K28" s="412"/>
       <c r="L28" s="111"/>
       <c r="M28" s="137">
@@ -52493,9 +52632,9 @@
         <v>0</v>
       </c>
       <c r="G29" s="645"/>
-      <c r="H29" s="705"/>
-      <c r="I29" s="706"/>
-      <c r="J29" s="707"/>
+      <c r="H29" s="704"/>
+      <c r="I29" s="705"/>
+      <c r="J29" s="706"/>
       <c r="K29" s="412"/>
       <c r="L29" s="111"/>
       <c r="M29" s="137">
@@ -52514,9 +52653,9 @@
         <v>0</v>
       </c>
       <c r="G30" s="645"/>
-      <c r="H30" s="705"/>
-      <c r="I30" s="706"/>
-      <c r="J30" s="707"/>
+      <c r="H30" s="704"/>
+      <c r="I30" s="705"/>
+      <c r="J30" s="706"/>
       <c r="K30" s="412"/>
       <c r="L30" s="111"/>
       <c r="M30" s="137">
@@ -52535,9 +52674,9 @@
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="705"/>
-      <c r="I31" s="706"/>
-      <c r="J31" s="707"/>
+      <c r="H31" s="704"/>
+      <c r="I31" s="705"/>
+      <c r="J31" s="706"/>
       <c r="K31" s="412"/>
       <c r="L31" s="111"/>
       <c r="M31" s="137">
@@ -52556,9 +52695,9 @@
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="705"/>
-      <c r="I32" s="706"/>
-      <c r="J32" s="707"/>
+      <c r="H32" s="704"/>
+      <c r="I32" s="705"/>
+      <c r="J32" s="706"/>
       <c r="K32" s="412"/>
       <c r="L32" s="111"/>
       <c r="M32" s="137">
@@ -52576,9 +52715,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="705"/>
-      <c r="I33" s="706"/>
-      <c r="J33" s="707"/>
+      <c r="H33" s="704"/>
+      <c r="I33" s="705"/>
+      <c r="J33" s="706"/>
       <c r="K33" s="412"/>
       <c r="L33" s="111"/>
       <c r="M33" s="137">
@@ -52596,9 +52735,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="705"/>
-      <c r="I34" s="706"/>
-      <c r="J34" s="707"/>
+      <c r="H34" s="704"/>
+      <c r="I34" s="705"/>
+      <c r="J34" s="706"/>
       <c r="K34" s="412"/>
       <c r="L34" s="111"/>
       <c r="M34" s="137">
@@ -52616,9 +52755,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="705"/>
-      <c r="I35" s="706"/>
-      <c r="J35" s="707"/>
+      <c r="H35" s="704"/>
+      <c r="I35" s="705"/>
+      <c r="J35" s="706"/>
       <c r="K35" s="412"/>
       <c r="L35" s="111"/>
       <c r="M35" s="137">
@@ -52636,9 +52775,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="705"/>
-      <c r="I36" s="706"/>
-      <c r="J36" s="707"/>
+      <c r="H36" s="704"/>
+      <c r="I36" s="705"/>
+      <c r="J36" s="706"/>
       <c r="K36" s="412"/>
       <c r="L36" s="111"/>
       <c r="M36" s="137">
@@ -52656,9 +52795,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="705"/>
-      <c r="I37" s="706"/>
-      <c r="J37" s="707"/>
+      <c r="H37" s="704"/>
+      <c r="I37" s="705"/>
+      <c r="J37" s="706"/>
       <c r="K37" s="412"/>
       <c r="L37" s="111"/>
       <c r="M37" s="137">
@@ -52676,9 +52815,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="705"/>
-      <c r="I38" s="706"/>
-      <c r="J38" s="707"/>
+      <c r="H38" s="704"/>
+      <c r="I38" s="705"/>
+      <c r="J38" s="706"/>
       <c r="K38" s="412"/>
       <c r="L38" s="111"/>
       <c r="M38" s="137">
@@ -52716,10 +52855,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="833" t="s">
+      <c r="H40" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="834"/>
+      <c r="I40" s="840"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -52738,8 +52877,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="835"/>
-      <c r="I41" s="836"/>
+      <c r="H41" s="841"/>
+      <c r="I41" s="842"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -52758,8 +52897,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="837"/>
-      <c r="I42" s="838"/>
+      <c r="H42" s="843"/>
+      <c r="I42" s="844"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -53263,15 +53402,15 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="829" t="s">
+      <c r="H67" s="835" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="830"/>
+      <c r="I67" s="836"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="714"/>
+      <c r="K67" s="713"/>
       <c r="L67" s="209">
         <f>SUM(L3:L66)</f>
         <v>0</v>
@@ -53286,11 +53425,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="791" t="s">
+      <c r="F68" s="797" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="831"/>
-      <c r="I68" s="832"/>
+      <c r="H68" s="837"/>
+      <c r="I68" s="838"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -53301,7 +53440,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="792"/>
+      <c r="F69" s="798"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -53945,23 +54084,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="737" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="738"/>
+      <c r="E1" s="738"/>
+      <c r="F1" s="738"/>
+      <c r="G1" s="738"/>
+      <c r="H1" s="738"/>
+      <c r="I1" s="738"/>
+      <c r="J1" s="738"/>
+      <c r="K1" s="738"/>
+      <c r="L1" s="738"/>
+      <c r="M1" s="738"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -53971,21 +54110,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54000,14 +54139,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54017,14 +54156,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="766" t="s">
+      <c r="W4" s="788" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="766"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54075,8 +54214,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="766"/>
-      <c r="X5" s="766"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54847,7 +54986,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="770">
+      <c r="W19" s="792">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -54899,7 +55038,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="771"/>
+      <c r="W20" s="793"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -54948,8 +55087,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="772"/>
-      <c r="X21" s="772"/>
+      <c r="W21" s="794"/>
+      <c r="X21" s="794"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55050,8 +55189,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="773"/>
-      <c r="X23" s="773"/>
+      <c r="W23" s="795"/>
+      <c r="X23" s="795"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55105,8 +55244,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="773"/>
-      <c r="X24" s="773"/>
+      <c r="W24" s="795"/>
+      <c r="X24" s="795"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55152,8 +55291,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="774"/>
-      <c r="X25" s="774"/>
+      <c r="W25" s="796"/>
+      <c r="X25" s="796"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55204,8 +55343,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="774"/>
-      <c r="X26" s="774"/>
+      <c r="W26" s="796"/>
+      <c r="X26" s="796"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55253,9 +55392,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="767"/>
-      <c r="X27" s="768"/>
-      <c r="Y27" s="769"/>
+      <c r="W27" s="789"/>
+      <c r="X27" s="790"/>
+      <c r="Y27" s="791"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55305,9 +55444,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="768"/>
-      <c r="X28" s="768"/>
-      <c r="Y28" s="769"/>
+      <c r="W28" s="790"/>
+      <c r="X28" s="790"/>
+      <c r="Y28" s="791"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55642,11 +55781,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="785">
+      <c r="M36" s="780">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="782">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -55654,7 +55793,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="789">
+      <c r="Q36" s="784">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -55689,13 +55828,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="781"/>
+      <c r="N37" s="783"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="790"/>
+      <c r="Q37" s="785"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -55985,26 +56124,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="740" t="s">
+      <c r="H52" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="741"/>
+      <c r="I52" s="758"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="742">
+      <c r="K52" s="759">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="775"/>
+      <c r="L52" s="786"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="746" t="s">
+      <c r="D53" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="746"/>
+      <c r="E53" s="763"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56013,29 +56152,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="776" t="s">
+      <c r="D54" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="776"/>
+      <c r="E54" s="787"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="747" t="s">
+      <c r="I54" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="748"/>
-      <c r="K54" s="749">
+      <c r="J54" s="765"/>
+      <c r="K54" s="766">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="749"/>
-      <c r="M54" s="777" t="s">
+      <c r="L54" s="766"/>
+      <c r="M54" s="772" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="778"/>
-      <c r="O54" s="778"/>
-      <c r="P54" s="778"/>
-      <c r="Q54" s="779"/>
+      <c r="N54" s="773"/>
+      <c r="O54" s="773"/>
+      <c r="P54" s="773"/>
+      <c r="Q54" s="774"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56049,11 +56188,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="780"/>
-      <c r="N55" s="781"/>
-      <c r="O55" s="781"/>
-      <c r="P55" s="781"/>
-      <c r="Q55" s="782"/>
+      <c r="M55" s="775"/>
+      <c r="N55" s="776"/>
+      <c r="O55" s="776"/>
+      <c r="P55" s="776"/>
+      <c r="Q55" s="777"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56071,11 +56210,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="751">
+      <c r="K56" s="768">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="752"/>
+      <c r="L56" s="769"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56092,22 +56231,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="729" t="s">
+      <c r="D58" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="730"/>
+      <c r="E58" s="747"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="731" t="s">
+      <c r="I58" s="748" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="732"/>
-      <c r="K58" s="733">
+      <c r="J58" s="749"/>
+      <c r="K58" s="750">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="733"/>
+      <c r="L58" s="750"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -56251,17 +56390,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -56272,14 +56408,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -58697,7 +58836,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="791" t="s">
+      <c r="F87" s="797" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -58710,7 +58849,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="792"/>
+      <c r="F88" s="798"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -59022,23 +59161,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="755" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="737" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="756"/>
-      <c r="E1" s="756"/>
-      <c r="F1" s="756"/>
-      <c r="G1" s="756"/>
-      <c r="H1" s="756"/>
-      <c r="I1" s="756"/>
-      <c r="J1" s="756"/>
-      <c r="K1" s="756"/>
-      <c r="L1" s="756"/>
-      <c r="M1" s="756"/>
+      <c r="D1" s="738"/>
+      <c r="E1" s="738"/>
+      <c r="F1" s="738"/>
+      <c r="G1" s="738"/>
+      <c r="H1" s="738"/>
+      <c r="I1" s="738"/>
+      <c r="J1" s="738"/>
+      <c r="K1" s="738"/>
+      <c r="L1" s="738"/>
+      <c r="M1" s="738"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59048,24 +59187,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
@@ -59080,14 +59219,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59097,15 +59236,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
-      <c r="W4" s="766" t="s">
+      <c r="R4" s="800"/>
+      <c r="W4" s="788" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="766"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59166,8 +59305,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="766"/>
-      <c r="X5" s="766"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59924,7 +60063,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="770">
+      <c r="W19" s="792">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -59976,7 +60115,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="771"/>
+      <c r="W20" s="793"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60025,8 +60164,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="772"/>
-      <c r="X21" s="772"/>
+      <c r="W21" s="794"/>
+      <c r="X21" s="794"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60127,8 +60266,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="773"/>
-      <c r="X23" s="773"/>
+      <c r="W23" s="795"/>
+      <c r="X23" s="795"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60179,8 +60318,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="773"/>
-      <c r="X24" s="773"/>
+      <c r="W24" s="795"/>
+      <c r="X24" s="795"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60226,8 +60365,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="774"/>
-      <c r="X25" s="774"/>
+      <c r="W25" s="796"/>
+      <c r="X25" s="796"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60275,8 +60414,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="774"/>
-      <c r="X26" s="774"/>
+      <c r="W26" s="796"/>
+      <c r="X26" s="796"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60336,9 +60475,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="767"/>
-      <c r="X27" s="768"/>
-      <c r="Y27" s="769"/>
+      <c r="W27" s="789"/>
+      <c r="X27" s="790"/>
+      <c r="Y27" s="791"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60392,9 +60531,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="768"/>
-      <c r="X28" s="768"/>
-      <c r="Y28" s="769"/>
+      <c r="W28" s="790"/>
+      <c r="X28" s="790"/>
+      <c r="Y28" s="791"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60710,11 +60849,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="785">
+      <c r="M36" s="780">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="782">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -60722,7 +60861,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="789">
+      <c r="Q36" s="784">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -60741,13 +60880,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="781"/>
+      <c r="N37" s="783"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="790"/>
+      <c r="Q37" s="785"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61021,26 +61160,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="740" t="s">
+      <c r="H52" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="741"/>
+      <c r="I52" s="758"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="742">
+      <c r="K52" s="759">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="775"/>
+      <c r="L52" s="786"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="746" t="s">
+      <c r="D53" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="746"/>
+      <c r="E53" s="763"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61049,29 +61188,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="776" t="s">
+      <c r="D54" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="776"/>
+      <c r="E54" s="787"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="747" t="s">
+      <c r="I54" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="748"/>
-      <c r="K54" s="749">
+      <c r="J54" s="765"/>
+      <c r="K54" s="766">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="749"/>
-      <c r="M54" s="777" t="s">
+      <c r="L54" s="766"/>
+      <c r="M54" s="772" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="778"/>
-      <c r="O54" s="778"/>
-      <c r="P54" s="778"/>
-      <c r="Q54" s="779"/>
+      <c r="N54" s="773"/>
+      <c r="O54" s="773"/>
+      <c r="P54" s="773"/>
+      <c r="Q54" s="774"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61085,11 +61224,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="780"/>
-      <c r="N55" s="781"/>
-      <c r="O55" s="781"/>
-      <c r="P55" s="781"/>
-      <c r="Q55" s="782"/>
+      <c r="M55" s="775"/>
+      <c r="N55" s="776"/>
+      <c r="O55" s="776"/>
+      <c r="P55" s="776"/>
+      <c r="Q55" s="777"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61107,11 +61246,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="751">
+      <c r="K56" s="768">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="752"/>
+      <c r="L56" s="769"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61128,22 +61267,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="729" t="s">
+      <c r="D58" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="730"/>
+      <c r="E58" s="747"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="731" t="s">
+      <c r="I58" s="748" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="732"/>
-      <c r="K58" s="733">
+      <c r="J58" s="749"/>
+      <c r="K58" s="750">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="733"/>
+      <c r="L58" s="750"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61287,13 +61426,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -61303,20 +61449,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -63706,7 +63845,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="791" t="s">
+      <c r="F75" s="797" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -63719,7 +63858,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="792"/>
+      <c r="F76" s="798"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -64011,23 +64150,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64037,24 +64176,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
@@ -64069,14 +64208,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64086,15 +64225,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
-      <c r="W4" s="766" t="s">
+      <c r="R4" s="800"/>
+      <c r="W4" s="788" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="766"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64145,8 +64284,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="766"/>
-      <c r="X5" s="766"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64910,7 +65049,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="770">
+      <c r="W19" s="792">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -64963,7 +65102,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="771"/>
+      <c r="W20" s="793"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65012,8 +65151,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="772"/>
-      <c r="X21" s="772"/>
+      <c r="W21" s="794"/>
+      <c r="X21" s="794"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65113,8 +65252,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="773"/>
-      <c r="X23" s="773"/>
+      <c r="W23" s="795"/>
+      <c r="X23" s="795"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65169,8 +65308,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="773"/>
-      <c r="X24" s="773"/>
+      <c r="W24" s="795"/>
+      <c r="X24" s="795"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65215,8 +65354,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="774"/>
-      <c r="X25" s="774"/>
+      <c r="W25" s="796"/>
+      <c r="X25" s="796"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65264,8 +65403,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="774"/>
-      <c r="X26" s="774"/>
+      <c r="W26" s="796"/>
+      <c r="X26" s="796"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65319,9 +65458,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="767"/>
-      <c r="X27" s="768"/>
-      <c r="Y27" s="769"/>
+      <c r="W27" s="789"/>
+      <c r="X27" s="790"/>
+      <c r="Y27" s="791"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65375,9 +65514,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="768"/>
-      <c r="X28" s="768"/>
-      <c r="Y28" s="769"/>
+      <c r="W28" s="790"/>
+      <c r="X28" s="790"/>
+      <c r="Y28" s="791"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65688,11 +65827,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="785">
+      <c r="M36" s="780">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="782">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -65700,7 +65839,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="789">
+      <c r="Q36" s="784">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -65725,13 +65864,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="781"/>
+      <c r="N37" s="783"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="790"/>
+      <c r="Q37" s="785"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66024,26 +66163,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="740" t="s">
+      <c r="H52" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="741"/>
+      <c r="I52" s="758"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="742">
+      <c r="K52" s="759">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="775"/>
+      <c r="L52" s="786"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="746" t="s">
+      <c r="D53" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="746"/>
+      <c r="E53" s="763"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66052,22 +66191,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="776" t="s">
+      <c r="D54" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="776"/>
+      <c r="E54" s="787"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="747" t="s">
+      <c r="I54" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="748"/>
-      <c r="K54" s="749">
+      <c r="J54" s="765"/>
+      <c r="K54" s="766">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="749"/>
+      <c r="L54" s="766"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66108,11 +66247,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="751">
+      <c r="K56" s="768">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="752"/>
+      <c r="L56" s="769"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66129,22 +66268,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="729" t="s">
+      <c r="D58" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="730"/>
+      <c r="E58" s="747"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="731" t="s">
+      <c r="I58" s="748" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="732"/>
-      <c r="K58" s="733">
+      <c r="J58" s="749"/>
+      <c r="K58" s="750">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="733"/>
+      <c r="L58" s="750"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -66288,6 +66427,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -66303,20 +66456,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -68013,12 +68152,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="797" t="s">
+      <c r="B43" s="803" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="798"/>
-      <c r="D43" s="798"/>
-      <c r="E43" s="799"/>
+      <c r="C43" s="804"/>
+      <c r="D43" s="804"/>
+      <c r="E43" s="805"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68046,10 +68185,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="800"/>
-      <c r="C44" s="801"/>
-      <c r="D44" s="801"/>
-      <c r="E44" s="802"/>
+      <c r="B44" s="806"/>
+      <c r="C44" s="807"/>
+      <c r="D44" s="807"/>
+      <c r="E44" s="808"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68077,10 +68216,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="803"/>
-      <c r="C45" s="804"/>
-      <c r="D45" s="804"/>
-      <c r="E45" s="805"/>
+      <c r="B45" s="809"/>
+      <c r="C45" s="810"/>
+      <c r="D45" s="810"/>
+      <c r="E45" s="811"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68123,10 +68262,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="812" t="s">
+      <c r="B47" s="818" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="813"/>
+      <c r="C47" s="819"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -68148,8 +68287,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="814"/>
-      <c r="C48" s="815"/>
+      <c r="B48" s="820"/>
+      <c r="C48" s="821"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -68157,11 +68296,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="806" t="s">
+      <c r="J48" s="812" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="807"/>
-      <c r="L48" s="808"/>
+      <c r="K48" s="813"/>
+      <c r="L48" s="814"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -68179,9 +68318,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="809"/>
-      <c r="K49" s="810"/>
-      <c r="L49" s="811"/>
+      <c r="J49" s="815"/>
+      <c r="K49" s="816"/>
+      <c r="L49" s="817"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -68198,10 +68337,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="816" t="s">
+      <c r="I50" s="822" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="817"/>
+      <c r="J50" s="823"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -68222,8 +68361,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="816"/>
-      <c r="J51" s="817"/>
+      <c r="I51" s="822"/>
+      <c r="J51" s="823"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -68242,8 +68381,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="816"/>
-      <c r="J52" s="817"/>
+      <c r="I52" s="822"/>
+      <c r="J52" s="823"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -68262,8 +68401,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="816"/>
-      <c r="J53" s="817"/>
+      <c r="I53" s="822"/>
+      <c r="J53" s="823"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -68282,8 +68421,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="816"/>
-      <c r="J54" s="817"/>
+      <c r="I54" s="822"/>
+      <c r="J54" s="823"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -68302,8 +68441,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="816"/>
-      <c r="J55" s="817"/>
+      <c r="I55" s="822"/>
+      <c r="J55" s="823"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -68322,8 +68461,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="816"/>
-      <c r="J56" s="817"/>
+      <c r="I56" s="822"/>
+      <c r="J56" s="823"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -68342,8 +68481,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="816"/>
-      <c r="J57" s="817"/>
+      <c r="I57" s="822"/>
+      <c r="J57" s="823"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -68362,8 +68501,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="816"/>
-      <c r="J58" s="817"/>
+      <c r="I58" s="822"/>
+      <c r="J58" s="823"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -68382,8 +68521,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="816"/>
-      <c r="J59" s="817"/>
+      <c r="I59" s="822"/>
+      <c r="J59" s="823"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -68402,8 +68541,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="816"/>
-      <c r="J60" s="817"/>
+      <c r="I60" s="822"/>
+      <c r="J60" s="823"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -68422,8 +68561,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="816"/>
-      <c r="J61" s="817"/>
+      <c r="I61" s="822"/>
+      <c r="J61" s="823"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -68442,8 +68581,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="816"/>
-      <c r="J62" s="817"/>
+      <c r="I62" s="822"/>
+      <c r="J62" s="823"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -68462,8 +68601,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="816"/>
-      <c r="J63" s="817"/>
+      <c r="I63" s="822"/>
+      <c r="J63" s="823"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -68482,8 +68621,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="816"/>
-      <c r="J64" s="817"/>
+      <c r="I64" s="822"/>
+      <c r="J64" s="823"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -68502,8 +68641,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="816"/>
-      <c r="J65" s="817"/>
+      <c r="I65" s="822"/>
+      <c r="J65" s="823"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -68522,8 +68661,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="816"/>
-      <c r="J66" s="817"/>
+      <c r="I66" s="822"/>
+      <c r="J66" s="823"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -68542,8 +68681,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="816"/>
-      <c r="J67" s="817"/>
+      <c r="I67" s="822"/>
+      <c r="J67" s="823"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -68562,8 +68701,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="816"/>
-      <c r="J68" s="817"/>
+      <c r="I68" s="822"/>
+      <c r="J68" s="823"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -68582,8 +68721,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="816"/>
-      <c r="J69" s="817"/>
+      <c r="I69" s="822"/>
+      <c r="J69" s="823"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -68602,8 +68741,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="816"/>
-      <c r="J70" s="817"/>
+      <c r="I70" s="822"/>
+      <c r="J70" s="823"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -68622,8 +68761,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="816"/>
-      <c r="J71" s="817"/>
+      <c r="I71" s="822"/>
+      <c r="J71" s="823"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -68642,8 +68781,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="816"/>
-      <c r="J72" s="817"/>
+      <c r="I72" s="822"/>
+      <c r="J72" s="823"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -68662,8 +68801,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="816"/>
-      <c r="J73" s="817"/>
+      <c r="I73" s="822"/>
+      <c r="J73" s="823"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -68682,8 +68821,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="816"/>
-      <c r="J74" s="817"/>
+      <c r="I74" s="822"/>
+      <c r="J74" s="823"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -68702,8 +68841,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="816"/>
-      <c r="J75" s="817"/>
+      <c r="I75" s="822"/>
+      <c r="J75" s="823"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -68722,8 +68861,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="816"/>
-      <c r="J76" s="817"/>
+      <c r="I76" s="822"/>
+      <c r="J76" s="823"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -68742,8 +68881,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="816"/>
-      <c r="J77" s="817"/>
+      <c r="I77" s="822"/>
+      <c r="J77" s="823"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -68764,8 +68903,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="818"/>
-      <c r="J78" s="819"/>
+      <c r="I78" s="824"/>
+      <c r="J78" s="825"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -68810,7 +68949,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="791" t="s">
+      <c r="F80" s="797" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -68822,7 +68961,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="792"/>
+      <c r="F81" s="798"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -69110,23 +69249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="753"/>
-      <c r="C1" s="795" t="s">
+      <c r="B1" s="735"/>
+      <c r="C1" s="801" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="796"/>
-      <c r="E1" s="796"/>
-      <c r="F1" s="796"/>
-      <c r="G1" s="796"/>
-      <c r="H1" s="796"/>
-      <c r="I1" s="796"/>
-      <c r="J1" s="796"/>
-      <c r="K1" s="796"/>
-      <c r="L1" s="796"/>
-      <c r="M1" s="796"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="802"/>
+      <c r="F1" s="802"/>
+      <c r="G1" s="802"/>
+      <c r="H1" s="802"/>
+      <c r="I1" s="802"/>
+      <c r="J1" s="802"/>
+      <c r="K1" s="802"/>
+      <c r="L1" s="802"/>
+      <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="754"/>
+      <c r="B2" s="736"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69136,24 +69275,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="757" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="758"/>
+      <c r="B3" s="739" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="740"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="759" t="s">
+      <c r="H3" s="741" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="759"/>
+      <c r="I3" s="741"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="778" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="793" t="s">
+      <c r="R3" s="799" t="s">
         <v>216</v>
       </c>
     </row>
@@ -69168,14 +69307,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="760" t="s">
+      <c r="E4" s="742" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="761"/>
-      <c r="H4" s="762" t="s">
+      <c r="F4" s="743"/>
+      <c r="H4" s="744" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="763"/>
+      <c r="I4" s="745"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69185,15 +69324,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="779"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="794"/>
-      <c r="W4" s="766" t="s">
+      <c r="R4" s="800"/>
+      <c r="W4" s="788" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="766"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69244,8 +69383,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="766"/>
-      <c r="X5" s="766"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70006,7 +70145,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="770">
+      <c r="W19" s="792">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70058,7 +70197,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="771"/>
+      <c r="W20" s="793"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70107,8 +70246,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="772"/>
-      <c r="X21" s="772"/>
+      <c r="W21" s="794"/>
+      <c r="X21" s="794"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70207,8 +70346,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="773"/>
-      <c r="X23" s="773"/>
+      <c r="W23" s="795"/>
+      <c r="X23" s="795"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70263,8 +70402,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="773"/>
-      <c r="X24" s="773"/>
+      <c r="W24" s="795"/>
+      <c r="X24" s="795"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70312,8 +70451,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="774"/>
-      <c r="X25" s="774"/>
+      <c r="W25" s="796"/>
+      <c r="X25" s="796"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70361,8 +70500,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="774"/>
-      <c r="X26" s="774"/>
+      <c r="W26" s="796"/>
+      <c r="X26" s="796"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70410,9 +70549,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="767"/>
-      <c r="X27" s="768"/>
-      <c r="Y27" s="769"/>
+      <c r="W27" s="789"/>
+      <c r="X27" s="790"/>
+      <c r="Y27" s="791"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70460,9 +70599,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="768"/>
-      <c r="X28" s="768"/>
-      <c r="Y28" s="769"/>
+      <c r="W28" s="790"/>
+      <c r="X28" s="790"/>
+      <c r="Y28" s="791"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70803,11 +70942,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="785">
+      <c r="M36" s="780">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="782">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -70815,7 +70954,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="820">
+      <c r="Q36" s="826">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -70840,13 +70979,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="781"/>
+      <c r="N37" s="783"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="821"/>
+      <c r="Q37" s="827"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -70896,11 +71035,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="822">
+      <c r="M39" s="828">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="823"/>
+      <c r="N39" s="829"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -71148,26 +71287,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="740" t="s">
+      <c r="H52" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="741"/>
+      <c r="I52" s="758"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="742">
+      <c r="K52" s="759">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="775"/>
+      <c r="L52" s="786"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="746" t="s">
+      <c r="D53" s="763" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="746"/>
+      <c r="E53" s="763"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71176,22 +71315,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="776" t="s">
+      <c r="D54" s="787" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="776"/>
+      <c r="E54" s="787"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="747" t="s">
+      <c r="I54" s="764" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="748"/>
-      <c r="K54" s="749">
+      <c r="J54" s="765"/>
+      <c r="K54" s="766">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="749"/>
+      <c r="L54" s="766"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71232,11 +71371,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="751">
+      <c r="K56" s="768">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="752"/>
+      <c r="L56" s="769"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71253,22 +71392,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="729" t="s">
+      <c r="D58" s="746" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="730"/>
+      <c r="E58" s="747"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="731" t="s">
+      <c r="I58" s="748" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="732"/>
-      <c r="K58" s="733">
+      <c r="J58" s="749"/>
+      <c r="K58" s="750">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="733"/>
+      <c r="L58" s="750"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -71412,20 +71551,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -71442,6 +71567,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1164">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4322,9 +4322,6 @@
     <t>PAPAS-QUESOS-´POLLO-Chul Ahum,</t>
   </si>
   <si>
-    <t>NOMINA # 31</t>
-  </si>
-  <si>
     <t>QUESOS-PEPERONI-SALAMI-CHISTORRA</t>
   </si>
   <si>
@@ -4332,6 +4329,33 @@
   </si>
   <si>
     <t>QUESOS-CHORIZO-SALCHICAH-GELATINA-</t>
+  </si>
+  <si>
+    <t>POLLO-SALCHICHONERIA-LONGANIZA</t>
+  </si>
+  <si>
+    <t>QUESOS-PASTOR</t>
+  </si>
+  <si>
+    <t>PAPA-QUESOS-POLLO-MIXIOTES-CHIMICHURRI-CHORIZO-JAMON</t>
+  </si>
+  <si>
+    <t>NOMINA # 33</t>
+  </si>
+  <si>
+    <t>NOMINA # 32</t>
+  </si>
+  <si>
+    <t>NOMINA# 33</t>
+  </si>
+  <si>
+    <t>QUESOS-ENCHILADA-LONGANIZA-TOCINETA</t>
+  </si>
+  <si>
+    <t>QUESOS-CHISTORRA-SALCHICHA-PATE-PATA-PIERNA AHUM</t>
+  </si>
+  <si>
+    <t>PULPA RES-CHISTORRA-ROASBEEF-QUESOS-RIBEYE-SALCHICHA</t>
   </si>
 </sst>
 </file>
@@ -6474,7 +6498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="881">
+  <cellXfs count="882">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7970,39 +7994,6 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8075,10 +8066,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8122,39 +8179,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8366,15 +8390,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8389,6 +8404,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8408,6 +8432,7 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -13771,23 +13796,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
-      <c r="C1" s="737" t="s">
+      <c r="B1" s="759"/>
+      <c r="C1" s="761" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="738"/>
-      <c r="E1" s="738"/>
-      <c r="F1" s="738"/>
-      <c r="G1" s="738"/>
-      <c r="H1" s="738"/>
-      <c r="I1" s="738"/>
-      <c r="J1" s="738"/>
-      <c r="K1" s="738"/>
-      <c r="L1" s="738"/>
-      <c r="M1" s="738"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13797,17 +13822,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13821,14 +13846,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13838,10 +13863,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="751" t="s">
+      <c r="P4" s="740" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="752"/>
+      <c r="Q4" s="741"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15282,11 +15307,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="753">
+      <c r="M39" s="742">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="755">
+      <c r="N39" s="744">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15312,8 +15337,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="754"/>
-      <c r="N40" s="756"/>
+      <c r="M40" s="743"/>
+      <c r="N40" s="745"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15528,29 +15553,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="757" t="s">
+      <c r="H52" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="758"/>
+      <c r="I52" s="747"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="759">
+      <c r="K52" s="748">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="760"/>
-      <c r="M52" s="761">
+      <c r="L52" s="749"/>
+      <c r="M52" s="750">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="762"/>
+      <c r="N52" s="751"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="763" t="s">
+      <c r="D53" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="763"/>
+      <c r="E53" s="752"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15561,22 +15586,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="763" t="s">
+      <c r="D54" s="752" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="763"/>
+      <c r="E54" s="752"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="764" t="s">
+      <c r="I54" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="765"/>
-      <c r="K54" s="766">
+      <c r="J54" s="754"/>
+      <c r="K54" s="755">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="767"/>
+      <c r="L54" s="756"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15609,11 +15634,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="768">
+      <c r="K56" s="757">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="769"/>
+      <c r="L56" s="758"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15630,22 +15655,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="746" t="s">
+      <c r="D58" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="747"/>
+      <c r="E58" s="736"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="748" t="s">
+      <c r="I58" s="737" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="749"/>
-      <c r="K58" s="750">
+      <c r="J58" s="738"/>
+      <c r="K58" s="739">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="750"/>
+      <c r="L58" s="739"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15789,6 +15814,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -15803,12 +15834,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18667,7 +18692,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>451</v>
       </c>
@@ -18683,7 +18708,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18693,21 +18718,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -18725,14 +18750,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18742,15 +18767,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="800"/>
-      <c r="W4" s="788" t="s">
+      <c r="W4" s="772" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="772"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18801,8 +18826,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="772"/>
+      <c r="X5" s="772"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19565,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="776">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19617,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="777"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19666,8 +19691,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="778"/>
+      <c r="X21" s="778"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19767,8 +19792,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="779"/>
+      <c r="X23" s="779"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19823,8 +19848,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="779"/>
+      <c r="X24" s="779"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19872,8 +19897,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="780"/>
+      <c r="X25" s="780"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19922,8 +19947,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="780"/>
+      <c r="X26" s="780"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -19971,9 +19996,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="773"/>
+      <c r="X27" s="774"/>
+      <c r="Y27" s="775"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20021,9 +20046,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="774"/>
+      <c r="X28" s="774"/>
+      <c r="Y28" s="775"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20355,11 +20380,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="780">
+      <c r="M36" s="791">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="782">
+      <c r="N36" s="793">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20392,8 +20417,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="781"/>
-      <c r="N37" s="783"/>
+      <c r="M37" s="792"/>
+      <c r="N37" s="794"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -21080,26 +21105,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="757" t="s">
+      <c r="H68" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="758"/>
+      <c r="I68" s="747"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="759">
+      <c r="K68" s="748">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="786"/>
+      <c r="L68" s="781"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="763" t="s">
+      <c r="D69" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="763"/>
+      <c r="E69" s="752"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21108,22 +21133,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="787" t="s">
+      <c r="D70" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="787"/>
+      <c r="E70" s="782"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="764" t="s">
+      <c r="I70" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="765"/>
-      <c r="K70" s="766">
+      <c r="J70" s="754"/>
+      <c r="K70" s="755">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="766"/>
+      <c r="L70" s="755"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21164,11 +21189,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="768">
+      <c r="K72" s="757">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="769"/>
+      <c r="L72" s="758"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21185,22 +21210,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="746" t="s">
+      <c r="D74" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="747"/>
+      <c r="E74" s="736"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="748" t="s">
+      <c r="I74" s="737" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="749"/>
-      <c r="K74" s="750">
+      <c r="J74" s="738"/>
+      <c r="K74" s="739">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="750"/>
+      <c r="L74" s="739"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21347,6 +21372,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21362,21 +21402,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23989,7 +24014,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>620</v>
       </c>
@@ -24005,7 +24030,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24015,21 +24040,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -24047,14 +24072,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24064,15 +24089,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="800"/>
-      <c r="W4" s="788" t="s">
+      <c r="W4" s="772" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="772"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24123,8 +24148,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="772"/>
+      <c r="X5" s="772"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24883,7 +24908,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="776">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -24935,7 +24960,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="777"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -24984,8 +25009,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="778"/>
+      <c r="X21" s="778"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25082,8 +25107,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="779"/>
+      <c r="X23" s="779"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25138,8 +25163,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="779"/>
+      <c r="X24" s="779"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25185,8 +25210,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="780"/>
+      <c r="X25" s="780"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25237,8 +25262,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="780"/>
+      <c r="X26" s="780"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25289,9 +25314,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="773"/>
+      <c r="X27" s="774"/>
+      <c r="Y27" s="775"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25341,9 +25366,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="774"/>
+      <c r="X28" s="774"/>
+      <c r="Y28" s="775"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25947,11 +25972,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="780">
+      <c r="M41" s="791">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="780">
+      <c r="N41" s="791">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -25989,8 +26014,8 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="781"/>
-      <c r="N42" s="781"/>
+      <c r="M42" s="792"/>
+      <c r="N42" s="792"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="846"/>
     </row>
@@ -26677,26 +26702,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="757" t="s">
+      <c r="H70" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="758"/>
+      <c r="I70" s="747"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="759">
+      <c r="K70" s="748">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="786"/>
+      <c r="L70" s="781"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="763" t="s">
+      <c r="D71" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="763"/>
+      <c r="E71" s="752"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26706,22 +26731,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="787" t="s">
+      <c r="D72" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="787"/>
+      <c r="E72" s="782"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="764" t="s">
+      <c r="I72" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="765"/>
-      <c r="K72" s="766">
+      <c r="J72" s="754"/>
+      <c r="K72" s="755">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="766"/>
+      <c r="L72" s="755"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26762,11 +26787,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="768">
+      <c r="K74" s="757">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="769"/>
+      <c r="L74" s="758"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26785,22 +26810,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="746" t="s">
+      <c r="D76" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="747"/>
+      <c r="E76" s="736"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="748" t="s">
+      <c r="I76" s="737" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="749"/>
-      <c r="K76" s="750">
+      <c r="J76" s="738"/>
+      <c r="K76" s="739">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="750"/>
+      <c r="L76" s="739"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -26960,6 +26985,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -26975,21 +27015,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30447,7 +30472,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>754</v>
       </c>
@@ -30463,7 +30488,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30473,21 +30498,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -30509,14 +30534,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30526,15 +30551,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="800"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="867"/>
-      <c r="X4" s="867"/>
+      <c r="W4" s="873"/>
+      <c r="X4" s="873"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30588,8 +30613,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="867"/>
-      <c r="X5" s="867"/>
+      <c r="W5" s="873"/>
+      <c r="X5" s="873"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31355,7 +31380,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="868"/>
+      <c r="W19" s="874"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31409,7 +31434,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="868"/>
+      <c r="W20" s="874"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31464,8 +31489,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="778"/>
+      <c r="X21" s="778"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31576,8 +31601,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="779"/>
+      <c r="X23" s="779"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31638,8 +31663,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="779"/>
+      <c r="X24" s="779"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31692,8 +31717,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="780"/>
+      <c r="X25" s="780"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31748,8 +31773,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="780"/>
+      <c r="X26" s="780"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31804,9 +31829,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="773"/>
+      <c r="X27" s="774"/>
+      <c r="Y27" s="775"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31860,9 +31885,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="774"/>
+      <c r="X28" s="774"/>
+      <c r="Y28" s="775"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32453,11 +32478,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="780">
+      <c r="M41" s="791">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="780">
+      <c r="N41" s="791">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32489,8 +32514,8 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="781"/>
-      <c r="N42" s="781"/>
+      <c r="M42" s="792"/>
+      <c r="N42" s="792"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="846"/>
     </row>
@@ -32981,26 +33006,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="757" t="s">
+      <c r="H63" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="758"/>
+      <c r="I63" s="747"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="873">
+      <c r="K63" s="870">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="874"/>
+      <c r="L63" s="871"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="763" t="s">
+      <c r="D64" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="763"/>
+      <c r="E64" s="752"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33009,22 +33034,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="787" t="s">
+      <c r="D65" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="787"/>
+      <c r="E65" s="782"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="764" t="s">
+      <c r="I65" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="765"/>
-      <c r="K65" s="766">
+      <c r="J65" s="754"/>
+      <c r="K65" s="755">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="766"/>
+      <c r="L65" s="755"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33065,11 +33090,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="869">
+      <c r="K67" s="872">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="766"/>
+      <c r="L67" s="755"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33086,22 +33111,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="746" t="s">
+      <c r="D69" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="747"/>
+      <c r="E69" s="736"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="870" t="s">
+      <c r="I69" s="867" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="871"/>
-      <c r="K69" s="872">
+      <c r="J69" s="868"/>
+      <c r="K69" s="869">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="872"/>
+      <c r="L69" s="869"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33248,21 +33273,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33278,6 +33288,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35852,7 +35877,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>884</v>
       </c>
@@ -35868,7 +35893,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35878,21 +35903,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -35910,14 +35935,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -35927,7 +35952,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -37699,11 +37724,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="780">
+      <c r="M41" s="791">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="780">
+      <c r="N41" s="791">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37741,8 +37766,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="781"/>
-      <c r="N42" s="781"/>
+      <c r="M42" s="792"/>
+      <c r="N42" s="792"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="846"/>
     </row>
@@ -38421,26 +38446,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="757" t="s">
+      <c r="H69" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="758"/>
+      <c r="I69" s="747"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="873">
+      <c r="K69" s="870">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="874"/>
+      <c r="L69" s="871"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="763" t="s">
+      <c r="D70" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="763"/>
+      <c r="E70" s="752"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38449,22 +38474,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="787" t="s">
+      <c r="D71" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="787"/>
+      <c r="E71" s="782"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="764" t="s">
+      <c r="I71" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="765"/>
-      <c r="K71" s="766">
+      <c r="J71" s="754"/>
+      <c r="K71" s="755">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="766"/>
+      <c r="L71" s="755"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38505,11 +38530,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="869">
+      <c r="K73" s="872">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="766"/>
+      <c r="L73" s="755"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38526,22 +38551,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="746" t="s">
+      <c r="D75" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="747"/>
+      <c r="E75" s="736"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="748" t="s">
+      <c r="I75" s="737" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="749"/>
-      <c r="K75" s="750">
+      <c r="J75" s="738"/>
+      <c r="K75" s="739">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="750"/>
+      <c r="L75" s="739"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38688,6 +38713,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -38699,17 +38735,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44412,7 +44437,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>1027</v>
       </c>
@@ -44428,7 +44453,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44438,21 +44463,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -44470,14 +44495,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44487,7 +44512,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -46225,11 +46250,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="780">
+      <c r="M41" s="791">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="780">
+      <c r="N41" s="791">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46267,8 +46292,8 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="781"/>
-      <c r="N42" s="781"/>
+      <c r="M42" s="792"/>
+      <c r="N42" s="792"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="846"/>
     </row>
@@ -46872,26 +46897,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="757" t="s">
+      <c r="H69" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="758"/>
+      <c r="I69" s="747"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="873">
+      <c r="K69" s="870">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="874"/>
+      <c r="L69" s="871"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="763" t="s">
+      <c r="D70" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="763"/>
+      <c r="E70" s="752"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46900,22 +46925,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="787" t="s">
+      <c r="D71" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="787"/>
+      <c r="E71" s="782"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="764" t="s">
+      <c r="I71" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="765"/>
-      <c r="K71" s="766">
+      <c r="J71" s="754"/>
+      <c r="K71" s="755">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="766"/>
+      <c r="L71" s="755"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46956,11 +46981,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="869">
+      <c r="K73" s="872">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="766"/>
+      <c r="L73" s="755"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -46977,22 +47002,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="746" t="s">
+      <c r="D75" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="747"/>
+      <c r="E75" s="736"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="870" t="s">
+      <c r="I75" s="867" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="871"/>
-      <c r="K75" s="872">
+      <c r="J75" s="868"/>
+      <c r="K75" s="869">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="872"/>
+      <c r="L75" s="869"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47139,12 +47164,6 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47161,6 +47180,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49631,8 +49656,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G19"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49658,7 +49683,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>1144</v>
       </c>
@@ -49674,7 +49699,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49684,21 +49709,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -49716,14 +49741,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49733,7 +49758,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -50011,7 +50036,7 @@
         <v>44779</v>
       </c>
       <c r="K10" s="167" t="s">
-        <v>1152</v>
+        <v>1159</v>
       </c>
       <c r="L10" s="45">
         <v>17752</v>
@@ -50046,7 +50071,7 @@
         <v>7874</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E11" s="27">
         <v>44780</v>
@@ -50094,7 +50119,7 @@
         <v>26522</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E12" s="27">
         <v>44781</v>
@@ -50142,7 +50167,7 @@
         <v>18936</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E13" s="27">
         <v>44782</v>
@@ -50234,29 +50259,40 @@
       <c r="B15" s="24">
         <v>44784</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>14635</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>1155</v>
+      </c>
       <c r="E15" s="27">
         <v>44784</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>107642</v>
+      </c>
       <c r="G15" s="572"/>
       <c r="H15" s="29">
         <v>44784</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>2553</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <v>48105</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>42349</v>
+      </c>
+      <c r="O15" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>107642</v>
       </c>
       <c r="Q15" s="325">
         <f t="shared" si="0"/>
@@ -50271,36 +50307,47 @@
       <c r="B16" s="24">
         <v>44785</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>5114</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>1156</v>
+      </c>
       <c r="E16" s="27">
         <v>44785</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>102325</v>
+      </c>
       <c r="G16" s="572"/>
       <c r="H16" s="29">
         <v>44785</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>2096</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <v>63682</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>31433</v>
+      </c>
+      <c r="O16" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102325</v>
       </c>
       <c r="Q16" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="319">
-        <v>0</v>
+      <c r="R16" s="319" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50308,33 +50355,50 @@
       <c r="B17" s="24">
         <v>44786</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>24730</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>1157</v>
+      </c>
       <c r="E17" s="27">
         <v>44786</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>121083</v>
+      </c>
       <c r="G17" s="572"/>
       <c r="H17" s="29">
         <v>44786</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="30">
+        <v>3433</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44786</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L17" s="45">
+        <v>17689</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>50035</v>
+      </c>
+      <c r="O17" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121087</v>
       </c>
       <c r="Q17" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" s="319">
         <v>0</v>
@@ -50345,33 +50409,41 @@
       <c r="B18" s="24">
         <v>44787</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="25">
+        <v>16104</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>1161</v>
+      </c>
       <c r="E18" s="27">
         <v>44787</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>128828</v>
+      </c>
       <c r="G18" s="572"/>
       <c r="H18" s="29">
         <v>44787</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>917</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="564"/>
       <c r="L18" s="39"/>
-      <c r="M18" s="32">
+      <c r="M18" s="182">
         <v>0</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>39781</v>
       </c>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56802</v>
+      </c>
+      <c r="Q18" s="881">
+        <f t="shared" si="0"/>
+        <v>-72026</v>
       </c>
       <c r="R18" s="319">
         <v>0</v>
@@ -50382,33 +50454,41 @@
       <c r="B19" s="24">
         <v>44788</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>7635</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>1162</v>
+      </c>
       <c r="E19" s="27">
         <v>44788</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>103454</v>
+      </c>
       <c r="G19" s="572"/>
       <c r="H19" s="29">
         <v>44788</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>1759</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="32">
+      <c r="M19" s="182">
         <v>0</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>43506</v>
       </c>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52900</v>
+      </c>
+      <c r="Q19" s="881">
+        <f t="shared" si="0"/>
+        <v>-50554</v>
       </c>
       <c r="R19" s="319">
         <v>0</v>
@@ -50419,36 +50499,45 @@
       <c r="B20" s="24">
         <v>44789</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>42672</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>1163</v>
+      </c>
       <c r="E20" s="27">
         <v>44789</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>113037</v>
+      </c>
       <c r="G20" s="572"/>
       <c r="H20" s="29">
         <v>44789</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>127</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
-      <c r="M20" s="32">
-        <v>0</v>
+      <c r="M20" s="182">
+        <f>26596+1098.68</f>
+        <v>27694.68</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>46524</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="319">
-        <v>0</v>
+        <v>117017.68</v>
+      </c>
+      <c r="Q20" s="881">
+        <f t="shared" si="0"/>
+        <v>3980.679999999993</v>
+      </c>
+      <c r="R20" s="388">
+        <v>26596</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51194,26 +51283,26 @@
         <v>44779</v>
       </c>
       <c r="K41" s="661" t="s">
-        <v>1152</v>
+        <v>1159</v>
       </c>
       <c r="L41" s="39">
         <v>15889</v>
       </c>
-      <c r="M41" s="780">
+      <c r="M41" s="791">
         <f>SUM(M5:M40)</f>
-        <v>640016</v>
-      </c>
-      <c r="N41" s="780">
+        <v>804697.68</v>
+      </c>
+      <c r="N41" s="791">
         <f>SUM(N5:N40)</f>
-        <v>453820</v>
+        <v>707448</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>1322204</v>
+        <v>1879977.68</v>
       </c>
       <c r="Q41" s="845">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>-118595.32</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51226,11 +51315,17 @@
       <c r="G42" s="572"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="698"/>
-      <c r="K42" s="701"/>
-      <c r="L42" s="702"/>
-      <c r="M42" s="781"/>
-      <c r="N42" s="781"/>
+      <c r="J42" s="698">
+        <v>44786</v>
+      </c>
+      <c r="K42" s="701" t="s">
+        <v>1160</v>
+      </c>
+      <c r="L42" s="702">
+        <v>17693</v>
+      </c>
+      <c r="M42" s="792"/>
+      <c r="N42" s="792"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="846"/>
     </row>
@@ -51285,7 +51380,7 @@
       <c r="L45" s="39"/>
       <c r="M45" s="847">
         <f>M41+N41</f>
-        <v>1093836</v>
+        <v>1512145.6800000002</v>
       </c>
       <c r="N45" s="848"/>
       <c r="P45" s="34"/>
@@ -51670,7 +51765,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>179855</v>
+        <v>290745</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -51678,7 +51773,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>1245812</v>
+        <v>1922181</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -51686,7 +51781,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>30761</v>
+        <v>41646</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -51694,7 +51789,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>33641</v>
+        <v>69023</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -51712,50 +51807,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="757" t="s">
+      <c r="H69" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="758"/>
+      <c r="I69" s="747"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="873">
+      <c r="K69" s="870">
         <f>I67+L67</f>
-        <v>64402</v>
-      </c>
-      <c r="L69" s="874"/>
+        <v>110669</v>
+      </c>
+      <c r="L69" s="871"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="763" t="s">
+      <c r="D70" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="763"/>
+      <c r="E70" s="752"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1001555</v>
+        <v>1520767</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="787" t="s">
+      <c r="D71" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="787"/>
+      <c r="E71" s="782"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="764" t="s">
+      <c r="I71" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="765"/>
-      <c r="K71" s="766">
+      <c r="J71" s="754"/>
+      <c r="K71" s="755">
         <f>F73+F74+F75</f>
-        <v>1001555</v>
-      </c>
-      <c r="L71" s="766"/>
+        <v>1520767</v>
+      </c>
+      <c r="L71" s="755"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -51789,18 +51884,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>1001555</v>
+        <v>1520767</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="869">
+      <c r="K73" s="872">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="766"/>
+      <c r="L73" s="755"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -51815,22 +51910,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="746" t="s">
+      <c r="D75" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="747"/>
+      <c r="E75" s="736"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="870" t="s">
+      <c r="I75" s="867" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="871"/>
-      <c r="K75" s="872">
+      <c r="J75" s="868"/>
+      <c r="K75" s="869">
         <f>K71+K73</f>
-        <v>-1273098.0899999999</v>
-      </c>
-      <c r="L75" s="872"/>
+        <v>-753886.08999999985</v>
+      </c>
+      <c r="L75" s="869"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -51974,13 +52069,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -51996,6 +52084,13 @@
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54084,23 +54179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
-      <c r="C1" s="737" t="s">
+      <c r="B1" s="759"/>
+      <c r="C1" s="761" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="738"/>
-      <c r="E1" s="738"/>
-      <c r="F1" s="738"/>
-      <c r="G1" s="738"/>
-      <c r="H1" s="738"/>
-      <c r="I1" s="738"/>
-      <c r="J1" s="738"/>
-      <c r="K1" s="738"/>
-      <c r="L1" s="738"/>
-      <c r="M1" s="738"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54110,21 +54205,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54139,14 +54234,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54156,14 +54251,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="788" t="s">
+      <c r="W4" s="772" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="772"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54214,8 +54309,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="772"/>
+      <c r="X5" s="772"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54986,7 +55081,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="776">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55038,7 +55133,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="777"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55087,8 +55182,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="778"/>
+      <c r="X21" s="778"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55189,8 +55284,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="779"/>
+      <c r="X23" s="779"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55244,8 +55339,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="779"/>
+      <c r="X24" s="779"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55291,8 +55386,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="780"/>
+      <c r="X25" s="780"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55343,8 +55438,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="780"/>
+      <c r="X26" s="780"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55392,9 +55487,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="773"/>
+      <c r="X27" s="774"/>
+      <c r="Y27" s="775"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55444,9 +55539,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="774"/>
+      <c r="X28" s="774"/>
+      <c r="Y28" s="775"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55781,11 +55876,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="780">
+      <c r="M36" s="791">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="782">
+      <c r="N36" s="793">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -55793,7 +55888,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="784">
+      <c r="Q36" s="795">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -55828,13 +55923,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="781"/>
-      <c r="N37" s="783"/>
+      <c r="M37" s="792"/>
+      <c r="N37" s="794"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="785"/>
+      <c r="Q37" s="796"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56124,26 +56219,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="757" t="s">
+      <c r="H52" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="758"/>
+      <c r="I52" s="747"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="759">
+      <c r="K52" s="748">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="786"/>
+      <c r="L52" s="781"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="763" t="s">
+      <c r="D53" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="763"/>
+      <c r="E53" s="752"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56152,29 +56247,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="787" t="s">
+      <c r="D54" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="787"/>
+      <c r="E54" s="782"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="764" t="s">
+      <c r="I54" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="765"/>
-      <c r="K54" s="766">
+      <c r="J54" s="754"/>
+      <c r="K54" s="755">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="766"/>
-      <c r="M54" s="772" t="s">
+      <c r="L54" s="755"/>
+      <c r="M54" s="783" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="773"/>
-      <c r="O54" s="773"/>
-      <c r="P54" s="773"/>
-      <c r="Q54" s="774"/>
+      <c r="N54" s="784"/>
+      <c r="O54" s="784"/>
+      <c r="P54" s="784"/>
+      <c r="Q54" s="785"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56188,11 +56283,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="775"/>
-      <c r="N55" s="776"/>
-      <c r="O55" s="776"/>
-      <c r="P55" s="776"/>
-      <c r="Q55" s="777"/>
+      <c r="M55" s="786"/>
+      <c r="N55" s="787"/>
+      <c r="O55" s="787"/>
+      <c r="P55" s="787"/>
+      <c r="Q55" s="788"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56210,11 +56305,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="768">
+      <c r="K56" s="757">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="769"/>
+      <c r="L56" s="758"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56231,22 +56326,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="746" t="s">
+      <c r="D58" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="747"/>
+      <c r="E58" s="736"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="748" t="s">
+      <c r="I58" s="737" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="749"/>
-      <c r="K58" s="750">
+      <c r="J58" s="738"/>
+      <c r="K58" s="739">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="750"/>
+      <c r="L58" s="739"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -56390,14 +56485,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -56408,17 +56506,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59161,23 +59256,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
-      <c r="C1" s="737" t="s">
+      <c r="B1" s="759"/>
+      <c r="C1" s="761" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="738"/>
-      <c r="E1" s="738"/>
-      <c r="F1" s="738"/>
-      <c r="G1" s="738"/>
-      <c r="H1" s="738"/>
-      <c r="I1" s="738"/>
-      <c r="J1" s="738"/>
-      <c r="K1" s="738"/>
-      <c r="L1" s="738"/>
-      <c r="M1" s="738"/>
+      <c r="D1" s="762"/>
+      <c r="E1" s="762"/>
+      <c r="F1" s="762"/>
+      <c r="G1" s="762"/>
+      <c r="H1" s="762"/>
+      <c r="I1" s="762"/>
+      <c r="J1" s="762"/>
+      <c r="K1" s="762"/>
+      <c r="L1" s="762"/>
+      <c r="M1" s="762"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59187,21 +59282,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -59219,14 +59314,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59236,15 +59331,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="800"/>
-      <c r="W4" s="788" t="s">
+      <c r="W4" s="772" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="772"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59305,8 +59400,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="772"/>
+      <c r="X5" s="772"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60063,7 +60158,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="776">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60115,7 +60210,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="777"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60164,8 +60259,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="778"/>
+      <c r="X21" s="778"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60266,8 +60361,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="779"/>
+      <c r="X23" s="779"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60318,8 +60413,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="779"/>
+      <c r="X24" s="779"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60365,8 +60460,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="780"/>
+      <c r="X25" s="780"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60414,8 +60509,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="780"/>
+      <c r="X26" s="780"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60475,9 +60570,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="773"/>
+      <c r="X27" s="774"/>
+      <c r="Y27" s="775"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60531,9 +60626,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="774"/>
+      <c r="X28" s="774"/>
+      <c r="Y28" s="775"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60849,11 +60944,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="780">
+      <c r="M36" s="791">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="782">
+      <c r="N36" s="793">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -60861,7 +60956,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="784">
+      <c r="Q36" s="795">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -60880,13 +60975,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="781"/>
-      <c r="N37" s="783"/>
+      <c r="M37" s="792"/>
+      <c r="N37" s="794"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="785"/>
+      <c r="Q37" s="796"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61160,26 +61255,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="757" t="s">
+      <c r="H52" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="758"/>
+      <c r="I52" s="747"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="759">
+      <c r="K52" s="748">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="786"/>
+      <c r="L52" s="781"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="763" t="s">
+      <c r="D53" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="763"/>
+      <c r="E53" s="752"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61188,29 +61283,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="787" t="s">
+      <c r="D54" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="787"/>
+      <c r="E54" s="782"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="764" t="s">
+      <c r="I54" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="765"/>
-      <c r="K54" s="766">
+      <c r="J54" s="754"/>
+      <c r="K54" s="755">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="766"/>
-      <c r="M54" s="772" t="s">
+      <c r="L54" s="755"/>
+      <c r="M54" s="783" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="773"/>
-      <c r="O54" s="773"/>
-      <c r="P54" s="773"/>
-      <c r="Q54" s="774"/>
+      <c r="N54" s="784"/>
+      <c r="O54" s="784"/>
+      <c r="P54" s="784"/>
+      <c r="Q54" s="785"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61224,11 +61319,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="775"/>
-      <c r="N55" s="776"/>
-      <c r="O55" s="776"/>
-      <c r="P55" s="776"/>
-      <c r="Q55" s="777"/>
+      <c r="M55" s="786"/>
+      <c r="N55" s="787"/>
+      <c r="O55" s="787"/>
+      <c r="P55" s="787"/>
+      <c r="Q55" s="788"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61246,11 +61341,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="768">
+      <c r="K56" s="757">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="769"/>
+      <c r="L56" s="758"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61267,22 +61362,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="746" t="s">
+      <c r="D58" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="747"/>
+      <c r="E58" s="736"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="748" t="s">
+      <c r="I58" s="737" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="749"/>
-      <c r="K58" s="750">
+      <c r="J58" s="738"/>
+      <c r="K58" s="739">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="750"/>
+      <c r="L58" s="739"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61426,20 +61521,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -61449,13 +61537,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64150,7 +64245,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>316</v>
       </c>
@@ -64166,7 +64261,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64176,21 +64271,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -64208,14 +64303,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64225,15 +64320,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="800"/>
-      <c r="W4" s="788" t="s">
+      <c r="W4" s="772" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="772"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64284,8 +64379,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="772"/>
+      <c r="X5" s="772"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65049,7 +65144,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="776">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65102,7 +65197,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="777"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65151,8 +65246,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="778"/>
+      <c r="X21" s="778"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65252,8 +65347,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="779"/>
+      <c r="X23" s="779"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65308,8 +65403,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="779"/>
+      <c r="X24" s="779"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65354,8 +65449,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="780"/>
+      <c r="X25" s="780"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65403,8 +65498,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="780"/>
+      <c r="X26" s="780"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65458,9 +65553,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="773"/>
+      <c r="X27" s="774"/>
+      <c r="Y27" s="775"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65514,9 +65609,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="774"/>
+      <c r="X28" s="774"/>
+      <c r="Y28" s="775"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65827,11 +65922,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="780">
+      <c r="M36" s="791">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="782">
+      <c r="N36" s="793">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -65839,7 +65934,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="784">
+      <c r="Q36" s="795">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -65864,13 +65959,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="781"/>
-      <c r="N37" s="783"/>
+      <c r="M37" s="792"/>
+      <c r="N37" s="794"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="785"/>
+      <c r="Q37" s="796"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66163,26 +66258,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="757" t="s">
+      <c r="H52" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="758"/>
+      <c r="I52" s="747"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="759">
+      <c r="K52" s="748">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="786"/>
+      <c r="L52" s="781"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="763" t="s">
+      <c r="D53" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="763"/>
+      <c r="E53" s="752"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66191,22 +66286,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="787" t="s">
+      <c r="D54" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="787"/>
+      <c r="E54" s="782"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="764" t="s">
+      <c r="I54" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="765"/>
-      <c r="K54" s="766">
+      <c r="J54" s="754"/>
+      <c r="K54" s="755">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="766"/>
+      <c r="L54" s="755"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66247,11 +66342,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="768">
+      <c r="K56" s="757">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="769"/>
+      <c r="L56" s="758"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66268,22 +66363,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="746" t="s">
+      <c r="D58" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="747"/>
+      <c r="E58" s="736"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="748" t="s">
+      <c r="I58" s="737" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="749"/>
-      <c r="K58" s="750">
+      <c r="J58" s="738"/>
+      <c r="K58" s="739">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="750"/>
+      <c r="L58" s="739"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -66427,20 +66522,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -66456,6 +66537,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -69249,7 +69344,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="735"/>
+      <c r="B1" s="759"/>
       <c r="C1" s="801" t="s">
         <v>646</v>
       </c>
@@ -69265,7 +69360,7 @@
       <c r="M1" s="802"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="736"/>
+      <c r="B2" s="760"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69275,21 +69370,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="739" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="740"/>
+      <c r="B3" s="763" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="764"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="741" t="s">
+      <c r="H3" s="765" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="741"/>
+      <c r="I3" s="765"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="778" t="s">
+      <c r="P3" s="789" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="799" t="s">
@@ -69307,14 +69402,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="742" t="s">
+      <c r="E4" s="766" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="743"/>
-      <c r="H4" s="744" t="s">
+      <c r="F4" s="767"/>
+      <c r="H4" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="745"/>
+      <c r="I4" s="769"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69324,15 +69419,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="779"/>
+      <c r="P4" s="790"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="800"/>
-      <c r="W4" s="788" t="s">
+      <c r="W4" s="772" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="788"/>
+      <c r="X4" s="772"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69383,8 +69478,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="772"/>
+      <c r="X5" s="772"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70145,7 +70240,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="792">
+      <c r="W19" s="776">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70197,7 +70292,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="793"/>
+      <c r="W20" s="777"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70246,8 +70341,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="794"/>
-      <c r="X21" s="794"/>
+      <c r="W21" s="778"/>
+      <c r="X21" s="778"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70346,8 +70441,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="795"/>
-      <c r="X23" s="795"/>
+      <c r="W23" s="779"/>
+      <c r="X23" s="779"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70402,8 +70497,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="795"/>
-      <c r="X24" s="795"/>
+      <c r="W24" s="779"/>
+      <c r="X24" s="779"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70451,8 +70546,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="796"/>
-      <c r="X25" s="796"/>
+      <c r="W25" s="780"/>
+      <c r="X25" s="780"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70500,8 +70595,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="796"/>
-      <c r="X26" s="796"/>
+      <c r="W26" s="780"/>
+      <c r="X26" s="780"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70549,9 +70644,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="789"/>
-      <c r="X27" s="790"/>
-      <c r="Y27" s="791"/>
+      <c r="W27" s="773"/>
+      <c r="X27" s="774"/>
+      <c r="Y27" s="775"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70599,9 +70694,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="790"/>
-      <c r="X28" s="790"/>
-      <c r="Y28" s="791"/>
+      <c r="W28" s="774"/>
+      <c r="X28" s="774"/>
+      <c r="Y28" s="775"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70942,11 +71037,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="780">
+      <c r="M36" s="791">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="782">
+      <c r="N36" s="793">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -70979,8 +71074,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="781"/>
-      <c r="N37" s="783"/>
+      <c r="M37" s="792"/>
+      <c r="N37" s="794"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -71287,26 +71382,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="757" t="s">
+      <c r="H52" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="758"/>
+      <c r="I52" s="747"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="759">
+      <c r="K52" s="748">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="786"/>
+      <c r="L52" s="781"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="763" t="s">
+      <c r="D53" s="752" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="763"/>
+      <c r="E53" s="752"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71315,22 +71410,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="787" t="s">
+      <c r="D54" s="782" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="787"/>
+      <c r="E54" s="782"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="764" t="s">
+      <c r="I54" s="753" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="765"/>
-      <c r="K54" s="766">
+      <c r="J54" s="754"/>
+      <c r="K54" s="755">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="766"/>
+      <c r="L54" s="755"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71371,11 +71466,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="768">
+      <c r="K56" s="757">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="769"/>
+      <c r="L56" s="758"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71392,22 +71487,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="746" t="s">
+      <c r="D58" s="735" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="747"/>
+      <c r="E58" s="736"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="748" t="s">
+      <c r="I58" s="737" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="749"/>
-      <c r="K58" s="750">
+      <c r="J58" s="738"/>
+      <c r="K58" s="739">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="750"/>
+      <c r="L58" s="739"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -71551,6 +71646,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -71567,20 +71676,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1184">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4356,6 +4356,66 @@
   </si>
   <si>
     <t>PULPA RES-CHISTORRA-ROASBEEF-QUESOS-RIBEYE-SALCHICHA</t>
+  </si>
+  <si>
+    <t>05732 D</t>
+  </si>
+  <si>
+    <t>05838 D</t>
+  </si>
+  <si>
+    <t>06050 D</t>
+  </si>
+  <si>
+    <t>06125 D</t>
+  </si>
+  <si>
+    <t>06247 D</t>
+  </si>
+  <si>
+    <t>06405 D</t>
+  </si>
+  <si>
+    <t>06555 D</t>
+  </si>
+  <si>
+    <t>06659 D</t>
+  </si>
+  <si>
+    <t>06756 D</t>
+  </si>
+  <si>
+    <t>06853 D</t>
+  </si>
+  <si>
+    <t>06967 D</t>
+  </si>
+  <si>
+    <t>07153 D</t>
+  </si>
+  <si>
+    <t>07286 D</t>
+  </si>
+  <si>
+    <t>07347 D</t>
+  </si>
+  <si>
+    <t>07448 D</t>
+  </si>
+  <si>
+    <t>07454 D</t>
+  </si>
+  <si>
+    <t>07613 D</t>
+  </si>
+  <si>
+    <t>07701 D</t>
+  </si>
+  <si>
+    <t>07764 D</t>
+  </si>
+  <si>
+    <t>07874 D</t>
   </si>
 </sst>
 </file>
@@ -6498,7 +6558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="882">
+  <cellXfs count="884">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -7994,6 +8054,13 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8432,7 +8499,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -13796,23 +13862,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="761" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="764" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="762"/>
-      <c r="E1" s="762"/>
-      <c r="F1" s="762"/>
-      <c r="G1" s="762"/>
-      <c r="H1" s="762"/>
-      <c r="I1" s="762"/>
-      <c r="J1" s="762"/>
-      <c r="K1" s="762"/>
-      <c r="L1" s="762"/>
-      <c r="M1" s="762"/>
+      <c r="D1" s="765"/>
+      <c r="E1" s="765"/>
+      <c r="F1" s="765"/>
+      <c r="G1" s="765"/>
+      <c r="H1" s="765"/>
+      <c r="I1" s="765"/>
+      <c r="J1" s="765"/>
+      <c r="K1" s="765"/>
+      <c r="L1" s="765"/>
+      <c r="M1" s="765"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13822,17 +13888,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13846,14 +13912,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13863,10 +13929,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="740" t="s">
+      <c r="P4" s="743" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="741"/>
+      <c r="Q4" s="744"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15307,11 +15373,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="742">
+      <c r="M39" s="745">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="744">
+      <c r="N39" s="747">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15337,8 +15403,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="743"/>
-      <c r="N40" s="745"/>
+      <c r="M40" s="746"/>
+      <c r="N40" s="748"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15553,29 +15619,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="746" t="s">
+      <c r="H52" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="747"/>
+      <c r="I52" s="750"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="748">
+      <c r="K52" s="751">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="749"/>
-      <c r="M52" s="750">
+      <c r="L52" s="752"/>
+      <c r="M52" s="753">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="751"/>
+      <c r="N52" s="754"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="752" t="s">
+      <c r="D53" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="752"/>
+      <c r="E53" s="755"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15586,22 +15652,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="752" t="s">
+      <c r="D54" s="755" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="752"/>
+      <c r="E54" s="755"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="753" t="s">
+      <c r="I54" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="754"/>
-      <c r="K54" s="755">
+      <c r="J54" s="757"/>
+      <c r="K54" s="758">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="756"/>
+      <c r="L54" s="759"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15634,11 +15700,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="757">
+      <c r="K56" s="760">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="758"/>
+      <c r="L56" s="761"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15655,22 +15721,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="735" t="s">
+      <c r="D58" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="736"/>
+      <c r="E58" s="739"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="737" t="s">
+      <c r="I58" s="740" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="738"/>
-      <c r="K58" s="739">
+      <c r="J58" s="741"/>
+      <c r="K58" s="742">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="739"/>
+      <c r="L58" s="742"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18294,10 +18360,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="831" t="s">
+      <c r="I76" s="834" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="832"/>
+      <c r="J76" s="835"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -18316,8 +18382,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="833"/>
-      <c r="J77" s="834"/>
+      <c r="I77" s="836"/>
+      <c r="J77" s="837"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -18384,7 +18450,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="797" t="s">
+      <c r="F80" s="800" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18399,7 +18465,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="798"/>
+      <c r="F81" s="801"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18407,10 +18473,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="830" t="s">
+      <c r="B82" s="833" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="830"/>
+      <c r="C82" s="833"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -18692,23 +18758,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18718,24 +18784,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18750,14 +18816,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18767,15 +18833,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
-      <c r="W4" s="772" t="s">
+      <c r="R4" s="803"/>
+      <c r="W4" s="775" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="772"/>
+      <c r="X4" s="775"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18826,8 +18892,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="772"/>
-      <c r="X5" s="772"/>
+      <c r="W5" s="775"/>
+      <c r="X5" s="775"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19590,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="776">
+      <c r="W19" s="779">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19642,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="777"/>
+      <c r="W20" s="780"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19691,8 +19757,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="778"/>
-      <c r="X21" s="778"/>
+      <c r="W21" s="781"/>
+      <c r="X21" s="781"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19792,8 +19858,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="779"/>
-      <c r="X23" s="779"/>
+      <c r="W23" s="782"/>
+      <c r="X23" s="782"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19848,8 +19914,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="779"/>
-      <c r="X24" s="779"/>
+      <c r="W24" s="782"/>
+      <c r="X24" s="782"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19897,8 +19963,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="780"/>
-      <c r="X25" s="780"/>
+      <c r="W25" s="783"/>
+      <c r="X25" s="783"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19947,8 +20013,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="780"/>
-      <c r="X26" s="780"/>
+      <c r="W26" s="783"/>
+      <c r="X26" s="783"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -19996,9 +20062,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="773"/>
-      <c r="X27" s="774"/>
-      <c r="Y27" s="775"/>
+      <c r="W27" s="776"/>
+      <c r="X27" s="777"/>
+      <c r="Y27" s="778"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20046,9 +20112,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="774"/>
-      <c r="X28" s="774"/>
-      <c r="Y28" s="775"/>
+      <c r="W28" s="777"/>
+      <c r="X28" s="777"/>
+      <c r="Y28" s="778"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20380,11 +20446,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="791">
+      <c r="M36" s="794">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="793">
+      <c r="N36" s="796">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20392,7 +20458,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="826">
+      <c r="Q36" s="829">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -20417,13 +20483,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="792"/>
-      <c r="N37" s="794"/>
+      <c r="M37" s="795"/>
+      <c r="N37" s="797"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="827"/>
+      <c r="Q37" s="830"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20473,11 +20539,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="828">
+      <c r="M39" s="831">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="829"/>
+      <c r="N39" s="832"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21105,26 +21171,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="746" t="s">
+      <c r="H68" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="747"/>
+      <c r="I68" s="750"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="748">
+      <c r="K68" s="751">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="781"/>
+      <c r="L68" s="784"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="752" t="s">
+      <c r="D69" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="752"/>
+      <c r="E69" s="755"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21133,22 +21199,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="782" t="s">
+      <c r="D70" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="782"/>
+      <c r="E70" s="785"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="753" t="s">
+      <c r="I70" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="754"/>
-      <c r="K70" s="755">
+      <c r="J70" s="757"/>
+      <c r="K70" s="758">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="755"/>
+      <c r="L70" s="758"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21189,11 +21255,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="757">
+      <c r="K72" s="760">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="758"/>
+      <c r="L72" s="761"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21210,22 +21276,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="735" t="s">
+      <c r="D74" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="736"/>
+      <c r="E74" s="739"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="737" t="s">
+      <c r="I74" s="740" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="738"/>
-      <c r="K74" s="739">
+      <c r="J74" s="741"/>
+      <c r="K74" s="742">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="739"/>
+      <c r="L74" s="742"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -22963,10 +23029,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="839" t="s">
+      <c r="I44" s="842" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="840"/>
+      <c r="J44" s="843"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -22985,8 +23051,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="841"/>
-      <c r="J45" s="842"/>
+      <c r="I45" s="844"/>
+      <c r="J45" s="845"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23005,8 +23071,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="843"/>
-      <c r="J46" s="844"/>
+      <c r="I46" s="846"/>
+      <c r="J46" s="847"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -23695,7 +23761,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="797" t="s">
+      <c r="F80" s="800" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -23708,7 +23774,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="798"/>
+      <c r="F81" s="801"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -23728,10 +23794,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="835" t="s">
+      <c r="I83" s="838" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="836"/>
+      <c r="J83" s="839"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -23740,8 +23806,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="837"/>
-      <c r="J84" s="838"/>
+      <c r="I84" s="840"/>
+      <c r="J84" s="841"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24014,23 +24080,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24040,24 +24106,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24072,14 +24138,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24089,15 +24155,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
-      <c r="W4" s="772" t="s">
+      <c r="R4" s="803"/>
+      <c r="W4" s="775" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="772"/>
+      <c r="X4" s="775"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24148,8 +24214,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="772"/>
-      <c r="X5" s="772"/>
+      <c r="W5" s="775"/>
+      <c r="X5" s="775"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24908,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="776">
+      <c r="W19" s="779">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -24960,7 +25026,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="777"/>
+      <c r="W20" s="780"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25009,8 +25075,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="778"/>
-      <c r="X21" s="778"/>
+      <c r="W21" s="781"/>
+      <c r="X21" s="781"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25107,8 +25173,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="779"/>
-      <c r="X23" s="779"/>
+      <c r="W23" s="782"/>
+      <c r="X23" s="782"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25163,8 +25229,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="779"/>
-      <c r="X24" s="779"/>
+      <c r="W24" s="782"/>
+      <c r="X24" s="782"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25210,8 +25276,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="780"/>
-      <c r="X25" s="780"/>
+      <c r="W25" s="783"/>
+      <c r="X25" s="783"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25262,8 +25328,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="780"/>
-      <c r="X26" s="780"/>
+      <c r="W26" s="783"/>
+      <c r="X26" s="783"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25314,9 +25380,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="773"/>
-      <c r="X27" s="774"/>
-      <c r="Y27" s="775"/>
+      <c r="W27" s="776"/>
+      <c r="X27" s="777"/>
+      <c r="Y27" s="778"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25366,9 +25432,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="774"/>
-      <c r="X28" s="774"/>
-      <c r="Y28" s="775"/>
+      <c r="W28" s="777"/>
+      <c r="X28" s="777"/>
+      <c r="Y28" s="778"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25972,11 +26038,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="791">
+      <c r="M41" s="794">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="791">
+      <c r="N41" s="794">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -25984,7 +26050,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="845">
+      <c r="Q41" s="848">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26014,10 +26080,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="792"/>
-      <c r="N42" s="792"/>
+      <c r="M42" s="795"/>
+      <c r="N42" s="795"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="846"/>
+      <c r="Q42" s="849"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26105,11 +26171,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="847">
+      <c r="M45" s="850">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="848"/>
+      <c r="N45" s="851"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -26702,26 +26768,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="746" t="s">
+      <c r="H70" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="747"/>
+      <c r="I70" s="750"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="748">
+      <c r="K70" s="751">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="781"/>
+      <c r="L70" s="784"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="752" t="s">
+      <c r="D71" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="752"/>
+      <c r="E71" s="755"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26731,22 +26797,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="782" t="s">
+      <c r="D72" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="782"/>
+      <c r="E72" s="785"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="753" t="s">
+      <c r="I72" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="754"/>
-      <c r="K72" s="755">
+      <c r="J72" s="757"/>
+      <c r="K72" s="758">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="755"/>
+      <c r="L72" s="758"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26787,11 +26853,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="757">
+      <c r="K74" s="760">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="758"/>
+      <c r="L74" s="761"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26810,22 +26876,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="735" t="s">
+      <c r="D76" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="736"/>
+      <c r="E76" s="739"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="737" t="s">
+      <c r="I76" s="740" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="738"/>
-      <c r="K76" s="739">
+      <c r="J76" s="741"/>
+      <c r="K76" s="742">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="739"/>
+      <c r="L76" s="742"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27030,9 +27096,9 @@
   </sheetPr>
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54:J56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28985,10 +29051,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="839" t="s">
+      <c r="I54" s="842" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="840"/>
+      <c r="J54" s="843"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29004,8 +29070,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="841"/>
-      <c r="J55" s="842"/>
+      <c r="I55" s="844"/>
+      <c r="J55" s="845"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29021,8 +29087,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="843"/>
-      <c r="J56" s="844"/>
+      <c r="I56" s="846"/>
+      <c r="J56" s="847"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -29690,7 +29756,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="797" t="s">
+      <c r="F90" s="800" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29703,7 +29769,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="798"/>
+      <c r="F91" s="801"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -29722,10 +29788,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="835" t="s">
+      <c r="I93" s="838" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="836"/>
+      <c r="J93" s="839"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -29735,8 +29801,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="837"/>
-      <c r="J94" s="838"/>
+      <c r="I94" s="840"/>
+      <c r="J94" s="841"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30177,11 +30243,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="849">
+      <c r="C130" s="852">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="850"/>
+      <c r="D130" s="853"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30218,21 +30284,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="855" t="s">
+      <c r="F2" s="858" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="856"/>
-      <c r="H2" s="857"/>
+      <c r="G2" s="859"/>
+      <c r="H2" s="860"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="852" t="s">
+      <c r="B3" s="855" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="853"/>
-      <c r="D3" s="854"/>
-      <c r="F3" s="858"/>
-      <c r="G3" s="859"/>
-      <c r="H3" s="860"/>
+      <c r="C3" s="856"/>
+      <c r="D3" s="857"/>
+      <c r="F3" s="861"/>
+      <c r="G3" s="862"/>
+      <c r="H3" s="863"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -30377,11 +30443,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="861">
+      <c r="G11" s="864">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="862"/>
+      <c r="H11" s="865"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -30398,23 +30464,23 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="865" t="s">
+      <c r="C15" s="868" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="863">
+      <c r="D15" s="866">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="866"/>
-      <c r="D16" s="864"/>
+      <c r="C16" s="869"/>
+      <c r="D16" s="867"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="851" t="s">
+      <c r="C17" s="854" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="851"/>
+      <c r="D17" s="854"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30472,23 +30538,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30498,24 +30564,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -30534,14 +30600,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30551,15 +30617,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
+      <c r="R4" s="803"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="873"/>
-      <c r="X4" s="873"/>
+      <c r="W4" s="876"/>
+      <c r="X4" s="876"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30613,8 +30679,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="873"/>
-      <c r="X5" s="873"/>
+      <c r="W5" s="876"/>
+      <c r="X5" s="876"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31380,7 +31446,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="874"/>
+      <c r="W19" s="877"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31434,7 +31500,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="874"/>
+      <c r="W20" s="877"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31489,8 +31555,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="778"/>
-      <c r="X21" s="778"/>
+      <c r="W21" s="781"/>
+      <c r="X21" s="781"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31601,8 +31667,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="779"/>
-      <c r="X23" s="779"/>
+      <c r="W23" s="782"/>
+      <c r="X23" s="782"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31663,8 +31729,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="779"/>
-      <c r="X24" s="779"/>
+      <c r="W24" s="782"/>
+      <c r="X24" s="782"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31717,8 +31783,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="780"/>
-      <c r="X25" s="780"/>
+      <c r="W25" s="783"/>
+      <c r="X25" s="783"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31773,8 +31839,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="780"/>
-      <c r="X26" s="780"/>
+      <c r="W26" s="783"/>
+      <c r="X26" s="783"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31829,9 +31895,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="773"/>
-      <c r="X27" s="774"/>
-      <c r="Y27" s="775"/>
+      <c r="W27" s="776"/>
+      <c r="X27" s="777"/>
+      <c r="Y27" s="778"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31885,9 +31951,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="774"/>
-      <c r="X28" s="774"/>
-      <c r="Y28" s="775"/>
+      <c r="W28" s="777"/>
+      <c r="X28" s="777"/>
+      <c r="Y28" s="778"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32478,11 +32544,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="791">
+      <c r="M41" s="794">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="791">
+      <c r="N41" s="794">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32490,7 +32556,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="845">
+      <c r="Q41" s="848">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -32514,10 +32580,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="792"/>
-      <c r="N42" s="792"/>
+      <c r="M42" s="795"/>
+      <c r="N42" s="795"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="846"/>
+      <c r="Q42" s="849"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -32586,11 +32652,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="847">
+      <c r="M45" s="850">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="848"/>
+      <c r="N45" s="851"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33006,26 +33072,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="746" t="s">
+      <c r="H63" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="747"/>
+      <c r="I63" s="750"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="870">
+      <c r="K63" s="873">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="871"/>
+      <c r="L63" s="874"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="752" t="s">
+      <c r="D64" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="752"/>
+      <c r="E64" s="755"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33034,22 +33100,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="782" t="s">
+      <c r="D65" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="782"/>
+      <c r="E65" s="785"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="753" t="s">
+      <c r="I65" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="754"/>
-      <c r="K65" s="755">
+      <c r="J65" s="757"/>
+      <c r="K65" s="758">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="755"/>
+      <c r="L65" s="758"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33090,11 +33156,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="872">
+      <c r="K67" s="875">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="755"/>
+      <c r="L67" s="758"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33111,22 +33177,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="735" t="s">
+      <c r="D69" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="736"/>
+      <c r="E69" s="739"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="867" t="s">
+      <c r="I69" s="870" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="868"/>
-      <c r="K69" s="869">
+      <c r="J69" s="871"/>
+      <c r="K69" s="872">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="869"/>
+      <c r="L69" s="872"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33318,8 +33384,8 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34799,10 +34865,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="839" t="s">
+      <c r="I38" s="842" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="840"/>
+      <c r="J38" s="843"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -34821,8 +34887,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="841"/>
-      <c r="J39" s="842"/>
+      <c r="I39" s="844"/>
+      <c r="J39" s="845"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -34841,8 +34907,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="843"/>
-      <c r="J40" s="844"/>
+      <c r="I40" s="846"/>
+      <c r="J40" s="847"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -35465,7 +35531,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="797" t="s">
+      <c r="F71" s="800" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -35478,7 +35544,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="798"/>
+      <c r="F72" s="801"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -35497,10 +35563,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="835" t="s">
+      <c r="I74" s="838" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="836"/>
+      <c r="J74" s="839"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -35509,8 +35575,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="837"/>
-      <c r="J75" s="838"/>
+      <c r="I75" s="840"/>
+      <c r="J75" s="841"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -35644,11 +35710,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="877" t="s">
+      <c r="A89" s="880" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="878"/>
-      <c r="C89" s="878"/>
+      <c r="B89" s="881"/>
+      <c r="C89" s="881"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -35658,10 +35724,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="879" t="s">
+      <c r="B90" s="882" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="880"/>
+      <c r="C90" s="883"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -35762,7 +35828,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="875">
+      <c r="C97" s="878">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -35776,7 +35842,7 @@
       <c r="B98" s="659" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="876"/>
+      <c r="C98" s="879"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -35839,7 +35905,7 @@
     <mergeCell ref="B90:C90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35877,23 +35943,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35903,24 +35969,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -35935,14 +36001,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -35952,11 +36018,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
+      <c r="R4" s="803"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37724,11 +37790,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="791">
+      <c r="M41" s="794">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="791">
+      <c r="N41" s="794">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37736,7 +37802,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="845">
+      <c r="Q41" s="848">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -37766,10 +37832,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="792"/>
-      <c r="N42" s="792"/>
+      <c r="M42" s="795"/>
+      <c r="N42" s="795"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="846"/>
+      <c r="Q42" s="849"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -37856,11 +37922,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="847">
+      <c r="M45" s="850">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="848"/>
+      <c r="N45" s="851"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -38446,26 +38512,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="746" t="s">
+      <c r="H69" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="747"/>
+      <c r="I69" s="750"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="870">
+      <c r="K69" s="873">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="871"/>
+      <c r="L69" s="874"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="752" t="s">
+      <c r="D70" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="752"/>
+      <c r="E70" s="755"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38474,22 +38540,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="782" t="s">
+      <c r="D71" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="782"/>
+      <c r="E71" s="785"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="753" t="s">
+      <c r="I71" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="754"/>
-      <c r="K71" s="755">
+      <c r="J71" s="757"/>
+      <c r="K71" s="758">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="755"/>
+      <c r="L71" s="758"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38530,11 +38596,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="872">
+      <c r="K73" s="875">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="755"/>
+      <c r="L73" s="758"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38551,22 +38617,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="735" t="s">
+      <c r="D75" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="736"/>
+      <c r="E75" s="739"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="737" t="s">
+      <c r="I75" s="740" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="738"/>
-      <c r="K75" s="739">
+      <c r="J75" s="741"/>
+      <c r="K75" s="742">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="739"/>
+      <c r="L75" s="742"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38750,15 +38816,15 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="455" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="162" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="257" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -40382,10 +40448,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="839" t="s">
+      <c r="H43" s="842" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="840"/>
+      <c r="I43" s="843"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -40404,8 +40470,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="841"/>
-      <c r="I44" s="842"/>
+      <c r="H44" s="844"/>
+      <c r="I44" s="845"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -40424,8 +40490,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="843"/>
-      <c r="I45" s="844"/>
+      <c r="H45" s="846"/>
+      <c r="I45" s="847"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -40869,10 +40935,10 @@
         <f>SUM(F3:F66)</f>
         <v>403455.10000000009</v>
       </c>
-      <c r="H67" s="835" t="s">
+      <c r="H67" s="838" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="836"/>
+      <c r="I67" s="839"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -40892,11 +40958,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="797" t="s">
+      <c r="F68" s="800" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="837"/>
-      <c r="I68" s="838"/>
+      <c r="H68" s="840"/>
+      <c r="I68" s="841"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -40907,7 +40973,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="798"/>
+      <c r="F69" s="801"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -40972,226 +41038,149 @@
       <c r="L75"/>
       <c r="M75"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="98"/>
-      <c r="B76" s="194"/>
-      <c r="C76" s="233"/>
-      <c r="D76" s="456"/>
+    <row r="76" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="737"/>
+      <c r="F76" s="736"/>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="L76"/>
       <c r="M76"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="98"/>
-      <c r="B77" s="194"/>
-      <c r="C77" s="233"/>
-      <c r="D77" s="456"/>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="L77"/>
       <c r="M77"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="98"/>
-      <c r="B78" s="194"/>
-      <c r="C78" s="233"/>
-      <c r="D78" s="456"/>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="L78"/>
       <c r="M78"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="98"/>
-      <c r="B79" s="194"/>
-      <c r="C79" s="233"/>
-      <c r="D79" s="456"/>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="L79"/>
       <c r="M79"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
-      <c r="B80" s="194"/>
-      <c r="C80" s="233"/>
-      <c r="D80" s="456"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="L80"/>
       <c r="M80"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
-      <c r="B81" s="116"/>
-      <c r="C81" s="233"/>
-      <c r="D81" s="456"/>
+    <row r="81" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="98"/>
-      <c r="B82" s="116"/>
-      <c r="C82" s="233"/>
-      <c r="D82" s="456"/>
+    <row r="82" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="L82"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="98"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="233"/>
-      <c r="D83" s="456"/>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="L83"/>
       <c r="M83"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="98"/>
-      <c r="B84" s="116"/>
-      <c r="C84" s="233"/>
-      <c r="D84" s="456"/>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="L84"/>
       <c r="M84"/>
     </row>
-    <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="98"/>
-      <c r="B85" s="116"/>
-      <c r="C85" s="233"/>
-      <c r="D85" s="456"/>
+    <row r="85" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="L85"/>
       <c r="M85"/>
     </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="98"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="233"/>
-      <c r="D86" s="456"/>
+    <row r="86" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86"/>
       <c r="L86"/>
       <c r="M86"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="98"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="233"/>
-      <c r="D87" s="456"/>
+    <row r="87" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="98"/>
-      <c r="B88" s="116"/>
-      <c r="C88" s="233"/>
-      <c r="D88" s="456"/>
+    <row r="88" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88"/>
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="98"/>
-      <c r="B89" s="116"/>
-      <c r="C89" s="233"/>
-      <c r="D89" s="456"/>
+    <row r="89" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89"/>
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
-      <c r="B90" s="116"/>
-      <c r="C90" s="233"/>
-      <c r="D90" s="456"/>
+    <row r="90" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90"/>
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="116"/>
-      <c r="C91" s="233"/>
-      <c r="D91" s="456"/>
+    <row r="91" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="98"/>
-      <c r="B92" s="116"/>
-      <c r="D92" s="456"/>
+    <row r="92" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92"/>
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="98"/>
-      <c r="B93" s="116"/>
-      <c r="D93" s="456"/>
+    <row r="93" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="98"/>
-      <c r="B94" s="116"/>
-      <c r="D94" s="456"/>
+    <row r="94" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94"/>
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="98"/>
-      <c r="B95" s="116"/>
-      <c r="D95" s="456"/>
+    <row r="95" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
-      <c r="B96" s="116"/>
-      <c r="D96" s="456"/>
+    <row r="96" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
@@ -41199,19 +41188,13 @@
       <c r="M96"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="98"/>
-      <c r="B97" s="116"/>
-      <c r="D97" s="456"/>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="98"/>
-      <c r="B98" s="116"/>
-      <c r="D98" s="456"/>
+    <row r="98" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98"/>
@@ -41219,9 +41202,6 @@
       <c r="M98"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="98"/>
-      <c r="B99" s="116"/>
-      <c r="D99" s="456"/>
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99"/>
@@ -41229,9 +41209,6 @@
       <c r="M99"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="98"/>
-      <c r="B100" s="116"/>
-      <c r="D100" s="456"/>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
@@ -41474,8 +41451,8 @@
     <mergeCell ref="H67:I68"/>
     <mergeCell ref="H43:I45"/>
   </mergeCells>
-  <pageMargins left="0.32" right="0.13" top="0.39" bottom="0.36" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.52" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42811,7 +42788,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="770" t="s">
+      <c r="B41" s="773" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -42843,7 +42820,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="771"/>
+      <c r="B42" s="774"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -44410,8 +44387,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44437,23 +44414,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44463,24 +44440,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44495,14 +44472,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44512,11 +44489,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
+      <c r="R4" s="803"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -46250,11 +46227,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="791">
+      <c r="M41" s="794">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="791">
+      <c r="N41" s="794">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46262,7 +46239,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="845">
+      <c r="Q41" s="848">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -46292,10 +46269,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="792"/>
-      <c r="N42" s="792"/>
+      <c r="M42" s="795"/>
+      <c r="N42" s="795"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="846"/>
+      <c r="Q42" s="849"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -46376,11 +46353,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="847">
+      <c r="M45" s="850">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="848"/>
+      <c r="N45" s="851"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -46897,26 +46874,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="746" t="s">
+      <c r="H69" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="747"/>
+      <c r="I69" s="750"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="870">
+      <c r="K69" s="873">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="871"/>
+      <c r="L69" s="874"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="752" t="s">
+      <c r="D70" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="752"/>
+      <c r="E70" s="755"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46925,22 +46902,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="782" t="s">
+      <c r="D71" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="782"/>
+      <c r="E71" s="785"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="753" t="s">
+      <c r="I71" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="754"/>
-      <c r="K71" s="755">
+      <c r="J71" s="757"/>
+      <c r="K71" s="758">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="755"/>
+      <c r="L71" s="758"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46981,11 +46958,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="872">
+      <c r="K73" s="875">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="755"/>
+      <c r="L73" s="758"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47002,22 +46979,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="735" t="s">
+      <c r="D75" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="736"/>
+      <c r="E75" s="739"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="867" t="s">
+      <c r="I75" s="870" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="868"/>
-      <c r="K75" s="869">
+      <c r="J75" s="871"/>
+      <c r="K75" s="872">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="869"/>
+      <c r="L75" s="872"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47201,8 +47178,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48479,10 +48456,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="839" t="s">
+      <c r="H40" s="842" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="840"/>
+      <c r="I40" s="843"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -48501,8 +48478,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="841"/>
-      <c r="I41" s="842"/>
+      <c r="H41" s="844"/>
+      <c r="I41" s="845"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -48521,8 +48498,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="843"/>
-      <c r="I42" s="844"/>
+      <c r="H42" s="846"/>
+      <c r="I42" s="847"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49026,10 +49003,10 @@
         <f>SUM(F3:F66)</f>
         <v>1727771.26</v>
       </c>
-      <c r="H67" s="835" t="s">
+      <c r="H67" s="838" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="836"/>
+      <c r="I67" s="839"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49049,11 +49026,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="797" t="s">
+      <c r="F68" s="800" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="837"/>
-      <c r="I68" s="838"/>
+      <c r="H68" s="840"/>
+      <c r="I68" s="841"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49064,7 +49041,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="798"/>
+      <c r="F69" s="801"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -49656,7 +49633,7 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+    <sheetView topLeftCell="I7" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -49683,23 +49660,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>1144</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49709,24 +49686,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -49741,14 +49718,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49758,11 +49735,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
+      <c r="R4" s="803"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -50441,7 +50418,7 @@
         <f t="shared" si="1"/>
         <v>56802</v>
       </c>
-      <c r="Q18" s="881">
+      <c r="Q18" s="735">
         <f t="shared" si="0"/>
         <v>-72026</v>
       </c>
@@ -50486,7 +50463,7 @@
         <f t="shared" si="1"/>
         <v>52900</v>
       </c>
-      <c r="Q19" s="881">
+      <c r="Q19" s="735">
         <f t="shared" si="0"/>
         <v>-50554</v>
       </c>
@@ -50532,7 +50509,7 @@
         <f t="shared" si="1"/>
         <v>117017.68</v>
       </c>
-      <c r="Q20" s="881">
+      <c r="Q20" s="735">
         <f t="shared" si="0"/>
         <v>3980.679999999993</v>
       </c>
@@ -51288,11 +51265,11 @@
       <c r="L41" s="39">
         <v>15889</v>
       </c>
-      <c r="M41" s="791">
+      <c r="M41" s="794">
         <f>SUM(M5:M40)</f>
         <v>804697.68</v>
       </c>
-      <c r="N41" s="791">
+      <c r="N41" s="794">
         <f>SUM(N5:N40)</f>
         <v>707448</v>
       </c>
@@ -51300,7 +51277,7 @@
         <f>SUM(P5:P40)</f>
         <v>1879977.68</v>
       </c>
-      <c r="Q41" s="845">
+      <c r="Q41" s="848">
         <f>SUM(Q5:Q40)</f>
         <v>-118595.32</v>
       </c>
@@ -51324,10 +51301,10 @@
       <c r="L42" s="702">
         <v>17693</v>
       </c>
-      <c r="M42" s="792"/>
-      <c r="N42" s="792"/>
+      <c r="M42" s="795"/>
+      <c r="N42" s="795"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="846"/>
+      <c r="Q42" s="849"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -51378,11 +51355,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="847">
+      <c r="M45" s="850">
         <f>M41+N41</f>
         <v>1512145.6800000002</v>
       </c>
-      <c r="N45" s="848"/>
+      <c r="N45" s="851"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -51807,26 +51784,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="746" t="s">
+      <c r="H69" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="747"/>
+      <c r="I69" s="750"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="870">
+      <c r="K69" s="873">
         <f>I67+L67</f>
         <v>110669</v>
       </c>
-      <c r="L69" s="871"/>
+      <c r="L69" s="874"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="752" t="s">
+      <c r="D70" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="752"/>
+      <c r="E70" s="755"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1520767</v>
@@ -51835,22 +51812,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="782" t="s">
+      <c r="D71" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="782"/>
+      <c r="E71" s="785"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="753" t="s">
+      <c r="I71" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="754"/>
-      <c r="K71" s="755">
+      <c r="J71" s="757"/>
+      <c r="K71" s="758">
         <f>F73+F74+F75</f>
         <v>1520767</v>
       </c>
-      <c r="L71" s="755"/>
+      <c r="L71" s="758"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -51891,11 +51868,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="872">
+      <c r="K73" s="875">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="755"/>
+      <c r="L73" s="758"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -51910,22 +51887,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="735" t="s">
+      <c r="D75" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="736"/>
+      <c r="E75" s="739"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="867" t="s">
+      <c r="I75" s="870" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="868"/>
-      <c r="K75" s="869">
+      <c r="J75" s="871"/>
+      <c r="K75" s="872">
         <f>K71+K73</f>
         <v>-753886.08999999985</v>
       </c>
-      <c r="L75" s="869"/>
+      <c r="L75" s="872"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -52106,8 +52083,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52188,14 +52165,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="454"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="111"/>
+      <c r="A3" s="454">
+        <v>44774</v>
+      </c>
+      <c r="B3" s="246" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C3" s="111">
+        <v>154625.5</v>
+      </c>
       <c r="D3" s="412"/>
       <c r="E3" s="111"/>
       <c r="F3" s="410">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>154625.5</v>
       </c>
       <c r="H3" s="704"/>
       <c r="I3" s="705"/>
@@ -52208,14 +52191,20 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="454"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="454">
+        <v>44775</v>
+      </c>
+      <c r="B4" s="246" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C4" s="111">
+        <v>33703.32</v>
+      </c>
       <c r="D4" s="412"/>
       <c r="E4" s="111"/>
       <c r="F4" s="544">
         <f t="shared" ref="F4:F65" si="0">C4-E4</f>
-        <v>0</v>
+        <v>33703.32</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="704"/>
@@ -52229,14 +52218,20 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="454"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="111"/>
+      <c r="A5" s="454">
+        <v>44777</v>
+      </c>
+      <c r="B5" s="246" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C5" s="111">
+        <v>100041.42</v>
+      </c>
       <c r="D5" s="412"/>
       <c r="E5" s="111"/>
       <c r="F5" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100041.42</v>
       </c>
       <c r="H5" s="704"/>
       <c r="I5" s="705"/>
@@ -52249,14 +52244,20 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="454"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="454">
+        <v>44778</v>
+      </c>
+      <c r="B6" s="246" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C6" s="111">
+        <v>83301.009999999995</v>
+      </c>
       <c r="D6" s="412"/>
       <c r="E6" s="111"/>
       <c r="F6" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83301.009999999995</v>
       </c>
       <c r="H6" s="704"/>
       <c r="I6" s="705"/>
@@ -52269,14 +52270,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="454"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="111"/>
+      <c r="A7" s="454">
+        <v>44779</v>
+      </c>
+      <c r="B7" s="246" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C7" s="111">
+        <v>109154.04</v>
+      </c>
       <c r="D7" s="412"/>
       <c r="E7" s="111"/>
       <c r="F7" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109154.04</v>
       </c>
       <c r="H7" s="704"/>
       <c r="I7" s="705"/>
@@ -52289,14 +52296,20 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="454"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="111"/>
+      <c r="A8" s="454">
+        <v>44781</v>
+      </c>
+      <c r="B8" s="246" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C8" s="111">
+        <v>157421.98000000001</v>
+      </c>
       <c r="D8" s="412"/>
       <c r="E8" s="111"/>
       <c r="F8" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>157421.98000000001</v>
       </c>
       <c r="H8" s="704"/>
       <c r="I8" s="705"/>
@@ -52309,14 +52322,20 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="454"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="111"/>
+      <c r="A9" s="454">
+        <v>44782</v>
+      </c>
+      <c r="B9" s="246" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C9" s="111">
+        <v>112479.02</v>
+      </c>
       <c r="D9" s="412"/>
       <c r="E9" s="111"/>
       <c r="F9" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112479.02</v>
       </c>
       <c r="H9" s="704"/>
       <c r="I9" s="705"/>
@@ -52329,14 +52348,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="454"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="454">
+        <v>44783</v>
+      </c>
+      <c r="B10" s="246" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C10" s="111">
+        <v>21000.400000000001</v>
+      </c>
       <c r="D10" s="412"/>
       <c r="E10" s="111"/>
       <c r="F10" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21000.400000000001</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="704"/>
@@ -52350,14 +52375,20 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="454"/>
-      <c r="B11" s="246"/>
-      <c r="C11" s="111"/>
+      <c r="A11" s="454">
+        <v>44784</v>
+      </c>
+      <c r="B11" s="246" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C11" s="111">
+        <v>60532.46</v>
+      </c>
       <c r="D11" s="412"/>
       <c r="E11" s="111"/>
       <c r="F11" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60532.46</v>
       </c>
       <c r="H11" s="704"/>
       <c r="I11" s="705"/>
@@ -52370,14 +52401,20 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="454"/>
-      <c r="B12" s="246"/>
-      <c r="C12" s="111"/>
+      <c r="A12" s="454">
+        <v>44785</v>
+      </c>
+      <c r="B12" s="246" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C12" s="111">
+        <v>73336.13</v>
+      </c>
       <c r="D12" s="412"/>
       <c r="E12" s="111"/>
       <c r="F12" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73336.13</v>
       </c>
       <c r="H12" s="704"/>
       <c r="I12" s="705"/>
@@ -52390,14 +52427,20 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="454"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="454">
+        <v>44786</v>
+      </c>
+      <c r="B13" s="246" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C13" s="111">
+        <v>104138.62</v>
+      </c>
       <c r="D13" s="412"/>
       <c r="E13" s="111"/>
       <c r="F13" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104138.62</v>
       </c>
       <c r="H13" s="704"/>
       <c r="I13" s="705"/>
@@ -52410,14 +52453,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="454"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="111"/>
+      <c r="A14" s="454">
+        <v>44788</v>
+      </c>
+      <c r="B14" s="246" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C14" s="111">
+        <v>120814.64</v>
+      </c>
       <c r="D14" s="412"/>
       <c r="E14" s="111"/>
       <c r="F14" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120814.64</v>
       </c>
       <c r="H14" s="704"/>
       <c r="I14" s="705"/>
@@ -52430,14 +52479,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="454"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="454">
+        <v>44789</v>
+      </c>
+      <c r="B15" s="246" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C15" s="111">
+        <v>19406.900000000001</v>
+      </c>
       <c r="D15" s="412"/>
       <c r="E15" s="111"/>
       <c r="F15" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19406.900000000001</v>
       </c>
       <c r="H15" s="704"/>
       <c r="I15" s="705"/>
@@ -52450,14 +52505,20 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="454"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="111"/>
+      <c r="A16" s="454">
+        <v>44790</v>
+      </c>
+      <c r="B16" s="246" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C16" s="111">
+        <v>67461.399999999994</v>
+      </c>
       <c r="D16" s="412"/>
       <c r="E16" s="111"/>
       <c r="F16" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67461.399999999994</v>
       </c>
       <c r="H16" s="704"/>
       <c r="I16" s="705"/>
@@ -52470,14 +52531,20 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="454"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="454">
+        <v>44791</v>
+      </c>
+      <c r="B17" s="246" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C17" s="111">
+        <v>79085.52</v>
+      </c>
       <c r="D17" s="412"/>
       <c r="E17" s="111"/>
       <c r="F17" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79085.52</v>
       </c>
       <c r="H17" s="704"/>
       <c r="I17" s="705"/>
@@ -52490,14 +52557,20 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="454"/>
-      <c r="B18" s="246"/>
-      <c r="C18" s="111"/>
+      <c r="A18" s="454">
+        <v>44791</v>
+      </c>
+      <c r="B18" s="246" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C18" s="111">
+        <v>543.20000000000005</v>
+      </c>
       <c r="D18" s="412"/>
       <c r="E18" s="111"/>
       <c r="F18" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>543.20000000000005</v>
       </c>
       <c r="H18" s="704"/>
       <c r="I18" s="705"/>
@@ -52510,14 +52583,20 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="454"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="111"/>
+      <c r="A19" s="454">
+        <v>44792</v>
+      </c>
+      <c r="B19" s="246" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C19" s="111">
+        <v>22809.58</v>
+      </c>
       <c r="D19" s="412"/>
       <c r="E19" s="111"/>
       <c r="F19" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22809.58</v>
       </c>
       <c r="H19" s="704"/>
       <c r="I19" s="705"/>
@@ -52530,14 +52609,20 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="454"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="111"/>
+      <c r="A20" s="454">
+        <v>44793</v>
+      </c>
+      <c r="B20" s="246" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C20" s="111">
+        <v>95140.96</v>
+      </c>
       <c r="D20" s="412"/>
       <c r="E20" s="111"/>
       <c r="F20" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95140.96</v>
       </c>
       <c r="H20" s="704"/>
       <c r="I20" s="705"/>
@@ -52550,14 +52635,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="454"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="454">
+        <v>44793</v>
+      </c>
+      <c r="B21" s="246" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C21" s="111">
+        <v>1861.5</v>
+      </c>
       <c r="D21" s="412"/>
       <c r="E21" s="111"/>
       <c r="F21" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1861.5</v>
       </c>
       <c r="H21" s="704"/>
       <c r="I21" s="705"/>
@@ -52570,14 +52661,20 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="454"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="454">
+        <v>44795</v>
+      </c>
+      <c r="B22" s="246" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C22" s="111">
+        <v>108419.36</v>
+      </c>
       <c r="D22" s="412"/>
       <c r="E22" s="111"/>
       <c r="F22" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108419.36</v>
       </c>
       <c r="G22" s="644"/>
       <c r="H22" s="704"/>
@@ -52950,10 +53047,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="839" t="s">
+      <c r="H40" s="842" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="840"/>
+      <c r="I40" s="843"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -52972,8 +53069,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="841"/>
-      <c r="I41" s="842"/>
+      <c r="H41" s="844"/>
+      <c r="I41" s="845"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -52992,8 +53089,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="843"/>
-      <c r="I42" s="844"/>
+      <c r="H42" s="846"/>
+      <c r="I42" s="847"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -53486,7 +53583,7 @@
       <c r="B67" s="440"/>
       <c r="C67" s="212">
         <f>SUM(C3:C66)</f>
-        <v>0</v>
+        <v>1525276.96</v>
       </c>
       <c r="D67" s="407"/>
       <c r="E67" s="395">
@@ -53495,12 +53592,12 @@
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="835" t="s">
+        <v>1525276.96</v>
+      </c>
+      <c r="H67" s="838" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="836"/>
+      <c r="I67" s="839"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -53520,11 +53617,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="797" t="s">
+      <c r="F68" s="800" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="837"/>
-      <c r="I68" s="838"/>
+      <c r="H68" s="840"/>
+      <c r="I68" s="841"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -53535,7 +53632,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="798"/>
+      <c r="F69" s="801"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -54179,23 +54276,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="761" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="764" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="762"/>
-      <c r="E1" s="762"/>
-      <c r="F1" s="762"/>
-      <c r="G1" s="762"/>
-      <c r="H1" s="762"/>
-      <c r="I1" s="762"/>
-      <c r="J1" s="762"/>
-      <c r="K1" s="762"/>
-      <c r="L1" s="762"/>
-      <c r="M1" s="762"/>
+      <c r="D1" s="765"/>
+      <c r="E1" s="765"/>
+      <c r="F1" s="765"/>
+      <c r="G1" s="765"/>
+      <c r="H1" s="765"/>
+      <c r="I1" s="765"/>
+      <c r="J1" s="765"/>
+      <c r="K1" s="765"/>
+      <c r="L1" s="765"/>
+      <c r="M1" s="765"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54205,21 +54302,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54234,14 +54331,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54251,14 +54348,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="772" t="s">
+      <c r="W4" s="775" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="772"/>
+      <c r="X4" s="775"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54309,8 +54406,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="772"/>
-      <c r="X5" s="772"/>
+      <c r="W5" s="775"/>
+      <c r="X5" s="775"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55081,7 +55178,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="776">
+      <c r="W19" s="779">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55133,7 +55230,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="777"/>
+      <c r="W20" s="780"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55182,8 +55279,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="778"/>
-      <c r="X21" s="778"/>
+      <c r="W21" s="781"/>
+      <c r="X21" s="781"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55284,8 +55381,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="779"/>
-      <c r="X23" s="779"/>
+      <c r="W23" s="782"/>
+      <c r="X23" s="782"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55339,8 +55436,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="779"/>
-      <c r="X24" s="779"/>
+      <c r="W24" s="782"/>
+      <c r="X24" s="782"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55386,8 +55483,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="780"/>
-      <c r="X25" s="780"/>
+      <c r="W25" s="783"/>
+      <c r="X25" s="783"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55438,8 +55535,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="780"/>
-      <c r="X26" s="780"/>
+      <c r="W26" s="783"/>
+      <c r="X26" s="783"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55487,9 +55584,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="773"/>
-      <c r="X27" s="774"/>
-      <c r="Y27" s="775"/>
+      <c r="W27" s="776"/>
+      <c r="X27" s="777"/>
+      <c r="Y27" s="778"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55539,9 +55636,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="774"/>
-      <c r="X28" s="774"/>
-      <c r="Y28" s="775"/>
+      <c r="W28" s="777"/>
+      <c r="X28" s="777"/>
+      <c r="Y28" s="778"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55876,11 +55973,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="791">
+      <c r="M36" s="794">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="793">
+      <c r="N36" s="796">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -55888,7 +55985,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="795">
+      <c r="Q36" s="798">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -55923,13 +56020,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="792"/>
-      <c r="N37" s="794"/>
+      <c r="M37" s="795"/>
+      <c r="N37" s="797"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="796"/>
+      <c r="Q37" s="799"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56219,26 +56316,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="746" t="s">
+      <c r="H52" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="747"/>
+      <c r="I52" s="750"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="748">
+      <c r="K52" s="751">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="781"/>
+      <c r="L52" s="784"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="752" t="s">
+      <c r="D53" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="752"/>
+      <c r="E53" s="755"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56247,29 +56344,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="782" t="s">
+      <c r="D54" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="782"/>
+      <c r="E54" s="785"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="753" t="s">
+      <c r="I54" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="754"/>
-      <c r="K54" s="755">
+      <c r="J54" s="757"/>
+      <c r="K54" s="758">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="755"/>
-      <c r="M54" s="783" t="s">
+      <c r="L54" s="758"/>
+      <c r="M54" s="786" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="784"/>
-      <c r="O54" s="784"/>
-      <c r="P54" s="784"/>
-      <c r="Q54" s="785"/>
+      <c r="N54" s="787"/>
+      <c r="O54" s="787"/>
+      <c r="P54" s="787"/>
+      <c r="Q54" s="788"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56283,11 +56380,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="786"/>
-      <c r="N55" s="787"/>
-      <c r="O55" s="787"/>
-      <c r="P55" s="787"/>
-      <c r="Q55" s="788"/>
+      <c r="M55" s="789"/>
+      <c r="N55" s="790"/>
+      <c r="O55" s="790"/>
+      <c r="P55" s="790"/>
+      <c r="Q55" s="791"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56305,11 +56402,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="757">
+      <c r="K56" s="760">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="758"/>
+      <c r="L56" s="761"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56326,22 +56423,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="735" t="s">
+      <c r="D58" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="736"/>
+      <c r="E58" s="739"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="737" t="s">
+      <c r="I58" s="740" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="738"/>
-      <c r="K58" s="739">
+      <c r="J58" s="741"/>
+      <c r="K58" s="742">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="739"/>
+      <c r="L58" s="742"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -58931,7 +59028,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="797" t="s">
+      <c r="F87" s="800" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -58944,7 +59041,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="798"/>
+      <c r="F88" s="801"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -59256,23 +59353,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="761" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="764" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="762"/>
-      <c r="E1" s="762"/>
-      <c r="F1" s="762"/>
-      <c r="G1" s="762"/>
-      <c r="H1" s="762"/>
-      <c r="I1" s="762"/>
-      <c r="J1" s="762"/>
-      <c r="K1" s="762"/>
-      <c r="L1" s="762"/>
-      <c r="M1" s="762"/>
+      <c r="D1" s="765"/>
+      <c r="E1" s="765"/>
+      <c r="F1" s="765"/>
+      <c r="G1" s="765"/>
+      <c r="H1" s="765"/>
+      <c r="I1" s="765"/>
+      <c r="J1" s="765"/>
+      <c r="K1" s="765"/>
+      <c r="L1" s="765"/>
+      <c r="M1" s="765"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59282,24 +59379,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -59314,14 +59411,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59331,15 +59428,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
-      <c r="W4" s="772" t="s">
+      <c r="R4" s="803"/>
+      <c r="W4" s="775" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="772"/>
+      <c r="X4" s="775"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59400,8 +59497,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="772"/>
-      <c r="X5" s="772"/>
+      <c r="W5" s="775"/>
+      <c r="X5" s="775"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60158,7 +60255,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="776">
+      <c r="W19" s="779">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60210,7 +60307,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="777"/>
+      <c r="W20" s="780"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60259,8 +60356,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="778"/>
-      <c r="X21" s="778"/>
+      <c r="W21" s="781"/>
+      <c r="X21" s="781"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60361,8 +60458,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="779"/>
-      <c r="X23" s="779"/>
+      <c r="W23" s="782"/>
+      <c r="X23" s="782"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60413,8 +60510,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="779"/>
-      <c r="X24" s="779"/>
+      <c r="W24" s="782"/>
+      <c r="X24" s="782"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60460,8 +60557,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="780"/>
-      <c r="X25" s="780"/>
+      <c r="W25" s="783"/>
+      <c r="X25" s="783"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60509,8 +60606,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="780"/>
-      <c r="X26" s="780"/>
+      <c r="W26" s="783"/>
+      <c r="X26" s="783"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60570,9 +60667,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="773"/>
-      <c r="X27" s="774"/>
-      <c r="Y27" s="775"/>
+      <c r="W27" s="776"/>
+      <c r="X27" s="777"/>
+      <c r="Y27" s="778"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60626,9 +60723,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="774"/>
-      <c r="X28" s="774"/>
-      <c r="Y28" s="775"/>
+      <c r="W28" s="777"/>
+      <c r="X28" s="777"/>
+      <c r="Y28" s="778"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60944,11 +61041,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="791">
+      <c r="M36" s="794">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="793">
+      <c r="N36" s="796">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -60956,7 +61053,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="795">
+      <c r="Q36" s="798">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -60975,13 +61072,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="792"/>
-      <c r="N37" s="794"/>
+      <c r="M37" s="795"/>
+      <c r="N37" s="797"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="796"/>
+      <c r="Q37" s="799"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61255,26 +61352,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="746" t="s">
+      <c r="H52" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="747"/>
+      <c r="I52" s="750"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="748">
+      <c r="K52" s="751">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="781"/>
+      <c r="L52" s="784"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="752" t="s">
+      <c r="D53" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="752"/>
+      <c r="E53" s="755"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61283,29 +61380,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="782" t="s">
+      <c r="D54" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="782"/>
+      <c r="E54" s="785"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="753" t="s">
+      <c r="I54" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="754"/>
-      <c r="K54" s="755">
+      <c r="J54" s="757"/>
+      <c r="K54" s="758">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="755"/>
-      <c r="M54" s="783" t="s">
+      <c r="L54" s="758"/>
+      <c r="M54" s="786" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="784"/>
-      <c r="O54" s="784"/>
-      <c r="P54" s="784"/>
-      <c r="Q54" s="785"/>
+      <c r="N54" s="787"/>
+      <c r="O54" s="787"/>
+      <c r="P54" s="787"/>
+      <c r="Q54" s="788"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61319,11 +61416,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="786"/>
-      <c r="N55" s="787"/>
-      <c r="O55" s="787"/>
-      <c r="P55" s="787"/>
-      <c r="Q55" s="788"/>
+      <c r="M55" s="789"/>
+      <c r="N55" s="790"/>
+      <c r="O55" s="790"/>
+      <c r="P55" s="790"/>
+      <c r="Q55" s="791"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61341,11 +61438,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="757">
+      <c r="K56" s="760">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="758"/>
+      <c r="L56" s="761"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61362,22 +61459,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="735" t="s">
+      <c r="D58" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="736"/>
+      <c r="E58" s="739"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="737" t="s">
+      <c r="I58" s="740" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="738"/>
-      <c r="K58" s="739">
+      <c r="J58" s="741"/>
+      <c r="K58" s="742">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="739"/>
+      <c r="L58" s="742"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -63940,7 +64037,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="797" t="s">
+      <c r="F75" s="800" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -63953,7 +64050,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="798"/>
+      <c r="F76" s="801"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -64245,23 +64342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64271,24 +64368,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -64303,14 +64400,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64320,15 +64417,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
-      <c r="W4" s="772" t="s">
+      <c r="R4" s="803"/>
+      <c r="W4" s="775" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="772"/>
+      <c r="X4" s="775"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64379,8 +64476,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="772"/>
-      <c r="X5" s="772"/>
+      <c r="W5" s="775"/>
+      <c r="X5" s="775"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65144,7 +65241,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="776">
+      <c r="W19" s="779">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65197,7 +65294,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="777"/>
+      <c r="W20" s="780"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65246,8 +65343,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="778"/>
-      <c r="X21" s="778"/>
+      <c r="W21" s="781"/>
+      <c r="X21" s="781"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65347,8 +65444,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="779"/>
-      <c r="X23" s="779"/>
+      <c r="W23" s="782"/>
+      <c r="X23" s="782"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65403,8 +65500,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="779"/>
-      <c r="X24" s="779"/>
+      <c r="W24" s="782"/>
+      <c r="X24" s="782"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65449,8 +65546,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="780"/>
-      <c r="X25" s="780"/>
+      <c r="W25" s="783"/>
+      <c r="X25" s="783"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65498,8 +65595,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="780"/>
-      <c r="X26" s="780"/>
+      <c r="W26" s="783"/>
+      <c r="X26" s="783"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65553,9 +65650,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="773"/>
-      <c r="X27" s="774"/>
-      <c r="Y27" s="775"/>
+      <c r="W27" s="776"/>
+      <c r="X27" s="777"/>
+      <c r="Y27" s="778"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65609,9 +65706,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="774"/>
-      <c r="X28" s="774"/>
-      <c r="Y28" s="775"/>
+      <c r="W28" s="777"/>
+      <c r="X28" s="777"/>
+      <c r="Y28" s="778"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65922,11 +66019,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="791">
+      <c r="M36" s="794">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="793">
+      <c r="N36" s="796">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -65934,7 +66031,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="795">
+      <c r="Q36" s="798">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -65959,13 +66056,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="792"/>
-      <c r="N37" s="794"/>
+      <c r="M37" s="795"/>
+      <c r="N37" s="797"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="796"/>
+      <c r="Q37" s="799"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66258,26 +66355,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="746" t="s">
+      <c r="H52" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="747"/>
+      <c r="I52" s="750"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="748">
+      <c r="K52" s="751">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="781"/>
+      <c r="L52" s="784"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="752" t="s">
+      <c r="D53" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="752"/>
+      <c r="E53" s="755"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66286,22 +66383,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="782" t="s">
+      <c r="D54" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="782"/>
+      <c r="E54" s="785"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="753" t="s">
+      <c r="I54" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="754"/>
-      <c r="K54" s="755">
+      <c r="J54" s="757"/>
+      <c r="K54" s="758">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="755"/>
+      <c r="L54" s="758"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66342,11 +66439,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="757">
+      <c r="K56" s="760">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="758"/>
+      <c r="L56" s="761"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66363,22 +66460,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="735" t="s">
+      <c r="D58" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="736"/>
+      <c r="E58" s="739"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="737" t="s">
+      <c r="I58" s="740" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="738"/>
-      <c r="K58" s="739">
+      <c r="J58" s="741"/>
+      <c r="K58" s="742">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="739"/>
+      <c r="L58" s="742"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -68247,12 +68344,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="803" t="s">
+      <c r="B43" s="806" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="804"/>
-      <c r="D43" s="804"/>
-      <c r="E43" s="805"/>
+      <c r="C43" s="807"/>
+      <c r="D43" s="807"/>
+      <c r="E43" s="808"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68280,10 +68377,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="806"/>
-      <c r="C44" s="807"/>
-      <c r="D44" s="807"/>
-      <c r="E44" s="808"/>
+      <c r="B44" s="809"/>
+      <c r="C44" s="810"/>
+      <c r="D44" s="810"/>
+      <c r="E44" s="811"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68311,10 +68408,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="809"/>
-      <c r="C45" s="810"/>
-      <c r="D45" s="810"/>
-      <c r="E45" s="811"/>
+      <c r="B45" s="812"/>
+      <c r="C45" s="813"/>
+      <c r="D45" s="813"/>
+      <c r="E45" s="814"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68357,10 +68454,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="818" t="s">
+      <c r="B47" s="821" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="819"/>
+      <c r="C47" s="822"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -68382,8 +68479,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="820"/>
-      <c r="C48" s="821"/>
+      <c r="B48" s="823"/>
+      <c r="C48" s="824"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -68391,11 +68488,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="812" t="s">
+      <c r="J48" s="815" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="813"/>
-      <c r="L48" s="814"/>
+      <c r="K48" s="816"/>
+      <c r="L48" s="817"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -68413,9 +68510,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="815"/>
-      <c r="K49" s="816"/>
-      <c r="L49" s="817"/>
+      <c r="J49" s="818"/>
+      <c r="K49" s="819"/>
+      <c r="L49" s="820"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -68432,10 +68529,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="822" t="s">
+      <c r="I50" s="825" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="823"/>
+      <c r="J50" s="826"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -68456,8 +68553,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="822"/>
-      <c r="J51" s="823"/>
+      <c r="I51" s="825"/>
+      <c r="J51" s="826"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -68476,8 +68573,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="822"/>
-      <c r="J52" s="823"/>
+      <c r="I52" s="825"/>
+      <c r="J52" s="826"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -68496,8 +68593,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="822"/>
-      <c r="J53" s="823"/>
+      <c r="I53" s="825"/>
+      <c r="J53" s="826"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -68516,8 +68613,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="822"/>
-      <c r="J54" s="823"/>
+      <c r="I54" s="825"/>
+      <c r="J54" s="826"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -68536,8 +68633,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="822"/>
-      <c r="J55" s="823"/>
+      <c r="I55" s="825"/>
+      <c r="J55" s="826"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -68556,8 +68653,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="822"/>
-      <c r="J56" s="823"/>
+      <c r="I56" s="825"/>
+      <c r="J56" s="826"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -68576,8 +68673,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="822"/>
-      <c r="J57" s="823"/>
+      <c r="I57" s="825"/>
+      <c r="J57" s="826"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -68596,8 +68693,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="822"/>
-      <c r="J58" s="823"/>
+      <c r="I58" s="825"/>
+      <c r="J58" s="826"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -68616,8 +68713,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="822"/>
-      <c r="J59" s="823"/>
+      <c r="I59" s="825"/>
+      <c r="J59" s="826"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -68636,8 +68733,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="822"/>
-      <c r="J60" s="823"/>
+      <c r="I60" s="825"/>
+      <c r="J60" s="826"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -68656,8 +68753,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="822"/>
-      <c r="J61" s="823"/>
+      <c r="I61" s="825"/>
+      <c r="J61" s="826"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -68676,8 +68773,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="822"/>
-      <c r="J62" s="823"/>
+      <c r="I62" s="825"/>
+      <c r="J62" s="826"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -68696,8 +68793,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="822"/>
-      <c r="J63" s="823"/>
+      <c r="I63" s="825"/>
+      <c r="J63" s="826"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -68716,8 +68813,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="822"/>
-      <c r="J64" s="823"/>
+      <c r="I64" s="825"/>
+      <c r="J64" s="826"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -68736,8 +68833,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="822"/>
-      <c r="J65" s="823"/>
+      <c r="I65" s="825"/>
+      <c r="J65" s="826"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -68756,8 +68853,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="822"/>
-      <c r="J66" s="823"/>
+      <c r="I66" s="825"/>
+      <c r="J66" s="826"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -68776,8 +68873,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="822"/>
-      <c r="J67" s="823"/>
+      <c r="I67" s="825"/>
+      <c r="J67" s="826"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -68796,8 +68893,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="822"/>
-      <c r="J68" s="823"/>
+      <c r="I68" s="825"/>
+      <c r="J68" s="826"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -68816,8 +68913,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="822"/>
-      <c r="J69" s="823"/>
+      <c r="I69" s="825"/>
+      <c r="J69" s="826"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -68836,8 +68933,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="822"/>
-      <c r="J70" s="823"/>
+      <c r="I70" s="825"/>
+      <c r="J70" s="826"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -68856,8 +68953,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="822"/>
-      <c r="J71" s="823"/>
+      <c r="I71" s="825"/>
+      <c r="J71" s="826"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -68876,8 +68973,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="822"/>
-      <c r="J72" s="823"/>
+      <c r="I72" s="825"/>
+      <c r="J72" s="826"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -68896,8 +68993,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="822"/>
-      <c r="J73" s="823"/>
+      <c r="I73" s="825"/>
+      <c r="J73" s="826"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -68916,8 +69013,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="822"/>
-      <c r="J74" s="823"/>
+      <c r="I74" s="825"/>
+      <c r="J74" s="826"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -68936,8 +69033,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="822"/>
-      <c r="J75" s="823"/>
+      <c r="I75" s="825"/>
+      <c r="J75" s="826"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -68956,8 +69053,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="822"/>
-      <c r="J76" s="823"/>
+      <c r="I76" s="825"/>
+      <c r="J76" s="826"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -68976,8 +69073,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="822"/>
-      <c r="J77" s="823"/>
+      <c r="I77" s="825"/>
+      <c r="J77" s="826"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -68998,8 +69095,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="824"/>
-      <c r="J78" s="825"/>
+      <c r="I78" s="827"/>
+      <c r="J78" s="828"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -69044,7 +69141,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="797" t="s">
+      <c r="F80" s="800" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -69056,7 +69153,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="798"/>
+      <c r="F81" s="801"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -69344,23 +69441,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="759"/>
-      <c r="C1" s="801" t="s">
+      <c r="B1" s="762"/>
+      <c r="C1" s="804" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="802"/>
-      <c r="E1" s="802"/>
-      <c r="F1" s="802"/>
-      <c r="G1" s="802"/>
-      <c r="H1" s="802"/>
-      <c r="I1" s="802"/>
-      <c r="J1" s="802"/>
-      <c r="K1" s="802"/>
-      <c r="L1" s="802"/>
-      <c r="M1" s="802"/>
+      <c r="D1" s="805"/>
+      <c r="E1" s="805"/>
+      <c r="F1" s="805"/>
+      <c r="G1" s="805"/>
+      <c r="H1" s="805"/>
+      <c r="I1" s="805"/>
+      <c r="J1" s="805"/>
+      <c r="K1" s="805"/>
+      <c r="L1" s="805"/>
+      <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="760"/>
+      <c r="B2" s="763"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69370,24 +69467,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="763" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="764"/>
+      <c r="B3" s="766" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="767"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="765" t="s">
+      <c r="H3" s="768" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="765"/>
+      <c r="I3" s="768"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="789" t="s">
+      <c r="P3" s="792" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="799" t="s">
+      <c r="R3" s="802" t="s">
         <v>216</v>
       </c>
     </row>
@@ -69402,14 +69499,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="766" t="s">
+      <c r="E4" s="769" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="767"/>
-      <c r="H4" s="768" t="s">
+      <c r="F4" s="770"/>
+      <c r="H4" s="771" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="769"/>
+      <c r="I4" s="772"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69419,15 +69516,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="790"/>
+      <c r="P4" s="793"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="800"/>
-      <c r="W4" s="772" t="s">
+      <c r="R4" s="803"/>
+      <c r="W4" s="775" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="772"/>
+      <c r="X4" s="775"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69478,8 +69575,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="772"/>
-      <c r="X5" s="772"/>
+      <c r="W5" s="775"/>
+      <c r="X5" s="775"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70240,7 +70337,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="776">
+      <c r="W19" s="779">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70292,7 +70389,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="777"/>
+      <c r="W20" s="780"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70341,8 +70438,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="778"/>
-      <c r="X21" s="778"/>
+      <c r="W21" s="781"/>
+      <c r="X21" s="781"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70441,8 +70538,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="779"/>
-      <c r="X23" s="779"/>
+      <c r="W23" s="782"/>
+      <c r="X23" s="782"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70497,8 +70594,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="779"/>
-      <c r="X24" s="779"/>
+      <c r="W24" s="782"/>
+      <c r="X24" s="782"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70546,8 +70643,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="780"/>
-      <c r="X25" s="780"/>
+      <c r="W25" s="783"/>
+      <c r="X25" s="783"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70595,8 +70692,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="780"/>
-      <c r="X26" s="780"/>
+      <c r="W26" s="783"/>
+      <c r="X26" s="783"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70644,9 +70741,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="773"/>
-      <c r="X27" s="774"/>
-      <c r="Y27" s="775"/>
+      <c r="W27" s="776"/>
+      <c r="X27" s="777"/>
+      <c r="Y27" s="778"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70694,9 +70791,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="774"/>
-      <c r="X28" s="774"/>
-      <c r="Y28" s="775"/>
+      <c r="W28" s="777"/>
+      <c r="X28" s="777"/>
+      <c r="Y28" s="778"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71037,11 +71134,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="791">
+      <c r="M36" s="794">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="793">
+      <c r="N36" s="796">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71049,7 +71146,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="826">
+      <c r="Q36" s="829">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -71074,13 +71171,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="792"/>
-      <c r="N37" s="794"/>
+      <c r="M37" s="795"/>
+      <c r="N37" s="797"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="827"/>
+      <c r="Q37" s="830"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -71130,11 +71227,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="828">
+      <c r="M39" s="831">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="829"/>
+      <c r="N39" s="832"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -71382,26 +71479,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="746" t="s">
+      <c r="H52" s="749" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="747"/>
+      <c r="I52" s="750"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="748">
+      <c r="K52" s="751">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="781"/>
+      <c r="L52" s="784"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="752" t="s">
+      <c r="D53" s="755" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="752"/>
+      <c r="E53" s="755"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71410,22 +71507,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="782" t="s">
+      <c r="D54" s="785" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="782"/>
+      <c r="E54" s="785"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="753" t="s">
+      <c r="I54" s="756" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="754"/>
-      <c r="K54" s="755">
+      <c r="J54" s="757"/>
+      <c r="K54" s="758">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="755"/>
+      <c r="L54" s="758"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71466,11 +71563,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="757">
+      <c r="K56" s="760">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="758"/>
+      <c r="L56" s="761"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71487,22 +71584,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="735" t="s">
+      <c r="D58" s="738" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="736"/>
+      <c r="E58" s="739"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="737" t="s">
+      <c r="I58" s="740" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="738"/>
-      <c r="K58" s="739">
+      <c r="J58" s="741"/>
+      <c r="K58" s="742">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="739"/>
+      <c r="L58" s="742"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="22"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1185">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4416,6 +4416,9 @@
   </si>
   <si>
     <t>07874 D</t>
+  </si>
+  <si>
+    <t>27-Jul-22--26-Agos-22</t>
   </si>
 </sst>
 </file>
@@ -6558,7 +6561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="884">
+  <cellXfs count="887">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8061,6 +8064,39 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8133,76 +8169,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8246,6 +8216,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8457,6 +8460,15 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8471,15 +8483,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8499,6 +8502,11 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8508,6 +8516,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
@@ -8517,7 +8526,6 @@
       <color rgb="FF00FF99"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF990033"/>
-      <color rgb="FFCC3399"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10737,55 +10745,6 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector recto 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="5838825"/>
-          <a:ext cx="3857625" cy="19050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -13862,23 +13821,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
-      <c r="C1" s="764" t="s">
+      <c r="B1" s="738"/>
+      <c r="C1" s="740" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="765"/>
-      <c r="E1" s="765"/>
-      <c r="F1" s="765"/>
-      <c r="G1" s="765"/>
-      <c r="H1" s="765"/>
-      <c r="I1" s="765"/>
-      <c r="J1" s="765"/>
-      <c r="K1" s="765"/>
-      <c r="L1" s="765"/>
-      <c r="M1" s="765"/>
+      <c r="D1" s="741"/>
+      <c r="E1" s="741"/>
+      <c r="F1" s="741"/>
+      <c r="G1" s="741"/>
+      <c r="H1" s="741"/>
+      <c r="I1" s="741"/>
+      <c r="J1" s="741"/>
+      <c r="K1" s="741"/>
+      <c r="L1" s="741"/>
+      <c r="M1" s="741"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13888,17 +13847,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13912,14 +13871,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13929,10 +13888,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="743" t="s">
+      <c r="P4" s="754" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="744"/>
+      <c r="Q4" s="755"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15373,11 +15332,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="745">
+      <c r="M39" s="756">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="747">
+      <c r="N39" s="758">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15403,8 +15362,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="746"/>
-      <c r="N40" s="748"/>
+      <c r="M40" s="757"/>
+      <c r="N40" s="759"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15619,29 +15578,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="749" t="s">
+      <c r="H52" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="750"/>
+      <c r="I52" s="761"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="751">
+      <c r="K52" s="762">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="752"/>
-      <c r="M52" s="753">
+      <c r="L52" s="763"/>
+      <c r="M52" s="764">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="754"/>
+      <c r="N52" s="765"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="755" t="s">
+      <c r="D53" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="755"/>
+      <c r="E53" s="766"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15652,22 +15611,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="755" t="s">
+      <c r="D54" s="766" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="755"/>
+      <c r="E54" s="766"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="756" t="s">
+      <c r="I54" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="757"/>
-      <c r="K54" s="758">
+      <c r="J54" s="768"/>
+      <c r="K54" s="769">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="759"/>
+      <c r="L54" s="770"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15700,11 +15659,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="760">
+      <c r="K56" s="771">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="761"/>
+      <c r="L56" s="772"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15721,22 +15680,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="738" t="s">
+      <c r="D58" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="739"/>
+      <c r="E58" s="750"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="740" t="s">
+      <c r="I58" s="751" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="741"/>
-      <c r="K58" s="742">
+      <c r="J58" s="752"/>
+      <c r="K58" s="753">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="742"/>
+      <c r="L58" s="753"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15880,12 +15839,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -15900,6 +15853,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18758,7 +18717,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>451</v>
       </c>
@@ -18774,7 +18733,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18784,21 +18743,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -18816,14 +18775,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18833,15 +18792,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="803"/>
-      <c r="W4" s="775" t="s">
+      <c r="W4" s="791" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="775"/>
+      <c r="X4" s="791"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18892,8 +18851,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="775"/>
-      <c r="X5" s="775"/>
+      <c r="W5" s="791"/>
+      <c r="X5" s="791"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19656,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="779">
+      <c r="W19" s="795">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19708,7 +19667,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="780"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19757,8 +19716,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="781"/>
-      <c r="X21" s="781"/>
+      <c r="W21" s="797"/>
+      <c r="X21" s="797"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19858,8 +19817,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="782"/>
-      <c r="X23" s="782"/>
+      <c r="W23" s="798"/>
+      <c r="X23" s="798"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19914,8 +19873,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="782"/>
-      <c r="X24" s="782"/>
+      <c r="W24" s="798"/>
+      <c r="X24" s="798"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19963,8 +19922,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="783"/>
-      <c r="X25" s="783"/>
+      <c r="W25" s="799"/>
+      <c r="X25" s="799"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20013,8 +19972,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="783"/>
-      <c r="X26" s="783"/>
+      <c r="W26" s="799"/>
+      <c r="X26" s="799"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20062,9 +20021,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="776"/>
-      <c r="X27" s="777"/>
-      <c r="Y27" s="778"/>
+      <c r="W27" s="792"/>
+      <c r="X27" s="793"/>
+      <c r="Y27" s="794"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20112,9 +20071,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="777"/>
-      <c r="X28" s="777"/>
-      <c r="Y28" s="778"/>
+      <c r="W28" s="793"/>
+      <c r="X28" s="793"/>
+      <c r="Y28" s="794"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20446,11 +20405,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="794">
+      <c r="M36" s="783">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="796">
+      <c r="N36" s="785">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20483,8 +20442,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="795"/>
-      <c r="N37" s="797"/>
+      <c r="M37" s="784"/>
+      <c r="N37" s="786"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -21171,26 +21130,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="749" t="s">
+      <c r="H68" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="750"/>
+      <c r="I68" s="761"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="751">
+      <c r="K68" s="762">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="784"/>
+      <c r="L68" s="789"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="755" t="s">
+      <c r="D69" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="755"/>
+      <c r="E69" s="766"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21199,22 +21158,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="785" t="s">
+      <c r="D70" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="785"/>
+      <c r="E70" s="790"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="756" t="s">
+      <c r="I70" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="757"/>
-      <c r="K70" s="758">
+      <c r="J70" s="768"/>
+      <c r="K70" s="769">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="758"/>
+      <c r="L70" s="769"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21255,11 +21214,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="760">
+      <c r="K72" s="771">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="761"/>
+      <c r="L72" s="772"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21276,22 +21235,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="738" t="s">
+      <c r="D74" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="739"/>
+      <c r="E74" s="750"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="740" t="s">
+      <c r="I74" s="751" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="741"/>
-      <c r="K74" s="742">
+      <c r="J74" s="752"/>
+      <c r="K74" s="753">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="742"/>
+      <c r="L74" s="753"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21438,21 +21397,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21468,6 +21412,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24080,7 +24039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>620</v>
       </c>
@@ -24096,7 +24055,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24106,21 +24065,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -24138,14 +24097,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24155,15 +24114,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="803"/>
-      <c r="W4" s="775" t="s">
+      <c r="W4" s="791" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="775"/>
+      <c r="X4" s="791"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24214,8 +24173,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="775"/>
-      <c r="X5" s="775"/>
+      <c r="W5" s="791"/>
+      <c r="X5" s="791"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24974,7 +24933,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="779">
+      <c r="W19" s="795">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25026,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="780"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25075,8 +25034,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="781"/>
-      <c r="X21" s="781"/>
+      <c r="W21" s="797"/>
+      <c r="X21" s="797"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25173,8 +25132,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="782"/>
-      <c r="X23" s="782"/>
+      <c r="W23" s="798"/>
+      <c r="X23" s="798"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25229,8 +25188,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="782"/>
-      <c r="X24" s="782"/>
+      <c r="W24" s="798"/>
+      <c r="X24" s="798"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25276,8 +25235,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="783"/>
-      <c r="X25" s="783"/>
+      <c r="W25" s="799"/>
+      <c r="X25" s="799"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25328,8 +25287,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="783"/>
-      <c r="X26" s="783"/>
+      <c r="W26" s="799"/>
+      <c r="X26" s="799"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25380,9 +25339,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="776"/>
-      <c r="X27" s="777"/>
-      <c r="Y27" s="778"/>
+      <c r="W27" s="792"/>
+      <c r="X27" s="793"/>
+      <c r="Y27" s="794"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25432,9 +25391,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="777"/>
-      <c r="X28" s="777"/>
-      <c r="Y28" s="778"/>
+      <c r="W28" s="793"/>
+      <c r="X28" s="793"/>
+      <c r="Y28" s="794"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26038,11 +25997,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="794">
+      <c r="M41" s="783">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="794">
+      <c r="N41" s="783">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26080,8 +26039,8 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="795"/>
-      <c r="N42" s="795"/>
+      <c r="M42" s="784"/>
+      <c r="N42" s="784"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="849"/>
     </row>
@@ -26768,26 +26727,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="749" t="s">
+      <c r="H70" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="750"/>
+      <c r="I70" s="761"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="751">
+      <c r="K70" s="762">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="784"/>
+      <c r="L70" s="789"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="755" t="s">
+      <c r="D71" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="755"/>
+      <c r="E71" s="766"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26797,22 +26756,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="785" t="s">
+      <c r="D72" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="785"/>
+      <c r="E72" s="790"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="756" t="s">
+      <c r="I72" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="757"/>
-      <c r="K72" s="758">
+      <c r="J72" s="768"/>
+      <c r="K72" s="769">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="758"/>
+      <c r="L72" s="769"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26853,11 +26812,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="760">
+      <c r="K74" s="771">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="761"/>
+      <c r="L74" s="772"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26876,22 +26835,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="738" t="s">
+      <c r="D76" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="739"/>
+      <c r="E76" s="750"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="740" t="s">
+      <c r="I76" s="751" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="741"/>
-      <c r="K76" s="742">
+      <c r="J76" s="752"/>
+      <c r="K76" s="753">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="742"/>
+      <c r="L76" s="753"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27051,21 +27010,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27081,6 +27025,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30538,7 +30497,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>754</v>
       </c>
@@ -30554,7 +30513,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30564,21 +30523,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -30600,14 +30559,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30617,15 +30576,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="803"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="876"/>
-      <c r="X4" s="876"/>
+      <c r="W4" s="870"/>
+      <c r="X4" s="870"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30679,8 +30638,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="876"/>
-      <c r="X5" s="876"/>
+      <c r="W5" s="870"/>
+      <c r="X5" s="870"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31446,7 +31405,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="877"/>
+      <c r="W19" s="871"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31500,7 +31459,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="877"/>
+      <c r="W20" s="871"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31555,8 +31514,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="781"/>
-      <c r="X21" s="781"/>
+      <c r="W21" s="797"/>
+      <c r="X21" s="797"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31667,8 +31626,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="782"/>
-      <c r="X23" s="782"/>
+      <c r="W23" s="798"/>
+      <c r="X23" s="798"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31729,8 +31688,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="782"/>
-      <c r="X24" s="782"/>
+      <c r="W24" s="798"/>
+      <c r="X24" s="798"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31783,8 +31742,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="783"/>
-      <c r="X25" s="783"/>
+      <c r="W25" s="799"/>
+      <c r="X25" s="799"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31839,8 +31798,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="783"/>
-      <c r="X26" s="783"/>
+      <c r="W26" s="799"/>
+      <c r="X26" s="799"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31895,9 +31854,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="776"/>
-      <c r="X27" s="777"/>
-      <c r="Y27" s="778"/>
+      <c r="W27" s="792"/>
+      <c r="X27" s="793"/>
+      <c r="Y27" s="794"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31951,9 +31910,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="777"/>
-      <c r="X28" s="777"/>
-      <c r="Y28" s="778"/>
+      <c r="W28" s="793"/>
+      <c r="X28" s="793"/>
+      <c r="Y28" s="794"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32544,11 +32503,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="794">
+      <c r="M41" s="783">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="794">
+      <c r="N41" s="783">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32580,8 +32539,8 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="795"/>
-      <c r="N42" s="795"/>
+      <c r="M42" s="784"/>
+      <c r="N42" s="784"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="849"/>
     </row>
@@ -33072,26 +33031,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="749" t="s">
+      <c r="H63" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="750"/>
+      <c r="I63" s="761"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="873">
+      <c r="K63" s="876">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="874"/>
+      <c r="L63" s="877"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="755" t="s">
+      <c r="D64" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="755"/>
+      <c r="E64" s="766"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33100,22 +33059,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="785" t="s">
+      <c r="D65" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="785"/>
+      <c r="E65" s="790"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="756" t="s">
+      <c r="I65" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="757"/>
-      <c r="K65" s="758">
+      <c r="J65" s="768"/>
+      <c r="K65" s="769">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="758"/>
+      <c r="L65" s="769"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33156,11 +33115,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="875">
+      <c r="K67" s="872">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="758"/>
+      <c r="L67" s="769"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33177,22 +33136,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="738" t="s">
+      <c r="D69" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="739"/>
+      <c r="E69" s="750"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="870" t="s">
+      <c r="I69" s="873" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="871"/>
-      <c r="K69" s="872">
+      <c r="J69" s="874"/>
+      <c r="K69" s="875">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="872"/>
+      <c r="L69" s="875"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33339,6 +33298,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33354,21 +33328,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35943,7 +35902,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>884</v>
       </c>
@@ -35959,7 +35918,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35969,21 +35928,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -36001,14 +35960,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36018,7 +35977,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -37790,11 +37749,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="794">
+      <c r="M41" s="783">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="794">
+      <c r="N41" s="783">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37832,8 +37791,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="795"/>
-      <c r="N42" s="795"/>
+      <c r="M42" s="784"/>
+      <c r="N42" s="784"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="849"/>
     </row>
@@ -38512,26 +38471,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="749" t="s">
+      <c r="H69" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="750"/>
+      <c r="I69" s="761"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="873">
+      <c r="K69" s="876">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="874"/>
+      <c r="L69" s="877"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="755" t="s">
+      <c r="D70" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="755"/>
+      <c r="E70" s="766"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38540,22 +38499,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="785" t="s">
+      <c r="D71" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="785"/>
+      <c r="E71" s="790"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="756" t="s">
+      <c r="I71" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="757"/>
-      <c r="K71" s="758">
+      <c r="J71" s="768"/>
+      <c r="K71" s="769">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="758"/>
+      <c r="L71" s="769"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38596,11 +38555,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="875">
+      <c r="K73" s="872">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="758"/>
+      <c r="L73" s="769"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38617,22 +38576,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="738" t="s">
+      <c r="D75" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="739"/>
+      <c r="E75" s="750"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="740" t="s">
+      <c r="I75" s="751" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="741"/>
-      <c r="K75" s="742">
+      <c r="J75" s="752"/>
+      <c r="K75" s="753">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="742"/>
+      <c r="L75" s="753"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38779,17 +38738,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -38801,6 +38749,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38816,8 +38775,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E44:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40150,7 +40109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A34" s="454">
         <v>44739</v>
       </c>
@@ -40160,15 +40119,16 @@
       <c r="C34" s="111">
         <v>49528.800000000003</v>
       </c>
-      <c r="D34" s="718">
-        <v>44769</v>
+      <c r="D34" s="884" t="s">
+        <v>1184</v>
       </c>
       <c r="E34" s="717">
-        <v>24074.75</v>
+        <f>24074.75+25454.05</f>
+        <v>49528.800000000003</v>
       </c>
       <c r="F34" s="544">
         <f t="shared" si="0"/>
-        <v>25454.050000000003</v>
+        <v>0</v>
       </c>
       <c r="H34" s="672" t="s">
         <v>1014</v>
@@ -40200,11 +40160,15 @@
       <c r="C35" s="111">
         <v>9215.3700000000008</v>
       </c>
-      <c r="D35" s="412"/>
-      <c r="E35" s="111"/>
+      <c r="D35" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E35" s="886">
+        <v>9215.3700000000008</v>
+      </c>
       <c r="F35" s="544">
         <f t="shared" si="0"/>
-        <v>9215.3700000000008</v>
+        <v>0</v>
       </c>
       <c r="H35" s="675" t="s">
         <v>1015</v>
@@ -40236,11 +40200,15 @@
       <c r="C36" s="111">
         <v>96875.6</v>
       </c>
-      <c r="D36" s="412"/>
-      <c r="E36" s="111"/>
+      <c r="D36" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E36" s="886">
+        <v>96875.6</v>
+      </c>
       <c r="F36" s="544">
         <f t="shared" si="0"/>
-        <v>96875.6</v>
+        <v>0</v>
       </c>
       <c r="H36" s="675" t="s">
         <v>1016</v>
@@ -40272,11 +40240,15 @@
       <c r="C37" s="111">
         <v>26574.6</v>
       </c>
-      <c r="D37" s="412"/>
-      <c r="E37" s="111"/>
+      <c r="D37" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E37" s="886">
+        <v>26574.6</v>
+      </c>
       <c r="F37" s="544">
         <f t="shared" si="0"/>
-        <v>26574.6</v>
+        <v>0</v>
       </c>
       <c r="H37" s="672" t="s">
         <v>1017</v>
@@ -40308,11 +40280,15 @@
       <c r="C38" s="111">
         <v>110618.06</v>
       </c>
-      <c r="D38" s="412"/>
-      <c r="E38" s="111"/>
+      <c r="D38" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E38" s="886">
+        <v>110618.06</v>
+      </c>
       <c r="F38" s="544">
         <f t="shared" si="0"/>
-        <v>110618.06</v>
+        <v>0</v>
       </c>
       <c r="H38" s="675" t="s">
         <v>1018</v>
@@ -40344,11 +40320,15 @@
       <c r="C39" s="111">
         <v>3223.2</v>
       </c>
-      <c r="D39" s="253"/>
-      <c r="E39" s="69"/>
+      <c r="D39" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E39" s="886">
+        <v>3223.2</v>
+      </c>
       <c r="F39" s="111">
         <f t="shared" si="0"/>
-        <v>3223.2</v>
+        <v>0</v>
       </c>
       <c r="H39" s="134"/>
       <c r="I39" s="139"/>
@@ -40370,11 +40350,15 @@
       <c r="C40" s="111">
         <v>65436.19</v>
       </c>
-      <c r="D40" s="253"/>
-      <c r="E40" s="69"/>
+      <c r="D40" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E40" s="886">
+        <v>65436.19</v>
+      </c>
       <c r="F40" s="111">
         <f t="shared" si="0"/>
-        <v>65436.19</v>
+        <v>0</v>
       </c>
       <c r="H40" s="134"/>
       <c r="I40" s="139"/>
@@ -40396,11 +40380,15 @@
       <c r="C41" s="111">
         <v>60853.03</v>
       </c>
-      <c r="D41" s="253"/>
-      <c r="E41" s="69"/>
+      <c r="D41" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E41" s="886">
+        <v>60853.03</v>
+      </c>
       <c r="F41" s="111">
         <f t="shared" si="0"/>
-        <v>60853.03</v>
+        <v>0</v>
       </c>
       <c r="H41" s="134"/>
       <c r="I41" s="139"/>
@@ -40422,11 +40410,15 @@
       <c r="C42" s="111">
         <v>5205</v>
       </c>
-      <c r="D42" s="253"/>
-      <c r="E42" s="69"/>
+      <c r="D42" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E42" s="886">
+        <v>5205</v>
+      </c>
       <c r="F42" s="111">
         <f t="shared" si="0"/>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="H42" s="134"/>
       <c r="I42" s="139"/>
@@ -40929,11 +40921,11 @@
       <c r="D67" s="407"/>
       <c r="E67" s="395">
         <f>SUM(E3:E66)</f>
-        <v>1718939.8</v>
+        <v>2122394.9000000004</v>
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>403455.10000000009</v>
+        <v>0</v>
       </c>
       <c r="H67" s="838" t="s">
         <v>594</v>
@@ -44414,7 +44406,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>1027</v>
       </c>
@@ -44430,7 +44422,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44440,21 +44432,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -44472,14 +44464,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44489,7 +44481,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -46227,11 +46219,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="794">
+      <c r="M41" s="783">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="794">
+      <c r="N41" s="783">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46269,8 +46261,8 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="795"/>
-      <c r="N42" s="795"/>
+      <c r="M42" s="784"/>
+      <c r="N42" s="784"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="849"/>
     </row>
@@ -46874,26 +46866,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="749" t="s">
+      <c r="H69" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="750"/>
+      <c r="I69" s="761"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="873">
+      <c r="K69" s="876">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="874"/>
+      <c r="L69" s="877"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="755" t="s">
+      <c r="D70" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="755"/>
+      <c r="E70" s="766"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46902,22 +46894,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="785" t="s">
+      <c r="D71" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="785"/>
+      <c r="E71" s="790"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="756" t="s">
+      <c r="I71" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="757"/>
-      <c r="K71" s="758">
+      <c r="J71" s="768"/>
+      <c r="K71" s="769">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="758"/>
+      <c r="L71" s="769"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46958,11 +46950,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="875">
+      <c r="K73" s="872">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="758"/>
+      <c r="L73" s="769"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -46979,22 +46971,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="738" t="s">
+      <c r="D75" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="739"/>
+      <c r="E75" s="750"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="870" t="s">
+      <c r="I75" s="873" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="871"/>
-      <c r="K75" s="872">
+      <c r="J75" s="874"/>
+      <c r="K75" s="875">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="872"/>
+      <c r="L75" s="875"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47141,6 +47133,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47157,12 +47155,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47178,8 +47170,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:E39"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47269,11 +47261,15 @@
       <c r="C3" s="111">
         <v>67911.399999999994</v>
       </c>
-      <c r="D3" s="412"/>
-      <c r="E3" s="111"/>
+      <c r="D3" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E3" s="886">
+        <v>67911.399999999994</v>
+      </c>
       <c r="F3" s="410">
         <f>C3-E3</f>
-        <v>67911.399999999994</v>
+        <v>0</v>
       </c>
       <c r="H3" s="704" t="s">
         <v>1119</v>
@@ -47305,11 +47301,15 @@
       <c r="C4" s="111">
         <v>73363.8</v>
       </c>
-      <c r="D4" s="412"/>
-      <c r="E4" s="111"/>
+      <c r="D4" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E4" s="886">
+        <v>73363.8</v>
+      </c>
       <c r="F4" s="544">
         <f t="shared" ref="F4:F65" si="0">C4-E4</f>
-        <v>73363.8</v>
+        <v>0</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="704" t="s">
@@ -47342,11 +47342,15 @@
       <c r="C5" s="111">
         <v>31164.35</v>
       </c>
-      <c r="D5" s="412"/>
-      <c r="E5" s="111"/>
+      <c r="D5" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E5" s="886">
+        <v>31164.35</v>
+      </c>
       <c r="F5" s="544">
         <f t="shared" si="0"/>
-        <v>31164.35</v>
+        <v>0</v>
       </c>
       <c r="H5" s="704" t="s">
         <v>1121</v>
@@ -47378,11 +47382,15 @@
       <c r="C6" s="111">
         <v>58616</v>
       </c>
-      <c r="D6" s="412"/>
-      <c r="E6" s="111"/>
+      <c r="D6" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E6" s="886">
+        <v>58616</v>
+      </c>
       <c r="F6" s="544">
         <f t="shared" si="0"/>
-        <v>58616</v>
+        <v>0</v>
       </c>
       <c r="H6" s="704" t="s">
         <v>1122</v>
@@ -47414,11 +47422,15 @@
       <c r="C7" s="111">
         <v>106705.96</v>
       </c>
-      <c r="D7" s="412"/>
-      <c r="E7" s="111"/>
+      <c r="D7" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E7" s="886">
+        <v>106705.96</v>
+      </c>
       <c r="F7" s="544">
         <f t="shared" si="0"/>
-        <v>106705.96</v>
+        <v>0</v>
       </c>
       <c r="H7" s="704" t="s">
         <v>1123</v>
@@ -47450,11 +47462,15 @@
       <c r="C8" s="111">
         <v>68357.89</v>
       </c>
-      <c r="D8" s="412"/>
-      <c r="E8" s="111"/>
+      <c r="D8" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E8" s="886">
+        <v>68357.89</v>
+      </c>
       <c r="F8" s="544">
         <f t="shared" si="0"/>
-        <v>68357.89</v>
+        <v>0</v>
       </c>
       <c r="H8" s="704" t="s">
         <v>1124</v>
@@ -47486,11 +47502,15 @@
       <c r="C9" s="111">
         <v>39927.050000000003</v>
       </c>
-      <c r="D9" s="412"/>
-      <c r="E9" s="111"/>
+      <c r="D9" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E9" s="886">
+        <v>39927.050000000003</v>
+      </c>
       <c r="F9" s="544">
         <f t="shared" si="0"/>
-        <v>39927.050000000003</v>
+        <v>0</v>
       </c>
       <c r="H9" s="704" t="s">
         <v>1124</v>
@@ -47522,11 +47542,15 @@
       <c r="C10" s="111">
         <v>121513</v>
       </c>
-      <c r="D10" s="412"/>
-      <c r="E10" s="111"/>
+      <c r="D10" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E10" s="886">
+        <v>121513</v>
+      </c>
       <c r="F10" s="544">
         <f t="shared" si="0"/>
-        <v>121513</v>
+        <v>0</v>
       </c>
       <c r="G10" s="138"/>
       <c r="H10" s="704" t="s">
@@ -47559,11 +47583,15 @@
       <c r="C11" s="111">
         <v>60297.8</v>
       </c>
-      <c r="D11" s="412"/>
-      <c r="E11" s="111"/>
+      <c r="D11" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E11" s="886">
+        <v>60297.8</v>
+      </c>
       <c r="F11" s="544">
         <f t="shared" si="0"/>
-        <v>60297.8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="704" t="s">
         <v>1125</v>
@@ -47595,11 +47623,15 @@
       <c r="C12" s="111">
         <v>105453.7</v>
       </c>
-      <c r="D12" s="412"/>
-      <c r="E12" s="111"/>
+      <c r="D12" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E12" s="886">
+        <v>105453.7</v>
+      </c>
       <c r="F12" s="544">
         <f t="shared" si="0"/>
-        <v>105453.7</v>
+        <v>0</v>
       </c>
       <c r="H12" s="704" t="s">
         <v>1126</v>
@@ -47631,11 +47663,15 @@
       <c r="C13" s="111">
         <v>65012.85</v>
       </c>
-      <c r="D13" s="412"/>
-      <c r="E13" s="111"/>
+      <c r="D13" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E13" s="886">
+        <v>65012.85</v>
+      </c>
       <c r="F13" s="544">
         <f t="shared" si="0"/>
-        <v>65012.85</v>
+        <v>0</v>
       </c>
       <c r="H13" s="704" t="s">
         <v>1127</v>
@@ -47667,11 +47703,15 @@
       <c r="C14" s="111">
         <v>83843.7</v>
       </c>
-      <c r="D14" s="412"/>
-      <c r="E14" s="111"/>
+      <c r="D14" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E14" s="886">
+        <v>83843.7</v>
+      </c>
       <c r="F14" s="544">
         <f t="shared" si="0"/>
-        <v>83843.7</v>
+        <v>0</v>
       </c>
       <c r="H14" s="704" t="s">
         <v>1128</v>
@@ -47703,11 +47743,15 @@
       <c r="C15" s="111">
         <v>11248</v>
       </c>
-      <c r="D15" s="412"/>
-      <c r="E15" s="111"/>
+      <c r="D15" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E15" s="886">
+        <v>11248</v>
+      </c>
       <c r="F15" s="544">
         <f t="shared" si="0"/>
-        <v>11248</v>
+        <v>0</v>
       </c>
       <c r="H15" s="704" t="s">
         <v>1128</v>
@@ -47739,11 +47783,15 @@
       <c r="C16" s="111">
         <v>30498.9</v>
       </c>
-      <c r="D16" s="412"/>
-      <c r="E16" s="111"/>
+      <c r="D16" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E16" s="886">
+        <v>30498.9</v>
+      </c>
       <c r="F16" s="544">
         <f t="shared" si="0"/>
-        <v>30498.9</v>
+        <v>0</v>
       </c>
       <c r="H16" s="704" t="s">
         <v>1129</v>
@@ -47775,11 +47823,15 @@
       <c r="C17" s="111">
         <v>4920</v>
       </c>
-      <c r="D17" s="412"/>
-      <c r="E17" s="111"/>
+      <c r="D17" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E17" s="886">
+        <v>4920</v>
+      </c>
       <c r="F17" s="544">
         <f t="shared" si="0"/>
-        <v>4920</v>
+        <v>0</v>
       </c>
       <c r="H17" s="704" t="s">
         <v>1130</v>
@@ -47811,11 +47863,15 @@
       <c r="C18" s="111">
         <v>97808.75</v>
       </c>
-      <c r="D18" s="412"/>
-      <c r="E18" s="111"/>
+      <c r="D18" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E18" s="886">
+        <v>97808.75</v>
+      </c>
       <c r="F18" s="544">
         <f t="shared" si="0"/>
-        <v>97808.75</v>
+        <v>0</v>
       </c>
       <c r="H18" s="704" t="s">
         <v>1131</v>
@@ -47847,11 +47903,15 @@
       <c r="C19" s="111">
         <v>70509.3</v>
       </c>
-      <c r="D19" s="412"/>
-      <c r="E19" s="111"/>
+      <c r="D19" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E19" s="886">
+        <v>70509.3</v>
+      </c>
       <c r="F19" s="544">
         <f t="shared" si="0"/>
-        <v>70509.3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="704" t="s">
         <v>1132</v>
@@ -47883,11 +47943,15 @@
       <c r="C20" s="111">
         <v>72783.5</v>
       </c>
-      <c r="D20" s="412"/>
-      <c r="E20" s="111"/>
+      <c r="D20" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E20" s="886">
+        <v>72783.5</v>
+      </c>
       <c r="F20" s="544">
         <f t="shared" si="0"/>
-        <v>72783.5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="704" t="s">
         <v>1133</v>
@@ -47919,11 +47983,15 @@
       <c r="C21" s="111">
         <v>40894.36</v>
       </c>
-      <c r="D21" s="412"/>
-      <c r="E21" s="111"/>
+      <c r="D21" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E21" s="886">
+        <v>40894.36</v>
+      </c>
       <c r="F21" s="544">
         <f t="shared" si="0"/>
-        <v>40894.36</v>
+        <v>0</v>
       </c>
       <c r="H21" s="704" t="s">
         <v>1134</v>
@@ -47955,11 +48023,15 @@
       <c r="C22" s="111">
         <v>69612.42</v>
       </c>
-      <c r="D22" s="412"/>
-      <c r="E22" s="111"/>
+      <c r="D22" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E22" s="886">
+        <v>69612.42</v>
+      </c>
       <c r="F22" s="544">
         <f t="shared" si="0"/>
-        <v>69612.42</v>
+        <v>0</v>
       </c>
       <c r="G22" s="644"/>
       <c r="H22" s="704" t="s">
@@ -47992,11 +48064,15 @@
       <c r="C23" s="111">
         <v>111046</v>
       </c>
-      <c r="D23" s="412"/>
-      <c r="E23" s="111"/>
+      <c r="D23" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E23" s="886">
+        <v>111046</v>
+      </c>
       <c r="F23" s="544">
         <f t="shared" si="0"/>
-        <v>111046</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="704" t="s">
@@ -48025,11 +48101,15 @@
       <c r="C24" s="583">
         <v>3984</v>
       </c>
-      <c r="D24" s="582"/>
-      <c r="E24" s="583"/>
+      <c r="D24" s="885">
+        <v>44799</v>
+      </c>
+      <c r="E24" s="886">
+        <v>3984</v>
+      </c>
       <c r="F24" s="205">
         <f t="shared" si="0"/>
-        <v>3984</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="704" t="s">
@@ -48997,11 +49077,11 @@
       <c r="D67" s="407"/>
       <c r="E67" s="395">
         <f>SUM(E3:E66)</f>
-        <v>0</v>
+        <v>1395472.73</v>
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>1727771.26</v>
+        <v>332298.53000000003</v>
       </c>
       <c r="H67" s="838" t="s">
         <v>594</v>
@@ -49633,8 +49713,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49660,7 +49740,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>1144</v>
       </c>
@@ -49676,7 +49756,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49686,21 +49766,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -49718,14 +49798,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49735,7 +49815,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -51265,11 +51345,11 @@
       <c r="L41" s="39">
         <v>15889</v>
       </c>
-      <c r="M41" s="794">
+      <c r="M41" s="783">
         <f>SUM(M5:M40)</f>
         <v>804697.68</v>
       </c>
-      <c r="N41" s="794">
+      <c r="N41" s="783">
         <f>SUM(N5:N40)</f>
         <v>707448</v>
       </c>
@@ -51301,8 +51381,8 @@
       <c r="L42" s="702">
         <v>17693</v>
       </c>
-      <c r="M42" s="795"/>
-      <c r="N42" s="795"/>
+      <c r="M42" s="784"/>
+      <c r="N42" s="784"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="849"/>
     </row>
@@ -51784,26 +51864,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="749" t="s">
+      <c r="H69" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="750"/>
+      <c r="I69" s="761"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="873">
+      <c r="K69" s="876">
         <f>I67+L67</f>
         <v>110669</v>
       </c>
-      <c r="L69" s="874"/>
+      <c r="L69" s="877"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="755" t="s">
+      <c r="D70" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="755"/>
+      <c r="E70" s="766"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1520767</v>
@@ -51812,22 +51892,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="785" t="s">
+      <c r="D71" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="785"/>
+      <c r="E71" s="790"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="756" t="s">
+      <c r="I71" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="757"/>
-      <c r="K71" s="758">
+      <c r="J71" s="768"/>
+      <c r="K71" s="769">
         <f>F73+F74+F75</f>
         <v>1520767</v>
       </c>
-      <c r="L71" s="758"/>
+      <c r="L71" s="769"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -51868,11 +51948,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="875">
+      <c r="K73" s="872">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="758"/>
+      <c r="L73" s="769"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -51887,22 +51967,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="738" t="s">
+      <c r="D75" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="739"/>
+      <c r="E75" s="750"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="870" t="s">
+      <c r="I75" s="873" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="871"/>
-      <c r="K75" s="872">
+      <c r="J75" s="874"/>
+      <c r="K75" s="875">
         <f>K71+K73</f>
         <v>-753886.08999999985</v>
       </c>
-      <c r="L75" s="872"/>
+      <c r="L75" s="875"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -52046,6 +52126,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -52062,12 +52148,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52083,8 +52163,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54212,7 +54292,6 @@
     <mergeCell ref="F68:F69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -54276,23 +54355,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
-      <c r="C1" s="764" t="s">
+      <c r="B1" s="738"/>
+      <c r="C1" s="740" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="765"/>
-      <c r="E1" s="765"/>
-      <c r="F1" s="765"/>
-      <c r="G1" s="765"/>
-      <c r="H1" s="765"/>
-      <c r="I1" s="765"/>
-      <c r="J1" s="765"/>
-      <c r="K1" s="765"/>
-      <c r="L1" s="765"/>
-      <c r="M1" s="765"/>
+      <c r="D1" s="741"/>
+      <c r="E1" s="741"/>
+      <c r="F1" s="741"/>
+      <c r="G1" s="741"/>
+      <c r="H1" s="741"/>
+      <c r="I1" s="741"/>
+      <c r="J1" s="741"/>
+      <c r="K1" s="741"/>
+      <c r="L1" s="741"/>
+      <c r="M1" s="741"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54302,21 +54381,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54331,14 +54410,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54348,14 +54427,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="775" t="s">
+      <c r="W4" s="791" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="775"/>
+      <c r="X4" s="791"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54406,8 +54485,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="775"/>
-      <c r="X5" s="775"/>
+      <c r="W5" s="791"/>
+      <c r="X5" s="791"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55178,7 +55257,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="779">
+      <c r="W19" s="795">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55230,7 +55309,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="780"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55279,8 +55358,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="781"/>
-      <c r="X21" s="781"/>
+      <c r="W21" s="797"/>
+      <c r="X21" s="797"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55381,8 +55460,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="782"/>
-      <c r="X23" s="782"/>
+      <c r="W23" s="798"/>
+      <c r="X23" s="798"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55436,8 +55515,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="782"/>
-      <c r="X24" s="782"/>
+      <c r="W24" s="798"/>
+      <c r="X24" s="798"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55483,8 +55562,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="783"/>
-      <c r="X25" s="783"/>
+      <c r="W25" s="799"/>
+      <c r="X25" s="799"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55535,8 +55614,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="783"/>
-      <c r="X26" s="783"/>
+      <c r="W26" s="799"/>
+      <c r="X26" s="799"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55584,9 +55663,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="776"/>
-      <c r="X27" s="777"/>
-      <c r="Y27" s="778"/>
+      <c r="W27" s="792"/>
+      <c r="X27" s="793"/>
+      <c r="Y27" s="794"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55636,9 +55715,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="777"/>
-      <c r="X28" s="777"/>
-      <c r="Y28" s="778"/>
+      <c r="W28" s="793"/>
+      <c r="X28" s="793"/>
+      <c r="Y28" s="794"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55973,11 +56052,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="794">
+      <c r="M36" s="783">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="796">
+      <c r="N36" s="785">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -55985,7 +56064,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="798">
+      <c r="Q36" s="787">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -56020,13 +56099,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="795"/>
-      <c r="N37" s="797"/>
+      <c r="M37" s="784"/>
+      <c r="N37" s="786"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="799"/>
+      <c r="Q37" s="788"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56316,26 +56395,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="749" t="s">
+      <c r="H52" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="750"/>
+      <c r="I52" s="761"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="751">
+      <c r="K52" s="762">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="784"/>
+      <c r="L52" s="789"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="755" t="s">
+      <c r="D53" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="755"/>
+      <c r="E53" s="766"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56344,29 +56423,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="785" t="s">
+      <c r="D54" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="785"/>
+      <c r="E54" s="790"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="756" t="s">
+      <c r="I54" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="757"/>
-      <c r="K54" s="758">
+      <c r="J54" s="768"/>
+      <c r="K54" s="769">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="758"/>
-      <c r="M54" s="786" t="s">
+      <c r="L54" s="769"/>
+      <c r="M54" s="775" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="787"/>
-      <c r="O54" s="787"/>
-      <c r="P54" s="787"/>
-      <c r="Q54" s="788"/>
+      <c r="N54" s="776"/>
+      <c r="O54" s="776"/>
+      <c r="P54" s="776"/>
+      <c r="Q54" s="777"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56380,11 +56459,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="789"/>
-      <c r="N55" s="790"/>
-      <c r="O55" s="790"/>
-      <c r="P55" s="790"/>
-      <c r="Q55" s="791"/>
+      <c r="M55" s="778"/>
+      <c r="N55" s="779"/>
+      <c r="O55" s="779"/>
+      <c r="P55" s="779"/>
+      <c r="Q55" s="780"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56402,11 +56481,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="760">
+      <c r="K56" s="771">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="761"/>
+      <c r="L56" s="772"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56423,22 +56502,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="738" t="s">
+      <c r="D58" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="739"/>
+      <c r="E58" s="750"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="740" t="s">
+      <c r="I58" s="751" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="741"/>
-      <c r="K58" s="742">
+      <c r="J58" s="752"/>
+      <c r="K58" s="753">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="742"/>
+      <c r="L58" s="753"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -56582,17 +56661,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -56603,14 +56679,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59353,23 +59432,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
-      <c r="C1" s="764" t="s">
+      <c r="B1" s="738"/>
+      <c r="C1" s="740" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="765"/>
-      <c r="E1" s="765"/>
-      <c r="F1" s="765"/>
-      <c r="G1" s="765"/>
-      <c r="H1" s="765"/>
-      <c r="I1" s="765"/>
-      <c r="J1" s="765"/>
-      <c r="K1" s="765"/>
-      <c r="L1" s="765"/>
-      <c r="M1" s="765"/>
+      <c r="D1" s="741"/>
+      <c r="E1" s="741"/>
+      <c r="F1" s="741"/>
+      <c r="G1" s="741"/>
+      <c r="H1" s="741"/>
+      <c r="I1" s="741"/>
+      <c r="J1" s="741"/>
+      <c r="K1" s="741"/>
+      <c r="L1" s="741"/>
+      <c r="M1" s="741"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59379,21 +59458,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -59411,14 +59490,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59428,15 +59507,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="803"/>
-      <c r="W4" s="775" t="s">
+      <c r="W4" s="791" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="775"/>
+      <c r="X4" s="791"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59497,8 +59576,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="775"/>
-      <c r="X5" s="775"/>
+      <c r="W5" s="791"/>
+      <c r="X5" s="791"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60255,7 +60334,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="779">
+      <c r="W19" s="795">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60307,7 +60386,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="780"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60356,8 +60435,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="781"/>
-      <c r="X21" s="781"/>
+      <c r="W21" s="797"/>
+      <c r="X21" s="797"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60458,8 +60537,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="782"/>
-      <c r="X23" s="782"/>
+      <c r="W23" s="798"/>
+      <c r="X23" s="798"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60510,8 +60589,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="782"/>
-      <c r="X24" s="782"/>
+      <c r="W24" s="798"/>
+      <c r="X24" s="798"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60557,8 +60636,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="783"/>
-      <c r="X25" s="783"/>
+      <c r="W25" s="799"/>
+      <c r="X25" s="799"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60606,8 +60685,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="783"/>
-      <c r="X26" s="783"/>
+      <c r="W26" s="799"/>
+      <c r="X26" s="799"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60667,9 +60746,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="776"/>
-      <c r="X27" s="777"/>
-      <c r="Y27" s="778"/>
+      <c r="W27" s="792"/>
+      <c r="X27" s="793"/>
+      <c r="Y27" s="794"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60723,9 +60802,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="777"/>
-      <c r="X28" s="777"/>
-      <c r="Y28" s="778"/>
+      <c r="W28" s="793"/>
+      <c r="X28" s="793"/>
+      <c r="Y28" s="794"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61041,11 +61120,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="794">
+      <c r="M36" s="783">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="796">
+      <c r="N36" s="785">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -61053,7 +61132,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="798">
+      <c r="Q36" s="787">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -61072,13 +61151,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="795"/>
-      <c r="N37" s="797"/>
+      <c r="M37" s="784"/>
+      <c r="N37" s="786"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="799"/>
+      <c r="Q37" s="788"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61352,26 +61431,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="749" t="s">
+      <c r="H52" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="750"/>
+      <c r="I52" s="761"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="751">
+      <c r="K52" s="762">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="784"/>
+      <c r="L52" s="789"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="755" t="s">
+      <c r="D53" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="755"/>
+      <c r="E53" s="766"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61380,29 +61459,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="785" t="s">
+      <c r="D54" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="785"/>
+      <c r="E54" s="790"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="756" t="s">
+      <c r="I54" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="757"/>
-      <c r="K54" s="758">
+      <c r="J54" s="768"/>
+      <c r="K54" s="769">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="758"/>
-      <c r="M54" s="786" t="s">
+      <c r="L54" s="769"/>
+      <c r="M54" s="775" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="787"/>
-      <c r="O54" s="787"/>
-      <c r="P54" s="787"/>
-      <c r="Q54" s="788"/>
+      <c r="N54" s="776"/>
+      <c r="O54" s="776"/>
+      <c r="P54" s="776"/>
+      <c r="Q54" s="777"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61416,11 +61495,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="789"/>
-      <c r="N55" s="790"/>
-      <c r="O55" s="790"/>
-      <c r="P55" s="790"/>
-      <c r="Q55" s="791"/>
+      <c r="M55" s="778"/>
+      <c r="N55" s="779"/>
+      <c r="O55" s="779"/>
+      <c r="P55" s="779"/>
+      <c r="Q55" s="780"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61438,11 +61517,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="760">
+      <c r="K56" s="771">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="761"/>
+      <c r="L56" s="772"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61459,22 +61538,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="738" t="s">
+      <c r="D58" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="739"/>
+      <c r="E58" s="750"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="740" t="s">
+      <c r="I58" s="751" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="741"/>
-      <c r="K58" s="742">
+      <c r="J58" s="752"/>
+      <c r="K58" s="753">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="742"/>
+      <c r="L58" s="753"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61618,13 +61697,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -61634,20 +61720,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64342,7 +64421,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>316</v>
       </c>
@@ -64358,7 +64437,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64368,21 +64447,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -64400,14 +64479,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64417,15 +64496,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="803"/>
-      <c r="W4" s="775" t="s">
+      <c r="W4" s="791" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="775"/>
+      <c r="X4" s="791"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64476,8 +64555,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="775"/>
-      <c r="X5" s="775"/>
+      <c r="W5" s="791"/>
+      <c r="X5" s="791"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65241,7 +65320,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="779">
+      <c r="W19" s="795">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65294,7 +65373,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="780"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65343,8 +65422,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="781"/>
-      <c r="X21" s="781"/>
+      <c r="W21" s="797"/>
+      <c r="X21" s="797"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65444,8 +65523,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="782"/>
-      <c r="X23" s="782"/>
+      <c r="W23" s="798"/>
+      <c r="X23" s="798"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65500,8 +65579,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="782"/>
-      <c r="X24" s="782"/>
+      <c r="W24" s="798"/>
+      <c r="X24" s="798"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65546,8 +65625,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="783"/>
-      <c r="X25" s="783"/>
+      <c r="W25" s="799"/>
+      <c r="X25" s="799"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65595,8 +65674,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="783"/>
-      <c r="X26" s="783"/>
+      <c r="W26" s="799"/>
+      <c r="X26" s="799"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65650,9 +65729,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="776"/>
-      <c r="X27" s="777"/>
-      <c r="Y27" s="778"/>
+      <c r="W27" s="792"/>
+      <c r="X27" s="793"/>
+      <c r="Y27" s="794"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65706,9 +65785,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="777"/>
-      <c r="X28" s="777"/>
-      <c r="Y28" s="778"/>
+      <c r="W28" s="793"/>
+      <c r="X28" s="793"/>
+      <c r="Y28" s="794"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66019,11 +66098,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="794">
+      <c r="M36" s="783">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="796">
+      <c r="N36" s="785">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -66031,7 +66110,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="798">
+      <c r="Q36" s="787">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -66056,13 +66135,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="795"/>
-      <c r="N37" s="797"/>
+      <c r="M37" s="784"/>
+      <c r="N37" s="786"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="799"/>
+      <c r="Q37" s="788"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66355,26 +66434,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="749" t="s">
+      <c r="H52" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="750"/>
+      <c r="I52" s="761"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="751">
+      <c r="K52" s="762">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="784"/>
+      <c r="L52" s="789"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="755" t="s">
+      <c r="D53" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="755"/>
+      <c r="E53" s="766"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66383,22 +66462,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="785" t="s">
+      <c r="D54" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="785"/>
+      <c r="E54" s="790"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="756" t="s">
+      <c r="I54" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="757"/>
-      <c r="K54" s="758">
+      <c r="J54" s="768"/>
+      <c r="K54" s="769">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="758"/>
+      <c r="L54" s="769"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66439,11 +66518,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="760">
+      <c r="K56" s="771">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="761"/>
+      <c r="L56" s="772"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66460,22 +66539,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="738" t="s">
+      <c r="D58" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="739"/>
+      <c r="E58" s="750"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="740" t="s">
+      <c r="I58" s="751" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="741"/>
-      <c r="K58" s="742">
+      <c r="J58" s="752"/>
+      <c r="K58" s="753">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="742"/>
+      <c r="L58" s="753"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -66619,6 +66698,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -66634,20 +66727,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -69441,7 +69520,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="762"/>
+      <c r="B1" s="738"/>
       <c r="C1" s="804" t="s">
         <v>646</v>
       </c>
@@ -69457,7 +69536,7 @@
       <c r="M1" s="805"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="763"/>
+      <c r="B2" s="739"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69467,21 +69546,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="766" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="767"/>
+      <c r="B3" s="742" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="743"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="768" t="s">
+      <c r="H3" s="744" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="768"/>
+      <c r="I3" s="744"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="792" t="s">
+      <c r="P3" s="781" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="802" t="s">
@@ -69499,14 +69578,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="769" t="s">
+      <c r="E4" s="745" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="770"/>
-      <c r="H4" s="771" t="s">
+      <c r="F4" s="746"/>
+      <c r="H4" s="747" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="772"/>
+      <c r="I4" s="748"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69516,15 +69595,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="793"/>
+      <c r="P4" s="782"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="803"/>
-      <c r="W4" s="775" t="s">
+      <c r="W4" s="791" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="775"/>
+      <c r="X4" s="791"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69575,8 +69654,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="775"/>
-      <c r="X5" s="775"/>
+      <c r="W5" s="791"/>
+      <c r="X5" s="791"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70337,7 +70416,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="779">
+      <c r="W19" s="795">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70389,7 +70468,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="780"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70438,8 +70517,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="781"/>
-      <c r="X21" s="781"/>
+      <c r="W21" s="797"/>
+      <c r="X21" s="797"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70538,8 +70617,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="782"/>
-      <c r="X23" s="782"/>
+      <c r="W23" s="798"/>
+      <c r="X23" s="798"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70594,8 +70673,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="782"/>
-      <c r="X24" s="782"/>
+      <c r="W24" s="798"/>
+      <c r="X24" s="798"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70643,8 +70722,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="783"/>
-      <c r="X25" s="783"/>
+      <c r="W25" s="799"/>
+      <c r="X25" s="799"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70692,8 +70771,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="783"/>
-      <c r="X26" s="783"/>
+      <c r="W26" s="799"/>
+      <c r="X26" s="799"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70741,9 +70820,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="776"/>
-      <c r="X27" s="777"/>
-      <c r="Y27" s="778"/>
+      <c r="W27" s="792"/>
+      <c r="X27" s="793"/>
+      <c r="Y27" s="794"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70791,9 +70870,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="777"/>
-      <c r="X28" s="777"/>
-      <c r="Y28" s="778"/>
+      <c r="W28" s="793"/>
+      <c r="X28" s="793"/>
+      <c r="Y28" s="794"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71134,11 +71213,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="794">
+      <c r="M36" s="783">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="796">
+      <c r="N36" s="785">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71171,8 +71250,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="795"/>
-      <c r="N37" s="797"/>
+      <c r="M37" s="784"/>
+      <c r="N37" s="786"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -71479,26 +71558,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="749" t="s">
+      <c r="H52" s="760" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="750"/>
+      <c r="I52" s="761"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="751">
+      <c r="K52" s="762">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="784"/>
+      <c r="L52" s="789"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="755" t="s">
+      <c r="D53" s="766" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="755"/>
+      <c r="E53" s="766"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71507,22 +71586,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="785" t="s">
+      <c r="D54" s="790" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="785"/>
+      <c r="E54" s="790"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="756" t="s">
+      <c r="I54" s="767" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="757"/>
-      <c r="K54" s="758">
+      <c r="J54" s="768"/>
+      <c r="K54" s="769">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="758"/>
+      <c r="L54" s="769"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71563,11 +71642,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="760">
+      <c r="K56" s="771">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="761"/>
+      <c r="L56" s="772"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71584,22 +71663,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="738" t="s">
+      <c r="D58" s="749" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="739"/>
+      <c r="E58" s="750"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="740" t="s">
+      <c r="I58" s="751" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="741"/>
-      <c r="K58" s="742">
+      <c r="J58" s="752"/>
+      <c r="K58" s="753">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="742"/>
+      <c r="L58" s="753"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -71743,20 +71822,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -71773,6 +71838,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1188">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4419,6 +4419,15 @@
   </si>
   <si>
     <t>27-Jul-22--26-Agos-22</t>
+  </si>
+  <si>
+    <t>QUESOS-LONGANIZA-CHORIZO-AL PASTOR</t>
+  </si>
+  <si>
+    <t>JAMON-CREMA-CHORIZO-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-JAMONES</t>
   </si>
 </sst>
 </file>
@@ -6561,7 +6570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="887">
+  <cellXfs count="885">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8050,53 +8059,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8169,10 +8146,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8216,39 +8259,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8460,15 +8470,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8483,6 +8484,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8502,11 +8512,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -13821,23 +13826,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="740" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="765" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="741"/>
-      <c r="E1" s="741"/>
-      <c r="F1" s="741"/>
-      <c r="G1" s="741"/>
-      <c r="H1" s="741"/>
-      <c r="I1" s="741"/>
-      <c r="J1" s="741"/>
-      <c r="K1" s="741"/>
-      <c r="L1" s="741"/>
-      <c r="M1" s="741"/>
+      <c r="D1" s="766"/>
+      <c r="E1" s="766"/>
+      <c r="F1" s="766"/>
+      <c r="G1" s="766"/>
+      <c r="H1" s="766"/>
+      <c r="I1" s="766"/>
+      <c r="J1" s="766"/>
+      <c r="K1" s="766"/>
+      <c r="L1" s="766"/>
+      <c r="M1" s="766"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13847,17 +13852,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13871,14 +13876,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13888,10 +13893,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="754" t="s">
+      <c r="P4" s="744" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="755"/>
+      <c r="Q4" s="745"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15332,11 +15337,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="756">
+      <c r="M39" s="746">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="758">
+      <c r="N39" s="748">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15362,8 +15367,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="757"/>
-      <c r="N40" s="759"/>
+      <c r="M40" s="747"/>
+      <c r="N40" s="749"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15578,29 +15583,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="760" t="s">
+      <c r="H52" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="761"/>
+      <c r="I52" s="751"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="762">
+      <c r="K52" s="752">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="763"/>
-      <c r="M52" s="764">
+      <c r="L52" s="753"/>
+      <c r="M52" s="754">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="765"/>
+      <c r="N52" s="755"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="766" t="s">
+      <c r="D53" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="766"/>
+      <c r="E53" s="756"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15611,22 +15616,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="766" t="s">
+      <c r="D54" s="756" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="766"/>
+      <c r="E54" s="756"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="767" t="s">
+      <c r="I54" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="768"/>
-      <c r="K54" s="769">
+      <c r="J54" s="758"/>
+      <c r="K54" s="759">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="770"/>
+      <c r="L54" s="760"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15659,11 +15664,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="771">
+      <c r="K56" s="761">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="772"/>
+      <c r="L56" s="762"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15680,22 +15685,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="749" t="s">
+      <c r="D58" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="750"/>
+      <c r="E58" s="740"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="751" t="s">
+      <c r="I58" s="741" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="752"/>
-      <c r="K58" s="753">
+      <c r="J58" s="742"/>
+      <c r="K58" s="743">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="753"/>
+      <c r="L58" s="743"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15839,6 +15844,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -15853,12 +15864,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18319,10 +18324,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="834" t="s">
+      <c r="I76" s="835" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="835"/>
+      <c r="J76" s="836"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -18341,8 +18346,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="836"/>
-      <c r="J77" s="837"/>
+      <c r="I77" s="837"/>
+      <c r="J77" s="838"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -18409,7 +18414,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="800" t="s">
+      <c r="F80" s="801" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18424,7 +18429,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="801"/>
+      <c r="F81" s="802"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18432,10 +18437,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="833" t="s">
+      <c r="B82" s="834" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="833"/>
+      <c r="C82" s="834"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -18717,23 +18722,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18743,24 +18748,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18775,14 +18780,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18792,15 +18797,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
-      <c r="W4" s="791" t="s">
+      <c r="R4" s="804"/>
+      <c r="W4" s="776" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="791"/>
+      <c r="X4" s="776"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18851,8 +18856,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="791"/>
-      <c r="X5" s="791"/>
+      <c r="W5" s="776"/>
+      <c r="X5" s="776"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19615,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="795">
+      <c r="W19" s="780">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19667,7 +19672,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="781"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19716,8 +19721,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="797"/>
-      <c r="X21" s="797"/>
+      <c r="W21" s="782"/>
+      <c r="X21" s="782"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19817,8 +19822,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="798"/>
-      <c r="X23" s="798"/>
+      <c r="W23" s="783"/>
+      <c r="X23" s="783"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19873,8 +19878,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="798"/>
-      <c r="X24" s="798"/>
+      <c r="W24" s="783"/>
+      <c r="X24" s="783"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19922,8 +19927,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="799"/>
-      <c r="X25" s="799"/>
+      <c r="W25" s="784"/>
+      <c r="X25" s="784"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19972,8 +19977,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="799"/>
-      <c r="X26" s="799"/>
+      <c r="W26" s="784"/>
+      <c r="X26" s="784"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20021,9 +20026,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="792"/>
-      <c r="X27" s="793"/>
-      <c r="Y27" s="794"/>
+      <c r="W27" s="777"/>
+      <c r="X27" s="778"/>
+      <c r="Y27" s="779"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20071,9 +20076,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="793"/>
-      <c r="X28" s="793"/>
-      <c r="Y28" s="794"/>
+      <c r="W28" s="778"/>
+      <c r="X28" s="778"/>
+      <c r="Y28" s="779"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20405,11 +20410,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="783">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="785">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20417,7 +20422,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="829">
+      <c r="Q36" s="830">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -20442,13 +20447,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="784"/>
-      <c r="N37" s="786"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="830"/>
+      <c r="Q37" s="831"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20498,11 +20503,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="831">
+      <c r="M39" s="832">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="832"/>
+      <c r="N39" s="833"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21130,26 +21135,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="760" t="s">
+      <c r="H68" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="761"/>
+      <c r="I68" s="751"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="762">
+      <c r="K68" s="752">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="789"/>
+      <c r="L68" s="785"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="766" t="s">
+      <c r="D69" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="766"/>
+      <c r="E69" s="756"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21158,22 +21163,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="790" t="s">
+      <c r="D70" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="790"/>
+      <c r="E70" s="786"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="767" t="s">
+      <c r="I70" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="768"/>
-      <c r="K70" s="769">
+      <c r="J70" s="758"/>
+      <c r="K70" s="759">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="769"/>
+      <c r="L70" s="759"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21214,11 +21219,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="771">
+      <c r="K72" s="761">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="772"/>
+      <c r="L72" s="762"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21235,22 +21240,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="749" t="s">
+      <c r="D74" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="750"/>
+      <c r="E74" s="740"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="751" t="s">
+      <c r="I74" s="741" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="752"/>
-      <c r="K74" s="753">
+      <c r="J74" s="742"/>
+      <c r="K74" s="743">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="753"/>
+      <c r="L74" s="743"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21397,6 +21402,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21412,21 +21432,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22988,10 +22993,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="842" t="s">
+      <c r="I44" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="843"/>
+      <c r="J44" s="844"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23010,8 +23015,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="844"/>
-      <c r="J45" s="845"/>
+      <c r="I45" s="845"/>
+      <c r="J45" s="846"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23030,8 +23035,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="846"/>
-      <c r="J46" s="847"/>
+      <c r="I46" s="847"/>
+      <c r="J46" s="848"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -23720,7 +23725,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="800" t="s">
+      <c r="F80" s="801" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -23733,7 +23738,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="801"/>
+      <c r="F81" s="802"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -23753,10 +23758,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="838" t="s">
+      <c r="I83" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="839"/>
+      <c r="J83" s="840"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -23765,8 +23770,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="840"/>
-      <c r="J84" s="841"/>
+      <c r="I84" s="841"/>
+      <c r="J84" s="842"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24039,23 +24044,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24065,24 +24070,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24097,14 +24102,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24114,15 +24119,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
-      <c r="W4" s="791" t="s">
+      <c r="R4" s="804"/>
+      <c r="W4" s="776" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="791"/>
+      <c r="X4" s="776"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24173,8 +24178,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="791"/>
-      <c r="X5" s="791"/>
+      <c r="W5" s="776"/>
+      <c r="X5" s="776"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24933,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="795">
+      <c r="W19" s="780">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -24985,7 +24990,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="781"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25034,8 +25039,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="797"/>
-      <c r="X21" s="797"/>
+      <c r="W21" s="782"/>
+      <c r="X21" s="782"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25132,8 +25137,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="798"/>
-      <c r="X23" s="798"/>
+      <c r="W23" s="783"/>
+      <c r="X23" s="783"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25188,8 +25193,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="798"/>
-      <c r="X24" s="798"/>
+      <c r="W24" s="783"/>
+      <c r="X24" s="783"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25235,8 +25240,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="799"/>
-      <c r="X25" s="799"/>
+      <c r="W25" s="784"/>
+      <c r="X25" s="784"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25287,8 +25292,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="799"/>
-      <c r="X26" s="799"/>
+      <c r="W26" s="784"/>
+      <c r="X26" s="784"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25339,9 +25344,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="792"/>
-      <c r="X27" s="793"/>
-      <c r="Y27" s="794"/>
+      <c r="W27" s="777"/>
+      <c r="X27" s="778"/>
+      <c r="Y27" s="779"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25391,9 +25396,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="793"/>
-      <c r="X28" s="793"/>
-      <c r="Y28" s="794"/>
+      <c r="W28" s="778"/>
+      <c r="X28" s="778"/>
+      <c r="Y28" s="779"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25997,11 +26002,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="783">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="783">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26009,7 +26014,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="848">
+      <c r="Q41" s="849">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26039,10 +26044,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="784"/>
-      <c r="N42" s="784"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="849"/>
+      <c r="Q42" s="850"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26130,11 +26135,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="850">
+      <c r="M45" s="851">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="851"/>
+      <c r="N45" s="852"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -26727,26 +26732,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="760" t="s">
+      <c r="H70" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="761"/>
+      <c r="I70" s="751"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="762">
+      <c r="K70" s="752">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="789"/>
+      <c r="L70" s="785"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="766" t="s">
+      <c r="D71" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="766"/>
+      <c r="E71" s="756"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26756,22 +26761,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="790" t="s">
+      <c r="D72" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="790"/>
+      <c r="E72" s="786"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="767" t="s">
+      <c r="I72" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="768"/>
-      <c r="K72" s="769">
+      <c r="J72" s="758"/>
+      <c r="K72" s="759">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="769"/>
+      <c r="L72" s="759"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26812,11 +26817,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="771">
+      <c r="K74" s="761">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="772"/>
+      <c r="L74" s="762"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26835,22 +26840,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="749" t="s">
+      <c r="D76" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="750"/>
+      <c r="E76" s="740"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="751" t="s">
+      <c r="I76" s="741" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="752"/>
-      <c r="K76" s="753">
+      <c r="J76" s="742"/>
+      <c r="K76" s="743">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="753"/>
+      <c r="L76" s="743"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27010,6 +27015,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27025,21 +27045,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29010,10 +29015,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="842" t="s">
+      <c r="I54" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="843"/>
+      <c r="J54" s="844"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29029,8 +29034,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="844"/>
-      <c r="J55" s="845"/>
+      <c r="I55" s="845"/>
+      <c r="J55" s="846"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29046,8 +29051,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="846"/>
-      <c r="J56" s="847"/>
+      <c r="I56" s="847"/>
+      <c r="J56" s="848"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -29715,7 +29720,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="800" t="s">
+      <c r="F90" s="801" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29728,7 +29733,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="801"/>
+      <c r="F91" s="802"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -29747,10 +29752,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="838" t="s">
+      <c r="I93" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="839"/>
+      <c r="J93" s="840"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -29760,8 +29765,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="840"/>
-      <c r="J94" s="841"/>
+      <c r="I94" s="841"/>
+      <c r="J94" s="842"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30202,11 +30207,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="852">
+      <c r="C130" s="853">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="853"/>
+      <c r="D130" s="854"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30243,21 +30248,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="858" t="s">
+      <c r="F2" s="859" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="859"/>
-      <c r="H2" s="860"/>
+      <c r="G2" s="860"/>
+      <c r="H2" s="861"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="855" t="s">
+      <c r="B3" s="856" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="856"/>
-      <c r="D3" s="857"/>
-      <c r="F3" s="861"/>
-      <c r="G3" s="862"/>
-      <c r="H3" s="863"/>
+      <c r="C3" s="857"/>
+      <c r="D3" s="858"/>
+      <c r="F3" s="862"/>
+      <c r="G3" s="863"/>
+      <c r="H3" s="864"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -30402,11 +30407,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="864">
+      <c r="G11" s="865">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="865"/>
+      <c r="H11" s="866"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -30423,23 +30428,23 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="868" t="s">
+      <c r="C15" s="869" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="866">
+      <c r="D15" s="867">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="869"/>
-      <c r="D16" s="867"/>
+      <c r="C16" s="870"/>
+      <c r="D16" s="868"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="854" t="s">
+      <c r="C17" s="855" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="854"/>
+      <c r="D17" s="855"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30497,23 +30502,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30523,24 +30528,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -30559,14 +30564,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30576,15 +30581,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
+      <c r="R4" s="804"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="870"/>
-      <c r="X4" s="870"/>
+      <c r="W4" s="877"/>
+      <c r="X4" s="877"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30638,8 +30643,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="870"/>
-      <c r="X5" s="870"/>
+      <c r="W5" s="877"/>
+      <c r="X5" s="877"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31405,7 +31410,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="871"/>
+      <c r="W19" s="878"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31459,7 +31464,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="871"/>
+      <c r="W20" s="878"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31514,8 +31519,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="797"/>
-      <c r="X21" s="797"/>
+      <c r="W21" s="782"/>
+      <c r="X21" s="782"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31626,8 +31631,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="798"/>
-      <c r="X23" s="798"/>
+      <c r="W23" s="783"/>
+      <c r="X23" s="783"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31688,8 +31693,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="798"/>
-      <c r="X24" s="798"/>
+      <c r="W24" s="783"/>
+      <c r="X24" s="783"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31742,8 +31747,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="799"/>
-      <c r="X25" s="799"/>
+      <c r="W25" s="784"/>
+      <c r="X25" s="784"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31798,8 +31803,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="799"/>
-      <c r="X26" s="799"/>
+      <c r="W26" s="784"/>
+      <c r="X26" s="784"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31854,9 +31859,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="792"/>
-      <c r="X27" s="793"/>
-      <c r="Y27" s="794"/>
+      <c r="W27" s="777"/>
+      <c r="X27" s="778"/>
+      <c r="Y27" s="779"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31910,9 +31915,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="793"/>
-      <c r="X28" s="793"/>
-      <c r="Y28" s="794"/>
+      <c r="W28" s="778"/>
+      <c r="X28" s="778"/>
+      <c r="Y28" s="779"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32503,11 +32508,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="783">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="783">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32515,7 +32520,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="848">
+      <c r="Q41" s="849">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -32539,10 +32544,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="784"/>
-      <c r="N42" s="784"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="849"/>
+      <c r="Q42" s="850"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -32611,11 +32616,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="850">
+      <c r="M45" s="851">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="851"/>
+      <c r="N45" s="852"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33031,26 +33036,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="760" t="s">
+      <c r="H63" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="761"/>
+      <c r="I63" s="751"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="876">
+      <c r="K63" s="874">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="877"/>
+      <c r="L63" s="875"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="766" t="s">
+      <c r="D64" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="766"/>
+      <c r="E64" s="756"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33059,22 +33064,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="790" t="s">
+      <c r="D65" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="790"/>
+      <c r="E65" s="786"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="767" t="s">
+      <c r="I65" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="768"/>
-      <c r="K65" s="769">
+      <c r="J65" s="758"/>
+      <c r="K65" s="759">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="769"/>
+      <c r="L65" s="759"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33115,11 +33120,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="872">
+      <c r="K67" s="876">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="769"/>
+      <c r="L67" s="759"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33136,22 +33141,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="749" t="s">
+      <c r="D69" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="750"/>
+      <c r="E69" s="740"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="873" t="s">
+      <c r="I69" s="871" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="874"/>
-      <c r="K69" s="875">
+      <c r="J69" s="872"/>
+      <c r="K69" s="873">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="875"/>
+      <c r="L69" s="873"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33298,21 +33303,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33328,6 +33318,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34824,10 +34829,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="842" t="s">
+      <c r="I38" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="843"/>
+      <c r="J38" s="844"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -34846,8 +34851,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="844"/>
-      <c r="J39" s="845"/>
+      <c r="I39" s="845"/>
+      <c r="J39" s="846"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -34866,8 +34871,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="846"/>
-      <c r="J40" s="847"/>
+      <c r="I40" s="847"/>
+      <c r="J40" s="848"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -35490,7 +35495,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="800" t="s">
+      <c r="F71" s="801" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -35503,7 +35508,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="801"/>
+      <c r="F72" s="802"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -35522,10 +35527,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="838" t="s">
+      <c r="I74" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="839"/>
+      <c r="J74" s="840"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -35534,8 +35539,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="840"/>
-      <c r="J75" s="841"/>
+      <c r="I75" s="841"/>
+      <c r="J75" s="842"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -35669,11 +35674,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="880" t="s">
+      <c r="A89" s="881" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="881"/>
-      <c r="C89" s="881"/>
+      <c r="B89" s="882"/>
+      <c r="C89" s="882"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -35683,10 +35688,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="882" t="s">
+      <c r="B90" s="883" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="883"/>
+      <c r="C90" s="884"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -35787,7 +35792,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="878">
+      <c r="C97" s="879">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -35801,7 +35806,7 @@
       <c r="B98" s="659" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="879"/>
+      <c r="C98" s="880"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -35902,23 +35907,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35928,24 +35933,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -35960,14 +35965,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -35977,11 +35982,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
+      <c r="R4" s="804"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37749,11 +37754,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="783">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="783">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37761,7 +37766,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="848">
+      <c r="Q41" s="849">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -37791,10 +37796,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="784"/>
-      <c r="N42" s="784"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="849"/>
+      <c r="Q42" s="850"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -37881,11 +37886,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="850">
+      <c r="M45" s="851">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="851"/>
+      <c r="N45" s="852"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -38471,26 +38476,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="760" t="s">
+      <c r="H69" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="761"/>
+      <c r="I69" s="751"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="876">
+      <c r="K69" s="874">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="877"/>
+      <c r="L69" s="875"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="766" t="s">
+      <c r="D70" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="766"/>
+      <c r="E70" s="756"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38499,22 +38504,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="790" t="s">
+      <c r="D71" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="790"/>
+      <c r="E71" s="786"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="767" t="s">
+      <c r="I71" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="768"/>
-      <c r="K71" s="769">
+      <c r="J71" s="758"/>
+      <c r="K71" s="759">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="769"/>
+      <c r="L71" s="759"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38555,11 +38560,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="872">
+      <c r="K73" s="876">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="769"/>
+      <c r="L73" s="759"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38576,22 +38581,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="749" t="s">
+      <c r="D75" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="750"/>
+      <c r="E75" s="740"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="751" t="s">
+      <c r="I75" s="741" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="752"/>
-      <c r="K75" s="753">
+      <c r="J75" s="742"/>
+      <c r="K75" s="743">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="753"/>
+      <c r="L75" s="743"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38738,6 +38743,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -38749,17 +38765,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40119,7 +40124,7 @@
       <c r="C34" s="111">
         <v>49528.800000000003</v>
       </c>
-      <c r="D34" s="884" t="s">
+      <c r="D34" s="736" t="s">
         <v>1184</v>
       </c>
       <c r="E34" s="717">
@@ -40160,10 +40165,10 @@
       <c r="C35" s="111">
         <v>9215.3700000000008</v>
       </c>
-      <c r="D35" s="885">
+      <c r="D35" s="737">
         <v>44799</v>
       </c>
-      <c r="E35" s="886">
+      <c r="E35" s="738">
         <v>9215.3700000000008</v>
       </c>
       <c r="F35" s="544">
@@ -40200,10 +40205,10 @@
       <c r="C36" s="111">
         <v>96875.6</v>
       </c>
-      <c r="D36" s="885">
+      <c r="D36" s="737">
         <v>44799</v>
       </c>
-      <c r="E36" s="886">
+      <c r="E36" s="738">
         <v>96875.6</v>
       </c>
       <c r="F36" s="544">
@@ -40240,10 +40245,10 @@
       <c r="C37" s="111">
         <v>26574.6</v>
       </c>
-      <c r="D37" s="885">
+      <c r="D37" s="737">
         <v>44799</v>
       </c>
-      <c r="E37" s="886">
+      <c r="E37" s="738">
         <v>26574.6</v>
       </c>
       <c r="F37" s="544">
@@ -40280,10 +40285,10 @@
       <c r="C38" s="111">
         <v>110618.06</v>
       </c>
-      <c r="D38" s="885">
+      <c r="D38" s="737">
         <v>44799</v>
       </c>
-      <c r="E38" s="886">
+      <c r="E38" s="738">
         <v>110618.06</v>
       </c>
       <c r="F38" s="544">
@@ -40320,10 +40325,10 @@
       <c r="C39" s="111">
         <v>3223.2</v>
       </c>
-      <c r="D39" s="885">
+      <c r="D39" s="737">
         <v>44799</v>
       </c>
-      <c r="E39" s="886">
+      <c r="E39" s="738">
         <v>3223.2</v>
       </c>
       <c r="F39" s="111">
@@ -40350,10 +40355,10 @@
       <c r="C40" s="111">
         <v>65436.19</v>
       </c>
-      <c r="D40" s="885">
+      <c r="D40" s="737">
         <v>44799</v>
       </c>
-      <c r="E40" s="886">
+      <c r="E40" s="738">
         <v>65436.19</v>
       </c>
       <c r="F40" s="111">
@@ -40380,10 +40385,10 @@
       <c r="C41" s="111">
         <v>60853.03</v>
       </c>
-      <c r="D41" s="885">
+      <c r="D41" s="737">
         <v>44799</v>
       </c>
-      <c r="E41" s="886">
+      <c r="E41" s="738">
         <v>60853.03</v>
       </c>
       <c r="F41" s="111">
@@ -40410,10 +40415,10 @@
       <c r="C42" s="111">
         <v>5205</v>
       </c>
-      <c r="D42" s="885">
+      <c r="D42" s="737">
         <v>44799</v>
       </c>
-      <c r="E42" s="886">
+      <c r="E42" s="738">
         <v>5205</v>
       </c>
       <c r="F42" s="111">
@@ -40440,10 +40445,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="842" t="s">
+      <c r="H43" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="843"/>
+      <c r="I43" s="844"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -40462,8 +40467,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="844"/>
-      <c r="I44" s="845"/>
+      <c r="H44" s="845"/>
+      <c r="I44" s="846"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -40482,8 +40487,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="846"/>
-      <c r="I45" s="847"/>
+      <c r="H45" s="847"/>
+      <c r="I45" s="848"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -40927,10 +40932,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="838" t="s">
+      <c r="H67" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="839"/>
+      <c r="I67" s="840"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -40950,11 +40955,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="800" t="s">
+      <c r="F68" s="801" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="840"/>
-      <c r="I68" s="841"/>
+      <c r="H68" s="841"/>
+      <c r="I68" s="842"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -40965,7 +40970,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="801"/>
+      <c r="F69" s="802"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -41031,8 +41036,8 @@
       <c r="M75"/>
     </row>
     <row r="76" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="737"/>
-      <c r="F76" s="736"/>
+      <c r="E76" s="735"/>
+      <c r="F76" s="734"/>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
@@ -42780,7 +42785,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="773" t="s">
+      <c r="B41" s="774" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -42812,7 +42817,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="774"/>
+      <c r="B42" s="775"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -44406,23 +44411,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44432,24 +44437,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44464,14 +44469,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44481,11 +44486,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
+      <c r="R4" s="804"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -45601,7 +45606,7 @@
       <c r="J27" s="55">
         <v>44768</v>
       </c>
-      <c r="K27" s="734" t="s">
+      <c r="K27" s="733" t="s">
         <v>1148</v>
       </c>
       <c r="L27" s="54">
@@ -46219,11 +46224,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="783">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="783">
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46231,7 +46236,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="848">
+      <c r="Q41" s="849">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -46261,10 +46266,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="784"/>
-      <c r="N42" s="784"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="849"/>
+      <c r="Q42" s="850"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -46345,11 +46350,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="850">
+      <c r="M45" s="851">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="851"/>
+      <c r="N45" s="852"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -46866,26 +46871,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="760" t="s">
+      <c r="H69" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="761"/>
+      <c r="I69" s="751"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="876">
+      <c r="K69" s="874">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="877"/>
+      <c r="L69" s="875"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="766" t="s">
+      <c r="D70" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="766"/>
+      <c r="E70" s="756"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46894,22 +46899,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="790" t="s">
+      <c r="D71" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="790"/>
+      <c r="E71" s="786"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="767" t="s">
+      <c r="I71" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="768"/>
-      <c r="K71" s="769">
+      <c r="J71" s="758"/>
+      <c r="K71" s="759">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="769"/>
+      <c r="L71" s="759"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46950,11 +46955,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="872">
+      <c r="K73" s="876">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="769"/>
+      <c r="L73" s="759"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -46971,22 +46976,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="749" t="s">
+      <c r="D75" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="750"/>
+      <c r="E75" s="740"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="873" t="s">
+      <c r="I75" s="871" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="874"/>
-      <c r="K75" s="875">
+      <c r="J75" s="872"/>
+      <c r="K75" s="873">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="875"/>
+      <c r="L75" s="873"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47133,12 +47138,6 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47155,6 +47154,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47261,10 +47266,10 @@
       <c r="C3" s="111">
         <v>67911.399999999994</v>
       </c>
-      <c r="D3" s="885">
+      <c r="D3" s="737">
         <v>44799</v>
       </c>
-      <c r="E3" s="886">
+      <c r="E3" s="738">
         <v>67911.399999999994</v>
       </c>
       <c r="F3" s="410">
@@ -47301,10 +47306,10 @@
       <c r="C4" s="111">
         <v>73363.8</v>
       </c>
-      <c r="D4" s="885">
+      <c r="D4" s="737">
         <v>44799</v>
       </c>
-      <c r="E4" s="886">
+      <c r="E4" s="738">
         <v>73363.8</v>
       </c>
       <c r="F4" s="544">
@@ -47342,10 +47347,10 @@
       <c r="C5" s="111">
         <v>31164.35</v>
       </c>
-      <c r="D5" s="885">
+      <c r="D5" s="737">
         <v>44799</v>
       </c>
-      <c r="E5" s="886">
+      <c r="E5" s="738">
         <v>31164.35</v>
       </c>
       <c r="F5" s="544">
@@ -47382,10 +47387,10 @@
       <c r="C6" s="111">
         <v>58616</v>
       </c>
-      <c r="D6" s="885">
+      <c r="D6" s="737">
         <v>44799</v>
       </c>
-      <c r="E6" s="886">
+      <c r="E6" s="738">
         <v>58616</v>
       </c>
       <c r="F6" s="544">
@@ -47422,10 +47427,10 @@
       <c r="C7" s="111">
         <v>106705.96</v>
       </c>
-      <c r="D7" s="885">
+      <c r="D7" s="737">
         <v>44799</v>
       </c>
-      <c r="E7" s="886">
+      <c r="E7" s="738">
         <v>106705.96</v>
       </c>
       <c r="F7" s="544">
@@ -47462,10 +47467,10 @@
       <c r="C8" s="111">
         <v>68357.89</v>
       </c>
-      <c r="D8" s="885">
+      <c r="D8" s="737">
         <v>44799</v>
       </c>
-      <c r="E8" s="886">
+      <c r="E8" s="738">
         <v>68357.89</v>
       </c>
       <c r="F8" s="544">
@@ -47502,10 +47507,10 @@
       <c r="C9" s="111">
         <v>39927.050000000003</v>
       </c>
-      <c r="D9" s="885">
+      <c r="D9" s="737">
         <v>44799</v>
       </c>
-      <c r="E9" s="886">
+      <c r="E9" s="738">
         <v>39927.050000000003</v>
       </c>
       <c r="F9" s="544">
@@ -47542,10 +47547,10 @@
       <c r="C10" s="111">
         <v>121513</v>
       </c>
-      <c r="D10" s="885">
+      <c r="D10" s="737">
         <v>44799</v>
       </c>
-      <c r="E10" s="886">
+      <c r="E10" s="738">
         <v>121513</v>
       </c>
       <c r="F10" s="544">
@@ -47583,10 +47588,10 @@
       <c r="C11" s="111">
         <v>60297.8</v>
       </c>
-      <c r="D11" s="885">
+      <c r="D11" s="737">
         <v>44799</v>
       </c>
-      <c r="E11" s="886">
+      <c r="E11" s="738">
         <v>60297.8</v>
       </c>
       <c r="F11" s="544">
@@ -47623,10 +47628,10 @@
       <c r="C12" s="111">
         <v>105453.7</v>
       </c>
-      <c r="D12" s="885">
+      <c r="D12" s="737">
         <v>44799</v>
       </c>
-      <c r="E12" s="886">
+      <c r="E12" s="738">
         <v>105453.7</v>
       </c>
       <c r="F12" s="544">
@@ -47663,10 +47668,10 @@
       <c r="C13" s="111">
         <v>65012.85</v>
       </c>
-      <c r="D13" s="885">
+      <c r="D13" s="737">
         <v>44799</v>
       </c>
-      <c r="E13" s="886">
+      <c r="E13" s="738">
         <v>65012.85</v>
       </c>
       <c r="F13" s="544">
@@ -47703,10 +47708,10 @@
       <c r="C14" s="111">
         <v>83843.7</v>
       </c>
-      <c r="D14" s="885">
+      <c r="D14" s="737">
         <v>44799</v>
       </c>
-      <c r="E14" s="886">
+      <c r="E14" s="738">
         <v>83843.7</v>
       </c>
       <c r="F14" s="544">
@@ -47743,10 +47748,10 @@
       <c r="C15" s="111">
         <v>11248</v>
       </c>
-      <c r="D15" s="885">
+      <c r="D15" s="737">
         <v>44799</v>
       </c>
-      <c r="E15" s="886">
+      <c r="E15" s="738">
         <v>11248</v>
       </c>
       <c r="F15" s="544">
@@ -47783,10 +47788,10 @@
       <c r="C16" s="111">
         <v>30498.9</v>
       </c>
-      <c r="D16" s="885">
+      <c r="D16" s="737">
         <v>44799</v>
       </c>
-      <c r="E16" s="886">
+      <c r="E16" s="738">
         <v>30498.9</v>
       </c>
       <c r="F16" s="544">
@@ -47823,10 +47828,10 @@
       <c r="C17" s="111">
         <v>4920</v>
       </c>
-      <c r="D17" s="885">
+      <c r="D17" s="737">
         <v>44799</v>
       </c>
-      <c r="E17" s="886">
+      <c r="E17" s="738">
         <v>4920</v>
       </c>
       <c r="F17" s="544">
@@ -47863,10 +47868,10 @@
       <c r="C18" s="111">
         <v>97808.75</v>
       </c>
-      <c r="D18" s="885">
+      <c r="D18" s="737">
         <v>44799</v>
       </c>
-      <c r="E18" s="886">
+      <c r="E18" s="738">
         <v>97808.75</v>
       </c>
       <c r="F18" s="544">
@@ -47903,10 +47908,10 @@
       <c r="C19" s="111">
         <v>70509.3</v>
       </c>
-      <c r="D19" s="885">
+      <c r="D19" s="737">
         <v>44799</v>
       </c>
-      <c r="E19" s="886">
+      <c r="E19" s="738">
         <v>70509.3</v>
       </c>
       <c r="F19" s="544">
@@ -47943,10 +47948,10 @@
       <c r="C20" s="111">
         <v>72783.5</v>
       </c>
-      <c r="D20" s="885">
+      <c r="D20" s="737">
         <v>44799</v>
       </c>
-      <c r="E20" s="886">
+      <c r="E20" s="738">
         <v>72783.5</v>
       </c>
       <c r="F20" s="544">
@@ -47983,10 +47988,10 @@
       <c r="C21" s="111">
         <v>40894.36</v>
       </c>
-      <c r="D21" s="885">
+      <c r="D21" s="737">
         <v>44799</v>
       </c>
-      <c r="E21" s="886">
+      <c r="E21" s="738">
         <v>40894.36</v>
       </c>
       <c r="F21" s="544">
@@ -48023,10 +48028,10 @@
       <c r="C22" s="111">
         <v>69612.42</v>
       </c>
-      <c r="D22" s="885">
+      <c r="D22" s="737">
         <v>44799</v>
       </c>
-      <c r="E22" s="886">
+      <c r="E22" s="738">
         <v>69612.42</v>
       </c>
       <c r="F22" s="544">
@@ -48064,10 +48069,10 @@
       <c r="C23" s="111">
         <v>111046</v>
       </c>
-      <c r="D23" s="885">
+      <c r="D23" s="737">
         <v>44799</v>
       </c>
-      <c r="E23" s="886">
+      <c r="E23" s="738">
         <v>111046</v>
       </c>
       <c r="F23" s="544">
@@ -48101,10 +48106,10 @@
       <c r="C24" s="583">
         <v>3984</v>
       </c>
-      <c r="D24" s="885">
+      <c r="D24" s="737">
         <v>44799</v>
       </c>
-      <c r="E24" s="886">
+      <c r="E24" s="738">
         <v>3984</v>
       </c>
       <c r="F24" s="205">
@@ -48536,10 +48541,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="842" t="s">
+      <c r="H40" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="843"/>
+      <c r="I40" s="844"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -48558,8 +48563,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="844"/>
-      <c r="I41" s="845"/>
+      <c r="H41" s="845"/>
+      <c r="I41" s="846"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -48578,8 +48583,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="846"/>
-      <c r="I42" s="847"/>
+      <c r="H42" s="847"/>
+      <c r="I42" s="848"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49083,10 +49088,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="838" t="s">
+      <c r="H67" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="839"/>
+      <c r="I67" s="840"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49106,11 +49111,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="800" t="s">
+      <c r="F68" s="801" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="840"/>
-      <c r="I68" s="841"/>
+      <c r="H68" s="841"/>
+      <c r="I68" s="842"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49121,7 +49126,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="801"/>
+      <c r="F69" s="802"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -49713,8 +49718,11 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49740,23 +49748,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>1144</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49766,24 +49774,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -49798,14 +49806,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49815,11 +49823,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
+      <c r="R4" s="804"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -50488,19 +50496,23 @@
       <c r="J18" s="37"/>
       <c r="K18" s="564"/>
       <c r="L18" s="39"/>
-      <c r="M18" s="182">
-        <v>0</v>
+      <c r="M18" s="32">
+        <f>500+71526</f>
+        <v>72026</v>
       </c>
       <c r="N18" s="33">
         <v>39781</v>
       </c>
+      <c r="O18" s="577" t="s">
+        <v>939</v>
+      </c>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
-        <v>56802</v>
-      </c>
-      <c r="Q18" s="735">
-        <f t="shared" si="0"/>
-        <v>-72026</v>
+        <v>128828</v>
+      </c>
+      <c r="Q18" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R18" s="319">
         <v>0</v>
@@ -50533,19 +50545,22 @@
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
-      <c r="M19" s="182">
-        <v>0</v>
+      <c r="M19" s="32">
+        <v>50554</v>
       </c>
       <c r="N19" s="33">
         <v>43506</v>
       </c>
+      <c r="O19" s="577" t="s">
+        <v>939</v>
+      </c>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
-        <v>52900</v>
-      </c>
-      <c r="Q19" s="735">
-        <f t="shared" si="0"/>
-        <v>-50554</v>
+        <v>103454</v>
+      </c>
+      <c r="Q19" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R19" s="319">
         <v>0</v>
@@ -50578,20 +50593,22 @@
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
-      <c r="M20" s="182">
-        <f>26596+1098.68</f>
-        <v>27694.68</v>
+      <c r="M20" s="32">
+        <f>26596+1098.68+22615</f>
+        <v>50309.68</v>
       </c>
       <c r="N20" s="33">
         <v>46524</v>
       </c>
+      <c r="O20" s="577" t="s">
+        <v>939</v>
+      </c>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
-        <v>117017.68</v>
-      </c>
-      <c r="Q20" s="735">
-        <f t="shared" si="0"/>
-        <v>3980.679999999993</v>
+        <v>139632.68</v>
+      </c>
+      <c r="Q20" s="325">
+        <v>0</v>
       </c>
       <c r="R20" s="388">
         <v>26596</v>
@@ -50602,30 +50619,40 @@
       <c r="B21" s="24">
         <v>44790</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>32654</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>1185</v>
+      </c>
       <c r="E21" s="27">
         <v>44790</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>107301</v>
+      </c>
       <c r="G21" s="572"/>
       <c r="H21" s="29">
         <v>44790</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>6395</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="565"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <v>21525</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="O21" s="732"/>
+        <v>46727</v>
+      </c>
+      <c r="O21" s="577" t="s">
+        <v>939</v>
+      </c>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>107301</v>
       </c>
       <c r="Q21" s="325">
         <f t="shared" si="0"/>
@@ -50640,29 +50667,40 @@
       <c r="B22" s="24">
         <v>44791</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <v>14097.5</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>1186</v>
+      </c>
       <c r="E22" s="27">
         <v>44791</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>98340</v>
+      </c>
       <c r="G22" s="572"/>
       <c r="H22" s="29">
         <v>44791</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>3128</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <v>46128.5</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>34986</v>
+      </c>
+      <c r="O22" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98340</v>
       </c>
       <c r="Q22" s="325">
         <f t="shared" si="0"/>
@@ -50677,36 +50715,46 @@
       <c r="B23" s="24">
         <v>44792</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <v>7873</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>1187</v>
+      </c>
       <c r="E23" s="27">
         <v>44792</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>105758</v>
+      </c>
       <c r="G23" s="572"/>
       <c r="H23" s="29">
         <v>44792</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>2018.5</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <v>58983.5</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>42623</v>
+      </c>
+      <c r="O23" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>111498</v>
       </c>
       <c r="Q23" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="319">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R23" s="388">
+        <v>5740</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -51345,21 +51393,21 @@
       <c r="L41" s="39">
         <v>15889</v>
       </c>
-      <c r="M41" s="783">
+      <c r="M41" s="795">
         <f>SUM(M5:M40)</f>
-        <v>804697.68</v>
-      </c>
-      <c r="N41" s="783">
+        <v>1076529.6800000002</v>
+      </c>
+      <c r="N41" s="795">
         <f>SUM(N5:N40)</f>
-        <v>707448</v>
+        <v>831784</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>1879977.68</v>
-      </c>
-      <c r="Q41" s="848">
+        <v>2342311.6799999997</v>
+      </c>
+      <c r="Q41" s="849">
         <f>SUM(Q5:Q40)</f>
-        <v>-118595.32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51381,10 +51429,10 @@
       <c r="L42" s="702">
         <v>17693</v>
       </c>
-      <c r="M42" s="784"/>
-      <c r="N42" s="784"/>
+      <c r="M42" s="796"/>
+      <c r="N42" s="796"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="849"/>
+      <c r="Q42" s="850"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -51435,11 +51483,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="850">
+      <c r="M45" s="851">
         <f>M41+N41</f>
-        <v>1512145.6800000002</v>
-      </c>
-      <c r="N45" s="851"/>
+        <v>1908313.6800000002</v>
+      </c>
+      <c r="N45" s="852"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -51822,7 +51870,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>290745</v>
+        <v>345369.5</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -51830,7 +51878,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>1922181</v>
+        <v>2233580</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -51838,7 +51886,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>41646</v>
+        <v>53187.5</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -51864,50 +51912,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="760" t="s">
+      <c r="H69" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="761"/>
+      <c r="I69" s="751"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="876">
+      <c r="K69" s="874">
         <f>I67+L67</f>
-        <v>110669</v>
-      </c>
-      <c r="L69" s="877"/>
+        <v>122210.5</v>
+      </c>
+      <c r="L69" s="875"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="766" t="s">
+      <c r="D70" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="766"/>
+      <c r="E70" s="756"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1520767</v>
+        <v>1766000</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="790" t="s">
+      <c r="D71" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="790"/>
+      <c r="E71" s="786"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="767" t="s">
+      <c r="I71" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="768"/>
-      <c r="K71" s="769">
+      <c r="J71" s="758"/>
+      <c r="K71" s="759">
         <f>F73+F74+F75</f>
-        <v>1520767</v>
-      </c>
-      <c r="L71" s="769"/>
+        <v>1766000</v>
+      </c>
+      <c r="L71" s="759"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -51941,18 +51989,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>1520767</v>
+        <v>1766000</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="872">
+      <c r="K73" s="876">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="769"/>
+      <c r="L73" s="759"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -51967,22 +52015,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="749" t="s">
+      <c r="D75" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="750"/>
+      <c r="E75" s="740"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="873" t="s">
+      <c r="I75" s="871" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="874"/>
-      <c r="K75" s="875">
+      <c r="J75" s="872"/>
+      <c r="K75" s="873">
         <f>K71+K73</f>
-        <v>-753886.08999999985</v>
-      </c>
-      <c r="L75" s="875"/>
+        <v>-508653.08999999985</v>
+      </c>
+      <c r="L75" s="873"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -52126,12 +52174,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -52148,6 +52190,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52263,7 +52311,7 @@
       <c r="H3" s="704"/>
       <c r="I3" s="705"/>
       <c r="J3" s="706"/>
-      <c r="K3" s="733"/>
+      <c r="K3" s="732"/>
       <c r="L3" s="706"/>
       <c r="M3" s="183">
         <f>J3-L3</f>
@@ -52290,7 +52338,7 @@
       <c r="H4" s="704"/>
       <c r="I4" s="705"/>
       <c r="J4" s="706"/>
-      <c r="K4" s="733"/>
+      <c r="K4" s="732"/>
       <c r="L4" s="706"/>
       <c r="M4" s="137">
         <f>M3+J4-L4</f>
@@ -52316,7 +52364,7 @@
       <c r="H5" s="704"/>
       <c r="I5" s="705"/>
       <c r="J5" s="706"/>
-      <c r="K5" s="733"/>
+      <c r="K5" s="732"/>
       <c r="L5" s="706"/>
       <c r="M5" s="137">
         <f t="shared" ref="M5:M65" si="1">M4+J5-L5</f>
@@ -52342,7 +52390,7 @@
       <c r="H6" s="704"/>
       <c r="I6" s="705"/>
       <c r="J6" s="706"/>
-      <c r="K6" s="733"/>
+      <c r="K6" s="732"/>
       <c r="L6" s="706"/>
       <c r="M6" s="137">
         <f t="shared" si="1"/>
@@ -52368,7 +52416,7 @@
       <c r="H7" s="704"/>
       <c r="I7" s="705"/>
       <c r="J7" s="706"/>
-      <c r="K7" s="733"/>
+      <c r="K7" s="732"/>
       <c r="L7" s="706"/>
       <c r="M7" s="137">
         <f t="shared" si="1"/>
@@ -52394,7 +52442,7 @@
       <c r="H8" s="704"/>
       <c r="I8" s="705"/>
       <c r="J8" s="706"/>
-      <c r="K8" s="733"/>
+      <c r="K8" s="732"/>
       <c r="L8" s="706"/>
       <c r="M8" s="137">
         <f t="shared" si="1"/>
@@ -52420,7 +52468,7 @@
       <c r="H9" s="704"/>
       <c r="I9" s="705"/>
       <c r="J9" s="706"/>
-      <c r="K9" s="733"/>
+      <c r="K9" s="732"/>
       <c r="L9" s="706"/>
       <c r="M9" s="137">
         <f t="shared" si="1"/>
@@ -52447,7 +52495,7 @@
       <c r="H10" s="704"/>
       <c r="I10" s="705"/>
       <c r="J10" s="706"/>
-      <c r="K10" s="733"/>
+      <c r="K10" s="732"/>
       <c r="L10" s="706"/>
       <c r="M10" s="137">
         <f t="shared" si="1"/>
@@ -52473,7 +52521,7 @@
       <c r="H11" s="704"/>
       <c r="I11" s="705"/>
       <c r="J11" s="706"/>
-      <c r="K11" s="733"/>
+      <c r="K11" s="732"/>
       <c r="L11" s="706"/>
       <c r="M11" s="137">
         <f t="shared" si="1"/>
@@ -52499,7 +52547,7 @@
       <c r="H12" s="704"/>
       <c r="I12" s="705"/>
       <c r="J12" s="706"/>
-      <c r="K12" s="733"/>
+      <c r="K12" s="732"/>
       <c r="L12" s="706"/>
       <c r="M12" s="137">
         <f t="shared" si="1"/>
@@ -52525,7 +52573,7 @@
       <c r="H13" s="704"/>
       <c r="I13" s="705"/>
       <c r="J13" s="706"/>
-      <c r="K13" s="733"/>
+      <c r="K13" s="732"/>
       <c r="L13" s="706"/>
       <c r="M13" s="137">
         <f t="shared" si="1"/>
@@ -52551,7 +52599,7 @@
       <c r="H14" s="704"/>
       <c r="I14" s="705"/>
       <c r="J14" s="706"/>
-      <c r="K14" s="733"/>
+      <c r="K14" s="732"/>
       <c r="L14" s="706"/>
       <c r="M14" s="137">
         <f t="shared" si="1"/>
@@ -52577,7 +52625,7 @@
       <c r="H15" s="704"/>
       <c r="I15" s="705"/>
       <c r="J15" s="706"/>
-      <c r="K15" s="733"/>
+      <c r="K15" s="732"/>
       <c r="L15" s="706"/>
       <c r="M15" s="137">
         <f t="shared" si="1"/>
@@ -52603,7 +52651,7 @@
       <c r="H16" s="704"/>
       <c r="I16" s="705"/>
       <c r="J16" s="706"/>
-      <c r="K16" s="733"/>
+      <c r="K16" s="732"/>
       <c r="L16" s="706"/>
       <c r="M16" s="137">
         <f t="shared" si="1"/>
@@ -52629,7 +52677,7 @@
       <c r="H17" s="704"/>
       <c r="I17" s="705"/>
       <c r="J17" s="706"/>
-      <c r="K17" s="733"/>
+      <c r="K17" s="732"/>
       <c r="L17" s="706"/>
       <c r="M17" s="137">
         <f t="shared" si="1"/>
@@ -52655,7 +52703,7 @@
       <c r="H18" s="704"/>
       <c r="I18" s="705"/>
       <c r="J18" s="706"/>
-      <c r="K18" s="733"/>
+      <c r="K18" s="732"/>
       <c r="L18" s="706"/>
       <c r="M18" s="137">
         <f t="shared" si="1"/>
@@ -52681,7 +52729,7 @@
       <c r="H19" s="704"/>
       <c r="I19" s="705"/>
       <c r="J19" s="706"/>
-      <c r="K19" s="733"/>
+      <c r="K19" s="732"/>
       <c r="L19" s="706"/>
       <c r="M19" s="137">
         <f t="shared" si="1"/>
@@ -52707,7 +52755,7 @@
       <c r="H20" s="704"/>
       <c r="I20" s="705"/>
       <c r="J20" s="706"/>
-      <c r="K20" s="733"/>
+      <c r="K20" s="732"/>
       <c r="L20" s="706"/>
       <c r="M20" s="137">
         <f t="shared" si="1"/>
@@ -52733,7 +52781,7 @@
       <c r="H21" s="704"/>
       <c r="I21" s="705"/>
       <c r="J21" s="706"/>
-      <c r="K21" s="733"/>
+      <c r="K21" s="732"/>
       <c r="L21" s="706"/>
       <c r="M21" s="137">
         <f t="shared" si="1"/>
@@ -52760,7 +52808,7 @@
       <c r="H22" s="704"/>
       <c r="I22" s="705"/>
       <c r="J22" s="706"/>
-      <c r="K22" s="733"/>
+      <c r="K22" s="732"/>
       <c r="L22" s="706"/>
       <c r="M22" s="137">
         <f t="shared" si="1"/>
@@ -53127,10 +53175,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="842" t="s">
+      <c r="H40" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="843"/>
+      <c r="I40" s="844"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -53149,8 +53197,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="844"/>
-      <c r="I41" s="845"/>
+      <c r="H41" s="845"/>
+      <c r="I41" s="846"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -53169,8 +53217,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="846"/>
-      <c r="I42" s="847"/>
+      <c r="H42" s="847"/>
+      <c r="I42" s="848"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -53674,10 +53722,10 @@
         <f>SUM(F3:F66)</f>
         <v>1525276.96</v>
       </c>
-      <c r="H67" s="838" t="s">
+      <c r="H67" s="839" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="839"/>
+      <c r="I67" s="840"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -53697,11 +53745,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="800" t="s">
+      <c r="F68" s="801" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="840"/>
-      <c r="I68" s="841"/>
+      <c r="H68" s="841"/>
+      <c r="I68" s="842"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -53712,7 +53760,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="801"/>
+      <c r="F69" s="802"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -54355,23 +54403,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="740" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="765" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="741"/>
-      <c r="E1" s="741"/>
-      <c r="F1" s="741"/>
-      <c r="G1" s="741"/>
-      <c r="H1" s="741"/>
-      <c r="I1" s="741"/>
-      <c r="J1" s="741"/>
-      <c r="K1" s="741"/>
-      <c r="L1" s="741"/>
-      <c r="M1" s="741"/>
+      <c r="D1" s="766"/>
+      <c r="E1" s="766"/>
+      <c r="F1" s="766"/>
+      <c r="G1" s="766"/>
+      <c r="H1" s="766"/>
+      <c r="I1" s="766"/>
+      <c r="J1" s="766"/>
+      <c r="K1" s="766"/>
+      <c r="L1" s="766"/>
+      <c r="M1" s="766"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54381,21 +54429,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54410,14 +54458,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54427,14 +54475,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="791" t="s">
+      <c r="W4" s="776" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="791"/>
+      <c r="X4" s="776"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54485,8 +54533,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="791"/>
-      <c r="X5" s="791"/>
+      <c r="W5" s="776"/>
+      <c r="X5" s="776"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55257,7 +55305,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="795">
+      <c r="W19" s="780">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55309,7 +55357,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="781"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55358,8 +55406,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="797"/>
-      <c r="X21" s="797"/>
+      <c r="W21" s="782"/>
+      <c r="X21" s="782"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55460,8 +55508,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="798"/>
-      <c r="X23" s="798"/>
+      <c r="W23" s="783"/>
+      <c r="X23" s="783"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55515,8 +55563,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="798"/>
-      <c r="X24" s="798"/>
+      <c r="W24" s="783"/>
+      <c r="X24" s="783"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55562,8 +55610,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="799"/>
-      <c r="X25" s="799"/>
+      <c r="W25" s="784"/>
+      <c r="X25" s="784"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55614,8 +55662,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="799"/>
-      <c r="X26" s="799"/>
+      <c r="W26" s="784"/>
+      <c r="X26" s="784"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55663,9 +55711,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="792"/>
-      <c r="X27" s="793"/>
-      <c r="Y27" s="794"/>
+      <c r="W27" s="777"/>
+      <c r="X27" s="778"/>
+      <c r="Y27" s="779"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55715,9 +55763,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="793"/>
-      <c r="X28" s="793"/>
-      <c r="Y28" s="794"/>
+      <c r="W28" s="778"/>
+      <c r="X28" s="778"/>
+      <c r="Y28" s="779"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56052,11 +56100,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="783">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="785">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -56064,7 +56112,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="787">
+      <c r="Q36" s="799">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -56099,13 +56147,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="784"/>
-      <c r="N37" s="786"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="788"/>
+      <c r="Q37" s="800"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56395,26 +56443,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="760" t="s">
+      <c r="H52" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="761"/>
+      <c r="I52" s="751"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="762">
+      <c r="K52" s="752">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="789"/>
+      <c r="L52" s="785"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="766" t="s">
+      <c r="D53" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="766"/>
+      <c r="E53" s="756"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56423,29 +56471,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="790" t="s">
+      <c r="D54" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="790"/>
+      <c r="E54" s="786"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="767" t="s">
+      <c r="I54" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="768"/>
-      <c r="K54" s="769">
+      <c r="J54" s="758"/>
+      <c r="K54" s="759">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="769"/>
-      <c r="M54" s="775" t="s">
+      <c r="L54" s="759"/>
+      <c r="M54" s="787" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="776"/>
-      <c r="O54" s="776"/>
-      <c r="P54" s="776"/>
-      <c r="Q54" s="777"/>
+      <c r="N54" s="788"/>
+      <c r="O54" s="788"/>
+      <c r="P54" s="788"/>
+      <c r="Q54" s="789"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56459,11 +56507,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="778"/>
-      <c r="N55" s="779"/>
-      <c r="O55" s="779"/>
-      <c r="P55" s="779"/>
-      <c r="Q55" s="780"/>
+      <c r="M55" s="790"/>
+      <c r="N55" s="791"/>
+      <c r="O55" s="791"/>
+      <c r="P55" s="791"/>
+      <c r="Q55" s="792"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56481,11 +56529,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="771">
+      <c r="K56" s="761">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="772"/>
+      <c r="L56" s="762"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56502,22 +56550,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="749" t="s">
+      <c r="D58" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="750"/>
+      <c r="E58" s="740"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="751" t="s">
+      <c r="I58" s="741" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="752"/>
-      <c r="K58" s="753">
+      <c r="J58" s="742"/>
+      <c r="K58" s="743">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="753"/>
+      <c r="L58" s="743"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -56661,14 +56709,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -56679,17 +56730,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59107,7 +59155,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="800" t="s">
+      <c r="F87" s="801" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -59120,7 +59168,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="801"/>
+      <c r="F88" s="802"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -59432,23 +59480,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="740" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="765" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="741"/>
-      <c r="E1" s="741"/>
-      <c r="F1" s="741"/>
-      <c r="G1" s="741"/>
-      <c r="H1" s="741"/>
-      <c r="I1" s="741"/>
-      <c r="J1" s="741"/>
-      <c r="K1" s="741"/>
-      <c r="L1" s="741"/>
-      <c r="M1" s="741"/>
+      <c r="D1" s="766"/>
+      <c r="E1" s="766"/>
+      <c r="F1" s="766"/>
+      <c r="G1" s="766"/>
+      <c r="H1" s="766"/>
+      <c r="I1" s="766"/>
+      <c r="J1" s="766"/>
+      <c r="K1" s="766"/>
+      <c r="L1" s="766"/>
+      <c r="M1" s="766"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59458,24 +59506,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -59490,14 +59538,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59507,15 +59555,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
-      <c r="W4" s="791" t="s">
+      <c r="R4" s="804"/>
+      <c r="W4" s="776" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="791"/>
+      <c r="X4" s="776"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59576,8 +59624,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="791"/>
-      <c r="X5" s="791"/>
+      <c r="W5" s="776"/>
+      <c r="X5" s="776"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60334,7 +60382,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="795">
+      <c r="W19" s="780">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60386,7 +60434,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="781"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60435,8 +60483,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="797"/>
-      <c r="X21" s="797"/>
+      <c r="W21" s="782"/>
+      <c r="X21" s="782"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60537,8 +60585,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="798"/>
-      <c r="X23" s="798"/>
+      <c r="W23" s="783"/>
+      <c r="X23" s="783"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60589,8 +60637,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="798"/>
-      <c r="X24" s="798"/>
+      <c r="W24" s="783"/>
+      <c r="X24" s="783"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60636,8 +60684,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="799"/>
-      <c r="X25" s="799"/>
+      <c r="W25" s="784"/>
+      <c r="X25" s="784"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60685,8 +60733,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="799"/>
-      <c r="X26" s="799"/>
+      <c r="W26" s="784"/>
+      <c r="X26" s="784"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60746,9 +60794,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="792"/>
-      <c r="X27" s="793"/>
-      <c r="Y27" s="794"/>
+      <c r="W27" s="777"/>
+      <c r="X27" s="778"/>
+      <c r="Y27" s="779"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60802,9 +60850,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="793"/>
-      <c r="X28" s="793"/>
-      <c r="Y28" s="794"/>
+      <c r="W28" s="778"/>
+      <c r="X28" s="778"/>
+      <c r="Y28" s="779"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61120,11 +61168,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="783">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="785">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -61132,7 +61180,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="787">
+      <c r="Q36" s="799">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -61151,13 +61199,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="784"/>
-      <c r="N37" s="786"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="788"/>
+      <c r="Q37" s="800"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61431,26 +61479,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="760" t="s">
+      <c r="H52" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="761"/>
+      <c r="I52" s="751"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="762">
+      <c r="K52" s="752">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="789"/>
+      <c r="L52" s="785"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="766" t="s">
+      <c r="D53" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="766"/>
+      <c r="E53" s="756"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61459,29 +61507,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="790" t="s">
+      <c r="D54" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="790"/>
+      <c r="E54" s="786"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="767" t="s">
+      <c r="I54" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="768"/>
-      <c r="K54" s="769">
+      <c r="J54" s="758"/>
+      <c r="K54" s="759">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="769"/>
-      <c r="M54" s="775" t="s">
+      <c r="L54" s="759"/>
+      <c r="M54" s="787" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="776"/>
-      <c r="O54" s="776"/>
-      <c r="P54" s="776"/>
-      <c r="Q54" s="777"/>
+      <c r="N54" s="788"/>
+      <c r="O54" s="788"/>
+      <c r="P54" s="788"/>
+      <c r="Q54" s="789"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61495,11 +61543,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="778"/>
-      <c r="N55" s="779"/>
-      <c r="O55" s="779"/>
-      <c r="P55" s="779"/>
-      <c r="Q55" s="780"/>
+      <c r="M55" s="790"/>
+      <c r="N55" s="791"/>
+      <c r="O55" s="791"/>
+      <c r="P55" s="791"/>
+      <c r="Q55" s="792"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61517,11 +61565,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="771">
+      <c r="K56" s="761">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="772"/>
+      <c r="L56" s="762"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61538,22 +61586,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="749" t="s">
+      <c r="D58" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="750"/>
+      <c r="E58" s="740"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="751" t="s">
+      <c r="I58" s="741" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="752"/>
-      <c r="K58" s="753">
+      <c r="J58" s="742"/>
+      <c r="K58" s="743">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="753"/>
+      <c r="L58" s="743"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61697,20 +61745,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -61720,13 +61761,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64116,7 +64164,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="800" t="s">
+      <c r="F75" s="801" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -64129,7 +64177,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="801"/>
+      <c r="F76" s="802"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -64421,23 +64469,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64447,24 +64495,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -64479,14 +64527,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64496,15 +64544,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
-      <c r="W4" s="791" t="s">
+      <c r="R4" s="804"/>
+      <c r="W4" s="776" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="791"/>
+      <c r="X4" s="776"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64555,8 +64603,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="791"/>
-      <c r="X5" s="791"/>
+      <c r="W5" s="776"/>
+      <c r="X5" s="776"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65320,7 +65368,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="795">
+      <c r="W19" s="780">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65373,7 +65421,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="781"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65422,8 +65470,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="797"/>
-      <c r="X21" s="797"/>
+      <c r="W21" s="782"/>
+      <c r="X21" s="782"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65523,8 +65571,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="798"/>
-      <c r="X23" s="798"/>
+      <c r="W23" s="783"/>
+      <c r="X23" s="783"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65579,8 +65627,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="798"/>
-      <c r="X24" s="798"/>
+      <c r="W24" s="783"/>
+      <c r="X24" s="783"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65625,8 +65673,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="799"/>
-      <c r="X25" s="799"/>
+      <c r="W25" s="784"/>
+      <c r="X25" s="784"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65674,8 +65722,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="799"/>
-      <c r="X26" s="799"/>
+      <c r="W26" s="784"/>
+      <c r="X26" s="784"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65729,9 +65777,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="792"/>
-      <c r="X27" s="793"/>
-      <c r="Y27" s="794"/>
+      <c r="W27" s="777"/>
+      <c r="X27" s="778"/>
+      <c r="Y27" s="779"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65785,9 +65833,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="793"/>
-      <c r="X28" s="793"/>
-      <c r="Y28" s="794"/>
+      <c r="W28" s="778"/>
+      <c r="X28" s="778"/>
+      <c r="Y28" s="779"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66098,11 +66146,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="783">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="785">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -66110,7 +66158,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="787">
+      <c r="Q36" s="799">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -66135,13 +66183,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="784"/>
-      <c r="N37" s="786"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="788"/>
+      <c r="Q37" s="800"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66434,26 +66482,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="760" t="s">
+      <c r="H52" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="761"/>
+      <c r="I52" s="751"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="762">
+      <c r="K52" s="752">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="789"/>
+      <c r="L52" s="785"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="766" t="s">
+      <c r="D53" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="766"/>
+      <c r="E53" s="756"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66462,22 +66510,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="790" t="s">
+      <c r="D54" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="790"/>
+      <c r="E54" s="786"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="767" t="s">
+      <c r="I54" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="768"/>
-      <c r="K54" s="769">
+      <c r="J54" s="758"/>
+      <c r="K54" s="759">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="769"/>
+      <c r="L54" s="759"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66518,11 +66566,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="771">
+      <c r="K56" s="761">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="772"/>
+      <c r="L56" s="762"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66539,22 +66587,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="749" t="s">
+      <c r="D58" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="750"/>
+      <c r="E58" s="740"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="751" t="s">
+      <c r="I58" s="741" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="752"/>
-      <c r="K58" s="753">
+      <c r="J58" s="742"/>
+      <c r="K58" s="743">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="753"/>
+      <c r="L58" s="743"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -66698,20 +66746,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -66727,6 +66761,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -68423,12 +68471,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="806" t="s">
+      <c r="B43" s="807" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="807"/>
-      <c r="D43" s="807"/>
-      <c r="E43" s="808"/>
+      <c r="C43" s="808"/>
+      <c r="D43" s="808"/>
+      <c r="E43" s="809"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68456,10 +68504,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="809"/>
-      <c r="C44" s="810"/>
-      <c r="D44" s="810"/>
-      <c r="E44" s="811"/>
+      <c r="B44" s="810"/>
+      <c r="C44" s="811"/>
+      <c r="D44" s="811"/>
+      <c r="E44" s="812"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68487,10 +68535,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="812"/>
-      <c r="C45" s="813"/>
-      <c r="D45" s="813"/>
-      <c r="E45" s="814"/>
+      <c r="B45" s="813"/>
+      <c r="C45" s="814"/>
+      <c r="D45" s="814"/>
+      <c r="E45" s="815"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68533,10 +68581,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="821" t="s">
+      <c r="B47" s="822" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="822"/>
+      <c r="C47" s="823"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -68558,8 +68606,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="823"/>
-      <c r="C48" s="824"/>
+      <c r="B48" s="824"/>
+      <c r="C48" s="825"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -68567,11 +68615,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="815" t="s">
+      <c r="J48" s="816" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="816"/>
-      <c r="L48" s="817"/>
+      <c r="K48" s="817"/>
+      <c r="L48" s="818"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -68589,9 +68637,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="818"/>
-      <c r="K49" s="819"/>
-      <c r="L49" s="820"/>
+      <c r="J49" s="819"/>
+      <c r="K49" s="820"/>
+      <c r="L49" s="821"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -68608,10 +68656,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="825" t="s">
+      <c r="I50" s="826" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="826"/>
+      <c r="J50" s="827"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -68632,8 +68680,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="825"/>
-      <c r="J51" s="826"/>
+      <c r="I51" s="826"/>
+      <c r="J51" s="827"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -68652,8 +68700,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="825"/>
-      <c r="J52" s="826"/>
+      <c r="I52" s="826"/>
+      <c r="J52" s="827"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -68672,8 +68720,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="825"/>
-      <c r="J53" s="826"/>
+      <c r="I53" s="826"/>
+      <c r="J53" s="827"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -68692,8 +68740,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="825"/>
-      <c r="J54" s="826"/>
+      <c r="I54" s="826"/>
+      <c r="J54" s="827"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -68712,8 +68760,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="825"/>
-      <c r="J55" s="826"/>
+      <c r="I55" s="826"/>
+      <c r="J55" s="827"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -68732,8 +68780,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="825"/>
-      <c r="J56" s="826"/>
+      <c r="I56" s="826"/>
+      <c r="J56" s="827"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -68752,8 +68800,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="825"/>
-      <c r="J57" s="826"/>
+      <c r="I57" s="826"/>
+      <c r="J57" s="827"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -68772,8 +68820,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="825"/>
-      <c r="J58" s="826"/>
+      <c r="I58" s="826"/>
+      <c r="J58" s="827"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -68792,8 +68840,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="825"/>
-      <c r="J59" s="826"/>
+      <c r="I59" s="826"/>
+      <c r="J59" s="827"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -68812,8 +68860,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="825"/>
-      <c r="J60" s="826"/>
+      <c r="I60" s="826"/>
+      <c r="J60" s="827"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -68832,8 +68880,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="825"/>
-      <c r="J61" s="826"/>
+      <c r="I61" s="826"/>
+      <c r="J61" s="827"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -68852,8 +68900,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="825"/>
-      <c r="J62" s="826"/>
+      <c r="I62" s="826"/>
+      <c r="J62" s="827"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -68872,8 +68920,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="825"/>
-      <c r="J63" s="826"/>
+      <c r="I63" s="826"/>
+      <c r="J63" s="827"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -68892,8 +68940,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="825"/>
-      <c r="J64" s="826"/>
+      <c r="I64" s="826"/>
+      <c r="J64" s="827"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -68912,8 +68960,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="825"/>
-      <c r="J65" s="826"/>
+      <c r="I65" s="826"/>
+      <c r="J65" s="827"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -68932,8 +68980,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="825"/>
-      <c r="J66" s="826"/>
+      <c r="I66" s="826"/>
+      <c r="J66" s="827"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -68952,8 +69000,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="825"/>
-      <c r="J67" s="826"/>
+      <c r="I67" s="826"/>
+      <c r="J67" s="827"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -68972,8 +69020,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="825"/>
-      <c r="J68" s="826"/>
+      <c r="I68" s="826"/>
+      <c r="J68" s="827"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -68992,8 +69040,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="825"/>
-      <c r="J69" s="826"/>
+      <c r="I69" s="826"/>
+      <c r="J69" s="827"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -69012,8 +69060,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="825"/>
-      <c r="J70" s="826"/>
+      <c r="I70" s="826"/>
+      <c r="J70" s="827"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -69032,8 +69080,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="825"/>
-      <c r="J71" s="826"/>
+      <c r="I71" s="826"/>
+      <c r="J71" s="827"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -69052,8 +69100,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="825"/>
-      <c r="J72" s="826"/>
+      <c r="I72" s="826"/>
+      <c r="J72" s="827"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -69072,8 +69120,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="825"/>
-      <c r="J73" s="826"/>
+      <c r="I73" s="826"/>
+      <c r="J73" s="827"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -69092,8 +69140,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="825"/>
-      <c r="J74" s="826"/>
+      <c r="I74" s="826"/>
+      <c r="J74" s="827"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -69112,8 +69160,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="825"/>
-      <c r="J75" s="826"/>
+      <c r="I75" s="826"/>
+      <c r="J75" s="827"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -69132,8 +69180,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="825"/>
-      <c r="J76" s="826"/>
+      <c r="I76" s="826"/>
+      <c r="J76" s="827"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -69152,8 +69200,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="825"/>
-      <c r="J77" s="826"/>
+      <c r="I77" s="826"/>
+      <c r="J77" s="827"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -69174,8 +69222,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="827"/>
-      <c r="J78" s="828"/>
+      <c r="I78" s="828"/>
+      <c r="J78" s="829"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -69220,7 +69268,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="800" t="s">
+      <c r="F80" s="801" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -69232,7 +69280,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="801"/>
+      <c r="F81" s="802"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -69520,23 +69568,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="738"/>
-      <c r="C1" s="804" t="s">
+      <c r="B1" s="763"/>
+      <c r="C1" s="805" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="805"/>
-      <c r="E1" s="805"/>
-      <c r="F1" s="805"/>
-      <c r="G1" s="805"/>
-      <c r="H1" s="805"/>
-      <c r="I1" s="805"/>
-      <c r="J1" s="805"/>
-      <c r="K1" s="805"/>
-      <c r="L1" s="805"/>
-      <c r="M1" s="805"/>
+      <c r="D1" s="806"/>
+      <c r="E1" s="806"/>
+      <c r="F1" s="806"/>
+      <c r="G1" s="806"/>
+      <c r="H1" s="806"/>
+      <c r="I1" s="806"/>
+      <c r="J1" s="806"/>
+      <c r="K1" s="806"/>
+      <c r="L1" s="806"/>
+      <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="739"/>
+      <c r="B2" s="764"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69546,24 +69594,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="742" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="743"/>
+      <c r="B3" s="767" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="768"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="744" t="s">
+      <c r="H3" s="769" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="744"/>
+      <c r="I3" s="769"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="781" t="s">
+      <c r="P3" s="793" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="802" t="s">
+      <c r="R3" s="803" t="s">
         <v>216</v>
       </c>
     </row>
@@ -69578,14 +69626,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="745" t="s">
+      <c r="E4" s="770" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="746"/>
-      <c r="H4" s="747" t="s">
+      <c r="F4" s="771"/>
+      <c r="H4" s="772" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="748"/>
+      <c r="I4" s="773"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69595,15 +69643,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="782"/>
+      <c r="P4" s="794"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="803"/>
-      <c r="W4" s="791" t="s">
+      <c r="R4" s="804"/>
+      <c r="W4" s="776" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="791"/>
+      <c r="X4" s="776"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69654,8 +69702,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="791"/>
-      <c r="X5" s="791"/>
+      <c r="W5" s="776"/>
+      <c r="X5" s="776"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70416,7 +70464,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="795">
+      <c r="W19" s="780">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70468,7 +70516,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="781"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70517,8 +70565,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="797"/>
-      <c r="X21" s="797"/>
+      <c r="W21" s="782"/>
+      <c r="X21" s="782"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70617,8 +70665,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="798"/>
-      <c r="X23" s="798"/>
+      <c r="W23" s="783"/>
+      <c r="X23" s="783"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70673,8 +70721,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="798"/>
-      <c r="X24" s="798"/>
+      <c r="W24" s="783"/>
+      <c r="X24" s="783"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70722,8 +70770,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="799"/>
-      <c r="X25" s="799"/>
+      <c r="W25" s="784"/>
+      <c r="X25" s="784"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70771,8 +70819,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="799"/>
-      <c r="X26" s="799"/>
+      <c r="W26" s="784"/>
+      <c r="X26" s="784"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70820,9 +70868,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="792"/>
-      <c r="X27" s="793"/>
-      <c r="Y27" s="794"/>
+      <c r="W27" s="777"/>
+      <c r="X27" s="778"/>
+      <c r="Y27" s="779"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70870,9 +70918,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="793"/>
-      <c r="X28" s="793"/>
-      <c r="Y28" s="794"/>
+      <c r="W28" s="778"/>
+      <c r="X28" s="778"/>
+      <c r="Y28" s="779"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71213,11 +71261,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="783">
+      <c r="M36" s="795">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="785">
+      <c r="N36" s="797">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71225,7 +71273,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="829">
+      <c r="Q36" s="830">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -71250,13 +71298,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="784"/>
-      <c r="N37" s="786"/>
+      <c r="M37" s="796"/>
+      <c r="N37" s="798"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="830"/>
+      <c r="Q37" s="831"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -71306,11 +71354,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="831">
+      <c r="M39" s="832">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="832"/>
+      <c r="N39" s="833"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -71558,26 +71606,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="760" t="s">
+      <c r="H52" s="750" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="761"/>
+      <c r="I52" s="751"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="762">
+      <c r="K52" s="752">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="789"/>
+      <c r="L52" s="785"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="766" t="s">
+      <c r="D53" s="756" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="766"/>
+      <c r="E53" s="756"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71586,22 +71634,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="790" t="s">
+      <c r="D54" s="786" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="790"/>
+      <c r="E54" s="786"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="767" t="s">
+      <c r="I54" s="757" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="768"/>
-      <c r="K54" s="769">
+      <c r="J54" s="758"/>
+      <c r="K54" s="759">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="769"/>
+      <c r="L54" s="759"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71642,11 +71690,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="771">
+      <c r="K56" s="761">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="772"/>
+      <c r="L56" s="762"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71663,22 +71711,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="749" t="s">
+      <c r="D58" s="739" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="750"/>
+      <c r="E58" s="740"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="751" t="s">
+      <c r="I58" s="741" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="752"/>
-      <c r="K58" s="753">
+      <c r="J58" s="742"/>
+      <c r="K58" s="743">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="753"/>
+      <c r="L58" s="743"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -71822,6 +71870,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -71838,20 +71900,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1194">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4428,6 +4428,24 @@
   </si>
   <si>
     <t>POLLO-QUESOS-JAMONES</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-CHORIZO-AL PASTOR-PATA</t>
+  </si>
+  <si>
+    <t>NOMINA # 34</t>
+  </si>
+  <si>
+    <t>QUESO-TOCINETA-  CHISTORRA-</t>
+  </si>
+  <si>
+    <t>QUESOS-CHISTORRA-PATE-JAMON-PATA-CHORITZO</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-CREMA-</t>
+  </si>
+  <si>
+    <t>POLLO-QUESO-LONGANIZA-ARABE-PASTOR-</t>
   </si>
 </sst>
 </file>
@@ -6570,7 +6588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="885">
+  <cellXfs count="886">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8074,6 +8092,39 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8146,76 +8197,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8259,6 +8244,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8470,6 +8488,15 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8484,15 +8511,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8512,6 +8530,7 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -13826,23 +13845,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
-      <c r="C1" s="765" t="s">
+      <c r="B1" s="739"/>
+      <c r="C1" s="741" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="766"/>
-      <c r="E1" s="766"/>
-      <c r="F1" s="766"/>
-      <c r="G1" s="766"/>
-      <c r="H1" s="766"/>
-      <c r="I1" s="766"/>
-      <c r="J1" s="766"/>
-      <c r="K1" s="766"/>
-      <c r="L1" s="766"/>
-      <c r="M1" s="766"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13852,17 +13871,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13876,14 +13895,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13893,10 +13912,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="744" t="s">
+      <c r="P4" s="755" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="745"/>
+      <c r="Q4" s="756"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15337,11 +15356,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="746">
+      <c r="M39" s="757">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="748">
+      <c r="N39" s="759">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15367,8 +15386,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="747"/>
-      <c r="N40" s="749"/>
+      <c r="M40" s="758"/>
+      <c r="N40" s="760"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15583,29 +15602,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="750" t="s">
+      <c r="H52" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="751"/>
+      <c r="I52" s="762"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="752">
+      <c r="K52" s="763">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="753"/>
-      <c r="M52" s="754">
+      <c r="L52" s="764"/>
+      <c r="M52" s="765">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="755"/>
+      <c r="N52" s="766"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="756" t="s">
+      <c r="D53" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="756"/>
+      <c r="E53" s="767"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15616,22 +15635,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="756" t="s">
+      <c r="D54" s="767" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="756"/>
+      <c r="E54" s="767"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="757" t="s">
+      <c r="I54" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="758"/>
-      <c r="K54" s="759">
+      <c r="J54" s="769"/>
+      <c r="K54" s="770">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="760"/>
+      <c r="L54" s="771"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15664,11 +15683,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="761">
+      <c r="K56" s="772">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="762"/>
+      <c r="L56" s="773"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15685,22 +15704,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="739" t="s">
+      <c r="D58" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="740"/>
+      <c r="E58" s="751"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="741" t="s">
+      <c r="I58" s="752" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="742"/>
-      <c r="K58" s="743">
+      <c r="J58" s="753"/>
+      <c r="K58" s="754">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="743"/>
+      <c r="L58" s="754"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15844,12 +15863,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -15864,6 +15877,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18722,7 +18741,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>451</v>
       </c>
@@ -18738,7 +18757,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18748,21 +18767,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -18780,14 +18799,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18797,15 +18816,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="804"/>
-      <c r="W4" s="776" t="s">
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="776"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18856,8 +18875,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="776"/>
-      <c r="X5" s="776"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19620,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="780">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19672,7 +19691,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19721,8 +19740,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="782"/>
-      <c r="X21" s="782"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19822,8 +19841,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="783"/>
-      <c r="X23" s="783"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19878,8 +19897,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="783"/>
-      <c r="X24" s="783"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19927,8 +19946,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="784"/>
-      <c r="X25" s="784"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19977,8 +19996,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="784"/>
-      <c r="X26" s="784"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20026,9 +20045,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="777"/>
-      <c r="X27" s="778"/>
-      <c r="Y27" s="779"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20076,9 +20095,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="778"/>
-      <c r="X28" s="778"/>
-      <c r="Y28" s="779"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20410,11 +20429,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="795">
+      <c r="M36" s="784">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="797">
+      <c r="N36" s="786">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20447,8 +20466,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="796"/>
-      <c r="N37" s="798"/>
+      <c r="M37" s="785"/>
+      <c r="N37" s="787"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -21135,26 +21154,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="750" t="s">
+      <c r="H68" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="751"/>
+      <c r="I68" s="762"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="752">
+      <c r="K68" s="763">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="785"/>
+      <c r="L68" s="790"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="756" t="s">
+      <c r="D69" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="756"/>
+      <c r="E69" s="767"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21163,22 +21182,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="786" t="s">
+      <c r="D70" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="786"/>
+      <c r="E70" s="791"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="757" t="s">
+      <c r="I70" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="758"/>
-      <c r="K70" s="759">
+      <c r="J70" s="769"/>
+      <c r="K70" s="770">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="759"/>
+      <c r="L70" s="770"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21219,11 +21238,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="761">
+      <c r="K72" s="772">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="762"/>
+      <c r="L72" s="773"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21240,22 +21259,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="739" t="s">
+      <c r="D74" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="740"/>
+      <c r="E74" s="751"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="741" t="s">
+      <c r="I74" s="752" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="742"/>
-      <c r="K74" s="743">
+      <c r="J74" s="753"/>
+      <c r="K74" s="754">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="743"/>
+      <c r="L74" s="754"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21402,21 +21421,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21432,6 +21436,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24044,7 +24063,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>620</v>
       </c>
@@ -24060,7 +24079,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24070,21 +24089,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -24102,14 +24121,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24119,15 +24138,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="804"/>
-      <c r="W4" s="776" t="s">
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="776"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24178,8 +24197,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="776"/>
-      <c r="X5" s="776"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24938,7 +24957,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="780">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -24990,7 +25009,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25039,8 +25058,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="782"/>
-      <c r="X21" s="782"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25137,8 +25156,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="783"/>
-      <c r="X23" s="783"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25193,8 +25212,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="783"/>
-      <c r="X24" s="783"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25240,8 +25259,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="784"/>
-      <c r="X25" s="784"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25292,8 +25311,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="784"/>
-      <c r="X26" s="784"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25344,9 +25363,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="777"/>
-      <c r="X27" s="778"/>
-      <c r="Y27" s="779"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25396,9 +25415,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="778"/>
-      <c r="X28" s="778"/>
-      <c r="Y28" s="779"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26002,11 +26021,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="795">
+      <c r="M41" s="784">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="795">
+      <c r="N41" s="784">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26044,8 +26063,8 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="796"/>
-      <c r="N42" s="796"/>
+      <c r="M42" s="785"/>
+      <c r="N42" s="785"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="850"/>
     </row>
@@ -26732,26 +26751,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="750" t="s">
+      <c r="H70" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="751"/>
+      <c r="I70" s="762"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="752">
+      <c r="K70" s="763">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="785"/>
+      <c r="L70" s="790"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="756" t="s">
+      <c r="D71" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="756"/>
+      <c r="E71" s="767"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26761,22 +26780,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="786" t="s">
+      <c r="D72" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="786"/>
+      <c r="E72" s="791"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="757" t="s">
+      <c r="I72" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="758"/>
-      <c r="K72" s="759">
+      <c r="J72" s="769"/>
+      <c r="K72" s="770">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="759"/>
+      <c r="L72" s="770"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26817,11 +26836,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="761">
+      <c r="K74" s="772">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="762"/>
+      <c r="L74" s="773"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26840,22 +26859,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="739" t="s">
+      <c r="D76" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="740"/>
+      <c r="E76" s="751"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="741" t="s">
+      <c r="I76" s="752" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="742"/>
-      <c r="K76" s="743">
+      <c r="J76" s="753"/>
+      <c r="K76" s="754">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="743"/>
+      <c r="L76" s="754"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27015,21 +27034,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27045,6 +27049,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30502,7 +30521,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>754</v>
       </c>
@@ -30518,7 +30537,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30528,21 +30547,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -30564,14 +30583,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30581,15 +30600,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="804"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="877"/>
-      <c r="X4" s="877"/>
+      <c r="W4" s="871"/>
+      <c r="X4" s="871"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30643,8 +30662,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="877"/>
-      <c r="X5" s="877"/>
+      <c r="W5" s="871"/>
+      <c r="X5" s="871"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31410,7 +31429,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="878"/>
+      <c r="W19" s="872"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31464,7 +31483,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="878"/>
+      <c r="W20" s="872"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31519,8 +31538,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="782"/>
-      <c r="X21" s="782"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31631,8 +31650,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="783"/>
-      <c r="X23" s="783"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31693,8 +31712,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="783"/>
-      <c r="X24" s="783"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31747,8 +31766,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="784"/>
-      <c r="X25" s="784"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31803,8 +31822,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="784"/>
-      <c r="X26" s="784"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31859,9 +31878,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="777"/>
-      <c r="X27" s="778"/>
-      <c r="Y27" s="779"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31915,9 +31934,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="778"/>
-      <c r="X28" s="778"/>
-      <c r="Y28" s="779"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32508,11 +32527,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="795">
+      <c r="M41" s="784">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="795">
+      <c r="N41" s="784">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32544,8 +32563,8 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="796"/>
-      <c r="N42" s="796"/>
+      <c r="M42" s="785"/>
+      <c r="N42" s="785"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="850"/>
     </row>
@@ -33036,26 +33055,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="750" t="s">
+      <c r="H63" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="751"/>
+      <c r="I63" s="762"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="874">
+      <c r="K63" s="877">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="875"/>
+      <c r="L63" s="878"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="756" t="s">
+      <c r="D64" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="756"/>
+      <c r="E64" s="767"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33064,22 +33083,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="786" t="s">
+      <c r="D65" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="786"/>
+      <c r="E65" s="791"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="757" t="s">
+      <c r="I65" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="758"/>
-      <c r="K65" s="759">
+      <c r="J65" s="769"/>
+      <c r="K65" s="770">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="759"/>
+      <c r="L65" s="770"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33120,11 +33139,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="876">
+      <c r="K67" s="873">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="759"/>
+      <c r="L67" s="770"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33141,22 +33160,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="739" t="s">
+      <c r="D69" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="740"/>
+      <c r="E69" s="751"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="871" t="s">
+      <c r="I69" s="874" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="872"/>
-      <c r="K69" s="873">
+      <c r="J69" s="875"/>
+      <c r="K69" s="876">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="873"/>
+      <c r="L69" s="876"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33303,6 +33322,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33318,21 +33352,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35907,7 +35926,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>884</v>
       </c>
@@ -35923,7 +35942,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35933,21 +35952,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -35965,14 +35984,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -35982,7 +36001,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -37754,11 +37773,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="795">
+      <c r="M41" s="784">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="795">
+      <c r="N41" s="784">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37796,8 +37815,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="796"/>
-      <c r="N42" s="796"/>
+      <c r="M42" s="785"/>
+      <c r="N42" s="785"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="850"/>
     </row>
@@ -38476,26 +38495,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="750" t="s">
+      <c r="H69" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="751"/>
+      <c r="I69" s="762"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="874">
+      <c r="K69" s="877">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="875"/>
+      <c r="L69" s="878"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="756" t="s">
+      <c r="D70" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="756"/>
+      <c r="E70" s="767"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38504,22 +38523,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="786" t="s">
+      <c r="D71" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="786"/>
+      <c r="E71" s="791"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="757" t="s">
+      <c r="I71" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="758"/>
-      <c r="K71" s="759">
+      <c r="J71" s="769"/>
+      <c r="K71" s="770">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="759"/>
+      <c r="L71" s="770"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38560,11 +38579,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="876">
+      <c r="K73" s="873">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="759"/>
+      <c r="L73" s="770"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38581,22 +38600,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="739" t="s">
+      <c r="D75" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="740"/>
+      <c r="E75" s="751"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="741" t="s">
+      <c r="I75" s="752" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="742"/>
-      <c r="K75" s="743">
+      <c r="J75" s="753"/>
+      <c r="K75" s="754">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="743"/>
+      <c r="L75" s="754"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38743,17 +38762,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -38765,6 +38773,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44411,7 +44430,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>1027</v>
       </c>
@@ -44427,7 +44446,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44437,21 +44456,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -44469,14 +44488,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44486,7 +44505,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -46224,11 +46243,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="795">
+      <c r="M41" s="784">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="795">
+      <c r="N41" s="784">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46266,8 +46285,8 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="796"/>
-      <c r="N42" s="796"/>
+      <c r="M42" s="785"/>
+      <c r="N42" s="785"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="850"/>
     </row>
@@ -46871,26 +46890,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="750" t="s">
+      <c r="H69" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="751"/>
+      <c r="I69" s="762"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="874">
+      <c r="K69" s="877">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="875"/>
+      <c r="L69" s="878"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="756" t="s">
+      <c r="D70" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="756"/>
+      <c r="E70" s="767"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46899,22 +46918,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="786" t="s">
+      <c r="D71" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="786"/>
+      <c r="E71" s="791"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="757" t="s">
+      <c r="I71" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="758"/>
-      <c r="K71" s="759">
+      <c r="J71" s="769"/>
+      <c r="K71" s="770">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="759"/>
+      <c r="L71" s="770"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46955,11 +46974,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="876">
+      <c r="K73" s="873">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="759"/>
+      <c r="L73" s="770"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -46976,22 +46995,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="739" t="s">
+      <c r="D75" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="740"/>
+      <c r="E75" s="751"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="871" t="s">
+      <c r="I75" s="874" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="872"/>
-      <c r="K75" s="873">
+      <c r="J75" s="875"/>
+      <c r="K75" s="876">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="873"/>
+      <c r="L75" s="876"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47138,6 +47157,12 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47154,12 +47179,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49719,10 +49738,10 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49748,7 +49767,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>1144</v>
       </c>
@@ -49764,7 +49783,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49774,21 +49793,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -49806,14 +49825,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49823,7 +49842,7 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
@@ -50762,36 +50781,52 @@
       <c r="B24" s="24">
         <v>44793</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="25">
+        <v>18797</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>1188</v>
+      </c>
       <c r="E24" s="27">
         <v>44793</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>113402</v>
+      </c>
       <c r="G24" s="572"/>
       <c r="H24" s="29">
         <v>44793</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>4714</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44793</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L24" s="52">
+        <v>18064</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <v>100977</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>44844</v>
+      </c>
+      <c r="O24" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>187396</v>
       </c>
       <c r="Q24" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="319">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R24" s="388">
+        <v>73994</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50799,29 +50834,40 @@
       <c r="B25" s="24">
         <v>44794</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="25">
+        <v>11074.5</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>1190</v>
+      </c>
       <c r="E25" s="27">
         <v>44794</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>95169</v>
+      </c>
       <c r="G25" s="572"/>
       <c r="H25" s="29">
         <v>44794</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>1353</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>53500.5</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>29241</v>
+      </c>
+      <c r="O25" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95169</v>
       </c>
       <c r="Q25" s="325">
         <f t="shared" si="0"/>
@@ -50836,29 +50882,41 @@
       <c r="B26" s="24">
         <v>44795</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>15886.5</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>1191</v>
+      </c>
       <c r="E26" s="27">
         <v>44795</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>99660</v>
+      </c>
       <c r="G26" s="572"/>
       <c r="H26" s="29">
         <v>44795</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>956</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="728"/>
       <c r="L26" s="729"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>10000+23209.5</f>
+        <v>33209.5</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>49608</v>
+      </c>
+      <c r="O26" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P26" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99660</v>
       </c>
       <c r="Q26" s="325">
         <f t="shared" si="0"/>
@@ -50873,36 +50931,47 @@
       <c r="B27" s="24">
         <v>44796</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>14311</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>1192</v>
+      </c>
       <c r="E27" s="27">
         <v>44796</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>111550</v>
+      </c>
       <c r="G27" s="572"/>
       <c r="H27" s="29">
         <v>44796</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>2408</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>63665</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>31166</v>
+      </c>
+      <c r="O27" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P27" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>111550</v>
       </c>
       <c r="Q27" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="319">
-        <v>0</v>
+      <c r="R27" s="319" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -50910,33 +50979,45 @@
       <c r="B28" s="24">
         <v>44797</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>20577</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>1193</v>
+      </c>
       <c r="E28" s="27">
         <v>44797</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>108964</v>
+      </c>
       <c r="G28" s="572"/>
       <c r="H28" s="29">
         <v>44797</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>4385</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="32">
-        <v>0</v>
+      <c r="M28" s="182">
+        <f>14701+9372</f>
+        <v>24073</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>35570</v>
+      </c>
+      <c r="O28" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P28" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84605</v>
+      </c>
+      <c r="Q28" s="885">
+        <f t="shared" si="0"/>
+        <v>-24359</v>
       </c>
       <c r="R28" s="319">
         <v>0</v>
@@ -51393,21 +51474,21 @@
       <c r="L41" s="39">
         <v>15889</v>
       </c>
-      <c r="M41" s="795">
+      <c r="M41" s="784">
         <f>SUM(M5:M40)</f>
-        <v>1076529.6800000002</v>
-      </c>
-      <c r="N41" s="795">
+        <v>1351954.6800000002</v>
+      </c>
+      <c r="N41" s="784">
         <f>SUM(N5:N40)</f>
-        <v>831784</v>
+        <v>1022213</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>2342311.6799999997</v>
+        <v>2920691.6799999997</v>
       </c>
       <c r="Q41" s="849">
         <f>SUM(Q5:Q40)</f>
-        <v>4</v>
+        <v>-24355</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51429,8 +51510,8 @@
       <c r="L42" s="702">
         <v>17693</v>
       </c>
-      <c r="M42" s="796"/>
-      <c r="N42" s="796"/>
+      <c r="M42" s="785"/>
+      <c r="N42" s="785"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="850"/>
     </row>
@@ -51444,9 +51525,15 @@
       <c r="G43" s="572"/>
       <c r="H43" s="76"/>
       <c r="I43" s="77"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
+      <c r="J43" s="56">
+        <v>44793</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L43" s="39">
+        <v>19292</v>
+      </c>
       <c r="M43" s="727"/>
       <c r="N43" s="727"/>
       <c r="P43" s="34"/>
@@ -51485,7 +51572,7 @@
       <c r="L45" s="39"/>
       <c r="M45" s="851">
         <f>M41+N41</f>
-        <v>1908313.6800000002</v>
+        <v>2374167.6800000002</v>
       </c>
       <c r="N45" s="852"/>
       <c r="P45" s="34"/>
@@ -51870,7 +51957,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>345369.5</v>
+        <v>426015.5</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -51878,7 +51965,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>2233580</v>
+        <v>2762325</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -51886,7 +51973,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>53187.5</v>
+        <v>67003.5</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -51894,7 +51981,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>69023</v>
+        <v>106379</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -51912,50 +51999,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="750" t="s">
+      <c r="H69" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="751"/>
+      <c r="I69" s="762"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="874">
+      <c r="K69" s="877">
         <f>I67+L67</f>
-        <v>122210.5</v>
-      </c>
-      <c r="L69" s="875"/>
+        <v>173382.5</v>
+      </c>
+      <c r="L69" s="878"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="756" t="s">
+      <c r="D70" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="756"/>
+      <c r="E70" s="767"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1766000</v>
+        <v>2162927</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="786" t="s">
+      <c r="D71" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="786"/>
+      <c r="E71" s="791"/>
       <c r="F71" s="111">
         <v>0</v>
       </c>
-      <c r="I71" s="757" t="s">
+      <c r="I71" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="758"/>
-      <c r="K71" s="759">
+      <c r="J71" s="769"/>
+      <c r="K71" s="770">
         <f>F73+F74+F75</f>
-        <v>1766000</v>
-      </c>
-      <c r="L71" s="759"/>
+        <v>2162927</v>
+      </c>
+      <c r="L71" s="770"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -51989,18 +52076,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>1766000</v>
+        <v>2162927</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="876">
+      <c r="K73" s="873">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="759"/>
+      <c r="L73" s="770"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -52015,22 +52102,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="739" t="s">
+      <c r="D75" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="740"/>
+      <c r="E75" s="751"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="871" t="s">
+      <c r="I75" s="874" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="872"/>
-      <c r="K75" s="873">
+      <c r="J75" s="875"/>
+      <c r="K75" s="876">
         <f>K71+K73</f>
-        <v>-508653.08999999985</v>
-      </c>
-      <c r="L75" s="873"/>
+        <v>-111726.08999999985</v>
+      </c>
+      <c r="L75" s="876"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -52174,6 +52261,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -52190,12 +52283,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54403,23 +54490,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
-      <c r="C1" s="765" t="s">
+      <c r="B1" s="739"/>
+      <c r="C1" s="741" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="766"/>
-      <c r="E1" s="766"/>
-      <c r="F1" s="766"/>
-      <c r="G1" s="766"/>
-      <c r="H1" s="766"/>
-      <c r="I1" s="766"/>
-      <c r="J1" s="766"/>
-      <c r="K1" s="766"/>
-      <c r="L1" s="766"/>
-      <c r="M1" s="766"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54429,21 +54516,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54458,14 +54545,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54475,14 +54562,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="776" t="s">
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="776"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54533,8 +54620,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="776"/>
-      <c r="X5" s="776"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55305,7 +55392,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="780">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55357,7 +55444,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55406,8 +55493,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="782"/>
-      <c r="X21" s="782"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55508,8 +55595,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="783"/>
-      <c r="X23" s="783"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55563,8 +55650,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="783"/>
-      <c r="X24" s="783"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55610,8 +55697,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="784"/>
-      <c r="X25" s="784"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55662,8 +55749,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="784"/>
-      <c r="X26" s="784"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55711,9 +55798,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="777"/>
-      <c r="X27" s="778"/>
-      <c r="Y27" s="779"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55763,9 +55850,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="778"/>
-      <c r="X28" s="778"/>
-      <c r="Y28" s="779"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56100,11 +56187,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="795">
+      <c r="M36" s="784">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="797">
+      <c r="N36" s="786">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -56112,7 +56199,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="799">
+      <c r="Q36" s="788">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -56147,13 +56234,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="796"/>
-      <c r="N37" s="798"/>
+      <c r="M37" s="785"/>
+      <c r="N37" s="787"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="800"/>
+      <c r="Q37" s="789"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56443,26 +56530,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="750" t="s">
+      <c r="H52" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="751"/>
+      <c r="I52" s="762"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="752">
+      <c r="K52" s="763">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="785"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="756" t="s">
+      <c r="D53" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="756"/>
+      <c r="E53" s="767"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56471,29 +56558,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="786" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="786"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="757" t="s">
+      <c r="I54" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="758"/>
-      <c r="K54" s="759">
+      <c r="J54" s="769"/>
+      <c r="K54" s="770">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="759"/>
-      <c r="M54" s="787" t="s">
+      <c r="L54" s="770"/>
+      <c r="M54" s="776" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="788"/>
-      <c r="O54" s="788"/>
-      <c r="P54" s="788"/>
-      <c r="Q54" s="789"/>
+      <c r="N54" s="777"/>
+      <c r="O54" s="777"/>
+      <c r="P54" s="777"/>
+      <c r="Q54" s="778"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56507,11 +56594,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="790"/>
-      <c r="N55" s="791"/>
-      <c r="O55" s="791"/>
-      <c r="P55" s="791"/>
-      <c r="Q55" s="792"/>
+      <c r="M55" s="779"/>
+      <c r="N55" s="780"/>
+      <c r="O55" s="780"/>
+      <c r="P55" s="780"/>
+      <c r="Q55" s="781"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56529,11 +56616,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="761">
+      <c r="K56" s="772">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="762"/>
+      <c r="L56" s="773"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56550,22 +56637,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="739" t="s">
+      <c r="D58" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="740"/>
+      <c r="E58" s="751"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="741" t="s">
+      <c r="I58" s="752" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="742"/>
-      <c r="K58" s="743">
+      <c r="J58" s="753"/>
+      <c r="K58" s="754">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="743"/>
+      <c r="L58" s="754"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -56709,17 +56796,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -56730,14 +56814,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59480,23 +59567,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
-      <c r="C1" s="765" t="s">
+      <c r="B1" s="739"/>
+      <c r="C1" s="741" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="766"/>
-      <c r="E1" s="766"/>
-      <c r="F1" s="766"/>
-      <c r="G1" s="766"/>
-      <c r="H1" s="766"/>
-      <c r="I1" s="766"/>
-      <c r="J1" s="766"/>
-      <c r="K1" s="766"/>
-      <c r="L1" s="766"/>
-      <c r="M1" s="766"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59506,21 +59593,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -59538,14 +59625,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59555,15 +59642,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="804"/>
-      <c r="W4" s="776" t="s">
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="776"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59624,8 +59711,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="776"/>
-      <c r="X5" s="776"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60382,7 +60469,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="780">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60434,7 +60521,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60483,8 +60570,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="782"/>
-      <c r="X21" s="782"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60585,8 +60672,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="783"/>
-      <c r="X23" s="783"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60637,8 +60724,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="783"/>
-      <c r="X24" s="783"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60684,8 +60771,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="784"/>
-      <c r="X25" s="784"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60733,8 +60820,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="784"/>
-      <c r="X26" s="784"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60794,9 +60881,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="777"/>
-      <c r="X27" s="778"/>
-      <c r="Y27" s="779"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60850,9 +60937,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="778"/>
-      <c r="X28" s="778"/>
-      <c r="Y28" s="779"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61168,11 +61255,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="795">
+      <c r="M36" s="784">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="797">
+      <c r="N36" s="786">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -61180,7 +61267,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="799">
+      <c r="Q36" s="788">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -61199,13 +61286,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="796"/>
-      <c r="N37" s="798"/>
+      <c r="M37" s="785"/>
+      <c r="N37" s="787"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="800"/>
+      <c r="Q37" s="789"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61479,26 +61566,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="750" t="s">
+      <c r="H52" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="751"/>
+      <c r="I52" s="762"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="752">
+      <c r="K52" s="763">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="785"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="756" t="s">
+      <c r="D53" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="756"/>
+      <c r="E53" s="767"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61507,29 +61594,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="786" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="786"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="757" t="s">
+      <c r="I54" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="758"/>
-      <c r="K54" s="759">
+      <c r="J54" s="769"/>
+      <c r="K54" s="770">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="759"/>
-      <c r="M54" s="787" t="s">
+      <c r="L54" s="770"/>
+      <c r="M54" s="776" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="788"/>
-      <c r="O54" s="788"/>
-      <c r="P54" s="788"/>
-      <c r="Q54" s="789"/>
+      <c r="N54" s="777"/>
+      <c r="O54" s="777"/>
+      <c r="P54" s="777"/>
+      <c r="Q54" s="778"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61543,11 +61630,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="790"/>
-      <c r="N55" s="791"/>
-      <c r="O55" s="791"/>
-      <c r="P55" s="791"/>
-      <c r="Q55" s="792"/>
+      <c r="M55" s="779"/>
+      <c r="N55" s="780"/>
+      <c r="O55" s="780"/>
+      <c r="P55" s="780"/>
+      <c r="Q55" s="781"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61565,11 +61652,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="761">
+      <c r="K56" s="772">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="762"/>
+      <c r="L56" s="773"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61586,22 +61673,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="739" t="s">
+      <c r="D58" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="740"/>
+      <c r="E58" s="751"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="741" t="s">
+      <c r="I58" s="752" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="742"/>
-      <c r="K58" s="743">
+      <c r="J58" s="753"/>
+      <c r="K58" s="754">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="743"/>
+      <c r="L58" s="754"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -61745,13 +61832,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -61761,20 +61855,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64469,7 +64556,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>316</v>
       </c>
@@ -64485,7 +64572,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64495,21 +64582,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -64527,14 +64614,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64544,15 +64631,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="804"/>
-      <c r="W4" s="776" t="s">
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="776"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64603,8 +64690,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="776"/>
-      <c r="X5" s="776"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65368,7 +65455,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="780">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65421,7 +65508,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65470,8 +65557,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="782"/>
-      <c r="X21" s="782"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65571,8 +65658,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="783"/>
-      <c r="X23" s="783"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65627,8 +65714,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="783"/>
-      <c r="X24" s="783"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65673,8 +65760,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="784"/>
-      <c r="X25" s="784"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65722,8 +65809,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="784"/>
-      <c r="X26" s="784"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65777,9 +65864,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="777"/>
-      <c r="X27" s="778"/>
-      <c r="Y27" s="779"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65833,9 +65920,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="778"/>
-      <c r="X28" s="778"/>
-      <c r="Y28" s="779"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66146,11 +66233,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="795">
+      <c r="M36" s="784">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="797">
+      <c r="N36" s="786">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -66158,7 +66245,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="799">
+      <c r="Q36" s="788">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -66183,13 +66270,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="796"/>
-      <c r="N37" s="798"/>
+      <c r="M37" s="785"/>
+      <c r="N37" s="787"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="800"/>
+      <c r="Q37" s="789"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66482,26 +66569,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="750" t="s">
+      <c r="H52" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="751"/>
+      <c r="I52" s="762"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="752">
+      <c r="K52" s="763">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="785"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="756" t="s">
+      <c r="D53" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="756"/>
+      <c r="E53" s="767"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66510,22 +66597,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="786" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="786"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="757" t="s">
+      <c r="I54" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="758"/>
-      <c r="K54" s="759">
+      <c r="J54" s="769"/>
+      <c r="K54" s="770">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="759"/>
+      <c r="L54" s="770"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66566,11 +66653,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="761">
+      <c r="K56" s="772">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="762"/>
+      <c r="L56" s="773"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66587,22 +66674,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="739" t="s">
+      <c r="D58" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="740"/>
+      <c r="E58" s="751"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="741" t="s">
+      <c r="I58" s="752" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="742"/>
-      <c r="K58" s="743">
+      <c r="J58" s="753"/>
+      <c r="K58" s="754">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="743"/>
+      <c r="L58" s="754"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -66746,6 +66833,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -66761,20 +66862,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -69568,7 +69655,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="763"/>
+      <c r="B1" s="739"/>
       <c r="C1" s="805" t="s">
         <v>646</v>
       </c>
@@ -69584,7 +69671,7 @@
       <c r="M1" s="806"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="764"/>
+      <c r="B2" s="740"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69594,21 +69681,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="767" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="768"/>
+      <c r="B3" s="743" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="744"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="769" t="s">
+      <c r="H3" s="745" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="769"/>
+      <c r="I3" s="745"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="793" t="s">
+      <c r="P3" s="782" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="803" t="s">
@@ -69626,14 +69713,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="770" t="s">
+      <c r="E4" s="746" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="771"/>
-      <c r="H4" s="772" t="s">
+      <c r="F4" s="747"/>
+      <c r="H4" s="748" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="773"/>
+      <c r="I4" s="749"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69643,15 +69730,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="794"/>
+      <c r="P4" s="783"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="804"/>
-      <c r="W4" s="776" t="s">
+      <c r="W4" s="792" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="776"/>
+      <c r="X4" s="792"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69702,8 +69789,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="776"/>
-      <c r="X5" s="776"/>
+      <c r="W5" s="792"/>
+      <c r="X5" s="792"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70464,7 +70551,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="780">
+      <c r="W19" s="796">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70516,7 +70603,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70565,8 +70652,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="782"/>
-      <c r="X21" s="782"/>
+      <c r="W21" s="798"/>
+      <c r="X21" s="798"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70665,8 +70752,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="783"/>
-      <c r="X23" s="783"/>
+      <c r="W23" s="799"/>
+      <c r="X23" s="799"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70721,8 +70808,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="783"/>
-      <c r="X24" s="783"/>
+      <c r="W24" s="799"/>
+      <c r="X24" s="799"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70770,8 +70857,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="784"/>
-      <c r="X25" s="784"/>
+      <c r="W25" s="800"/>
+      <c r="X25" s="800"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70819,8 +70906,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="784"/>
-      <c r="X26" s="784"/>
+      <c r="W26" s="800"/>
+      <c r="X26" s="800"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70868,9 +70955,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="777"/>
-      <c r="X27" s="778"/>
-      <c r="Y27" s="779"/>
+      <c r="W27" s="793"/>
+      <c r="X27" s="794"/>
+      <c r="Y27" s="795"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70918,9 +71005,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="778"/>
-      <c r="X28" s="778"/>
-      <c r="Y28" s="779"/>
+      <c r="W28" s="794"/>
+      <c r="X28" s="794"/>
+      <c r="Y28" s="795"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71261,11 +71348,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="795">
+      <c r="M36" s="784">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="797">
+      <c r="N36" s="786">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71298,8 +71385,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="796"/>
-      <c r="N37" s="798"/>
+      <c r="M37" s="785"/>
+      <c r="N37" s="787"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -71606,26 +71693,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="750" t="s">
+      <c r="H52" s="761" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="751"/>
+      <c r="I52" s="762"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="752">
+      <c r="K52" s="763">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="785"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="756" t="s">
+      <c r="D53" s="767" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="756"/>
+      <c r="E53" s="767"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71634,22 +71721,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="786" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="786"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="757" t="s">
+      <c r="I54" s="768" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="758"/>
-      <c r="K54" s="759">
+      <c r="J54" s="769"/>
+      <c r="K54" s="770">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="759"/>
+      <c r="L54" s="770"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71690,11 +71777,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="761">
+      <c r="K56" s="772">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="762"/>
+      <c r="L56" s="773"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71711,22 +71798,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="739" t="s">
+      <c r="D58" s="750" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="740"/>
+      <c r="E58" s="751"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="741" t="s">
+      <c r="I58" s="752" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="742"/>
-      <c r="K58" s="743">
+      <c r="J58" s="753"/>
+      <c r="K58" s="754">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="743"/>
+      <c r="L58" s="754"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -71870,20 +71957,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -71900,6 +71973,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="21" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1200">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4446,6 +4446,24 @@
   </si>
   <si>
     <t>POLLO-QUESO-LONGANIZA-ARABE-PASTOR-</t>
+  </si>
+  <si>
+    <t>08009 D</t>
+  </si>
+  <si>
+    <t>08114 D</t>
+  </si>
+  <si>
+    <t>08149 D</t>
+  </si>
+  <si>
+    <t>08203 D</t>
+  </si>
+  <si>
+    <t>08345 D</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-QUESO-POLLO-TOCINO</t>
   </si>
 </sst>
 </file>
@@ -8092,6 +8110,7 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8530,7 +8549,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -13845,23 +13863,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="741" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="742" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
+      <c r="D1" s="743"/>
+      <c r="E1" s="743"/>
+      <c r="F1" s="743"/>
+      <c r="G1" s="743"/>
+      <c r="H1" s="743"/>
+      <c r="I1" s="743"/>
+      <c r="J1" s="743"/>
+      <c r="K1" s="743"/>
+      <c r="L1" s="743"/>
+      <c r="M1" s="743"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13871,17 +13889,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13895,14 +13913,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13912,10 +13930,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="755" t="s">
+      <c r="P4" s="756" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="756"/>
+      <c r="Q4" s="757"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15356,11 +15374,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="757">
+      <c r="M39" s="758">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="759">
+      <c r="N39" s="760">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15386,8 +15404,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="758"/>
-      <c r="N40" s="760"/>
+      <c r="M40" s="759"/>
+      <c r="N40" s="761"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15602,29 +15620,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="763"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="764">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="764"/>
-      <c r="M52" s="765">
+      <c r="L52" s="765"/>
+      <c r="M52" s="766">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="766"/>
+      <c r="N52" s="767"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="768"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15635,22 +15653,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="767" t="s">
+      <c r="D54" s="768" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="767"/>
+      <c r="E54" s="768"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="770"/>
+      <c r="K54" s="771">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="771"/>
+      <c r="L54" s="772"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15683,11 +15701,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="773">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="774"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15704,22 +15722,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="752"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="753" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="754"/>
+      <c r="K58" s="755">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="755"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18343,10 +18361,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="835" t="s">
+      <c r="I76" s="836" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="836"/>
+      <c r="J76" s="837"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -18365,8 +18383,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="837"/>
-      <c r="J77" s="838"/>
+      <c r="I77" s="838"/>
+      <c r="J77" s="839"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -18433,7 +18451,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="801" t="s">
+      <c r="F80" s="802" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18448,7 +18466,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="802"/>
+      <c r="F81" s="803"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18456,10 +18474,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="834" t="s">
+      <c r="B82" s="835" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="834"/>
+      <c r="C82" s="835"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -18741,23 +18759,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18767,24 +18785,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18799,14 +18817,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18816,15 +18834,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="805"/>
+      <c r="W4" s="793" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18875,8 +18893,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19639,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="797">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19691,7 +19709,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19740,8 +19758,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="799"/>
+      <c r="X21" s="799"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19841,8 +19859,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="800"/>
+      <c r="X23" s="800"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19897,8 +19915,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="800"/>
+      <c r="X24" s="800"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19946,8 +19964,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="801"/>
+      <c r="X25" s="801"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -19996,8 +20014,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="801"/>
+      <c r="X26" s="801"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20045,9 +20063,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="794"/>
+      <c r="X27" s="795"/>
+      <c r="Y27" s="796"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20095,9 +20113,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="795"/>
+      <c r="X28" s="795"/>
+      <c r="Y28" s="796"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20429,11 +20447,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="784">
+      <c r="M36" s="785">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="786">
+      <c r="N36" s="787">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20441,7 +20459,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="830">
+      <c r="Q36" s="831">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -20466,13 +20484,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="785"/>
-      <c r="N37" s="787"/>
+      <c r="M37" s="786"/>
+      <c r="N37" s="788"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="831"/>
+      <c r="Q37" s="832"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20522,11 +20540,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="832">
+      <c r="M39" s="833">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="833"/>
+      <c r="N39" s="834"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21154,26 +21172,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="761" t="s">
+      <c r="H68" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="762"/>
+      <c r="I68" s="763"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="763">
+      <c r="K68" s="764">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="790"/>
+      <c r="L68" s="791"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="767" t="s">
+      <c r="D69" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="767"/>
+      <c r="E69" s="768"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21182,22 +21200,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="791" t="s">
+      <c r="D70" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="791"/>
+      <c r="E70" s="792"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="768" t="s">
+      <c r="I70" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="769"/>
-      <c r="K70" s="770">
+      <c r="J70" s="770"/>
+      <c r="K70" s="771">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="770"/>
+      <c r="L70" s="771"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21238,11 +21256,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="772">
+      <c r="K72" s="773">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="773"/>
+      <c r="L72" s="774"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21259,22 +21277,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="750" t="s">
+      <c r="D74" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="751"/>
+      <c r="E74" s="752"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="752" t="s">
+      <c r="I74" s="753" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="753"/>
-      <c r="K74" s="754">
+      <c r="J74" s="754"/>
+      <c r="K74" s="755">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="754"/>
+      <c r="L74" s="755"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -23012,10 +23030,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="843" t="s">
+      <c r="I44" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="844"/>
+      <c r="J44" s="845"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23034,8 +23052,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="845"/>
-      <c r="J45" s="846"/>
+      <c r="I45" s="846"/>
+      <c r="J45" s="847"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23054,8 +23072,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="847"/>
-      <c r="J46" s="848"/>
+      <c r="I46" s="848"/>
+      <c r="J46" s="849"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -23744,7 +23762,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="801" t="s">
+      <c r="F80" s="802" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -23757,7 +23775,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="802"/>
+      <c r="F81" s="803"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -23777,10 +23795,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="839" t="s">
+      <c r="I83" s="840" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="840"/>
+      <c r="J83" s="841"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -23789,8 +23807,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="841"/>
-      <c r="J84" s="842"/>
+      <c r="I84" s="842"/>
+      <c r="J84" s="843"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24063,23 +24081,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24089,24 +24107,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24121,14 +24139,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24138,15 +24156,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="805"/>
+      <c r="W4" s="793" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24197,8 +24215,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24957,7 +24975,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="797">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25009,7 +25027,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25058,8 +25076,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="799"/>
+      <c r="X21" s="799"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25156,8 +25174,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="800"/>
+      <c r="X23" s="800"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25212,8 +25230,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="800"/>
+      <c r="X24" s="800"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25259,8 +25277,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="801"/>
+      <c r="X25" s="801"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25311,8 +25329,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="801"/>
+      <c r="X26" s="801"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25363,9 +25381,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="794"/>
+      <c r="X27" s="795"/>
+      <c r="Y27" s="796"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25415,9 +25433,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="795"/>
+      <c r="X28" s="795"/>
+      <c r="Y28" s="796"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26021,11 +26039,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="784">
+      <c r="M41" s="785">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="784">
+      <c r="N41" s="785">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26033,7 +26051,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="849">
+      <c r="Q41" s="850">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26063,10 +26081,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="785"/>
-      <c r="N42" s="785"/>
+      <c r="M42" s="786"/>
+      <c r="N42" s="786"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="850"/>
+      <c r="Q42" s="851"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26154,11 +26172,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="851">
+      <c r="M45" s="852">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="852"/>
+      <c r="N45" s="853"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -26751,26 +26769,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="761" t="s">
+      <c r="H70" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="762"/>
+      <c r="I70" s="763"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="763">
+      <c r="K70" s="764">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="790"/>
+      <c r="L70" s="791"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="767" t="s">
+      <c r="D71" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="767"/>
+      <c r="E71" s="768"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26780,22 +26798,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="791" t="s">
+      <c r="D72" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="791"/>
+      <c r="E72" s="792"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="768" t="s">
+      <c r="I72" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="769"/>
-      <c r="K72" s="770">
+      <c r="J72" s="770"/>
+      <c r="K72" s="771">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="770"/>
+      <c r="L72" s="771"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26836,11 +26854,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="772">
+      <c r="K74" s="773">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="773"/>
+      <c r="L74" s="774"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26859,22 +26877,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="750" t="s">
+      <c r="D76" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="751"/>
+      <c r="E76" s="752"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="752" t="s">
+      <c r="I76" s="753" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="753"/>
-      <c r="K76" s="754">
+      <c r="J76" s="754"/>
+      <c r="K76" s="755">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="754"/>
+      <c r="L76" s="755"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -29034,10 +29052,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="843" t="s">
+      <c r="I54" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="844"/>
+      <c r="J54" s="845"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29053,8 +29071,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="845"/>
-      <c r="J55" s="846"/>
+      <c r="I55" s="846"/>
+      <c r="J55" s="847"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29070,8 +29088,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="847"/>
-      <c r="J56" s="848"/>
+      <c r="I56" s="848"/>
+      <c r="J56" s="849"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -29739,7 +29757,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="801" t="s">
+      <c r="F90" s="802" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29752,7 +29770,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="802"/>
+      <c r="F91" s="803"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -29771,10 +29789,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="839" t="s">
+      <c r="I93" s="840" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="840"/>
+      <c r="J93" s="841"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -29784,8 +29802,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="841"/>
-      <c r="J94" s="842"/>
+      <c r="I94" s="842"/>
+      <c r="J94" s="843"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30226,11 +30244,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="853">
+      <c r="C130" s="854">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="854"/>
+      <c r="D130" s="855"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30267,21 +30285,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="859" t="s">
+      <c r="F2" s="860" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="860"/>
-      <c r="H2" s="861"/>
+      <c r="G2" s="861"/>
+      <c r="H2" s="862"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="856" t="s">
+      <c r="B3" s="857" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="857"/>
-      <c r="D3" s="858"/>
-      <c r="F3" s="862"/>
-      <c r="G3" s="863"/>
-      <c r="H3" s="864"/>
+      <c r="C3" s="858"/>
+      <c r="D3" s="859"/>
+      <c r="F3" s="863"/>
+      <c r="G3" s="864"/>
+      <c r="H3" s="865"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -30426,11 +30444,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="865">
+      <c r="G11" s="866">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="866"/>
+      <c r="H11" s="867"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -30447,23 +30465,23 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="869" t="s">
+      <c r="C15" s="870" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="867">
+      <c r="D15" s="868">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="870"/>
-      <c r="D16" s="868"/>
+      <c r="C16" s="871"/>
+      <c r="D16" s="869"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="855" t="s">
+      <c r="C17" s="856" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="855"/>
+      <c r="D17" s="856"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30521,23 +30539,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30547,24 +30565,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -30583,14 +30601,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30600,15 +30618,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
+      <c r="R4" s="805"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="871"/>
-      <c r="X4" s="871"/>
+      <c r="W4" s="872"/>
+      <c r="X4" s="872"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30662,8 +30680,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="871"/>
-      <c r="X5" s="871"/>
+      <c r="W5" s="872"/>
+      <c r="X5" s="872"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31429,7 +31447,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="872"/>
+      <c r="W19" s="873"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31483,7 +31501,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="872"/>
+      <c r="W20" s="873"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31538,8 +31556,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="799"/>
+      <c r="X21" s="799"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31650,8 +31668,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="800"/>
+      <c r="X23" s="800"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31712,8 +31730,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="800"/>
+      <c r="X24" s="800"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31766,8 +31784,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="801"/>
+      <c r="X25" s="801"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31822,8 +31840,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="801"/>
+      <c r="X26" s="801"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31878,9 +31896,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="794"/>
+      <c r="X27" s="795"/>
+      <c r="Y27" s="796"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31934,9 +31952,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="795"/>
+      <c r="X28" s="795"/>
+      <c r="Y28" s="796"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32527,11 +32545,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="784">
+      <c r="M41" s="785">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="784">
+      <c r="N41" s="785">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32539,7 +32557,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="849">
+      <c r="Q41" s="850">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -32563,10 +32581,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="785"/>
-      <c r="N42" s="785"/>
+      <c r="M42" s="786"/>
+      <c r="N42" s="786"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="850"/>
+      <c r="Q42" s="851"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -32635,11 +32653,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="851">
+      <c r="M45" s="852">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="852"/>
+      <c r="N45" s="853"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33055,26 +33073,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="761" t="s">
+      <c r="H63" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="762"/>
+      <c r="I63" s="763"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="877">
+      <c r="K63" s="878">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="878"/>
+      <c r="L63" s="879"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="767" t="s">
+      <c r="D64" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="767"/>
+      <c r="E64" s="768"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33083,22 +33101,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="791" t="s">
+      <c r="D65" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="791"/>
+      <c r="E65" s="792"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="768" t="s">
+      <c r="I65" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="769"/>
-      <c r="K65" s="770">
+      <c r="J65" s="770"/>
+      <c r="K65" s="771">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="770"/>
+      <c r="L65" s="771"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33139,11 +33157,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="873">
+      <c r="K67" s="874">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="770"/>
+      <c r="L67" s="771"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33160,22 +33178,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="750" t="s">
+      <c r="D69" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="751"/>
+      <c r="E69" s="752"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="874" t="s">
+      <c r="I69" s="875" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="875"/>
-      <c r="K69" s="876">
+      <c r="J69" s="876"/>
+      <c r="K69" s="877">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="876"/>
+      <c r="L69" s="877"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34848,10 +34866,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="843" t="s">
+      <c r="I38" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="844"/>
+      <c r="J38" s="845"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -34870,8 +34888,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="845"/>
-      <c r="J39" s="846"/>
+      <c r="I39" s="846"/>
+      <c r="J39" s="847"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -34890,8 +34908,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="847"/>
-      <c r="J40" s="848"/>
+      <c r="I40" s="848"/>
+      <c r="J40" s="849"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -35514,7 +35532,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="801" t="s">
+      <c r="F71" s="802" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -35527,7 +35545,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="802"/>
+      <c r="F72" s="803"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -35546,10 +35564,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="839" t="s">
+      <c r="I74" s="840" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="840"/>
+      <c r="J74" s="841"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -35558,8 +35576,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="841"/>
-      <c r="J75" s="842"/>
+      <c r="I75" s="842"/>
+      <c r="J75" s="843"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -35693,11 +35711,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="881" t="s">
+      <c r="A89" s="882" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="882"/>
-      <c r="C89" s="882"/>
+      <c r="B89" s="883"/>
+      <c r="C89" s="883"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -35707,10 +35725,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="883" t="s">
+      <c r="B90" s="884" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="884"/>
+      <c r="C90" s="885"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -35811,7 +35829,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="879">
+      <c r="C97" s="880">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -35825,7 +35843,7 @@
       <c r="B98" s="659" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="880"/>
+      <c r="C98" s="881"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -35926,23 +35944,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35952,24 +35970,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -35984,14 +36002,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36001,11 +36019,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
+      <c r="R4" s="805"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37773,11 +37791,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="784">
+      <c r="M41" s="785">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="784">
+      <c r="N41" s="785">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37785,7 +37803,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="849">
+      <c r="Q41" s="850">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -37815,10 +37833,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="785"/>
-      <c r="N42" s="785"/>
+      <c r="M42" s="786"/>
+      <c r="N42" s="786"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="850"/>
+      <c r="Q42" s="851"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -37905,11 +37923,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="851">
+      <c r="M45" s="852">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="852"/>
+      <c r="N45" s="853"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -38495,26 +38513,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="761" t="s">
+      <c r="H69" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="762"/>
+      <c r="I69" s="763"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="877">
+      <c r="K69" s="878">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="878"/>
+      <c r="L69" s="879"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="767" t="s">
+      <c r="D70" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="767"/>
+      <c r="E70" s="768"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38523,22 +38541,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="791" t="s">
+      <c r="D71" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="791"/>
+      <c r="E71" s="792"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="768" t="s">
+      <c r="I71" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="769"/>
-      <c r="K71" s="770">
+      <c r="J71" s="770"/>
+      <c r="K71" s="771">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="770"/>
+      <c r="L71" s="771"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38579,11 +38597,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="873">
+      <c r="K73" s="874">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="770"/>
+      <c r="L73" s="771"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38600,22 +38618,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="750" t="s">
+      <c r="D75" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="751"/>
+      <c r="E75" s="752"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="752" t="s">
+      <c r="I75" s="753" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="753"/>
-      <c r="K75" s="754">
+      <c r="J75" s="754"/>
+      <c r="K75" s="755">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="754"/>
+      <c r="L75" s="755"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -40464,10 +40482,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="843" t="s">
+      <c r="H43" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="844"/>
+      <c r="I43" s="845"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -40486,8 +40504,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="845"/>
-      <c r="I44" s="846"/>
+      <c r="H44" s="846"/>
+      <c r="I44" s="847"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -40506,8 +40524,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="847"/>
-      <c r="I45" s="848"/>
+      <c r="H45" s="848"/>
+      <c r="I45" s="849"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -40951,10 +40969,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="839" t="s">
+      <c r="H67" s="840" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="840"/>
+      <c r="I67" s="841"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -40974,11 +40992,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="801" t="s">
+      <c r="F68" s="802" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="841"/>
-      <c r="I68" s="842"/>
+      <c r="H68" s="842"/>
+      <c r="I68" s="843"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -40989,7 +41007,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="802"/>
+      <c r="F69" s="803"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -42804,7 +42822,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="774" t="s">
+      <c r="B41" s="775" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -42836,7 +42854,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="775"/>
+      <c r="B42" s="776"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -44430,23 +44448,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44456,24 +44474,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44488,14 +44506,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44505,11 +44523,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
+      <c r="R4" s="805"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -46243,11 +46261,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="784">
+      <c r="M41" s="785">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="784">
+      <c r="N41" s="785">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46255,7 +46273,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="849">
+      <c r="Q41" s="850">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -46285,10 +46303,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="785"/>
-      <c r="N42" s="785"/>
+      <c r="M42" s="786"/>
+      <c r="N42" s="786"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="850"/>
+      <c r="Q42" s="851"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -46369,11 +46387,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="851">
+      <c r="M45" s="852">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="852"/>
+      <c r="N45" s="853"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -46890,26 +46908,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="761" t="s">
+      <c r="H69" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="762"/>
+      <c r="I69" s="763"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="877">
+      <c r="K69" s="878">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="878"/>
+      <c r="L69" s="879"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="767" t="s">
+      <c r="D70" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="767"/>
+      <c r="E70" s="768"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46918,22 +46936,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="791" t="s">
+      <c r="D71" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="791"/>
+      <c r="E71" s="792"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="768" t="s">
+      <c r="I71" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="769"/>
-      <c r="K71" s="770">
+      <c r="J71" s="770"/>
+      <c r="K71" s="771">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="770"/>
+      <c r="L71" s="771"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46974,11 +46992,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="873">
+      <c r="K73" s="874">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="770"/>
+      <c r="L73" s="771"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -46995,22 +47013,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="750" t="s">
+      <c r="D75" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="751"/>
+      <c r="E75" s="752"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="874" t="s">
+      <c r="I75" s="875" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="875"/>
-      <c r="K75" s="876">
+      <c r="J75" s="876"/>
+      <c r="K75" s="877">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="876"/>
+      <c r="L75" s="877"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -48560,10 +48578,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="843" t="s">
+      <c r="H40" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="844"/>
+      <c r="I40" s="845"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -48582,8 +48600,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="845"/>
-      <c r="I41" s="846"/>
+      <c r="H41" s="846"/>
+      <c r="I41" s="847"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -48602,8 +48620,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="847"/>
-      <c r="I42" s="848"/>
+      <c r="H42" s="848"/>
+      <c r="I42" s="849"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49107,10 +49125,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="839" t="s">
+      <c r="H67" s="840" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="840"/>
+      <c r="I67" s="841"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49130,11 +49148,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="801" t="s">
+      <c r="F68" s="802" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="841"/>
-      <c r="I68" s="842"/>
+      <c r="H68" s="842"/>
+      <c r="I68" s="843"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49145,7 +49163,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="802"/>
+      <c r="F69" s="803"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -49738,10 +49756,10 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49767,23 +49785,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>1144</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49793,24 +49811,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -49825,14 +49843,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49842,11 +49860,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
+      <c r="R4" s="805"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -51015,7 +51033,7 @@
         <f t="shared" si="1"/>
         <v>84605</v>
       </c>
-      <c r="Q28" s="885">
+      <c r="Q28" s="739">
         <f t="shared" si="0"/>
         <v>-24359</v>
       </c>
@@ -51028,17 +51046,25 @@
       <c r="B29" s="24">
         <v>44798</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>20490</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>1199</v>
+      </c>
       <c r="E29" s="27">
         <v>44798</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>104807</v>
+      </c>
       <c r="G29" s="572"/>
       <c r="H29" s="29">
         <v>44798</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>3229</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
@@ -51050,11 +51076,11 @@
       </c>
       <c r="P29" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23719</v>
       </c>
       <c r="Q29" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-81088</v>
       </c>
       <c r="R29" s="319">
         <v>0</v>
@@ -51175,19 +51201,13 @@
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="24">
-        <v>44802</v>
-      </c>
+      <c r="B33" s="24"/>
       <c r="C33" s="25"/>
       <c r="D33" s="65"/>
-      <c r="E33" s="27">
-        <v>44802</v>
-      </c>
+      <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="572"/>
-      <c r="H33" s="29">
-        <v>44802</v>
-      </c>
+      <c r="H33" s="29"/>
       <c r="I33" s="30"/>
       <c r="J33" s="56"/>
       <c r="K33" s="223"/>
@@ -51212,19 +51232,13 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24">
-        <v>44803</v>
-      </c>
+      <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="64"/>
-      <c r="E34" s="27">
-        <v>44803</v>
-      </c>
+      <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="572"/>
-      <c r="H34" s="29">
-        <v>44803</v>
-      </c>
+      <c r="H34" s="29"/>
       <c r="I34" s="30"/>
       <c r="J34" s="557"/>
       <c r="K34" s="567"/>
@@ -51248,19 +51262,13 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24">
-        <v>44804</v>
-      </c>
+      <c r="B35" s="24"/>
       <c r="C35" s="690"/>
       <c r="D35" s="67"/>
-      <c r="E35" s="27">
-        <v>44804</v>
-      </c>
+      <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="572"/>
-      <c r="H35" s="29">
-        <v>44804</v>
-      </c>
+      <c r="H35" s="29"/>
       <c r="I35" s="30"/>
       <c r="J35" s="557"/>
       <c r="K35" s="568"/>
@@ -51284,19 +51292,13 @@
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
-      <c r="B36" s="24">
-        <v>44805</v>
-      </c>
+      <c r="B36" s="24"/>
       <c r="C36" s="693"/>
       <c r="D36" s="696"/>
-      <c r="E36" s="27">
-        <v>44805</v>
-      </c>
+      <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="662"/>
-      <c r="H36" s="29">
-        <v>44805</v>
-      </c>
+      <c r="H36" s="29"/>
       <c r="I36" s="30"/>
       <c r="J36" s="557"/>
       <c r="K36" s="688"/>
@@ -51320,19 +51322,13 @@
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
-      <c r="B37" s="24">
-        <v>44806</v>
-      </c>
+      <c r="B37" s="24"/>
       <c r="C37" s="692"/>
       <c r="D37" s="695"/>
-      <c r="E37" s="27">
-        <v>44806</v>
-      </c>
+      <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="662"/>
-      <c r="H37" s="29">
-        <v>44806</v>
-      </c>
+      <c r="H37" s="29"/>
       <c r="I37" s="30"/>
       <c r="J37" s="56"/>
       <c r="K37" s="57"/>
@@ -51355,19 +51351,13 @@
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24">
-        <v>44807</v>
-      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="692"/>
       <c r="D38" s="695"/>
-      <c r="E38" s="27">
-        <v>44807</v>
-      </c>
+      <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="662"/>
-      <c r="H38" s="29">
-        <v>44807</v>
-      </c>
+      <c r="H38" s="29"/>
       <c r="I38" s="30"/>
       <c r="J38" s="56"/>
       <c r="K38" s="663"/>
@@ -51391,19 +51381,13 @@
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
-      <c r="B39" s="24">
-        <v>44808</v>
-      </c>
+      <c r="B39" s="24"/>
       <c r="C39" s="692"/>
       <c r="D39" s="695"/>
-      <c r="E39" s="27">
-        <v>44808</v>
-      </c>
+      <c r="E39" s="27"/>
       <c r="F39" s="508"/>
       <c r="G39" s="662"/>
-      <c r="H39" s="29">
-        <v>44808</v>
-      </c>
+      <c r="H39" s="29"/>
       <c r="I39" s="71"/>
       <c r="J39" s="56"/>
       <c r="K39" s="663"/>
@@ -51474,21 +51458,21 @@
       <c r="L41" s="39">
         <v>15889</v>
       </c>
-      <c r="M41" s="784">
+      <c r="M41" s="785">
         <f>SUM(M5:M40)</f>
         <v>1351954.6800000002</v>
       </c>
-      <c r="N41" s="784">
+      <c r="N41" s="785">
         <f>SUM(N5:N40)</f>
         <v>1022213</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>2920691.6799999997</v>
-      </c>
-      <c r="Q41" s="849">
+        <v>2944410.6799999997</v>
+      </c>
+      <c r="Q41" s="850">
         <f>SUM(Q5:Q40)</f>
-        <v>-24355</v>
+        <v>-105443</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51510,10 +51494,10 @@
       <c r="L42" s="702">
         <v>17693</v>
       </c>
-      <c r="M42" s="785"/>
-      <c r="N42" s="785"/>
+      <c r="M42" s="786"/>
+      <c r="N42" s="786"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="850"/>
+      <c r="Q42" s="851"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -51570,11 +51554,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="851">
+      <c r="M45" s="852">
         <f>M41+N41</f>
         <v>2374167.6800000002</v>
       </c>
-      <c r="N45" s="852"/>
+      <c r="N45" s="853"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -51957,7 +51941,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>426015.5</v>
+        <v>446505.5</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -51965,7 +51949,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>2762325</v>
+        <v>2867132</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -51973,7 +51957,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>67003.5</v>
+        <v>70232.5</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -51999,50 +51983,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="761" t="s">
+      <c r="H69" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="762"/>
+      <c r="I69" s="763"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="877">
+      <c r="K69" s="878">
         <f>I67+L67</f>
-        <v>173382.5</v>
-      </c>
-      <c r="L69" s="878"/>
+        <v>176611.5</v>
+      </c>
+      <c r="L69" s="879"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="767" t="s">
+      <c r="D70" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="767"/>
+      <c r="E70" s="768"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>2162927</v>
+        <v>2244015</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="791" t="s">
+      <c r="D71" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="791"/>
+      <c r="E71" s="792"/>
       <c r="F71" s="111">
-        <v>0</v>
-      </c>
-      <c r="I71" s="768" t="s">
+        <v>-1715125.23</v>
+      </c>
+      <c r="I71" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="769"/>
-      <c r="K71" s="770">
+      <c r="J71" s="770"/>
+      <c r="K71" s="771">
         <f>F73+F74+F75</f>
-        <v>2162927</v>
-      </c>
-      <c r="L71" s="770"/>
+        <v>528889.77</v>
+      </c>
+      <c r="L71" s="771"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -52076,18 +52060,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>2162927</v>
+        <v>528889.77</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="873">
+      <c r="K73" s="874">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="770"/>
+      <c r="L73" s="771"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -52102,22 +52086,22 @@
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="112"/>
-      <c r="D75" s="750" t="s">
+      <c r="D75" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="751"/>
+      <c r="E75" s="752"/>
       <c r="F75" s="113">
         <v>0</v>
       </c>
-      <c r="I75" s="874" t="s">
+      <c r="I75" s="875" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="875"/>
-      <c r="K75" s="876">
+      <c r="J75" s="876"/>
+      <c r="K75" s="877">
         <f>K71+K73</f>
-        <v>-111726.08999999985</v>
-      </c>
-      <c r="L75" s="876"/>
+        <v>-1745763.3199999998</v>
+      </c>
+      <c r="L75" s="877"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -52298,8 +52282,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52903,14 +52887,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="454"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="111"/>
+      <c r="A23" s="454">
+        <v>44796</v>
+      </c>
+      <c r="B23" s="246" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C23" s="111">
+        <v>17118</v>
+      </c>
       <c r="D23" s="412"/>
       <c r="E23" s="111"/>
       <c r="F23" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17118</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="704"/>
@@ -52924,14 +52914,20 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="454"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="111"/>
+      <c r="A24" s="454">
+        <v>44797</v>
+      </c>
+      <c r="B24" s="246" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C24" s="111">
+        <v>35648.26</v>
+      </c>
       <c r="D24" s="412"/>
       <c r="E24" s="111"/>
       <c r="F24" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35648.26</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="704"/>
@@ -52945,14 +52941,20 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="454"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="454">
+        <v>44797</v>
+      </c>
+      <c r="B25" s="246" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C25" s="111">
+        <v>104295.06</v>
+      </c>
       <c r="D25" s="412"/>
       <c r="E25" s="111"/>
       <c r="F25" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104295.06</v>
       </c>
       <c r="G25" s="645"/>
       <c r="H25" s="704"/>
@@ -52966,14 +52968,20 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="454"/>
-      <c r="B26" s="580"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="454">
+        <v>44798</v>
+      </c>
+      <c r="B26" s="580" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C26" s="111">
+        <v>7764.05</v>
+      </c>
       <c r="D26" s="412"/>
       <c r="E26" s="111"/>
       <c r="F26" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7764.05</v>
       </c>
       <c r="G26" s="645"/>
       <c r="H26" s="704"/>
@@ -52987,14 +52995,20 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="454"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="111"/>
+      <c r="A27" s="454">
+        <v>44799</v>
+      </c>
+      <c r="B27" s="246" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C27" s="111">
+        <v>25022.9</v>
+      </c>
       <c r="D27" s="412"/>
       <c r="E27" s="111"/>
       <c r="F27" s="544">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25022.9</v>
       </c>
       <c r="G27" s="645"/>
       <c r="H27" s="704"/>
@@ -53262,10 +53276,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="843" t="s">
+      <c r="H40" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="844"/>
+      <c r="I40" s="845"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -53284,8 +53298,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="845"/>
-      <c r="I41" s="846"/>
+      <c r="H41" s="846"/>
+      <c r="I41" s="847"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -53304,8 +53318,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="847"/>
-      <c r="I42" s="848"/>
+      <c r="H42" s="848"/>
+      <c r="I42" s="849"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -53798,7 +53812,7 @@
       <c r="B67" s="440"/>
       <c r="C67" s="212">
         <f>SUM(C3:C66)</f>
-        <v>1525276.96</v>
+        <v>1715125.23</v>
       </c>
       <c r="D67" s="407"/>
       <c r="E67" s="395">
@@ -53807,12 +53821,12 @@
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>1525276.96</v>
-      </c>
-      <c r="H67" s="839" t="s">
+        <v>1715125.23</v>
+      </c>
+      <c r="H67" s="840" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="840"/>
+      <c r="I67" s="841"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -53832,11 +53846,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="801" t="s">
+      <c r="F68" s="802" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="841"/>
-      <c r="I68" s="842"/>
+      <c r="H68" s="842"/>
+      <c r="I68" s="843"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -53847,7 +53861,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="802"/>
+      <c r="F69" s="803"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -54490,23 +54504,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="741" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="742" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
+      <c r="D1" s="743"/>
+      <c r="E1" s="743"/>
+      <c r="F1" s="743"/>
+      <c r="G1" s="743"/>
+      <c r="H1" s="743"/>
+      <c r="I1" s="743"/>
+      <c r="J1" s="743"/>
+      <c r="K1" s="743"/>
+      <c r="L1" s="743"/>
+      <c r="M1" s="743"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54516,21 +54530,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54545,14 +54559,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54562,14 +54576,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="792" t="s">
+      <c r="W4" s="793" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54620,8 +54634,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55392,7 +55406,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="797">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55444,7 +55458,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55493,8 +55507,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="799"/>
+      <c r="X21" s="799"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55595,8 +55609,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="800"/>
+      <c r="X23" s="800"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55650,8 +55664,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="800"/>
+      <c r="X24" s="800"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55697,8 +55711,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="801"/>
+      <c r="X25" s="801"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55749,8 +55763,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="801"/>
+      <c r="X26" s="801"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55798,9 +55812,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="794"/>
+      <c r="X27" s="795"/>
+      <c r="Y27" s="796"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55850,9 +55864,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="795"/>
+      <c r="X28" s="795"/>
+      <c r="Y28" s="796"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56187,11 +56201,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="784">
+      <c r="M36" s="785">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="786">
+      <c r="N36" s="787">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -56199,7 +56213,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="788">
+      <c r="Q36" s="789">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -56234,13 +56248,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="785"/>
-      <c r="N37" s="787"/>
+      <c r="M37" s="786"/>
+      <c r="N37" s="788"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="789"/>
+      <c r="Q37" s="790"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56530,26 +56544,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="763"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="764">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="790"/>
+      <c r="L52" s="791"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="768"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56558,29 +56572,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="791" t="s">
+      <c r="D54" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="791"/>
+      <c r="E54" s="792"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="770"/>
+      <c r="K54" s="771">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="770"/>
-      <c r="M54" s="776" t="s">
+      <c r="L54" s="771"/>
+      <c r="M54" s="777" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="777"/>
-      <c r="O54" s="777"/>
-      <c r="P54" s="777"/>
-      <c r="Q54" s="778"/>
+      <c r="N54" s="778"/>
+      <c r="O54" s="778"/>
+      <c r="P54" s="778"/>
+      <c r="Q54" s="779"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56594,11 +56608,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="779"/>
-      <c r="N55" s="780"/>
-      <c r="O55" s="780"/>
-      <c r="P55" s="780"/>
-      <c r="Q55" s="781"/>
+      <c r="M55" s="780"/>
+      <c r="N55" s="781"/>
+      <c r="O55" s="781"/>
+      <c r="P55" s="781"/>
+      <c r="Q55" s="782"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56616,11 +56630,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="773">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="774"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56637,22 +56651,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="752"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="753" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="754"/>
+      <c r="K58" s="755">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="755"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59242,7 +59256,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="801" t="s">
+      <c r="F87" s="802" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -59255,7 +59269,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="802"/>
+      <c r="F88" s="803"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -59567,23 +59581,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="741" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="742" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
+      <c r="D1" s="743"/>
+      <c r="E1" s="743"/>
+      <c r="F1" s="743"/>
+      <c r="G1" s="743"/>
+      <c r="H1" s="743"/>
+      <c r="I1" s="743"/>
+      <c r="J1" s="743"/>
+      <c r="K1" s="743"/>
+      <c r="L1" s="743"/>
+      <c r="M1" s="743"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59593,24 +59607,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -59625,14 +59639,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59642,15 +59656,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="805"/>
+      <c r="W4" s="793" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59711,8 +59725,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60469,7 +60483,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="797">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60521,7 +60535,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60570,8 +60584,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="799"/>
+      <c r="X21" s="799"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60672,8 +60686,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="800"/>
+      <c r="X23" s="800"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60724,8 +60738,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="800"/>
+      <c r="X24" s="800"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60771,8 +60785,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="801"/>
+      <c r="X25" s="801"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60820,8 +60834,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="801"/>
+      <c r="X26" s="801"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60881,9 +60895,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="794"/>
+      <c r="X27" s="795"/>
+      <c r="Y27" s="796"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60937,9 +60951,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="795"/>
+      <c r="X28" s="795"/>
+      <c r="Y28" s="796"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61255,11 +61269,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="784">
+      <c r="M36" s="785">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="786">
+      <c r="N36" s="787">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -61267,7 +61281,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="788">
+      <c r="Q36" s="789">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -61286,13 +61300,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="785"/>
-      <c r="N37" s="787"/>
+      <c r="M37" s="786"/>
+      <c r="N37" s="788"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="789"/>
+      <c r="Q37" s="790"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61566,26 +61580,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="763"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="764">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="790"/>
+      <c r="L52" s="791"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="768"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61594,29 +61608,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="791" t="s">
+      <c r="D54" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="791"/>
+      <c r="E54" s="792"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="770"/>
+      <c r="K54" s="771">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="770"/>
-      <c r="M54" s="776" t="s">
+      <c r="L54" s="771"/>
+      <c r="M54" s="777" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="777"/>
-      <c r="O54" s="777"/>
-      <c r="P54" s="777"/>
-      <c r="Q54" s="778"/>
+      <c r="N54" s="778"/>
+      <c r="O54" s="778"/>
+      <c r="P54" s="778"/>
+      <c r="Q54" s="779"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61630,11 +61644,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="779"/>
-      <c r="N55" s="780"/>
-      <c r="O55" s="780"/>
-      <c r="P55" s="780"/>
-      <c r="Q55" s="781"/>
+      <c r="M55" s="780"/>
+      <c r="N55" s="781"/>
+      <c r="O55" s="781"/>
+      <c r="P55" s="781"/>
+      <c r="Q55" s="782"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61652,11 +61666,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="773">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="774"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61673,22 +61687,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="752"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="753" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="754"/>
+      <c r="K58" s="755">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="755"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64251,7 +64265,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="801" t="s">
+      <c r="F75" s="802" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -64264,7 +64278,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="802"/>
+      <c r="F76" s="803"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -64556,23 +64570,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64582,24 +64596,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -64614,14 +64628,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64631,15 +64645,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="805"/>
+      <c r="W4" s="793" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64690,8 +64704,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65455,7 +65469,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="797">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65508,7 +65522,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65557,8 +65571,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="799"/>
+      <c r="X21" s="799"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65658,8 +65672,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="800"/>
+      <c r="X23" s="800"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65714,8 +65728,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="800"/>
+      <c r="X24" s="800"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65760,8 +65774,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="801"/>
+      <c r="X25" s="801"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65809,8 +65823,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="801"/>
+      <c r="X26" s="801"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65864,9 +65878,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="794"/>
+      <c r="X27" s="795"/>
+      <c r="Y27" s="796"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65920,9 +65934,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="795"/>
+      <c r="X28" s="795"/>
+      <c r="Y28" s="796"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66233,11 +66247,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="784">
+      <c r="M36" s="785">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="786">
+      <c r="N36" s="787">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -66245,7 +66259,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="788">
+      <c r="Q36" s="789">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -66270,13 +66284,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="785"/>
-      <c r="N37" s="787"/>
+      <c r="M37" s="786"/>
+      <c r="N37" s="788"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="789"/>
+      <c r="Q37" s="790"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66569,26 +66583,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="763"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="764">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="790"/>
+      <c r="L52" s="791"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="768"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66597,22 +66611,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="791" t="s">
+      <c r="D54" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="791"/>
+      <c r="E54" s="792"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="770"/>
+      <c r="K54" s="771">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="770"/>
+      <c r="L54" s="771"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66653,11 +66667,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="773">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="774"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66674,22 +66688,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="752"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="753" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="754"/>
+      <c r="K58" s="755">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="755"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -68558,12 +68572,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="807" t="s">
+      <c r="B43" s="808" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="808"/>
-      <c r="D43" s="808"/>
-      <c r="E43" s="809"/>
+      <c r="C43" s="809"/>
+      <c r="D43" s="809"/>
+      <c r="E43" s="810"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68591,10 +68605,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="810"/>
-      <c r="C44" s="811"/>
-      <c r="D44" s="811"/>
-      <c r="E44" s="812"/>
+      <c r="B44" s="811"/>
+      <c r="C44" s="812"/>
+      <c r="D44" s="812"/>
+      <c r="E44" s="813"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68622,10 +68636,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="813"/>
-      <c r="C45" s="814"/>
-      <c r="D45" s="814"/>
-      <c r="E45" s="815"/>
+      <c r="B45" s="814"/>
+      <c r="C45" s="815"/>
+      <c r="D45" s="815"/>
+      <c r="E45" s="816"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68668,10 +68682,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="822" t="s">
+      <c r="B47" s="823" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="823"/>
+      <c r="C47" s="824"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -68693,8 +68707,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="824"/>
-      <c r="C48" s="825"/>
+      <c r="B48" s="825"/>
+      <c r="C48" s="826"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -68702,11 +68716,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="816" t="s">
+      <c r="J48" s="817" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="817"/>
-      <c r="L48" s="818"/>
+      <c r="K48" s="818"/>
+      <c r="L48" s="819"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -68724,9 +68738,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="819"/>
-      <c r="K49" s="820"/>
-      <c r="L49" s="821"/>
+      <c r="J49" s="820"/>
+      <c r="K49" s="821"/>
+      <c r="L49" s="822"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -68743,10 +68757,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="826" t="s">
+      <c r="I50" s="827" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="827"/>
+      <c r="J50" s="828"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -68767,8 +68781,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="826"/>
-      <c r="J51" s="827"/>
+      <c r="I51" s="827"/>
+      <c r="J51" s="828"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -68787,8 +68801,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="826"/>
-      <c r="J52" s="827"/>
+      <c r="I52" s="827"/>
+      <c r="J52" s="828"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -68807,8 +68821,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="826"/>
-      <c r="J53" s="827"/>
+      <c r="I53" s="827"/>
+      <c r="J53" s="828"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -68827,8 +68841,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="826"/>
-      <c r="J54" s="827"/>
+      <c r="I54" s="827"/>
+      <c r="J54" s="828"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -68847,8 +68861,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="826"/>
-      <c r="J55" s="827"/>
+      <c r="I55" s="827"/>
+      <c r="J55" s="828"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -68867,8 +68881,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="826"/>
-      <c r="J56" s="827"/>
+      <c r="I56" s="827"/>
+      <c r="J56" s="828"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -68887,8 +68901,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="826"/>
-      <c r="J57" s="827"/>
+      <c r="I57" s="827"/>
+      <c r="J57" s="828"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -68907,8 +68921,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="826"/>
-      <c r="J58" s="827"/>
+      <c r="I58" s="827"/>
+      <c r="J58" s="828"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -68927,8 +68941,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="826"/>
-      <c r="J59" s="827"/>
+      <c r="I59" s="827"/>
+      <c r="J59" s="828"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -68947,8 +68961,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="826"/>
-      <c r="J60" s="827"/>
+      <c r="I60" s="827"/>
+      <c r="J60" s="828"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -68967,8 +68981,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="826"/>
-      <c r="J61" s="827"/>
+      <c r="I61" s="827"/>
+      <c r="J61" s="828"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -68987,8 +69001,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="826"/>
-      <c r="J62" s="827"/>
+      <c r="I62" s="827"/>
+      <c r="J62" s="828"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -69007,8 +69021,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="826"/>
-      <c r="J63" s="827"/>
+      <c r="I63" s="827"/>
+      <c r="J63" s="828"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -69027,8 +69041,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="826"/>
-      <c r="J64" s="827"/>
+      <c r="I64" s="827"/>
+      <c r="J64" s="828"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -69047,8 +69061,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="826"/>
-      <c r="J65" s="827"/>
+      <c r="I65" s="827"/>
+      <c r="J65" s="828"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -69067,8 +69081,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="826"/>
-      <c r="J66" s="827"/>
+      <c r="I66" s="827"/>
+      <c r="J66" s="828"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -69087,8 +69101,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="826"/>
-      <c r="J67" s="827"/>
+      <c r="I67" s="827"/>
+      <c r="J67" s="828"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -69107,8 +69121,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="826"/>
-      <c r="J68" s="827"/>
+      <c r="I68" s="827"/>
+      <c r="J68" s="828"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -69127,8 +69141,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="826"/>
-      <c r="J69" s="827"/>
+      <c r="I69" s="827"/>
+      <c r="J69" s="828"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -69147,8 +69161,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="826"/>
-      <c r="J70" s="827"/>
+      <c r="I70" s="827"/>
+      <c r="J70" s="828"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -69167,8 +69181,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="826"/>
-      <c r="J71" s="827"/>
+      <c r="I71" s="827"/>
+      <c r="J71" s="828"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -69187,8 +69201,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="826"/>
-      <c r="J72" s="827"/>
+      <c r="I72" s="827"/>
+      <c r="J72" s="828"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -69207,8 +69221,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="826"/>
-      <c r="J73" s="827"/>
+      <c r="I73" s="827"/>
+      <c r="J73" s="828"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -69227,8 +69241,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="826"/>
-      <c r="J74" s="827"/>
+      <c r="I74" s="827"/>
+      <c r="J74" s="828"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -69247,8 +69261,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="826"/>
-      <c r="J75" s="827"/>
+      <c r="I75" s="827"/>
+      <c r="J75" s="828"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -69267,8 +69281,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="826"/>
-      <c r="J76" s="827"/>
+      <c r="I76" s="827"/>
+      <c r="J76" s="828"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -69287,8 +69301,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="826"/>
-      <c r="J77" s="827"/>
+      <c r="I77" s="827"/>
+      <c r="J77" s="828"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -69309,8 +69323,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="828"/>
-      <c r="J78" s="829"/>
+      <c r="I78" s="829"/>
+      <c r="J78" s="830"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -69355,7 +69369,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="801" t="s">
+      <c r="F80" s="802" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -69367,7 +69381,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="802"/>
+      <c r="F81" s="803"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -69655,23 +69669,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="739"/>
-      <c r="C1" s="805" t="s">
+      <c r="B1" s="740"/>
+      <c r="C1" s="806" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="806"/>
-      <c r="E1" s="806"/>
-      <c r="F1" s="806"/>
-      <c r="G1" s="806"/>
-      <c r="H1" s="806"/>
-      <c r="I1" s="806"/>
-      <c r="J1" s="806"/>
-      <c r="K1" s="806"/>
-      <c r="L1" s="806"/>
-      <c r="M1" s="806"/>
+      <c r="D1" s="807"/>
+      <c r="E1" s="807"/>
+      <c r="F1" s="807"/>
+      <c r="G1" s="807"/>
+      <c r="H1" s="807"/>
+      <c r="I1" s="807"/>
+      <c r="J1" s="807"/>
+      <c r="K1" s="807"/>
+      <c r="L1" s="807"/>
+      <c r="M1" s="807"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="740"/>
+      <c r="B2" s="741"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69681,24 +69695,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="743" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="744"/>
+      <c r="B3" s="744" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="745" t="s">
+      <c r="H3" s="746" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="745"/>
+      <c r="I3" s="746"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="782" t="s">
+      <c r="P3" s="783" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="803" t="s">
+      <c r="R3" s="804" t="s">
         <v>216</v>
       </c>
     </row>
@@ -69713,14 +69727,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="746" t="s">
+      <c r="E4" s="747" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="747"/>
-      <c r="H4" s="748" t="s">
+      <c r="F4" s="748"/>
+      <c r="H4" s="749" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="749"/>
+      <c r="I4" s="750"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69730,15 +69744,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="783"/>
+      <c r="P4" s="784"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="804"/>
-      <c r="W4" s="792" t="s">
+      <c r="R4" s="805"/>
+      <c r="W4" s="793" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="792"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69789,8 +69803,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="792"/>
-      <c r="X5" s="792"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70551,7 +70565,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="796">
+      <c r="W19" s="797">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70603,7 +70617,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70652,8 +70666,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="798"/>
-      <c r="X21" s="798"/>
+      <c r="W21" s="799"/>
+      <c r="X21" s="799"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70752,8 +70766,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="799"/>
-      <c r="X23" s="799"/>
+      <c r="W23" s="800"/>
+      <c r="X23" s="800"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70808,8 +70822,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="799"/>
-      <c r="X24" s="799"/>
+      <c r="W24" s="800"/>
+      <c r="X24" s="800"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70857,8 +70871,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="800"/>
-      <c r="X25" s="800"/>
+      <c r="W25" s="801"/>
+      <c r="X25" s="801"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70906,8 +70920,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="800"/>
-      <c r="X26" s="800"/>
+      <c r="W26" s="801"/>
+      <c r="X26" s="801"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70955,9 +70969,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="793"/>
-      <c r="X27" s="794"/>
-      <c r="Y27" s="795"/>
+      <c r="W27" s="794"/>
+      <c r="X27" s="795"/>
+      <c r="Y27" s="796"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71005,9 +71019,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="794"/>
-      <c r="X28" s="794"/>
-      <c r="Y28" s="795"/>
+      <c r="W28" s="795"/>
+      <c r="X28" s="795"/>
+      <c r="Y28" s="796"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71348,11 +71362,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="784">
+      <c r="M36" s="785">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="786">
+      <c r="N36" s="787">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71360,7 +71374,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="830">
+      <c r="Q36" s="831">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -71385,13 +71399,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="785"/>
-      <c r="N37" s="787"/>
+      <c r="M37" s="786"/>
+      <c r="N37" s="788"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="831"/>
+      <c r="Q37" s="832"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -71441,11 +71455,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="832">
+      <c r="M39" s="833">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="833"/>
+      <c r="N39" s="834"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -71693,26 +71707,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="761" t="s">
+      <c r="H52" s="762" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="762"/>
+      <c r="I52" s="763"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="763">
+      <c r="K52" s="764">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="790"/>
+      <c r="L52" s="791"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="767" t="s">
+      <c r="D53" s="768" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="767"/>
+      <c r="E53" s="768"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71721,22 +71735,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="791" t="s">
+      <c r="D54" s="792" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="791"/>
+      <c r="E54" s="792"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="768" t="s">
+      <c r="I54" s="769" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="769"/>
-      <c r="K54" s="770">
+      <c r="J54" s="770"/>
+      <c r="K54" s="771">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="770"/>
+      <c r="L54" s="771"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71777,11 +71791,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="772">
+      <c r="K56" s="773">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="773"/>
+      <c r="L56" s="774"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71798,22 +71812,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="750" t="s">
+      <c r="D58" s="751" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="751"/>
+      <c r="E58" s="752"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="752" t="s">
+      <c r="I58" s="753" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="753"/>
-      <c r="K58" s="754">
+      <c r="J58" s="754"/>
+      <c r="K58" s="755">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="754"/>
+      <c r="L58" s="755"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="21" activeTab="21"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1218">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4464,6 +4464,60 @@
   </si>
   <si>
     <t>SALCHICHONERIA-QUESO-POLLO-TOCINO</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-CHORIZO-</t>
+  </si>
+  <si>
+    <t>POLLO-LONGANIZA-TOCINO</t>
+  </si>
+  <si>
+    <t>NOMINA # 35</t>
+  </si>
+  <si>
+    <t>SALSAS  Oaxaca</t>
+  </si>
+  <si>
+    <t>Desechables</t>
+  </si>
+  <si>
+    <t>basura</t>
+  </si>
+  <si>
+    <t>Publicidad eurodanceer</t>
+  </si>
+  <si>
+    <t>SALMON-ATUN-SURIMI</t>
+  </si>
+  <si>
+    <t>VARIEDAD QUESOS</t>
+  </si>
+  <si>
+    <t>Permiso SOAPAP</t>
+  </si>
+  <si>
+    <t>RES CIEN</t>
+  </si>
+  <si>
+    <t>Seguro Res</t>
+  </si>
+  <si>
+    <t>Vitrinas</t>
+  </si>
+  <si>
+    <t>SOAPAP Multas</t>
+  </si>
+  <si>
+    <t>bolsas</t>
+  </si>
+  <si>
+    <t>Flete Res</t>
+  </si>
+  <si>
+    <t>Seguro Camioneta</t>
+  </si>
+  <si>
+    <t>Videocamaras Hansel</t>
   </si>
 </sst>
 </file>
@@ -6606,7 +6660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="886">
+  <cellXfs count="890">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8110,7 +8164,10 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="15" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8549,6 +8606,9 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -8558,13 +8618,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FF99"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF990033"/>
@@ -13863,23 +13923,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="742" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="745" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="743"/>
-      <c r="E1" s="743"/>
-      <c r="F1" s="743"/>
-      <c r="G1" s="743"/>
-      <c r="H1" s="743"/>
-      <c r="I1" s="743"/>
-      <c r="J1" s="743"/>
-      <c r="K1" s="743"/>
-      <c r="L1" s="743"/>
-      <c r="M1" s="743"/>
+      <c r="D1" s="746"/>
+      <c r="E1" s="746"/>
+      <c r="F1" s="746"/>
+      <c r="G1" s="746"/>
+      <c r="H1" s="746"/>
+      <c r="I1" s="746"/>
+      <c r="J1" s="746"/>
+      <c r="K1" s="746"/>
+      <c r="L1" s="746"/>
+      <c r="M1" s="746"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13889,17 +13949,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13913,14 +13973,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13930,10 +13990,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="756" t="s">
+      <c r="P4" s="759" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="757"/>
+      <c r="Q4" s="760"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15374,11 +15434,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="758">
+      <c r="M39" s="761">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="760">
+      <c r="N39" s="763">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15404,8 +15464,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="759"/>
-      <c r="N40" s="761"/>
+      <c r="M40" s="762"/>
+      <c r="N40" s="764"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15620,29 +15680,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="766"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="767">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="765"/>
-      <c r="M52" s="766">
+      <c r="L52" s="768"/>
+      <c r="M52" s="769">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="767"/>
+      <c r="N52" s="770"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="771"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15653,22 +15713,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="768" t="s">
+      <c r="D54" s="771" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="768"/>
+      <c r="E54" s="771"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="773"/>
+      <c r="K54" s="774">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="772"/>
+      <c r="L54" s="775"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15701,11 +15761,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="776">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="777"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15722,22 +15782,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="755"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="756" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="757"/>
+      <c r="K58" s="758">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="758"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -18361,10 +18421,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="836" t="s">
+      <c r="I76" s="839" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="837"/>
+      <c r="J76" s="840"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -18383,8 +18443,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="838"/>
-      <c r="J77" s="839"/>
+      <c r="I77" s="841"/>
+      <c r="J77" s="842"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -18451,7 +18511,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="802" t="s">
+      <c r="F80" s="805" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18466,7 +18526,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="803"/>
+      <c r="F81" s="806"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18474,10 +18534,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="835" t="s">
+      <c r="B82" s="838" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="835"/>
+      <c r="C82" s="838"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -18759,23 +18819,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18785,24 +18845,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18817,14 +18877,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18834,15 +18894,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
-      <c r="W4" s="793" t="s">
+      <c r="R4" s="808"/>
+      <c r="W4" s="796" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="793"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18893,8 +18953,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19657,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="797">
+      <c r="W19" s="800">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19709,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="801"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19758,8 +19818,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="799"/>
-      <c r="X21" s="799"/>
+      <c r="W21" s="802"/>
+      <c r="X21" s="802"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19859,8 +19919,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="800"/>
-      <c r="X23" s="800"/>
+      <c r="W23" s="803"/>
+      <c r="X23" s="803"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19915,8 +19975,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="800"/>
-      <c r="X24" s="800"/>
+      <c r="W24" s="803"/>
+      <c r="X24" s="803"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -19964,8 +20024,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="801"/>
-      <c r="X25" s="801"/>
+      <c r="W25" s="804"/>
+      <c r="X25" s="804"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20014,8 +20074,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="801"/>
-      <c r="X26" s="801"/>
+      <c r="W26" s="804"/>
+      <c r="X26" s="804"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20063,9 +20123,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="794"/>
-      <c r="X27" s="795"/>
-      <c r="Y27" s="796"/>
+      <c r="W27" s="797"/>
+      <c r="X27" s="798"/>
+      <c r="Y27" s="799"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20113,9 +20173,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="795"/>
-      <c r="X28" s="795"/>
-      <c r="Y28" s="796"/>
+      <c r="W28" s="798"/>
+      <c r="X28" s="798"/>
+      <c r="Y28" s="799"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20447,11 +20507,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="785">
+      <c r="M36" s="788">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="790">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20459,7 +20519,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="831">
+      <c r="Q36" s="834">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -20484,13 +20544,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="789"/>
+      <c r="N37" s="791"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="832"/>
+      <c r="Q37" s="835"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20540,11 +20600,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="833">
+      <c r="M39" s="836">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="834"/>
+      <c r="N39" s="837"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21172,26 +21232,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="762" t="s">
+      <c r="H68" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="763"/>
+      <c r="I68" s="766"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="764">
+      <c r="K68" s="767">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="791"/>
+      <c r="L68" s="794"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="768" t="s">
+      <c r="D69" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="768"/>
+      <c r="E69" s="771"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21200,22 +21260,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="792" t="s">
+      <c r="D70" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="792"/>
+      <c r="E70" s="795"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="769" t="s">
+      <c r="I70" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="770"/>
-      <c r="K70" s="771">
+      <c r="J70" s="773"/>
+      <c r="K70" s="774">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="771"/>
+      <c r="L70" s="774"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21256,11 +21316,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="773">
+      <c r="K72" s="776">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="774"/>
+      <c r="L72" s="777"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21277,22 +21337,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="751" t="s">
+      <c r="D74" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="752"/>
+      <c r="E74" s="755"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="753" t="s">
+      <c r="I74" s="756" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="754"/>
-      <c r="K74" s="755">
+      <c r="J74" s="757"/>
+      <c r="K74" s="758">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="755"/>
+      <c r="L74" s="758"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -23030,10 +23090,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="844" t="s">
+      <c r="I44" s="847" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="845"/>
+      <c r="J44" s="848"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23052,8 +23112,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="846"/>
-      <c r="J45" s="847"/>
+      <c r="I45" s="849"/>
+      <c r="J45" s="850"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23072,8 +23132,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="848"/>
-      <c r="J46" s="849"/>
+      <c r="I46" s="851"/>
+      <c r="J46" s="852"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -23762,7 +23822,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="802" t="s">
+      <c r="F80" s="805" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -23775,7 +23835,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="803"/>
+      <c r="F81" s="806"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -23795,10 +23855,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="840" t="s">
+      <c r="I83" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="841"/>
+      <c r="J83" s="844"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -23807,8 +23867,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="842"/>
-      <c r="J84" s="843"/>
+      <c r="I84" s="845"/>
+      <c r="J84" s="846"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24081,23 +24141,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24107,24 +24167,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24139,14 +24199,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24156,15 +24216,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
-      <c r="W4" s="793" t="s">
+      <c r="R4" s="808"/>
+      <c r="W4" s="796" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="793"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24215,8 +24275,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24975,7 +25035,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="797">
+      <c r="W19" s="800">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25027,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="801"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25076,8 +25136,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="799"/>
-      <c r="X21" s="799"/>
+      <c r="W21" s="802"/>
+      <c r="X21" s="802"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25174,8 +25234,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="800"/>
-      <c r="X23" s="800"/>
+      <c r="W23" s="803"/>
+      <c r="X23" s="803"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25230,8 +25290,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="800"/>
-      <c r="X24" s="800"/>
+      <c r="W24" s="803"/>
+      <c r="X24" s="803"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25277,8 +25337,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="801"/>
-      <c r="X25" s="801"/>
+      <c r="W25" s="804"/>
+      <c r="X25" s="804"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25329,8 +25389,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="801"/>
-      <c r="X26" s="801"/>
+      <c r="W26" s="804"/>
+      <c r="X26" s="804"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25381,9 +25441,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="794"/>
-      <c r="X27" s="795"/>
-      <c r="Y27" s="796"/>
+      <c r="W27" s="797"/>
+      <c r="X27" s="798"/>
+      <c r="Y27" s="799"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25433,9 +25493,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="795"/>
-      <c r="X28" s="795"/>
-      <c r="Y28" s="796"/>
+      <c r="W28" s="798"/>
+      <c r="X28" s="798"/>
+      <c r="Y28" s="799"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26039,11 +26099,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="785">
+      <c r="M41" s="788">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="788">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26051,7 +26111,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="850">
+      <c r="Q41" s="853">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26081,10 +26141,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="789"/>
+      <c r="N42" s="789"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="851"/>
+      <c r="Q42" s="854"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26172,11 +26232,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="852">
+      <c r="M45" s="855">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="853"/>
+      <c r="N45" s="856"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -26769,26 +26829,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="762" t="s">
+      <c r="H70" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="763"/>
+      <c r="I70" s="766"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="764">
+      <c r="K70" s="767">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="791"/>
+      <c r="L70" s="794"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="768" t="s">
+      <c r="D71" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="768"/>
+      <c r="E71" s="771"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26798,22 +26858,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="792" t="s">
+      <c r="D72" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="792"/>
+      <c r="E72" s="795"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="769" t="s">
+      <c r="I72" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="770"/>
-      <c r="K72" s="771">
+      <c r="J72" s="773"/>
+      <c r="K72" s="774">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="771"/>
+      <c r="L72" s="774"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26854,11 +26914,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="773">
+      <c r="K74" s="776">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="774"/>
+      <c r="L74" s="777"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26877,22 +26937,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="751" t="s">
+      <c r="D76" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="752"/>
+      <c r="E76" s="755"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="753" t="s">
+      <c r="I76" s="756" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="754"/>
-      <c r="K76" s="755">
+      <c r="J76" s="757"/>
+      <c r="K76" s="758">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="755"/>
+      <c r="L76" s="758"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -29052,10 +29112,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="844" t="s">
+      <c r="I54" s="847" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="845"/>
+      <c r="J54" s="848"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29071,8 +29131,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="846"/>
-      <c r="J55" s="847"/>
+      <c r="I55" s="849"/>
+      <c r="J55" s="850"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29088,8 +29148,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="848"/>
-      <c r="J56" s="849"/>
+      <c r="I56" s="851"/>
+      <c r="J56" s="852"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -29757,7 +29817,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="802" t="s">
+      <c r="F90" s="805" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29770,7 +29830,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="803"/>
+      <c r="F91" s="806"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -29789,10 +29849,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="840" t="s">
+      <c r="I93" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="841"/>
+      <c r="J93" s="844"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -29802,8 +29862,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="842"/>
-      <c r="J94" s="843"/>
+      <c r="I94" s="845"/>
+      <c r="J94" s="846"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30244,11 +30304,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="854">
+      <c r="C130" s="857">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="855"/>
+      <c r="D130" s="858"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30285,21 +30345,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="860" t="s">
+      <c r="F2" s="863" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="861"/>
-      <c r="H2" s="862"/>
+      <c r="G2" s="864"/>
+      <c r="H2" s="865"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="857" t="s">
+      <c r="B3" s="860" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="858"/>
-      <c r="D3" s="859"/>
-      <c r="F3" s="863"/>
-      <c r="G3" s="864"/>
-      <c r="H3" s="865"/>
+      <c r="C3" s="861"/>
+      <c r="D3" s="862"/>
+      <c r="F3" s="866"/>
+      <c r="G3" s="867"/>
+      <c r="H3" s="868"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -30444,11 +30504,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="866">
+      <c r="G11" s="869">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="867"/>
+      <c r="H11" s="870"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -30465,23 +30525,23 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="870" t="s">
+      <c r="C15" s="873" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="868">
+      <c r="D15" s="871">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="871"/>
-      <c r="D16" s="869"/>
+      <c r="C16" s="874"/>
+      <c r="D16" s="872"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="856" t="s">
+      <c r="C17" s="859" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="856"/>
+      <c r="D17" s="859"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30539,23 +30599,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30565,24 +30625,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -30601,14 +30661,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30618,15 +30678,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
+      <c r="R4" s="808"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="872"/>
-      <c r="X4" s="872"/>
+      <c r="W4" s="875"/>
+      <c r="X4" s="875"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30680,8 +30740,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="872"/>
-      <c r="X5" s="872"/>
+      <c r="W5" s="875"/>
+      <c r="X5" s="875"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31447,7 +31507,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="873"/>
+      <c r="W19" s="876"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31501,7 +31561,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="873"/>
+      <c r="W20" s="876"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31556,8 +31616,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="799"/>
-      <c r="X21" s="799"/>
+      <c r="W21" s="802"/>
+      <c r="X21" s="802"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31668,8 +31728,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="800"/>
-      <c r="X23" s="800"/>
+      <c r="W23" s="803"/>
+      <c r="X23" s="803"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31730,8 +31790,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="800"/>
-      <c r="X24" s="800"/>
+      <c r="W24" s="803"/>
+      <c r="X24" s="803"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31784,8 +31844,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="801"/>
-      <c r="X25" s="801"/>
+      <c r="W25" s="804"/>
+      <c r="X25" s="804"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31840,8 +31900,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="801"/>
-      <c r="X26" s="801"/>
+      <c r="W26" s="804"/>
+      <c r="X26" s="804"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31896,9 +31956,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="794"/>
-      <c r="X27" s="795"/>
-      <c r="Y27" s="796"/>
+      <c r="W27" s="797"/>
+      <c r="X27" s="798"/>
+      <c r="Y27" s="799"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31952,9 +32012,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="795"/>
-      <c r="X28" s="795"/>
-      <c r="Y28" s="796"/>
+      <c r="W28" s="798"/>
+      <c r="X28" s="798"/>
+      <c r="Y28" s="799"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32545,11 +32605,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="785">
+      <c r="M41" s="788">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="788">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32557,7 +32617,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="850">
+      <c r="Q41" s="853">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -32581,10 +32641,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="789"/>
+      <c r="N42" s="789"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="851"/>
+      <c r="Q42" s="854"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -32653,11 +32713,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="852">
+      <c r="M45" s="855">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="853"/>
+      <c r="N45" s="856"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33073,26 +33133,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="762" t="s">
+      <c r="H63" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="763"/>
+      <c r="I63" s="766"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="878">
+      <c r="K63" s="881">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="879"/>
+      <c r="L63" s="882"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="768" t="s">
+      <c r="D64" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="768"/>
+      <c r="E64" s="771"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33101,22 +33161,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="792" t="s">
+      <c r="D65" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="792"/>
+      <c r="E65" s="795"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="769" t="s">
+      <c r="I65" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="770"/>
-      <c r="K65" s="771">
+      <c r="J65" s="773"/>
+      <c r="K65" s="774">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="771"/>
+      <c r="L65" s="774"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33157,11 +33217,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="874">
+      <c r="K67" s="877">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="771"/>
+      <c r="L67" s="774"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33178,22 +33238,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="751" t="s">
+      <c r="D69" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="752"/>
+      <c r="E69" s="755"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="875" t="s">
+      <c r="I69" s="878" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="876"/>
-      <c r="K69" s="877">
+      <c r="J69" s="879"/>
+      <c r="K69" s="880">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="877"/>
+      <c r="L69" s="880"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -34866,10 +34926,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="844" t="s">
+      <c r="I38" s="847" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="845"/>
+      <c r="J38" s="848"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -34888,8 +34948,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="846"/>
-      <c r="J39" s="847"/>
+      <c r="I39" s="849"/>
+      <c r="J39" s="850"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -34908,8 +34968,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="848"/>
-      <c r="J40" s="849"/>
+      <c r="I40" s="851"/>
+      <c r="J40" s="852"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -35532,7 +35592,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="802" t="s">
+      <c r="F71" s="805" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -35545,7 +35605,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="803"/>
+      <c r="F72" s="806"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -35564,10 +35624,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="840" t="s">
+      <c r="I74" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="841"/>
+      <c r="J74" s="844"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -35576,8 +35636,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="842"/>
-      <c r="J75" s="843"/>
+      <c r="I75" s="845"/>
+      <c r="J75" s="846"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -35711,11 +35771,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="882" t="s">
+      <c r="A89" s="885" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="883"/>
-      <c r="C89" s="883"/>
+      <c r="B89" s="886"/>
+      <c r="C89" s="886"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -35725,10 +35785,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="884" t="s">
+      <c r="B90" s="887" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="885"/>
+      <c r="C90" s="888"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -35829,7 +35889,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="880">
+      <c r="C97" s="883">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -35843,7 +35903,7 @@
       <c r="B98" s="659" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="881"/>
+      <c r="C98" s="884"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -35944,23 +36004,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -35970,24 +36030,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36002,14 +36062,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36019,11 +36079,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
+      <c r="R4" s="808"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37791,11 +37851,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="785">
+      <c r="M41" s="788">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="788">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37803,7 +37863,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="850">
+      <c r="Q41" s="853">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -37833,10 +37893,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="789"/>
+      <c r="N42" s="789"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="851"/>
+      <c r="Q42" s="854"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -37923,11 +37983,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="852">
+      <c r="M45" s="855">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="853"/>
+      <c r="N45" s="856"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -38513,26 +38573,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="762" t="s">
+      <c r="H69" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="763"/>
+      <c r="I69" s="766"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="878">
+      <c r="K69" s="881">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="879"/>
+      <c r="L69" s="882"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="768" t="s">
+      <c r="D70" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="768"/>
+      <c r="E70" s="771"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38541,22 +38601,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="792" t="s">
+      <c r="D71" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="792"/>
+      <c r="E71" s="795"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="769" t="s">
+      <c r="I71" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="770"/>
-      <c r="K71" s="771">
+      <c r="J71" s="773"/>
+      <c r="K71" s="774">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="771"/>
+      <c r="L71" s="774"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38597,11 +38657,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="874">
+      <c r="K73" s="877">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="771"/>
+      <c r="L73" s="774"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38618,22 +38678,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="751" t="s">
+      <c r="D75" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="752"/>
+      <c r="E75" s="755"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="753" t="s">
+      <c r="I75" s="756" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="754"/>
-      <c r="K75" s="755">
+      <c r="J75" s="757"/>
+      <c r="K75" s="758">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="755"/>
+      <c r="L75" s="758"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -40482,10 +40542,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="844" t="s">
+      <c r="H43" s="847" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="845"/>
+      <c r="I43" s="848"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -40504,8 +40564,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="846"/>
-      <c r="I44" s="847"/>
+      <c r="H44" s="849"/>
+      <c r="I44" s="850"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -40524,8 +40584,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="848"/>
-      <c r="I45" s="849"/>
+      <c r="H45" s="851"/>
+      <c r="I45" s="852"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -40969,10 +41029,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="840" t="s">
+      <c r="H67" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="841"/>
+      <c r="I67" s="844"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -40992,11 +41052,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="802" t="s">
+      <c r="F68" s="805" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="842"/>
-      <c r="I68" s="843"/>
+      <c r="H68" s="845"/>
+      <c r="I68" s="846"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41007,7 +41067,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="803"/>
+      <c r="F69" s="806"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -42822,7 +42882,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="775" t="s">
+      <c r="B41" s="778" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -42854,7 +42914,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="776"/>
+      <c r="B42" s="779"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -44421,8 +44481,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44448,23 +44508,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44474,24 +44534,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44506,14 +44566,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44523,11 +44583,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
+      <c r="R4" s="808"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -46261,11 +46321,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="785">
+      <c r="M41" s="788">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="785">
+      <c r="N41" s="788">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46273,7 +46333,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="850">
+      <c r="Q41" s="853">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -46303,10 +46363,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+      <c r="M42" s="789"/>
+      <c r="N42" s="789"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="851"/>
+      <c r="Q42" s="854"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -46387,11 +46447,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="852">
+      <c r="M45" s="855">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="853"/>
+      <c r="N45" s="856"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -46908,26 +46968,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="762" t="s">
+      <c r="H69" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="763"/>
+      <c r="I69" s="766"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="878">
+      <c r="K69" s="881">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="879"/>
+      <c r="L69" s="882"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="768" t="s">
+      <c r="D70" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="768"/>
+      <c r="E70" s="771"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46936,22 +46996,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="792" t="s">
+      <c r="D71" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="792"/>
+      <c r="E71" s="795"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="769" t="s">
+      <c r="I71" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="770"/>
-      <c r="K71" s="771">
+      <c r="J71" s="773"/>
+      <c r="K71" s="774">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="771"/>
+      <c r="L71" s="774"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -46992,11 +47052,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="874">
+      <c r="K73" s="877">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="771"/>
+      <c r="L73" s="774"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47013,22 +47073,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="751" t="s">
+      <c r="D75" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="752"/>
+      <c r="E75" s="755"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="875" t="s">
+      <c r="I75" s="878" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="876"/>
-      <c r="K75" s="877">
+      <c r="J75" s="879"/>
+      <c r="K75" s="880">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="877"/>
+      <c r="L75" s="880"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -48578,10 +48638,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="844" t="s">
+      <c r="H40" s="847" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="845"/>
+      <c r="I40" s="848"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -48600,8 +48660,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="846"/>
-      <c r="I41" s="847"/>
+      <c r="H41" s="849"/>
+      <c r="I41" s="850"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -48620,8 +48680,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="848"/>
-      <c r="I42" s="849"/>
+      <c r="H42" s="851"/>
+      <c r="I42" s="852"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49125,10 +49185,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="840" t="s">
+      <c r="H67" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="841"/>
+      <c r="I67" s="844"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49148,11 +49208,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="802" t="s">
+      <c r="F68" s="805" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="842"/>
-      <c r="I68" s="843"/>
+      <c r="H68" s="845"/>
+      <c r="I68" s="846"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49163,7 +49223,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="803"/>
+      <c r="F69" s="806"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -49755,11 +49815,11 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49785,23 +49845,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>1144</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49811,24 +49871,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -49843,14 +49903,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49860,11 +49920,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
+      <c r="R4" s="808"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -50988,8 +51048,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R27" s="319" t="s">
-        <v>1064</v>
+      <c r="R27" s="319">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -51019,9 +51079,9 @@
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
-      <c r="M28" s="182">
-        <f>14701+9372</f>
-        <v>24073</v>
+      <c r="M28" s="32">
+        <f>14701+9372+24359</f>
+        <v>48432</v>
       </c>
       <c r="N28" s="33">
         <v>35570</v>
@@ -51031,11 +51091,11 @@
       </c>
       <c r="P28" s="283">
         <f t="shared" si="1"/>
-        <v>84605</v>
-      </c>
-      <c r="Q28" s="739">
-        <f t="shared" si="0"/>
-        <v>-24359</v>
+        <v>108964</v>
+      </c>
+      <c r="Q28" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R28" s="319">
         <v>0</v>
@@ -51069,18 +51129,21 @@
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <v>54088</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>27000</v>
+      </c>
+      <c r="O29" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P29" s="283">
         <f t="shared" si="1"/>
-        <v>23719</v>
+        <v>104807</v>
       </c>
       <c r="Q29" s="325">
         <f t="shared" si="0"/>
-        <v>-81088</v>
+        <v>0</v>
       </c>
       <c r="R29" s="319">
         <v>0</v>
@@ -51091,32 +51154,44 @@
       <c r="B30" s="24">
         <v>44799</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>12414</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>1200</v>
+      </c>
       <c r="E30" s="27">
         <v>44799</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>97054</v>
+      </c>
       <c r="G30" s="572"/>
       <c r="H30" s="29">
         <v>44799</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>3496</v>
+      </c>
       <c r="J30" s="56"/>
       <c r="K30" s="38"/>
       <c r="L30" s="39"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <v>41955</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>39189</v>
+      </c>
+      <c r="O30" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P30" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="325" t="s">
-        <v>1064</v>
+        <v>97054</v>
+      </c>
+      <c r="Q30" s="325">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R30" s="319">
         <v>0</v>
@@ -51127,29 +51202,46 @@
       <c r="B31" s="24">
         <v>44800</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="25">
+        <v>23381</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>1201</v>
+      </c>
       <c r="E31" s="27">
         <v>44800</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>134624</v>
+      </c>
       <c r="G31" s="572"/>
       <c r="H31" s="29">
         <v>44800</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="566"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="30">
+        <v>5400</v>
+      </c>
+      <c r="J31" s="56">
+        <v>44800</v>
+      </c>
+      <c r="K31" s="566" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L31" s="54">
+        <v>18009</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <v>26081</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>61753</v>
+      </c>
+      <c r="O31" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134624</v>
       </c>
       <c r="Q31" s="325">
         <f t="shared" si="0"/>
@@ -51164,29 +51256,38 @@
       <c r="B32" s="24">
         <v>44801</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
       <c r="D32" s="64"/>
       <c r="E32" s="27">
         <v>44801</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>103403</v>
+      </c>
       <c r="G32" s="572"/>
       <c r="H32" s="29">
         <v>44801</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30">
+        <v>120.5</v>
+      </c>
       <c r="J32" s="56"/>
       <c r="K32" s="38"/>
       <c r="L32" s="39"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <v>55305.5</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>47977</v>
+      </c>
+      <c r="O32" s="577" t="s">
+        <v>939</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>103403</v>
       </c>
       <c r="Q32" s="325">
         <f t="shared" si="0"/>
@@ -51202,7 +51303,9 @@
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
       <c r="D33" s="65"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
@@ -51219,11 +51322,9 @@
         <v>0</v>
       </c>
       <c r="P33" s="34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="325">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R33" s="319">
@@ -51232,17 +51333,29 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="24">
+        <v>44774</v>
+      </c>
+      <c r="C34" s="25">
+        <v>3786</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>1203</v>
+      </c>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="572"/>
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="557"/>
-      <c r="K34" s="567"/>
-      <c r="L34" s="9"/>
+      <c r="J34" s="56">
+        <v>44779</v>
+      </c>
+      <c r="K34" s="739" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L34" s="39">
+        <v>15889</v>
+      </c>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -51262,17 +51375,29 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="690"/>
-      <c r="D35" s="67"/>
+      <c r="B35" s="24">
+        <v>44781</v>
+      </c>
+      <c r="C35" s="690">
+        <v>8782.75</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>1208</v>
+      </c>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="572"/>
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
-      <c r="J35" s="557"/>
-      <c r="K35" s="568"/>
-      <c r="L35" s="69"/>
+      <c r="J35" s="698">
+        <v>44786</v>
+      </c>
+      <c r="K35" s="740" t="s">
+        <v>1160</v>
+      </c>
+      <c r="L35" s="702">
+        <v>17693</v>
+      </c>
       <c r="M35" s="32">
         <v>0</v>
       </c>
@@ -51292,17 +51417,29 @@
     </row>
     <row r="36" spans="1:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="693"/>
-      <c r="D36" s="696"/>
+      <c r="B36" s="24">
+        <v>44782</v>
+      </c>
+      <c r="C36" s="693">
+        <v>2543.0700000000002</v>
+      </c>
+      <c r="D36" s="741" t="s">
+        <v>1208</v>
+      </c>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="662"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="557"/>
-      <c r="K36" s="688"/>
-      <c r="L36" s="9"/>
+      <c r="J36" s="56">
+        <v>44793</v>
+      </c>
+      <c r="K36" s="739" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L36" s="39">
+        <v>19292</v>
+      </c>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -51322,17 +51459,29 @@
     </row>
     <row r="37" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="692"/>
-      <c r="D37" s="695"/>
+      <c r="B37" s="24">
+        <v>44784</v>
+      </c>
+      <c r="C37" s="692">
+        <v>36840</v>
+      </c>
+      <c r="D37" s="742" t="s">
+        <v>1207</v>
+      </c>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="662"/>
       <c r="H37" s="29"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="39"/>
+      <c r="J37" s="56">
+        <v>44800</v>
+      </c>
+      <c r="K37" s="739" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L37" s="39">
+        <v>19291</v>
+      </c>
       <c r="M37" s="32">
         <v>0</v>
       </c>
@@ -51351,9 +51500,15 @@
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="692"/>
-      <c r="D38" s="695"/>
+      <c r="B38" s="24">
+        <v>44790</v>
+      </c>
+      <c r="C38" s="692">
+        <v>7629.21</v>
+      </c>
+      <c r="D38" s="742" t="s">
+        <v>1208</v>
+      </c>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="662"/>
@@ -51381,17 +51536,29 @@
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="692"/>
-      <c r="D39" s="695"/>
+      <c r="B39" s="24">
+        <v>44792</v>
+      </c>
+      <c r="C39" s="692">
+        <v>200000</v>
+      </c>
+      <c r="D39" s="695" t="s">
+        <v>1210</v>
+      </c>
       <c r="E39" s="27"/>
       <c r="F39" s="508"/>
       <c r="G39" s="662"/>
       <c r="H39" s="29"/>
       <c r="I39" s="71"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="663"/>
-      <c r="L39" s="39"/>
+      <c r="J39" s="56">
+        <v>44781</v>
+      </c>
+      <c r="K39" s="663" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L39" s="39">
+        <v>6358.5</v>
+      </c>
       <c r="M39" s="32">
         <v>0</v>
       </c>
@@ -51411,17 +51578,29 @@
     </row>
     <row r="40" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="692"/>
-      <c r="D40" s="696"/>
+      <c r="B40" s="24">
+        <v>44796</v>
+      </c>
+      <c r="C40" s="692">
+        <v>434740</v>
+      </c>
+      <c r="D40" s="696" t="s">
+        <v>1210</v>
+      </c>
       <c r="E40" s="27"/>
       <c r="F40" s="70"/>
       <c r="G40" s="572"/>
       <c r="H40" s="36"/>
       <c r="I40" s="71"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
+      <c r="J40" s="56">
+        <v>44781</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L40" s="39">
+        <v>4006.5</v>
+      </c>
       <c r="M40" s="267">
         <v>0</v>
       </c>
@@ -51441,38 +51620,48 @@
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="692"/>
-      <c r="D41" s="697"/>
+      <c r="B41" s="24">
+        <v>44796</v>
+      </c>
+      <c r="C41" s="692">
+        <v>190403.20000000001</v>
+      </c>
+      <c r="D41" s="697" t="s">
+        <v>1210</v>
+      </c>
       <c r="E41" s="74"/>
       <c r="F41" s="75"/>
       <c r="G41" s="572"/>
       <c r="H41" s="76"/>
       <c r="I41" s="77"/>
       <c r="J41" s="56">
-        <v>44779</v>
-      </c>
-      <c r="K41" s="661" t="s">
-        <v>1159</v>
+        <v>44782</v>
+      </c>
+      <c r="K41" s="889" t="s">
+        <v>1206</v>
       </c>
       <c r="L41" s="39">
-        <v>15889</v>
-      </c>
-      <c r="M41" s="785">
+        <v>10440</v>
+      </c>
+      <c r="M41" s="788">
         <f>SUM(M5:M40)</f>
-        <v>1351954.6800000002</v>
-      </c>
-      <c r="N41" s="785">
+        <v>1553743.1800000002</v>
+      </c>
+      <c r="N41" s="788">
         <f>SUM(N5:N40)</f>
-        <v>1022213</v>
+        <v>1198132</v>
       </c>
       <c r="P41" s="505">
         <f>SUM(P5:P40)</f>
-        <v>2944410.6799999997</v>
-      </c>
-      <c r="Q41" s="850">
+        <v>3384938.6799999997</v>
+      </c>
+      <c r="Q41" s="853">
         <f>SUM(Q5:Q40)</f>
-        <v>-105443</v>
+        <v>4</v>
+      </c>
+      <c r="R41" s="227">
+        <f>SUM(R28:R40)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51486,18 +51675,22 @@
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
       <c r="J42" s="698">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="K42" s="701" t="s">
-        <v>1160</v>
+        <v>1102</v>
       </c>
       <c r="L42" s="702">
-        <v>17693</v>
-      </c>
-      <c r="M42" s="786"/>
-      <c r="N42" s="786"/>
+        <v>1856</v>
+      </c>
+      <c r="M42" s="789"/>
+      <c r="N42" s="789"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="851"/>
+      <c r="Q42" s="854"/>
+      <c r="R42" s="227">
+        <f>SUM(R5:R41)</f>
+        <v>182722</v>
+      </c>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -51510,13 +51703,13 @@
       <c r="H43" s="76"/>
       <c r="I43" s="77"/>
       <c r="J43" s="56">
-        <v>44793</v>
+        <v>44788</v>
       </c>
       <c r="K43" s="38" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="L43" s="39">
-        <v>19292</v>
+        <v>7141.1</v>
       </c>
       <c r="M43" s="727"/>
       <c r="N43" s="727"/>
@@ -51533,9 +51726,15 @@
       <c r="G44" s="572"/>
       <c r="H44" s="76"/>
       <c r="I44" s="77"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
+      <c r="J44" s="56">
+        <v>44789</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="L44" s="39">
+        <v>549</v>
+      </c>
       <c r="M44" s="727"/>
       <c r="N44" s="727"/>
       <c r="P44" s="34"/>
@@ -51551,14 +51750,20 @@
       <c r="G45" s="572"/>
       <c r="H45" s="76"/>
       <c r="I45" s="77"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="852">
+      <c r="J45" s="56">
+        <v>44792</v>
+      </c>
+      <c r="K45" s="671" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L45" s="39">
+        <v>2030</v>
+      </c>
+      <c r="M45" s="855">
         <f>M41+N41</f>
-        <v>2374167.6800000002</v>
-      </c>
-      <c r="N45" s="853"/>
+        <v>2751875.18</v>
+      </c>
+      <c r="N45" s="856"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -51572,9 +51777,15 @@
       <c r="G46" s="572"/>
       <c r="H46" s="76"/>
       <c r="I46" s="77"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
+      <c r="J46" s="56">
+        <v>44796</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L46" s="39">
+        <v>6150.35</v>
+      </c>
       <c r="M46" s="727"/>
       <c r="N46" s="727"/>
       <c r="P46" s="34"/>
@@ -51590,9 +51801,15 @@
       <c r="G47" s="572"/>
       <c r="H47" s="76"/>
       <c r="I47" s="77"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
+      <c r="J47" s="56">
+        <v>44796</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="L47" s="39">
+        <v>2320</v>
+      </c>
       <c r="M47" s="727"/>
       <c r="N47" s="727"/>
       <c r="P47" s="34"/>
@@ -51608,9 +51825,15 @@
       <c r="G48" s="572"/>
       <c r="H48" s="76"/>
       <c r="I48" s="77"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
+      <c r="J48" s="601">
+        <v>44796</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L48" s="69">
+        <v>4640</v>
+      </c>
       <c r="M48" s="727"/>
       <c r="N48" s="727"/>
       <c r="P48" s="34"/>
@@ -51626,9 +51849,16 @@
       <c r="G49" s="572"/>
       <c r="H49" s="76"/>
       <c r="I49" s="77"/>
-      <c r="J49" s="601"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="69"/>
+      <c r="J49" s="601">
+        <v>44797</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L49" s="69">
+        <f>11110.94+3061.13+1939.06</f>
+        <v>16111.13</v>
+      </c>
       <c r="M49" s="727"/>
       <c r="N49" s="727"/>
       <c r="P49" s="34"/>
@@ -51644,9 +51874,16 @@
       <c r="G50" s="572"/>
       <c r="H50" s="76"/>
       <c r="I50" s="77"/>
-      <c r="J50" s="601"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="69"/>
+      <c r="J50" s="601">
+        <v>44797</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L50" s="69">
+        <f>120206.2</f>
+        <v>120206.2</v>
+      </c>
       <c r="M50" s="727"/>
       <c r="N50" s="727"/>
       <c r="P50" s="34"/>
@@ -51662,9 +51899,15 @@
       <c r="G51" s="572"/>
       <c r="H51" s="76"/>
       <c r="I51" s="77"/>
-      <c r="J51" s="601"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="69"/>
+      <c r="J51" s="601">
+        <v>44797</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L51" s="69">
+        <v>79793.8</v>
+      </c>
       <c r="M51" s="727"/>
       <c r="N51" s="727"/>
       <c r="P51" s="34"/>
@@ -51680,9 +51923,15 @@
       <c r="G52" s="572"/>
       <c r="H52" s="76"/>
       <c r="I52" s="77"/>
-      <c r="J52" s="601"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="69"/>
+      <c r="J52" s="601">
+        <v>44798</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L52" s="69">
+        <v>16230.99</v>
+      </c>
       <c r="M52" s="727"/>
       <c r="N52" s="727"/>
       <c r="P52" s="34"/>
@@ -51698,9 +51947,15 @@
       <c r="G53" s="572"/>
       <c r="H53" s="76"/>
       <c r="I53" s="77"/>
-      <c r="J53" s="601"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="69"/>
+      <c r="J53" s="601">
+        <v>44798</v>
+      </c>
+      <c r="K53" s="38" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L53" s="69">
+        <v>28000</v>
+      </c>
       <c r="M53" s="727"/>
       <c r="N53" s="727"/>
       <c r="P53" s="34"/>
@@ -51716,9 +51971,15 @@
       <c r="G54" s="572"/>
       <c r="H54" s="76"/>
       <c r="I54" s="77"/>
-      <c r="J54" s="601"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="69"/>
+      <c r="J54" s="601">
+        <v>44799</v>
+      </c>
+      <c r="K54" s="671" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L54" s="69">
+        <v>5972.48</v>
+      </c>
       <c r="M54" s="727"/>
       <c r="N54" s="727"/>
       <c r="P54" s="34"/>
@@ -51734,9 +51995,15 @@
       <c r="G55" s="572"/>
       <c r="H55" s="76"/>
       <c r="I55" s="77"/>
-      <c r="J55" s="601"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="69"/>
+      <c r="J55" s="601">
+        <v>44802</v>
+      </c>
+      <c r="K55" s="570" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L55" s="69">
+        <v>7772</v>
+      </c>
       <c r="M55" s="727"/>
       <c r="N55" s="727"/>
       <c r="P55" s="34"/>
@@ -51753,14 +52020,14 @@
       <c r="H56" s="76"/>
       <c r="I56" s="77"/>
       <c r="J56" s="601"/>
-      <c r="K56" s="38"/>
+      <c r="K56" s="570"/>
       <c r="L56" s="69"/>
       <c r="M56" s="727"/>
       <c r="N56" s="727"/>
       <c r="P56" s="34"/>
       <c r="Q56" s="13"/>
     </row>
-    <row r="57" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
@@ -51778,7 +52045,7 @@
       <c r="P57" s="34"/>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
@@ -51796,7 +52063,7 @@
       <c r="P58" s="34"/>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
@@ -51814,7 +52081,7 @@
       <c r="P59" s="34"/>
       <c r="Q59" s="13"/>
     </row>
-    <row r="60" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="80"/>
       <c r="C60" s="25">
@@ -51833,7 +52100,7 @@
       <c r="P60" s="34"/>
       <c r="Q60" s="13"/>
     </row>
-    <row r="61" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="595"/>
       <c r="C61" s="596"/>
@@ -51850,7 +52117,7 @@
       <c r="P61" s="34"/>
       <c r="Q61" s="13"/>
     </row>
-    <row r="62" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="595"/>
       <c r="C62" s="596"/>
@@ -51867,7 +52134,7 @@
       <c r="P62" s="34"/>
       <c r="Q62" s="13"/>
     </row>
-    <row r="63" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="595"/>
       <c r="C63" s="596"/>
@@ -51884,7 +52151,7 @@
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
-    <row r="64" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="595"/>
       <c r="C64" s="596"/>
@@ -51901,7 +52168,7 @@
       <c r="P64" s="34"/>
       <c r="Q64" s="13"/>
     </row>
-    <row r="65" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="595"/>
       <c r="C65" s="596"/>
@@ -51941,7 +52208,7 @@
       </c>
       <c r="C67" s="87">
         <f>SUM(C5:C60)</f>
-        <v>446505.5</v>
+        <v>1367024.73</v>
       </c>
       <c r="D67" s="88"/>
       <c r="E67" s="91" t="s">
@@ -51949,7 +52216,7 @@
       </c>
       <c r="F67" s="90">
         <f>SUM(F5:F60)</f>
-        <v>2867132</v>
+        <v>3202213</v>
       </c>
       <c r="G67" s="573"/>
       <c r="H67" s="91" t="s">
@@ -51957,7 +52224,7 @@
       </c>
       <c r="I67" s="92">
         <f>SUM(I5:I60)</f>
-        <v>70232.5</v>
+        <v>79249</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="94" t="s">
@@ -51965,7 +52232,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>106379</v>
+        <v>463257.05</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -51983,50 +52250,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="762" t="s">
+      <c r="H69" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="763"/>
+      <c r="I69" s="766"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="878">
+      <c r="K69" s="881">
         <f>I67+L67</f>
-        <v>176611.5</v>
-      </c>
-      <c r="L69" s="879"/>
+        <v>542506.05000000005</v>
+      </c>
+      <c r="L69" s="882"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="768" t="s">
+      <c r="D70" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="768"/>
+      <c r="E70" s="771"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>2244015</v>
+        <v>1292682.2200000002</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="792" t="s">
+      <c r="D71" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="792"/>
+      <c r="E71" s="795"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="769" t="s">
+      <c r="I71" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="770"/>
-      <c r="K71" s="771">
+      <c r="J71" s="773"/>
+      <c r="K71" s="774">
         <f>F73+F74+F75</f>
-        <v>528889.77</v>
-      </c>
-      <c r="L71" s="771"/>
+        <v>2280433.0200000005</v>
+      </c>
+      <c r="L71" s="774"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -52039,7 +52306,7 @@
       </c>
       <c r="E72" s="314"/>
       <c r="F72" s="315">
-        <v>0</v>
+        <v>-301758.96000000002</v>
       </c>
       <c r="I72" s="105"/>
       <c r="J72" s="106"/>
@@ -52060,18 +52327,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>528889.77</v>
+        <v>-724201.96999999974</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="874">
+      <c r="K73" s="877">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="771"/>
+      <c r="L73" s="774"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -52081,27 +52348,29 @@
         <v>17</v>
       </c>
       <c r="F74" s="111">
-        <v>0</v>
+        <v>332079</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="112"/>
-      <c r="D75" s="751" t="s">
+      <c r="C75" s="112">
+        <v>44801</v>
+      </c>
+      <c r="D75" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="752"/>
+      <c r="E75" s="755"/>
       <c r="F75" s="113">
-        <v>0</v>
-      </c>
-      <c r="I75" s="875" t="s">
-        <v>97</v>
-      </c>
-      <c r="J75" s="876"/>
-      <c r="K75" s="877">
+        <v>2672555.9900000002</v>
+      </c>
+      <c r="I75" s="878" t="s">
+        <v>198</v>
+      </c>
+      <c r="J75" s="879"/>
+      <c r="K75" s="880">
         <f>K71+K73</f>
-        <v>-1745763.3199999998</v>
-      </c>
-      <c r="L75" s="877"/>
+        <v>5779.9300000006333</v>
+      </c>
+      <c r="L75" s="880"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -53276,10 +53545,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="844" t="s">
+      <c r="H40" s="847" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="845"/>
+      <c r="I40" s="848"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -53298,8 +53567,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="846"/>
-      <c r="I41" s="847"/>
+      <c r="H41" s="849"/>
+      <c r="I41" s="850"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -53318,8 +53587,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="848"/>
-      <c r="I42" s="849"/>
+      <c r="H42" s="851"/>
+      <c r="I42" s="852"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -53823,10 +54092,10 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="840" t="s">
+      <c r="H67" s="843" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="841"/>
+      <c r="I67" s="844"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -53846,11 +54115,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="802" t="s">
+      <c r="F68" s="805" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="842"/>
-      <c r="I68" s="843"/>
+      <c r="H68" s="845"/>
+      <c r="I68" s="846"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -53861,7 +54130,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="803"/>
+      <c r="F69" s="806"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -54504,23 +54773,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="742" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="745" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="743"/>
-      <c r="E1" s="743"/>
-      <c r="F1" s="743"/>
-      <c r="G1" s="743"/>
-      <c r="H1" s="743"/>
-      <c r="I1" s="743"/>
-      <c r="J1" s="743"/>
-      <c r="K1" s="743"/>
-      <c r="L1" s="743"/>
-      <c r="M1" s="743"/>
+      <c r="D1" s="746"/>
+      <c r="E1" s="746"/>
+      <c r="F1" s="746"/>
+      <c r="G1" s="746"/>
+      <c r="H1" s="746"/>
+      <c r="I1" s="746"/>
+      <c r="J1" s="746"/>
+      <c r="K1" s="746"/>
+      <c r="L1" s="746"/>
+      <c r="M1" s="746"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54530,21 +54799,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54559,14 +54828,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54576,14 +54845,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="793" t="s">
+      <c r="W4" s="796" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="793"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54634,8 +54903,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55406,7 +55675,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="797">
+      <c r="W19" s="800">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55458,7 +55727,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="801"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55507,8 +55776,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="799"/>
-      <c r="X21" s="799"/>
+      <c r="W21" s="802"/>
+      <c r="X21" s="802"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55609,8 +55878,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="800"/>
-      <c r="X23" s="800"/>
+      <c r="W23" s="803"/>
+      <c r="X23" s="803"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55664,8 +55933,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="800"/>
-      <c r="X24" s="800"/>
+      <c r="W24" s="803"/>
+      <c r="X24" s="803"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55711,8 +55980,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="801"/>
-      <c r="X25" s="801"/>
+      <c r="W25" s="804"/>
+      <c r="X25" s="804"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -55763,8 +56032,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="801"/>
-      <c r="X26" s="801"/>
+      <c r="W26" s="804"/>
+      <c r="X26" s="804"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -55812,9 +56081,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="794"/>
-      <c r="X27" s="795"/>
-      <c r="Y27" s="796"/>
+      <c r="W27" s="797"/>
+      <c r="X27" s="798"/>
+      <c r="Y27" s="799"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55864,9 +56133,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="795"/>
-      <c r="X28" s="795"/>
-      <c r="Y28" s="796"/>
+      <c r="W28" s="798"/>
+      <c r="X28" s="798"/>
+      <c r="Y28" s="799"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56201,11 +56470,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="785">
+      <c r="M36" s="788">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="790">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -56213,7 +56482,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="789">
+      <c r="Q36" s="792">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -56248,13 +56517,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="789"/>
+      <c r="N37" s="791"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="790"/>
+      <c r="Q37" s="793"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56544,26 +56813,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="766"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="767">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="791"/>
+      <c r="L52" s="794"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="771"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56572,29 +56841,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="792" t="s">
+      <c r="D54" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="792"/>
+      <c r="E54" s="795"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="773"/>
+      <c r="K54" s="774">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="771"/>
-      <c r="M54" s="777" t="s">
+      <c r="L54" s="774"/>
+      <c r="M54" s="780" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="778"/>
-      <c r="O54" s="778"/>
-      <c r="P54" s="778"/>
-      <c r="Q54" s="779"/>
+      <c r="N54" s="781"/>
+      <c r="O54" s="781"/>
+      <c r="P54" s="781"/>
+      <c r="Q54" s="782"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56608,11 +56877,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="780"/>
-      <c r="N55" s="781"/>
-      <c r="O55" s="781"/>
-      <c r="P55" s="781"/>
-      <c r="Q55" s="782"/>
+      <c r="M55" s="783"/>
+      <c r="N55" s="784"/>
+      <c r="O55" s="784"/>
+      <c r="P55" s="784"/>
+      <c r="Q55" s="785"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56630,11 +56899,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="776">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="777"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56651,22 +56920,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="755"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="756" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="757"/>
+      <c r="K58" s="758">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="758"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59256,7 +59525,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="802" t="s">
+      <c r="F87" s="805" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -59269,7 +59538,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="803"/>
+      <c r="F88" s="806"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -59581,23 +59850,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="742" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="745" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="743"/>
-      <c r="E1" s="743"/>
-      <c r="F1" s="743"/>
-      <c r="G1" s="743"/>
-      <c r="H1" s="743"/>
-      <c r="I1" s="743"/>
-      <c r="J1" s="743"/>
-      <c r="K1" s="743"/>
-      <c r="L1" s="743"/>
-      <c r="M1" s="743"/>
+      <c r="D1" s="746"/>
+      <c r="E1" s="746"/>
+      <c r="F1" s="746"/>
+      <c r="G1" s="746"/>
+      <c r="H1" s="746"/>
+      <c r="I1" s="746"/>
+      <c r="J1" s="746"/>
+      <c r="K1" s="746"/>
+      <c r="L1" s="746"/>
+      <c r="M1" s="746"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59607,24 +59876,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -59639,14 +59908,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59656,15 +59925,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
-      <c r="W4" s="793" t="s">
+      <c r="R4" s="808"/>
+      <c r="W4" s="796" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="793"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59725,8 +59994,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60483,7 +60752,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="797">
+      <c r="W19" s="800">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60535,7 +60804,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="801"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60584,8 +60853,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="799"/>
-      <c r="X21" s="799"/>
+      <c r="W21" s="802"/>
+      <c r="X21" s="802"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60686,8 +60955,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="800"/>
-      <c r="X23" s="800"/>
+      <c r="W23" s="803"/>
+      <c r="X23" s="803"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -60738,8 +61007,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="800"/>
-      <c r="X24" s="800"/>
+      <c r="W24" s="803"/>
+      <c r="X24" s="803"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -60785,8 +61054,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="801"/>
-      <c r="X25" s="801"/>
+      <c r="W25" s="804"/>
+      <c r="X25" s="804"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -60834,8 +61103,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="801"/>
-      <c r="X26" s="801"/>
+      <c r="W26" s="804"/>
+      <c r="X26" s="804"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -60895,9 +61164,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="794"/>
-      <c r="X27" s="795"/>
-      <c r="Y27" s="796"/>
+      <c r="W27" s="797"/>
+      <c r="X27" s="798"/>
+      <c r="Y27" s="799"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60951,9 +61220,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="795"/>
-      <c r="X28" s="795"/>
-      <c r="Y28" s="796"/>
+      <c r="W28" s="798"/>
+      <c r="X28" s="798"/>
+      <c r="Y28" s="799"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61269,11 +61538,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="785">
+      <c r="M36" s="788">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="790">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -61281,7 +61550,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="789">
+      <c r="Q36" s="792">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -61300,13 +61569,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="789"/>
+      <c r="N37" s="791"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="790"/>
+      <c r="Q37" s="793"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61580,26 +61849,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="766"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="767">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="791"/>
+      <c r="L52" s="794"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="771"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61608,29 +61877,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="792" t="s">
+      <c r="D54" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="792"/>
+      <c r="E54" s="795"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="773"/>
+      <c r="K54" s="774">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="771"/>
-      <c r="M54" s="777" t="s">
+      <c r="L54" s="774"/>
+      <c r="M54" s="780" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="778"/>
-      <c r="O54" s="778"/>
-      <c r="P54" s="778"/>
-      <c r="Q54" s="779"/>
+      <c r="N54" s="781"/>
+      <c r="O54" s="781"/>
+      <c r="P54" s="781"/>
+      <c r="Q54" s="782"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61644,11 +61913,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="780"/>
-      <c r="N55" s="781"/>
-      <c r="O55" s="781"/>
-      <c r="P55" s="781"/>
-      <c r="Q55" s="782"/>
+      <c r="M55" s="783"/>
+      <c r="N55" s="784"/>
+      <c r="O55" s="784"/>
+      <c r="P55" s="784"/>
+      <c r="Q55" s="785"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61666,11 +61935,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="776">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="777"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61687,22 +61956,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="755"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="756" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="757"/>
+      <c r="K58" s="758">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="758"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -64265,7 +64534,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="802" t="s">
+      <c r="F75" s="805" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -64278,7 +64547,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="803"/>
+      <c r="F76" s="806"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -64570,23 +64839,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64596,24 +64865,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -64628,14 +64897,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64645,15 +64914,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
-      <c r="W4" s="793" t="s">
+      <c r="R4" s="808"/>
+      <c r="W4" s="796" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="793"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64704,8 +64973,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65469,7 +65738,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="797">
+      <c r="W19" s="800">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65522,7 +65791,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="801"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65571,8 +65840,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="799"/>
-      <c r="X21" s="799"/>
+      <c r="W21" s="802"/>
+      <c r="X21" s="802"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65672,8 +65941,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="800"/>
-      <c r="X23" s="800"/>
+      <c r="W23" s="803"/>
+      <c r="X23" s="803"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65728,8 +65997,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="800"/>
-      <c r="X24" s="800"/>
+      <c r="W24" s="803"/>
+      <c r="X24" s="803"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -65774,8 +66043,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="801"/>
-      <c r="X25" s="801"/>
+      <c r="W25" s="804"/>
+      <c r="X25" s="804"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -65823,8 +66092,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="801"/>
-      <c r="X26" s="801"/>
+      <c r="W26" s="804"/>
+      <c r="X26" s="804"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -65878,9 +66147,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="794"/>
-      <c r="X27" s="795"/>
-      <c r="Y27" s="796"/>
+      <c r="W27" s="797"/>
+      <c r="X27" s="798"/>
+      <c r="Y27" s="799"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65934,9 +66203,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="795"/>
-      <c r="X28" s="795"/>
-      <c r="Y28" s="796"/>
+      <c r="W28" s="798"/>
+      <c r="X28" s="798"/>
+      <c r="Y28" s="799"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66247,11 +66516,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="785">
+      <c r="M36" s="788">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="790">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -66259,7 +66528,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="789">
+      <c r="Q36" s="792">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -66284,13 +66553,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="789"/>
+      <c r="N37" s="791"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="790"/>
+      <c r="Q37" s="793"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66583,26 +66852,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="766"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="767">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="791"/>
+      <c r="L52" s="794"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="771"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66611,22 +66880,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="792" t="s">
+      <c r="D54" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="792"/>
+      <c r="E54" s="795"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="773"/>
+      <c r="K54" s="774">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="771"/>
+      <c r="L54" s="774"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66667,11 +66936,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="776">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="777"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66688,22 +66957,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="755"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="756" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="757"/>
+      <c r="K58" s="758">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="758"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -68572,12 +68841,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="808" t="s">
+      <c r="B43" s="811" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="809"/>
-      <c r="D43" s="809"/>
-      <c r="E43" s="810"/>
+      <c r="C43" s="812"/>
+      <c r="D43" s="812"/>
+      <c r="E43" s="813"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68605,10 +68874,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="811"/>
-      <c r="C44" s="812"/>
-      <c r="D44" s="812"/>
-      <c r="E44" s="813"/>
+      <c r="B44" s="814"/>
+      <c r="C44" s="815"/>
+      <c r="D44" s="815"/>
+      <c r="E44" s="816"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68636,10 +68905,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="814"/>
-      <c r="C45" s="815"/>
-      <c r="D45" s="815"/>
-      <c r="E45" s="816"/>
+      <c r="B45" s="817"/>
+      <c r="C45" s="818"/>
+      <c r="D45" s="818"/>
+      <c r="E45" s="819"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68682,10 +68951,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="823" t="s">
+      <c r="B47" s="826" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="824"/>
+      <c r="C47" s="827"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -68707,8 +68976,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="825"/>
-      <c r="C48" s="826"/>
+      <c r="B48" s="828"/>
+      <c r="C48" s="829"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -68716,11 +68985,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="817" t="s">
+      <c r="J48" s="820" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="818"/>
-      <c r="L48" s="819"/>
+      <c r="K48" s="821"/>
+      <c r="L48" s="822"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -68738,9 +69007,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="820"/>
-      <c r="K49" s="821"/>
-      <c r="L49" s="822"/>
+      <c r="J49" s="823"/>
+      <c r="K49" s="824"/>
+      <c r="L49" s="825"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -68757,10 +69026,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="827" t="s">
+      <c r="I50" s="830" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="828"/>
+      <c r="J50" s="831"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -68781,8 +69050,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="827"/>
-      <c r="J51" s="828"/>
+      <c r="I51" s="830"/>
+      <c r="J51" s="831"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -68801,8 +69070,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="827"/>
-      <c r="J52" s="828"/>
+      <c r="I52" s="830"/>
+      <c r="J52" s="831"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -68821,8 +69090,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="827"/>
-      <c r="J53" s="828"/>
+      <c r="I53" s="830"/>
+      <c r="J53" s="831"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -68841,8 +69110,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="827"/>
-      <c r="J54" s="828"/>
+      <c r="I54" s="830"/>
+      <c r="J54" s="831"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -68861,8 +69130,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="827"/>
-      <c r="J55" s="828"/>
+      <c r="I55" s="830"/>
+      <c r="J55" s="831"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -68881,8 +69150,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="827"/>
-      <c r="J56" s="828"/>
+      <c r="I56" s="830"/>
+      <c r="J56" s="831"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -68901,8 +69170,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="827"/>
-      <c r="J57" s="828"/>
+      <c r="I57" s="830"/>
+      <c r="J57" s="831"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -68921,8 +69190,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="827"/>
-      <c r="J58" s="828"/>
+      <c r="I58" s="830"/>
+      <c r="J58" s="831"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -68941,8 +69210,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="827"/>
-      <c r="J59" s="828"/>
+      <c r="I59" s="830"/>
+      <c r="J59" s="831"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -68961,8 +69230,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="827"/>
-      <c r="J60" s="828"/>
+      <c r="I60" s="830"/>
+      <c r="J60" s="831"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -68981,8 +69250,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="827"/>
-      <c r="J61" s="828"/>
+      <c r="I61" s="830"/>
+      <c r="J61" s="831"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -69001,8 +69270,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="827"/>
-      <c r="J62" s="828"/>
+      <c r="I62" s="830"/>
+      <c r="J62" s="831"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -69021,8 +69290,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="827"/>
-      <c r="J63" s="828"/>
+      <c r="I63" s="830"/>
+      <c r="J63" s="831"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -69041,8 +69310,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="827"/>
-      <c r="J64" s="828"/>
+      <c r="I64" s="830"/>
+      <c r="J64" s="831"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -69061,8 +69330,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="827"/>
-      <c r="J65" s="828"/>
+      <c r="I65" s="830"/>
+      <c r="J65" s="831"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -69081,8 +69350,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="827"/>
-      <c r="J66" s="828"/>
+      <c r="I66" s="830"/>
+      <c r="J66" s="831"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -69101,8 +69370,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="827"/>
-      <c r="J67" s="828"/>
+      <c r="I67" s="830"/>
+      <c r="J67" s="831"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -69121,8 +69390,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="827"/>
-      <c r="J68" s="828"/>
+      <c r="I68" s="830"/>
+      <c r="J68" s="831"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -69141,8 +69410,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="827"/>
-      <c r="J69" s="828"/>
+      <c r="I69" s="830"/>
+      <c r="J69" s="831"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -69161,8 +69430,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="827"/>
-      <c r="J70" s="828"/>
+      <c r="I70" s="830"/>
+      <c r="J70" s="831"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -69181,8 +69450,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="827"/>
-      <c r="J71" s="828"/>
+      <c r="I71" s="830"/>
+      <c r="J71" s="831"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -69201,8 +69470,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="827"/>
-      <c r="J72" s="828"/>
+      <c r="I72" s="830"/>
+      <c r="J72" s="831"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -69221,8 +69490,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="827"/>
-      <c r="J73" s="828"/>
+      <c r="I73" s="830"/>
+      <c r="J73" s="831"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -69241,8 +69510,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="827"/>
-      <c r="J74" s="828"/>
+      <c r="I74" s="830"/>
+      <c r="J74" s="831"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -69261,8 +69530,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="827"/>
-      <c r="J75" s="828"/>
+      <c r="I75" s="830"/>
+      <c r="J75" s="831"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -69281,8 +69550,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="827"/>
-      <c r="J76" s="828"/>
+      <c r="I76" s="830"/>
+      <c r="J76" s="831"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -69301,8 +69570,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="827"/>
-      <c r="J77" s="828"/>
+      <c r="I77" s="830"/>
+      <c r="J77" s="831"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -69323,8 +69592,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="829"/>
-      <c r="J78" s="830"/>
+      <c r="I78" s="832"/>
+      <c r="J78" s="833"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -69369,7 +69638,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="802" t="s">
+      <c r="F80" s="805" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -69381,7 +69650,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="803"/>
+      <c r="F81" s="806"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -69669,23 +69938,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="740"/>
-      <c r="C1" s="806" t="s">
+      <c r="B1" s="743"/>
+      <c r="C1" s="809" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="807"/>
-      <c r="E1" s="807"/>
-      <c r="F1" s="807"/>
-      <c r="G1" s="807"/>
-      <c r="H1" s="807"/>
-      <c r="I1" s="807"/>
-      <c r="J1" s="807"/>
-      <c r="K1" s="807"/>
-      <c r="L1" s="807"/>
-      <c r="M1" s="807"/>
+      <c r="D1" s="810"/>
+      <c r="E1" s="810"/>
+      <c r="F1" s="810"/>
+      <c r="G1" s="810"/>
+      <c r="H1" s="810"/>
+      <c r="I1" s="810"/>
+      <c r="J1" s="810"/>
+      <c r="K1" s="810"/>
+      <c r="L1" s="810"/>
+      <c r="M1" s="810"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="741"/>
+      <c r="B2" s="744"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69695,24 +69964,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="744" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="745"/>
+      <c r="B3" s="747" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="748"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="746" t="s">
+      <c r="H3" s="749" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="746"/>
+      <c r="I3" s="749"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="783" t="s">
+      <c r="P3" s="786" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="804" t="s">
+      <c r="R3" s="807" t="s">
         <v>216</v>
       </c>
     </row>
@@ -69727,14 +69996,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="747" t="s">
+      <c r="E4" s="750" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="748"/>
-      <c r="H4" s="749" t="s">
+      <c r="F4" s="751"/>
+      <c r="H4" s="752" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="750"/>
+      <c r="I4" s="753"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -69744,15 +70013,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="784"/>
+      <c r="P4" s="787"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="805"/>
-      <c r="W4" s="793" t="s">
+      <c r="R4" s="808"/>
+      <c r="W4" s="796" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="793"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -69803,8 +70072,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70565,7 +70834,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="797">
+      <c r="W19" s="800">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70617,7 +70886,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="801"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70666,8 +70935,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="799"/>
-      <c r="X21" s="799"/>
+      <c r="W21" s="802"/>
+      <c r="X21" s="802"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -70766,8 +71035,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="800"/>
-      <c r="X23" s="800"/>
+      <c r="W23" s="803"/>
+      <c r="X23" s="803"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -70822,8 +71091,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="800"/>
-      <c r="X24" s="800"/>
+      <c r="W24" s="803"/>
+      <c r="X24" s="803"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -70871,8 +71140,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="801"/>
-      <c r="X25" s="801"/>
+      <c r="W25" s="804"/>
+      <c r="X25" s="804"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -70920,8 +71189,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="801"/>
-      <c r="X26" s="801"/>
+      <c r="W26" s="804"/>
+      <c r="X26" s="804"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -70969,9 +71238,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="794"/>
-      <c r="X27" s="795"/>
-      <c r="Y27" s="796"/>
+      <c r="W27" s="797"/>
+      <c r="X27" s="798"/>
+      <c r="Y27" s="799"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71019,9 +71288,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="795"/>
-      <c r="X28" s="795"/>
-      <c r="Y28" s="796"/>
+      <c r="W28" s="798"/>
+      <c r="X28" s="798"/>
+      <c r="Y28" s="799"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71362,11 +71631,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="785">
+      <c r="M36" s="788">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="787">
+      <c r="N36" s="790">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71374,7 +71643,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="831">
+      <c r="Q36" s="834">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -71399,13 +71668,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="786"/>
-      <c r="N37" s="788"/>
+      <c r="M37" s="789"/>
+      <c r="N37" s="791"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="832"/>
+      <c r="Q37" s="835"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -71455,11 +71724,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="833">
+      <c r="M39" s="836">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="834"/>
+      <c r="N39" s="837"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -71707,26 +71976,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="762" t="s">
+      <c r="H52" s="765" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="763"/>
+      <c r="I52" s="766"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="764">
+      <c r="K52" s="767">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="791"/>
+      <c r="L52" s="794"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="768" t="s">
+      <c r="D53" s="771" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="768"/>
+      <c r="E53" s="771"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -71735,22 +72004,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="792" t="s">
+      <c r="D54" s="795" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="792"/>
+      <c r="E54" s="795"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="769" t="s">
+      <c r="I54" s="772" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="770"/>
-      <c r="K54" s="771">
+      <c r="J54" s="773"/>
+      <c r="K54" s="774">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="771"/>
+      <c r="L54" s="774"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -71791,11 +72060,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="773">
+      <c r="K56" s="776">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="774"/>
+      <c r="L56" s="777"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -71812,22 +72081,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="751" t="s">
+      <c r="D58" s="754" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="752"/>
+      <c r="E58" s="755"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="753" t="s">
+      <c r="I58" s="756" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="754"/>
-      <c r="K58" s="755">
+      <c r="J58" s="757"/>
+      <c r="K58" s="758">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="755"/>
+      <c r="L58" s="758"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE    ZAVALETA   AGOSTO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="20" activeTab="21"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1243">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4518,6 +4518,81 @@
   </si>
   <si>
     <t>Videocamaras Hansel</t>
+  </si>
+  <si>
+    <t>Comisiones Banco</t>
+  </si>
+  <si>
+    <t>1-ago-2022</t>
+  </si>
+  <si>
+    <t>2-ago-2022</t>
+  </si>
+  <si>
+    <t>4-ago-2022</t>
+  </si>
+  <si>
+    <t>5-ago-2022</t>
+  </si>
+  <si>
+    <t>6-ago-2022</t>
+  </si>
+  <si>
+    <t>8-ago-2022</t>
+  </si>
+  <si>
+    <t>9-ago-2022</t>
+  </si>
+  <si>
+    <t>10-ago-2022</t>
+  </si>
+  <si>
+    <t>11-ago-2022</t>
+  </si>
+  <si>
+    <t>12-ago-2022</t>
+  </si>
+  <si>
+    <t>13-ago-2022</t>
+  </si>
+  <si>
+    <t>14-ago-2022</t>
+  </si>
+  <si>
+    <t>15-ago-2022</t>
+  </si>
+  <si>
+    <t>16-ago-2022</t>
+  </si>
+  <si>
+    <t>17-ago-2022</t>
+  </si>
+  <si>
+    <t>18-ago-2022</t>
+  </si>
+  <si>
+    <t>19-ago-2022</t>
+  </si>
+  <si>
+    <t>20-ago-2022</t>
+  </si>
+  <si>
+    <t>22-ago-2022</t>
+  </si>
+  <si>
+    <t>23-ago-2022</t>
+  </si>
+  <si>
+    <t>24-ago-2022</t>
+  </si>
+  <si>
+    <t>25-ago-2022</t>
+  </si>
+  <si>
+    <t>27-ago-2022</t>
+  </si>
+  <si>
+    <t>28-ago-2022</t>
   </si>
 </sst>
 </file>
@@ -6660,7 +6735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="890">
+  <cellXfs count="896">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -8168,38 +8243,8 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8273,10 +8318,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8320,39 +8431,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8564,15 +8642,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8587,6 +8656,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8606,9 +8684,16 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="21" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="21" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -13923,23 +14008,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="745" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="770" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="746"/>
-      <c r="E1" s="746"/>
-      <c r="F1" s="746"/>
-      <c r="G1" s="746"/>
-      <c r="H1" s="746"/>
-      <c r="I1" s="746"/>
-      <c r="J1" s="746"/>
-      <c r="K1" s="746"/>
-      <c r="L1" s="746"/>
-      <c r="M1" s="746"/>
+      <c r="D1" s="771"/>
+      <c r="E1" s="771"/>
+      <c r="F1" s="771"/>
+      <c r="G1" s="771"/>
+      <c r="H1" s="771"/>
+      <c r="I1" s="771"/>
+      <c r="J1" s="771"/>
+      <c r="K1" s="771"/>
+      <c r="L1" s="771"/>
+      <c r="M1" s="771"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -13949,17 +14034,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -13973,14 +14058,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -13990,10 +14075,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="759" t="s">
+      <c r="P4" s="749" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="760"/>
+      <c r="Q4" s="750"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -15434,11 +15519,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="761">
+      <c r="M39" s="751">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="763">
+      <c r="N39" s="753">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -15464,8 +15549,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="762"/>
-      <c r="N40" s="764"/>
+      <c r="M40" s="752"/>
+      <c r="N40" s="754"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -15680,29 +15765,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="765" t="s">
+      <c r="H52" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="766"/>
+      <c r="I52" s="756"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="767">
+      <c r="K52" s="757">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="768"/>
-      <c r="M52" s="769">
+      <c r="L52" s="758"/>
+      <c r="M52" s="759">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="770"/>
+      <c r="N52" s="760"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="771" t="s">
+      <c r="D53" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="771"/>
+      <c r="E53" s="761"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -15713,22 +15798,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="771" t="s">
+      <c r="D54" s="761" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="771"/>
+      <c r="E54" s="761"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="772" t="s">
+      <c r="I54" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="773"/>
-      <c r="K54" s="774">
+      <c r="J54" s="763"/>
+      <c r="K54" s="764">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="775"/>
+      <c r="L54" s="765"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -15761,11 +15846,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="776">
+      <c r="K56" s="766">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="777"/>
+      <c r="L56" s="767"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -15782,22 +15867,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="754" t="s">
+      <c r="D58" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="755"/>
+      <c r="E58" s="745"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="756" t="s">
+      <c r="I58" s="746" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="757"/>
-      <c r="K58" s="758">
+      <c r="J58" s="747"/>
+      <c r="K58" s="748">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="758"/>
+      <c r="L58" s="748"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -15941,6 +16026,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -15955,12 +16046,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18421,10 +18506,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="839" t="s">
+      <c r="I76" s="840" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="840"/>
+      <c r="J76" s="841"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -18443,8 +18528,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="841"/>
-      <c r="J77" s="842"/>
+      <c r="I77" s="842"/>
+      <c r="J77" s="843"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -18511,7 +18596,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="805" t="s">
+      <c r="F80" s="806" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -18526,7 +18611,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="806"/>
+      <c r="F81" s="807"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -18534,10 +18619,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="838" t="s">
+      <c r="B82" s="839" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="838"/>
+      <c r="C82" s="839"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -18819,23 +18904,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18845,24 +18930,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18877,14 +18962,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -18894,15 +18979,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
-      <c r="W4" s="796" t="s">
+      <c r="R4" s="809"/>
+      <c r="W4" s="781" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="796"/>
+      <c r="X4" s="781"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18953,8 +19038,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="781"/>
+      <c r="X5" s="781"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19717,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="800">
+      <c r="W19" s="785">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -19769,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="801"/>
+      <c r="W20" s="786"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -19818,8 +19903,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="802"/>
-      <c r="X21" s="802"/>
+      <c r="W21" s="787"/>
+      <c r="X21" s="787"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -19919,8 +20004,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="803"/>
-      <c r="X23" s="803"/>
+      <c r="W23" s="788"/>
+      <c r="X23" s="788"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -19975,8 +20060,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="803"/>
-      <c r="X24" s="803"/>
+      <c r="W24" s="788"/>
+      <c r="X24" s="788"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -20024,8 +20109,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="804"/>
-      <c r="X25" s="804"/>
+      <c r="W25" s="789"/>
+      <c r="X25" s="789"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -20074,8 +20159,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="804"/>
-      <c r="X26" s="804"/>
+      <c r="W26" s="789"/>
+      <c r="X26" s="789"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -20123,9 +20208,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="797"/>
-      <c r="X27" s="798"/>
-      <c r="Y27" s="799"/>
+      <c r="W27" s="782"/>
+      <c r="X27" s="783"/>
+      <c r="Y27" s="784"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20173,9 +20258,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="798"/>
-      <c r="X28" s="798"/>
-      <c r="Y28" s="799"/>
+      <c r="W28" s="783"/>
+      <c r="X28" s="783"/>
+      <c r="Y28" s="784"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20507,11 +20592,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="788">
+      <c r="M36" s="800">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="790">
+      <c r="N36" s="802">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -20519,7 +20604,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="834">
+      <c r="Q36" s="835">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -20544,13 +20629,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="789"/>
-      <c r="N37" s="791"/>
+      <c r="M37" s="801"/>
+      <c r="N37" s="803"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="835"/>
+      <c r="Q37" s="836"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -20600,11 +20685,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="836">
+      <c r="M39" s="837">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="837"/>
+      <c r="N39" s="838"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -21232,26 +21317,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="765" t="s">
+      <c r="H68" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="766"/>
+      <c r="I68" s="756"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="767">
+      <c r="K68" s="757">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="794"/>
+      <c r="L68" s="790"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="771" t="s">
+      <c r="D69" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="771"/>
+      <c r="E69" s="761"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -21260,22 +21345,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="795" t="s">
+      <c r="D70" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="795"/>
+      <c r="E70" s="791"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="772" t="s">
+      <c r="I70" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="773"/>
-      <c r="K70" s="774">
+      <c r="J70" s="763"/>
+      <c r="K70" s="764">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="774"/>
+      <c r="L70" s="764"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -21316,11 +21401,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="776">
+      <c r="K72" s="766">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="777"/>
+      <c r="L72" s="767"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -21337,22 +21422,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="754" t="s">
+      <c r="D74" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="755"/>
+      <c r="E74" s="745"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="756" t="s">
+      <c r="I74" s="746" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="757"/>
-      <c r="K74" s="758">
+      <c r="J74" s="747"/>
+      <c r="K74" s="748">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="758"/>
+      <c r="L74" s="748"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21499,6 +21584,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -21514,21 +21614,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23090,10 +23175,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="847" t="s">
+      <c r="I44" s="848" t="s">
         <v>594</v>
       </c>
-      <c r="J44" s="848"/>
+      <c r="J44" s="849"/>
       <c r="K44" s="111"/>
       <c r="L44" s="475"/>
       <c r="M44" s="69"/>
@@ -23112,8 +23197,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="849"/>
-      <c r="J45" s="850"/>
+      <c r="I45" s="850"/>
+      <c r="J45" s="851"/>
       <c r="K45" s="111"/>
       <c r="L45" s="475"/>
       <c r="M45" s="69"/>
@@ -23132,8 +23217,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="851"/>
-      <c r="J46" s="852"/>
+      <c r="I46" s="852"/>
+      <c r="J46" s="853"/>
       <c r="K46" s="111"/>
       <c r="L46" s="475"/>
       <c r="M46" s="69"/>
@@ -23822,7 +23907,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="805" t="s">
+      <c r="F80" s="806" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -23835,7 +23920,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="806"/>
+      <c r="F81" s="807"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -23855,10 +23940,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="843" t="s">
+      <c r="I83" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="844"/>
+      <c r="J83" s="845"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="513" t="s">
@@ -23867,8 +23952,8 @@
       <c r="B84" s="514"/>
       <c r="C84" s="515"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="845"/>
-      <c r="J84" s="846"/>
+      <c r="I84" s="846"/>
+      <c r="J84" s="847"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -24141,23 +24226,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24167,24 +24252,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -24199,14 +24284,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -24216,15 +24301,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
-      <c r="W4" s="796" t="s">
+      <c r="R4" s="809"/>
+      <c r="W4" s="781" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="796"/>
+      <c r="X4" s="781"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24275,8 +24360,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="781"/>
+      <c r="X5" s="781"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25035,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="800">
+      <c r="W19" s="785">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -25087,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="801"/>
+      <c r="W20" s="786"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -25136,8 +25221,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="802"/>
-      <c r="X21" s="802"/>
+      <c r="W21" s="787"/>
+      <c r="X21" s="787"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -25234,8 +25319,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="803"/>
-      <c r="X23" s="803"/>
+      <c r="W23" s="788"/>
+      <c r="X23" s="788"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -25290,8 +25375,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="803"/>
-      <c r="X24" s="803"/>
+      <c r="W24" s="788"/>
+      <c r="X24" s="788"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -25337,8 +25422,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="804"/>
-      <c r="X25" s="804"/>
+      <c r="W25" s="789"/>
+      <c r="X25" s="789"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -25389,8 +25474,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="804"/>
-      <c r="X26" s="804"/>
+      <c r="W26" s="789"/>
+      <c r="X26" s="789"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -25441,9 +25526,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="797"/>
-      <c r="X27" s="798"/>
-      <c r="Y27" s="799"/>
+      <c r="W27" s="782"/>
+      <c r="X27" s="783"/>
+      <c r="Y27" s="784"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -25493,9 +25578,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="798"/>
-      <c r="X28" s="798"/>
-      <c r="Y28" s="799"/>
+      <c r="W28" s="783"/>
+      <c r="X28" s="783"/>
+      <c r="Y28" s="784"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -26099,11 +26184,11 @@
       <c r="L41" s="624">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="788">
+      <c r="M41" s="800">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="788">
+      <c r="N41" s="800">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -26111,7 +26196,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="853">
+      <c r="Q41" s="854">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -26141,10 +26226,10 @@
       <c r="L42" s="627">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="789"/>
-      <c r="N42" s="789"/>
+      <c r="M42" s="801"/>
+      <c r="N42" s="801"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="854"/>
+      <c r="Q42" s="855"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -26232,11 +26317,11 @@
       <c r="L45" s="624">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="855">
+      <c r="M45" s="856">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="856"/>
+      <c r="N45" s="857"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -26829,26 +26914,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="765" t="s">
+      <c r="H70" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="766"/>
+      <c r="I70" s="756"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="767">
+      <c r="K70" s="757">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="794"/>
+      <c r="L70" s="790"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="771" t="s">
+      <c r="D71" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="771"/>
+      <c r="E71" s="761"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -26858,22 +26943,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="795" t="s">
+      <c r="D72" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="795"/>
+      <c r="E72" s="791"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="772" t="s">
+      <c r="I72" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="773"/>
-      <c r="K72" s="774">
+      <c r="J72" s="763"/>
+      <c r="K72" s="764">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="774"/>
+      <c r="L72" s="764"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -26914,11 +26999,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="776">
+      <c r="K74" s="766">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="777"/>
+      <c r="L74" s="767"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26937,22 +27022,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="754" t="s">
+      <c r="D76" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="755"/>
+      <c r="E76" s="745"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="756" t="s">
+      <c r="I76" s="746" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="757"/>
-      <c r="K76" s="758">
+      <c r="J76" s="747"/>
+      <c r="K76" s="748">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="758"/>
+      <c r="L76" s="748"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27112,6 +27197,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -27127,21 +27227,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29112,10 +29197,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="847" t="s">
+      <c r="I54" s="848" t="s">
         <v>594</v>
       </c>
-      <c r="J54" s="848"/>
+      <c r="J54" s="849"/>
       <c r="K54" s="111"/>
       <c r="L54" s="370"/>
       <c r="M54" s="69"/>
@@ -29131,8 +29216,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="849"/>
-      <c r="J55" s="850"/>
+      <c r="I55" s="850"/>
+      <c r="J55" s="851"/>
       <c r="K55" s="111"/>
       <c r="L55" s="370"/>
       <c r="M55" s="69"/>
@@ -29148,8 +29233,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="851"/>
-      <c r="J56" s="852"/>
+      <c r="I56" s="852"/>
+      <c r="J56" s="853"/>
       <c r="K56" s="111"/>
       <c r="L56" s="370"/>
       <c r="M56" s="69"/>
@@ -29817,7 +29902,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="805" t="s">
+      <c r="F90" s="806" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -29830,7 +29915,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="806"/>
+      <c r="F91" s="807"/>
       <c r="K91" s="1"/>
       <c r="L91" s="256"/>
       <c r="M91" s="3"/>
@@ -29849,10 +29934,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="843" t="s">
+      <c r="I93" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="844"/>
+      <c r="J93" s="845"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -29862,8 +29947,8 @@
       <c r="C94" s="517"/>
       <c r="D94" s="518"/>
       <c r="E94" s="519"/>
-      <c r="I94" s="845"/>
-      <c r="J94" s="846"/>
+      <c r="I94" s="846"/>
+      <c r="J94" s="847"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -30304,11 +30389,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="857">
+      <c r="C130" s="858">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="858"/>
+      <c r="D130" s="859"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -30345,21 +30430,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="863" t="s">
+      <c r="F2" s="864" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="864"/>
-      <c r="H2" s="865"/>
+      <c r="G2" s="865"/>
+      <c r="H2" s="866"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="860" t="s">
+      <c r="B3" s="861" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="861"/>
-      <c r="D3" s="862"/>
-      <c r="F3" s="866"/>
-      <c r="G3" s="867"/>
-      <c r="H3" s="868"/>
+      <c r="C3" s="862"/>
+      <c r="D3" s="863"/>
+      <c r="F3" s="867"/>
+      <c r="G3" s="868"/>
+      <c r="H3" s="869"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="523" t="s">
@@ -30504,11 +30589,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="869">
+      <c r="G11" s="870">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="870"/>
+      <c r="H11" s="871"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="529" t="s">
@@ -30525,23 +30610,23 @@
       <c r="C14" s="529"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="873" t="s">
+      <c r="C15" s="874" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="871">
+      <c r="D15" s="872">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="874"/>
-      <c r="D16" s="872"/>
+      <c r="C16" s="875"/>
+      <c r="D16" s="873"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="859" t="s">
+      <c r="C17" s="860" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="859"/>
+      <c r="D17" s="860"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30599,23 +30684,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30625,24 +30710,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -30661,14 +30746,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -30678,15 +30763,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
+      <c r="R4" s="809"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="875"/>
-      <c r="X4" s="875"/>
+      <c r="W4" s="882"/>
+      <c r="X4" s="882"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30740,8 +30825,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="875"/>
-      <c r="X5" s="875"/>
+      <c r="W5" s="882"/>
+      <c r="X5" s="882"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -31507,7 +31592,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="876"/>
+      <c r="W19" s="883"/>
       <c r="X19" s="541"/>
       <c r="Y19" s="233"/>
     </row>
@@ -31561,7 +31646,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="876"/>
+      <c r="W20" s="883"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -31616,8 +31701,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="802"/>
-      <c r="X21" s="802"/>
+      <c r="W21" s="787"/>
+      <c r="X21" s="787"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -31728,8 +31813,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="803"/>
-      <c r="X23" s="803"/>
+      <c r="W23" s="788"/>
+      <c r="X23" s="788"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -31790,8 +31875,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="803"/>
-      <c r="X24" s="803"/>
+      <c r="W24" s="788"/>
+      <c r="X24" s="788"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -31844,8 +31929,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="804"/>
-      <c r="X25" s="804"/>
+      <c r="W25" s="789"/>
+      <c r="X25" s="789"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -31900,8 +31985,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="804"/>
-      <c r="X26" s="804"/>
+      <c r="W26" s="789"/>
+      <c r="X26" s="789"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -31956,9 +32041,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="797"/>
-      <c r="X27" s="798"/>
-      <c r="Y27" s="799"/>
+      <c r="W27" s="782"/>
+      <c r="X27" s="783"/>
+      <c r="Y27" s="784"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32012,9 +32097,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="798"/>
-      <c r="X28" s="798"/>
-      <c r="Y28" s="799"/>
+      <c r="W28" s="783"/>
+      <c r="X28" s="783"/>
+      <c r="Y28" s="784"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -32605,11 +32690,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="788">
+      <c r="M41" s="800">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="788">
+      <c r="N41" s="800">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -32617,7 +32702,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="853">
+      <c r="Q41" s="854">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -32641,10 +32726,10 @@
       <c r="L42" s="637">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="789"/>
-      <c r="N42" s="789"/>
+      <c r="M42" s="801"/>
+      <c r="N42" s="801"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="854"/>
+      <c r="Q42" s="855"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -32713,11 +32798,11 @@
       <c r="L45" s="616">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="855">
+      <c r="M45" s="856">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="856"/>
+      <c r="N45" s="857"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -33133,26 +33218,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="765" t="s">
+      <c r="H63" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="766"/>
+      <c r="I63" s="756"/>
       <c r="J63" s="559"/>
-      <c r="K63" s="881">
+      <c r="K63" s="879">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="882"/>
+      <c r="L63" s="880"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="771" t="s">
+      <c r="D64" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="771"/>
+      <c r="E64" s="761"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -33161,22 +33246,22 @@
       <c r="J64" s="560"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="795" t="s">
+      <c r="D65" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="795"/>
+      <c r="E65" s="791"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="772" t="s">
+      <c r="I65" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="773"/>
-      <c r="K65" s="774">
+      <c r="J65" s="763"/>
+      <c r="K65" s="764">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="774"/>
+      <c r="L65" s="764"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="579"/>
@@ -33217,11 +33302,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="877">
+      <c r="K67" s="881">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="774"/>
+      <c r="L67" s="764"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -33238,22 +33323,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="754" t="s">
+      <c r="D69" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="755"/>
+      <c r="E69" s="745"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="878" t="s">
+      <c r="I69" s="876" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="879"/>
-      <c r="K69" s="880">
+      <c r="J69" s="877"/>
+      <c r="K69" s="878">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="880"/>
+      <c r="L69" s="878"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -33400,21 +33485,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -33430,6 +33500,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34926,10 +35011,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="847" t="s">
+      <c r="I38" s="848" t="s">
         <v>594</v>
       </c>
-      <c r="J38" s="848"/>
+      <c r="J38" s="849"/>
       <c r="K38" s="111"/>
       <c r="L38" s="412"/>
       <c r="M38" s="111"/>
@@ -34948,8 +35033,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="849"/>
-      <c r="J39" s="850"/>
+      <c r="I39" s="850"/>
+      <c r="J39" s="851"/>
       <c r="K39" s="111"/>
       <c r="L39" s="412"/>
       <c r="M39" s="111"/>
@@ -34968,8 +35053,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="851"/>
-      <c r="J40" s="852"/>
+      <c r="I40" s="852"/>
+      <c r="J40" s="853"/>
       <c r="K40" s="111"/>
       <c r="L40" s="412"/>
       <c r="M40" s="111"/>
@@ -35592,7 +35677,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="805" t="s">
+      <c r="F71" s="806" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -35605,7 +35690,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="806"/>
+      <c r="F72" s="807"/>
       <c r="K72" s="1"/>
       <c r="L72" s="256"/>
       <c r="M72" s="3"/>
@@ -35624,10 +35709,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="843" t="s">
+      <c r="I74" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="844"/>
+      <c r="J74" s="845"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -35636,8 +35721,8 @@
       <c r="D75" s="650"/>
       <c r="E75" s="519"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="845"/>
-      <c r="J75" s="846"/>
+      <c r="I75" s="846"/>
+      <c r="J75" s="847"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -35771,11 +35856,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="885" t="s">
+      <c r="A89" s="886" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="886"/>
-      <c r="C89" s="886"/>
+      <c r="B89" s="887"/>
+      <c r="C89" s="887"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -35785,10 +35870,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="887" t="s">
+      <c r="B90" s="888" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="888"/>
+      <c r="C90" s="889"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -35889,7 +35974,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="658"/>
-      <c r="C97" s="883">
+      <c r="C97" s="884">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -35903,7 +35988,7 @@
       <c r="B98" s="659" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="884"/>
+      <c r="C98" s="885"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -36004,23 +36089,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -36030,24 +36115,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -36062,14 +36147,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -36079,11 +36164,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
+      <c r="R4" s="809"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -37851,11 +37936,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="788">
+      <c r="M41" s="800">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="788">
+      <c r="N41" s="800">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -37863,7 +37948,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="853">
+      <c r="Q41" s="854">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -37893,10 +37978,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="789"/>
-      <c r="N42" s="789"/>
+      <c r="M42" s="801"/>
+      <c r="N42" s="801"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="854"/>
+      <c r="Q42" s="855"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -37983,11 +38068,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="855">
+      <c r="M45" s="856">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="856"/>
+      <c r="N45" s="857"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -38573,26 +38658,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="765" t="s">
+      <c r="H69" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="766"/>
+      <c r="I69" s="756"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="881">
+      <c r="K69" s="879">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="882"/>
+      <c r="L69" s="880"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="771" t="s">
+      <c r="D70" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="771"/>
+      <c r="E70" s="761"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1883028.8699999999</v>
@@ -38601,22 +38686,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="795" t="s">
+      <c r="D71" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="795"/>
+      <c r="E71" s="791"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="772" t="s">
+      <c r="I71" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="773"/>
-      <c r="K71" s="774">
+      <c r="J71" s="763"/>
+      <c r="K71" s="764">
         <f>F73+F74+F75</f>
         <v>2367293.46</v>
       </c>
-      <c r="L71" s="774"/>
+      <c r="L71" s="764"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -38657,11 +38742,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="877">
+      <c r="K73" s="881">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="774"/>
+      <c r="L73" s="764"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -38678,22 +38763,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="754" t="s">
+      <c r="D75" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="755"/>
+      <c r="E75" s="745"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="756" t="s">
+      <c r="I75" s="746" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="757"/>
-      <c r="K75" s="758">
+      <c r="J75" s="747"/>
+      <c r="K75" s="748">
         <f>K71+K73</f>
         <v>-179688.70000000019</v>
       </c>
-      <c r="L75" s="758"/>
+      <c r="L75" s="748"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -38840,6 +38925,17 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -38851,17 +38947,6 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38878,7 +38963,7 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E44:E45"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40542,10 +40627,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="847" t="s">
+      <c r="H43" s="848" t="s">
         <v>594</v>
       </c>
-      <c r="I43" s="848"/>
+      <c r="I43" s="849"/>
       <c r="J43" s="69"/>
       <c r="K43" s="253"/>
       <c r="L43" s="69"/>
@@ -40564,8 +40649,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="849"/>
-      <c r="I44" s="850"/>
+      <c r="H44" s="850"/>
+      <c r="I44" s="851"/>
       <c r="J44" s="69"/>
       <c r="K44" s="253"/>
       <c r="L44" s="69"/>
@@ -40584,8 +40669,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="851"/>
-      <c r="I45" s="852"/>
+      <c r="H45" s="852"/>
+      <c r="I45" s="853"/>
       <c r="J45" s="69"/>
       <c r="K45" s="253"/>
       <c r="L45" s="69"/>
@@ -41029,10 +41114,10 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="843" t="s">
+      <c r="H67" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="844"/>
+      <c r="I67" s="845"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -41052,11 +41137,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="805" t="s">
+      <c r="F68" s="806" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="845"/>
-      <c r="I68" s="846"/>
+      <c r="H68" s="846"/>
+      <c r="I68" s="847"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -41067,7 +41152,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="806"/>
+      <c r="F69" s="807"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -42882,7 +42967,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="778" t="s">
+      <c r="B41" s="779" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -42914,7 +42999,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="779"/>
+      <c r="B42" s="780"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -44508,23 +44593,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -44534,24 +44619,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -44566,14 +44651,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -44583,11 +44668,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
+      <c r="R4" s="809"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -46321,11 +46406,11 @@
       <c r="L41" s="39">
         <v>3442.5</v>
       </c>
-      <c r="M41" s="788">
+      <c r="M41" s="800">
         <f>SUM(M5:M40)</f>
         <v>2180659.5</v>
       </c>
-      <c r="N41" s="788">
+      <c r="N41" s="800">
         <f>SUM(N5:N40)</f>
         <v>1072718</v>
       </c>
@@ -46333,7 +46418,7 @@
         <f>SUM(P5:P40)</f>
         <v>4807723.83</v>
       </c>
-      <c r="Q41" s="853">
+      <c r="Q41" s="854">
         <f>SUM(Q5:Q40)</f>
         <v>12</v>
       </c>
@@ -46363,10 +46448,10 @@
       <c r="L42" s="702">
         <v>28000</v>
       </c>
-      <c r="M42" s="789"/>
-      <c r="N42" s="789"/>
+      <c r="M42" s="801"/>
+      <c r="N42" s="801"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="854"/>
+      <c r="Q42" s="855"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -46447,11 +46532,11 @@
       <c r="L45" s="39">
         <v>1061.9100000000001</v>
       </c>
-      <c r="M45" s="855">
+      <c r="M45" s="856">
         <f>M41+N41</f>
         <v>3253377.5</v>
       </c>
-      <c r="N45" s="856"/>
+      <c r="N45" s="857"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -46968,26 +47053,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="765" t="s">
+      <c r="H69" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="766"/>
+      <c r="I69" s="756"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="881">
+      <c r="K69" s="879">
         <f>I67+L67</f>
         <v>515778.65000000026</v>
       </c>
-      <c r="L69" s="882"/>
+      <c r="L69" s="880"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="771" t="s">
+      <c r="D70" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="771"/>
+      <c r="E70" s="761"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1573910.5599999998</v>
@@ -46996,22 +47081,22 @@
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="795" t="s">
+      <c r="D71" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="795"/>
+      <c r="E71" s="791"/>
       <c r="F71" s="111">
         <v>-1727771.26</v>
       </c>
-      <c r="I71" s="772" t="s">
+      <c r="I71" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="773"/>
-      <c r="K71" s="774">
+      <c r="J71" s="763"/>
+      <c r="K71" s="764">
         <f>F73+F74+F75</f>
         <v>2141254.8899999997</v>
       </c>
-      <c r="L71" s="774"/>
+      <c r="L71" s="764"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -47052,11 +47137,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="877">
+      <c r="K73" s="881">
         <f>-C4</f>
         <v>-2355426.54</v>
       </c>
-      <c r="L73" s="774"/>
+      <c r="L73" s="764"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -47073,22 +47158,22 @@
       <c r="C75" s="112">
         <v>44773</v>
       </c>
-      <c r="D75" s="754" t="s">
+      <c r="D75" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="755"/>
+      <c r="E75" s="745"/>
       <c r="F75" s="113">
         <v>2274653.09</v>
       </c>
-      <c r="I75" s="878" t="s">
+      <c r="I75" s="876" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="879"/>
-      <c r="K75" s="880">
+      <c r="J75" s="877"/>
+      <c r="K75" s="878">
         <f>K71+K73</f>
         <v>-214171.65000000037</v>
       </c>
-      <c r="L75" s="880"/>
+      <c r="L75" s="878"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -47235,12 +47320,6 @@
     <sortCondition ref="B35:B44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -47257,6 +47336,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.31496062992125984" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47272,8 +47357,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48638,10 +48723,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="847" t="s">
+      <c r="H40" s="848" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="848"/>
+      <c r="I40" s="849"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
@@ -48660,8 +48745,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="849"/>
-      <c r="I41" s="850"/>
+      <c r="H41" s="850"/>
+      <c r="I41" s="851"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
@@ -48680,8 +48765,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="851"/>
-      <c r="I42" s="852"/>
+      <c r="H42" s="852"/>
+      <c r="I42" s="853"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
@@ -49185,10 +49270,10 @@
         <f>SUM(F3:F66)</f>
         <v>332298.53000000003</v>
       </c>
-      <c r="H67" s="843" t="s">
+      <c r="H67" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="844"/>
+      <c r="I67" s="845"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
         <v>128177.49999999997</v>
@@ -49208,11 +49293,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="805" t="s">
+      <c r="F68" s="806" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="845"/>
-      <c r="I68" s="846"/>
+      <c r="H68" s="846"/>
+      <c r="I68" s="847"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -49223,7 +49308,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="806"/>
+      <c r="F69" s="807"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -49816,10 +49901,10 @@
   <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomRight" activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49845,23 +49930,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>1144</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -49871,24 +49956,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="553"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -49903,14 +49988,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="556"/>
       <c r="K4" s="562"/>
       <c r="L4" s="563"/>
@@ -49920,11 +50005,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
+      <c r="R4" s="809"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -50108,7 +50193,7 @@
         <v>939</v>
       </c>
       <c r="P8" s="39">
-        <f t="shared" ref="P8:P33" si="1">N8+M8+L8+I8+C8</f>
+        <f t="shared" ref="P8:P32" si="1">N8+M8+L8+I8+C8</f>
         <v>195957</v>
       </c>
       <c r="Q8" s="325">
@@ -51637,17 +51722,17 @@
       <c r="J41" s="56">
         <v>44782</v>
       </c>
-      <c r="K41" s="889" t="s">
+      <c r="K41" s="743" t="s">
         <v>1206</v>
       </c>
       <c r="L41" s="39">
         <v>10440</v>
       </c>
-      <c r="M41" s="788">
+      <c r="M41" s="800">
         <f>SUM(M5:M40)</f>
         <v>1553743.1800000002</v>
       </c>
-      <c r="N41" s="788">
+      <c r="N41" s="800">
         <f>SUM(N5:N40)</f>
         <v>1198132</v>
       </c>
@@ -51655,7 +51740,7 @@
         <f>SUM(P5:P40)</f>
         <v>3384938.6799999997</v>
       </c>
-      <c r="Q41" s="853">
+      <c r="Q41" s="854">
         <f>SUM(Q5:Q40)</f>
         <v>4</v>
       </c>
@@ -51683,10 +51768,10 @@
       <c r="L42" s="702">
         <v>1856</v>
       </c>
-      <c r="M42" s="789"/>
-      <c r="N42" s="789"/>
+      <c r="M42" s="801"/>
+      <c r="N42" s="801"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="854"/>
+      <c r="Q42" s="855"/>
       <c r="R42" s="227">
         <f>SUM(R5:R41)</f>
         <v>182722</v>
@@ -51759,11 +51844,11 @@
       <c r="L45" s="39">
         <v>2030</v>
       </c>
-      <c r="M45" s="855">
+      <c r="M45" s="856">
         <f>M41+N41</f>
         <v>2751875.18</v>
       </c>
-      <c r="N45" s="856"/>
+      <c r="N45" s="857"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -52019,9 +52104,15 @@
       <c r="G56" s="572"/>
       <c r="H56" s="76"/>
       <c r="I56" s="77"/>
-      <c r="J56" s="601"/>
-      <c r="K56" s="570"/>
-      <c r="L56" s="69"/>
+      <c r="J56" s="601">
+        <v>44802</v>
+      </c>
+      <c r="K56" s="570" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L56" s="69">
+        <v>30567.47</v>
+      </c>
       <c r="M56" s="727"/>
       <c r="N56" s="727"/>
       <c r="P56" s="34"/>
@@ -52232,7 +52323,7 @@
       </c>
       <c r="L67" s="95">
         <f>SUM(L5:L65)-L26</f>
-        <v>463257.05</v>
+        <v>493824.52</v>
       </c>
       <c r="M67" s="96"/>
       <c r="N67" s="96"/>
@@ -52250,50 +52341,50 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="765" t="s">
+      <c r="H69" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="766"/>
+      <c r="I69" s="756"/>
       <c r="J69" s="559"/>
-      <c r="K69" s="881">
+      <c r="K69" s="879">
         <f>I67+L67</f>
-        <v>542506.05000000005</v>
-      </c>
-      <c r="L69" s="882"/>
+        <v>573073.52</v>
+      </c>
+      <c r="L69" s="880"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="771" t="s">
+      <c r="D70" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="771"/>
+      <c r="E70" s="761"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
-        <v>1292682.2200000002</v>
+        <v>1262114.75</v>
       </c>
       <c r="I70" s="102"/>
       <c r="J70" s="560"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="795" t="s">
+      <c r="D71" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="795"/>
+      <c r="E71" s="791"/>
       <c r="F71" s="111">
         <v>-1715125.23</v>
       </c>
-      <c r="I71" s="772" t="s">
+      <c r="I71" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="773"/>
-      <c r="K71" s="774">
+      <c r="J71" s="763"/>
+      <c r="K71" s="764">
         <f>F73+F74+F75</f>
-        <v>2280433.0200000005</v>
-      </c>
-      <c r="L71" s="774"/>
+        <v>2249865.5500000003</v>
+      </c>
+      <c r="L71" s="764"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="654"/>
@@ -52327,18 +52418,18 @@
       </c>
       <c r="F73" s="96">
         <f>SUM(F70:F72)</f>
-        <v>-724201.96999999974</v>
+        <v>-754769.44</v>
       </c>
       <c r="H73" s="555"/>
       <c r="I73" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="877">
+      <c r="K73" s="881">
         <f>-C4</f>
         <v>-2274653.09</v>
       </c>
-      <c r="L73" s="774"/>
+      <c r="L73" s="764"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -52355,22 +52446,22 @@
       <c r="C75" s="112">
         <v>44801</v>
       </c>
-      <c r="D75" s="754" t="s">
+      <c r="D75" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="755"/>
+      <c r="E75" s="745"/>
       <c r="F75" s="113">
         <v>2672555.9900000002</v>
       </c>
-      <c r="I75" s="878" t="s">
-        <v>198</v>
-      </c>
-      <c r="J75" s="879"/>
-      <c r="K75" s="880">
+      <c r="I75" s="746" t="s">
+        <v>97</v>
+      </c>
+      <c r="J75" s="747"/>
+      <c r="K75" s="748">
         <f>K71+K73</f>
-        <v>5779.9300000006333</v>
-      </c>
-      <c r="L75" s="880"/>
+        <v>-24787.539999999572</v>
+      </c>
+      <c r="L75" s="748"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -52514,12 +52605,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -52536,6 +52621,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52551,8 +52642,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52648,14 +52739,20 @@
         <f>C3-E3</f>
         <v>154625.5</v>
       </c>
-      <c r="H3" s="704"/>
-      <c r="I3" s="705"/>
-      <c r="J3" s="706"/>
+      <c r="H3" s="890" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I3" s="891">
+        <v>9938</v>
+      </c>
+      <c r="J3" s="892">
+        <v>20969</v>
+      </c>
       <c r="K3" s="732"/>
       <c r="L3" s="706"/>
       <c r="M3" s="183">
         <f>J3-L3</f>
-        <v>0</v>
+        <v>20969</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -52675,14 +52772,20 @@
         <v>33703.32</v>
       </c>
       <c r="G4" s="138"/>
-      <c r="H4" s="704"/>
-      <c r="I4" s="705"/>
-      <c r="J4" s="706"/>
+      <c r="H4" s="893" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I4" s="894">
+        <v>9940</v>
+      </c>
+      <c r="J4" s="895">
+        <v>1080</v>
+      </c>
       <c r="K4" s="732"/>
       <c r="L4" s="706"/>
       <c r="M4" s="137">
         <f>M3+J4-L4</f>
-        <v>0</v>
+        <v>22049</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52701,14 +52804,20 @@
         <f t="shared" si="0"/>
         <v>100041.42</v>
       </c>
-      <c r="H5" s="704"/>
-      <c r="I5" s="705"/>
-      <c r="J5" s="706"/>
+      <c r="H5" s="890" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I5" s="891">
+        <v>9950</v>
+      </c>
+      <c r="J5" s="892">
+        <v>300</v>
+      </c>
       <c r="K5" s="732"/>
       <c r="L5" s="706"/>
       <c r="M5" s="137">
         <f t="shared" ref="M5:M65" si="1">M4+J5-L5</f>
-        <v>0</v>
+        <v>22349</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52727,14 +52836,20 @@
         <f t="shared" si="0"/>
         <v>83301.009999999995</v>
       </c>
-      <c r="H6" s="704"/>
-      <c r="I6" s="705"/>
-      <c r="J6" s="706"/>
+      <c r="H6" s="893" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I6" s="894">
+        <v>9963</v>
+      </c>
+      <c r="J6" s="895">
+        <v>1907.2</v>
+      </c>
       <c r="K6" s="732"/>
       <c r="L6" s="706"/>
       <c r="M6" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24256.2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52753,14 +52868,20 @@
         <f t="shared" si="0"/>
         <v>109154.04</v>
       </c>
-      <c r="H7" s="704"/>
-      <c r="I7" s="705"/>
-      <c r="J7" s="706"/>
+      <c r="H7" s="893" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I7" s="894">
+        <v>9981</v>
+      </c>
+      <c r="J7" s="895">
+        <v>500</v>
+      </c>
       <c r="K7" s="732"/>
       <c r="L7" s="706"/>
       <c r="M7" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24756.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52779,14 +52900,20 @@
         <f t="shared" si="0"/>
         <v>157421.98000000001</v>
       </c>
-      <c r="H8" s="704"/>
-      <c r="I8" s="705"/>
-      <c r="J8" s="706"/>
+      <c r="H8" s="890" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I8" s="891">
+        <v>9985</v>
+      </c>
+      <c r="J8" s="892">
+        <v>2866.38</v>
+      </c>
       <c r="K8" s="732"/>
       <c r="L8" s="706"/>
       <c r="M8" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27622.58</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52805,14 +52932,20 @@
         <f t="shared" si="0"/>
         <v>112479.02</v>
       </c>
-      <c r="H9" s="704"/>
-      <c r="I9" s="705"/>
-      <c r="J9" s="706"/>
+      <c r="H9" s="890" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I9" s="891">
+        <v>9988</v>
+      </c>
+      <c r="J9" s="892">
+        <v>13086.8</v>
+      </c>
       <c r="K9" s="732"/>
       <c r="L9" s="706"/>
       <c r="M9" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40709.380000000005</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -52832,14 +52965,20 @@
         <v>21000.400000000001</v>
       </c>
       <c r="G10" s="138"/>
-      <c r="H10" s="704"/>
-      <c r="I10" s="705"/>
-      <c r="J10" s="706"/>
+      <c r="H10" s="893" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I10" s="894">
+        <v>10001</v>
+      </c>
+      <c r="J10" s="895">
+        <v>300</v>
+      </c>
       <c r="K10" s="732"/>
       <c r="L10" s="706"/>
       <c r="M10" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41009.380000000005</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52858,14 +52997,20 @@
         <f t="shared" si="0"/>
         <v>60532.46</v>
       </c>
-      <c r="H11" s="704"/>
-      <c r="I11" s="705"/>
-      <c r="J11" s="706"/>
+      <c r="H11" s="890" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I11" s="891">
+        <v>10011</v>
+      </c>
+      <c r="J11" s="892">
+        <v>3566.2</v>
+      </c>
       <c r="K11" s="732"/>
       <c r="L11" s="706"/>
       <c r="M11" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44575.58</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52884,14 +53029,20 @@
         <f t="shared" si="0"/>
         <v>73336.13</v>
       </c>
-      <c r="H12" s="704"/>
-      <c r="I12" s="705"/>
-      <c r="J12" s="706"/>
+      <c r="H12" s="893" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I12" s="894">
+        <v>10013</v>
+      </c>
+      <c r="J12" s="895">
+        <v>500</v>
+      </c>
       <c r="K12" s="732"/>
       <c r="L12" s="706"/>
       <c r="M12" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45075.58</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52910,14 +53061,20 @@
         <f t="shared" si="0"/>
         <v>104138.62</v>
       </c>
-      <c r="H13" s="704"/>
-      <c r="I13" s="705"/>
-      <c r="J13" s="706"/>
+      <c r="H13" s="893" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I13" s="894">
+        <v>10017</v>
+      </c>
+      <c r="J13" s="895">
+        <v>1380</v>
+      </c>
       <c r="K13" s="732"/>
       <c r="L13" s="706"/>
       <c r="M13" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46455.58</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52936,14 +53093,20 @@
         <f t="shared" si="0"/>
         <v>120814.64</v>
       </c>
-      <c r="H14" s="704"/>
-      <c r="I14" s="705"/>
-      <c r="J14" s="706"/>
+      <c r="H14" s="890" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I14" s="891">
+        <v>10036</v>
+      </c>
+      <c r="J14" s="892">
+        <v>1800</v>
+      </c>
       <c r="K14" s="732"/>
       <c r="L14" s="706"/>
       <c r="M14" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48255.58</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52962,14 +53125,20 @@
         <f t="shared" si="0"/>
         <v>19406.900000000001</v>
       </c>
-      <c r="H15" s="704"/>
-      <c r="I15" s="705"/>
-      <c r="J15" s="706"/>
+      <c r="H15" s="893" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I15" s="894">
+        <v>10049</v>
+      </c>
+      <c r="J15" s="895">
+        <v>13000.8</v>
+      </c>
       <c r="K15" s="732"/>
       <c r="L15" s="706"/>
       <c r="M15" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61256.380000000005</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -52988,14 +53157,20 @@
         <f t="shared" si="0"/>
         <v>67461.399999999994</v>
       </c>
-      <c r="H16" s="704"/>
-      <c r="I16" s="705"/>
-      <c r="J16" s="706"/>
+      <c r="H16" s="890" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I16" s="891">
+        <v>10054</v>
+      </c>
+      <c r="J16" s="892">
+        <v>30306.68</v>
+      </c>
       <c r="K16" s="732"/>
       <c r="L16" s="706"/>
       <c r="M16" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91563.06</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53014,14 +53189,20 @@
         <f t="shared" si="0"/>
         <v>79085.52</v>
       </c>
-      <c r="H17" s="704"/>
-      <c r="I17" s="705"/>
-      <c r="J17" s="706"/>
+      <c r="H17" s="893" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I17" s="894">
+        <v>10063</v>
+      </c>
+      <c r="J17" s="895">
+        <v>400</v>
+      </c>
       <c r="K17" s="732"/>
       <c r="L17" s="706"/>
       <c r="M17" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91963.06</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53040,14 +53221,20 @@
         <f t="shared" si="0"/>
         <v>543.20000000000005</v>
       </c>
-      <c r="H18" s="704"/>
-      <c r="I18" s="705"/>
-      <c r="J18" s="706"/>
+      <c r="H18" s="893" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I18" s="894">
+        <v>10067</v>
+      </c>
+      <c r="J18" s="895">
+        <v>0</v>
+      </c>
       <c r="K18" s="732"/>
       <c r="L18" s="706"/>
       <c r="M18" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91963.06</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53066,14 +53253,20 @@
         <f t="shared" si="0"/>
         <v>22809.58</v>
       </c>
-      <c r="H19" s="704"/>
-      <c r="I19" s="705"/>
-      <c r="J19" s="706"/>
+      <c r="H19" s="890" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I19" s="891">
+        <v>10068</v>
+      </c>
+      <c r="J19" s="892">
+        <v>65604</v>
+      </c>
       <c r="K19" s="732"/>
       <c r="L19" s="706"/>
       <c r="M19" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>157567.06</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53092,14 +53285,20 @@
         <f t="shared" si="0"/>
         <v>95140.96</v>
       </c>
-      <c r="H20" s="704"/>
-      <c r="I20" s="705"/>
-      <c r="J20" s="706"/>
+      <c r="H20" s="890" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I20" s="891">
+        <v>10080</v>
+      </c>
+      <c r="J20" s="892">
+        <v>24654.400000000001</v>
+      </c>
       <c r="K20" s="732"/>
       <c r="L20" s="706"/>
       <c r="M20" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182221.46</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53118,14 +53317,20 @@
         <f t="shared" si="0"/>
         <v>1861.5</v>
       </c>
-      <c r="H21" s="704"/>
-      <c r="I21" s="705"/>
-      <c r="J21" s="706"/>
+      <c r="H21" s="893" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I21" s="894">
+        <v>10085</v>
+      </c>
+      <c r="J21" s="895">
+        <v>2029.1</v>
+      </c>
       <c r="K21" s="732"/>
       <c r="L21" s="706"/>
       <c r="M21" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184250.56</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -53145,17 +53350,23 @@
         <v>108419.36</v>
       </c>
       <c r="G22" s="644"/>
-      <c r="H22" s="704"/>
-      <c r="I22" s="705"/>
-      <c r="J22" s="706"/>
+      <c r="H22" s="893" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I22" s="894">
+        <v>10087</v>
+      </c>
+      <c r="J22" s="895">
+        <v>16779.599999999999</v>
+      </c>
       <c r="K22" s="732"/>
       <c r="L22" s="706"/>
       <c r="M22" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>201030.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="454">
         <v>44796</v>
       </c>
@@ -53172,17 +53383,23 @@
         <v>17118</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="704"/>
-      <c r="I23" s="705"/>
-      <c r="J23" s="706"/>
+      <c r="H23" s="890" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I23" s="891">
+        <v>10106</v>
+      </c>
+      <c r="J23" s="892">
+        <v>3162</v>
+      </c>
       <c r="K23" s="412"/>
       <c r="L23" s="111"/>
       <c r="M23" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204192.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="454">
         <v>44797</v>
       </c>
@@ -53199,17 +53416,23 @@
         <v>35648.26</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="704"/>
-      <c r="I24" s="705"/>
-      <c r="J24" s="706"/>
+      <c r="H24" s="893" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I24" s="894">
+        <v>10107</v>
+      </c>
+      <c r="J24" s="895">
+        <v>43133.2</v>
+      </c>
       <c r="K24" s="412"/>
       <c r="L24" s="111"/>
       <c r="M24" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>247325.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="454">
         <v>44797</v>
       </c>
@@ -53226,17 +53449,23 @@
         <v>104295.06</v>
       </c>
       <c r="G25" s="645"/>
-      <c r="H25" s="704"/>
-      <c r="I25" s="705"/>
-      <c r="J25" s="706"/>
+      <c r="H25" s="893" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I25" s="894">
+        <v>10115</v>
+      </c>
+      <c r="J25" s="895">
+        <v>11058</v>
+      </c>
       <c r="K25" s="412"/>
       <c r="L25" s="111"/>
       <c r="M25" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>258383.35999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="454">
         <v>44798</v>
       </c>
@@ -53253,17 +53482,23 @@
         <v>7764.05</v>
       </c>
       <c r="G26" s="645"/>
-      <c r="H26" s="704"/>
-      <c r="I26" s="705"/>
-      <c r="J26" s="706"/>
+      <c r="H26" s="893" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I26" s="894">
+        <v>10123</v>
+      </c>
+      <c r="J26" s="895">
+        <v>2038</v>
+      </c>
       <c r="K26" s="412"/>
       <c r="L26" s="111"/>
       <c r="M26" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>260421.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="454">
         <v>44799</v>
       </c>
@@ -53280,17 +53515,23 @@
         <v>25022.9</v>
       </c>
       <c r="G27" s="645"/>
-      <c r="H27" s="704"/>
-      <c r="I27" s="705"/>
-      <c r="J27" s="706"/>
+      <c r="H27" s="890" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I27" s="891">
+        <v>10124</v>
+      </c>
+      <c r="J27" s="892">
+        <v>26455.599999999999</v>
+      </c>
       <c r="K27" s="412"/>
       <c r="L27" s="111"/>
       <c r="M27" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>286876.95999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="454"/>
       <c r="B28" s="246"/>
       <c r="C28" s="111"/>
@@ -53301,17 +53542,23 @@
         <v>0</v>
       </c>
       <c r="G28" s="645"/>
-      <c r="H28" s="704"/>
-      <c r="I28" s="705"/>
-      <c r="J28" s="706"/>
+      <c r="H28" s="890" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I28" s="891">
+        <v>10134</v>
+      </c>
+      <c r="J28" s="892">
+        <v>1670</v>
+      </c>
       <c r="K28" s="412"/>
       <c r="L28" s="111"/>
       <c r="M28" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>288546.95999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="454"/>
       <c r="B29" s="246"/>
       <c r="C29" s="111"/>
@@ -53322,17 +53569,23 @@
         <v>0</v>
       </c>
       <c r="G29" s="645"/>
-      <c r="H29" s="704"/>
-      <c r="I29" s="705"/>
-      <c r="J29" s="706"/>
+      <c r="H29" s="890" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I29" s="891">
+        <v>10136</v>
+      </c>
+      <c r="J29" s="892">
+        <v>550</v>
+      </c>
       <c r="K29" s="412"/>
       <c r="L29" s="111"/>
       <c r="M29" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>289096.95999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="454"/>
       <c r="B30" s="246"/>
       <c r="C30" s="111"/>
@@ -53343,17 +53596,23 @@
         <v>0</v>
       </c>
       <c r="G30" s="645"/>
-      <c r="H30" s="704"/>
-      <c r="I30" s="705"/>
-      <c r="J30" s="706"/>
+      <c r="H30" s="893" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I30" s="894">
+        <v>10141</v>
+      </c>
+      <c r="J30" s="895">
+        <v>440</v>
+      </c>
       <c r="K30" s="412"/>
       <c r="L30" s="111"/>
       <c r="M30" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>289536.95999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="454"/>
       <c r="B31" s="246"/>
       <c r="C31" s="111"/>
@@ -53364,17 +53623,23 @@
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="704"/>
-      <c r="I31" s="705"/>
-      <c r="J31" s="706"/>
+      <c r="H31" s="893" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I31" s="894">
+        <v>10148</v>
+      </c>
+      <c r="J31" s="895">
+        <v>1298</v>
+      </c>
       <c r="K31" s="412"/>
       <c r="L31" s="111"/>
       <c r="M31" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>290834.95999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="454"/>
       <c r="B32" s="246"/>
       <c r="C32" s="111"/>
@@ -53385,17 +53650,23 @@
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="704"/>
-      <c r="I32" s="705"/>
-      <c r="J32" s="706"/>
+      <c r="H32" s="890" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I32" s="891">
+        <v>10160</v>
+      </c>
+      <c r="J32" s="892">
+        <v>9934</v>
+      </c>
       <c r="K32" s="412"/>
       <c r="L32" s="111"/>
       <c r="M32" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>300768.95999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="454"/>
       <c r="B33" s="246"/>
       <c r="C33" s="111"/>
@@ -53405,17 +53676,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="704"/>
-      <c r="I33" s="705"/>
-      <c r="J33" s="706"/>
+      <c r="H33" s="893" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I33" s="894">
+        <v>10183</v>
+      </c>
+      <c r="J33" s="895">
+        <v>550</v>
+      </c>
       <c r="K33" s="412"/>
       <c r="L33" s="111"/>
       <c r="M33" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+        <v>301318.95999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="454"/>
       <c r="B34" s="246"/>
       <c r="C34" s="111"/>
@@ -53425,14 +53702,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="704"/>
-      <c r="I34" s="705"/>
-      <c r="J34" s="706"/>
+      <c r="H34" s="890" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I34" s="891">
+        <v>10187</v>
+      </c>
+      <c r="J34" s="892">
+        <v>440</v>
+      </c>
       <c r="K34" s="412"/>
       <c r="L34" s="111"/>
       <c r="M34" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53452,7 +53735,7 @@
       <c r="L35" s="111"/>
       <c r="M35" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53472,7 +53755,7 @@
       <c r="L36" s="111"/>
       <c r="M36" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53492,7 +53775,7 @@
       <c r="L37" s="111"/>
       <c r="M37" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -53512,7 +53795,7 @@
       <c r="L38" s="111"/>
       <c r="M38" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53532,7 +53815,7 @@
       <c r="L39" s="69"/>
       <c r="M39" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53545,16 +53828,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="847" t="s">
+      <c r="H40" s="848" t="s">
         <v>594</v>
       </c>
-      <c r="I40" s="848"/>
+      <c r="I40" s="849"/>
       <c r="J40" s="69"/>
       <c r="K40" s="253"/>
       <c r="L40" s="69"/>
       <c r="M40" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53567,14 +53850,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H41" s="849"/>
-      <c r="I41" s="850"/>
+      <c r="H41" s="850"/>
+      <c r="I41" s="851"/>
       <c r="J41" s="69"/>
       <c r="K41" s="253"/>
       <c r="L41" s="69"/>
       <c r="M41" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53587,14 +53870,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="851"/>
-      <c r="I42" s="852"/>
+      <c r="H42" s="852"/>
+      <c r="I42" s="853"/>
       <c r="J42" s="69"/>
       <c r="K42" s="253"/>
       <c r="L42" s="69"/>
       <c r="M42" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53614,7 +53897,7 @@
       <c r="L43" s="69"/>
       <c r="M43" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53634,7 +53917,7 @@
       <c r="L44" s="69"/>
       <c r="M44" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53654,7 +53937,7 @@
       <c r="L45" s="69"/>
       <c r="M45" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53674,7 +53957,7 @@
       <c r="L46" s="69"/>
       <c r="M46" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53694,7 +53977,7 @@
       <c r="L47" s="69"/>
       <c r="M47" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -53714,7 +53997,7 @@
       <c r="L48" s="69"/>
       <c r="M48" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53734,7 +54017,7 @@
       <c r="L49" s="69"/>
       <c r="M49" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53754,7 +54037,7 @@
       <c r="L50" s="34"/>
       <c r="M50" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53774,7 +54057,7 @@
       <c r="L51" s="34"/>
       <c r="M51" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53794,7 +54077,7 @@
       <c r="L52" s="34"/>
       <c r="M52" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53814,7 +54097,7 @@
       <c r="L53" s="34"/>
       <c r="M53" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53834,7 +54117,7 @@
       <c r="L54" s="34"/>
       <c r="M54" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53854,7 +54137,7 @@
       <c r="L55" s="34"/>
       <c r="M55" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53874,7 +54157,7 @@
       <c r="L56" s="69"/>
       <c r="M56" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53894,7 +54177,7 @@
       <c r="L57" s="69"/>
       <c r="M57" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53914,7 +54197,7 @@
       <c r="L58" s="69"/>
       <c r="M58" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53934,7 +54217,7 @@
       <c r="L59" s="69"/>
       <c r="M59" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53954,7 +54237,7 @@
       <c r="L60" s="69"/>
       <c r="M60" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53974,7 +54257,7 @@
       <c r="L61" s="69"/>
       <c r="M61" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -53994,7 +54277,7 @@
       <c r="L62" s="69"/>
       <c r="M62" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -54014,7 +54297,7 @@
       <c r="L63" s="69"/>
       <c r="M63" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -54034,7 +54317,7 @@
       <c r="L64" s="69"/>
       <c r="M64" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -54054,7 +54337,7 @@
       <c r="L65" s="69"/>
       <c r="M65" s="137">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -54092,13 +54375,13 @@
         <f>SUM(F3:F66)</f>
         <v>1715125.23</v>
       </c>
-      <c r="H67" s="843" t="s">
+      <c r="H67" s="844" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="844"/>
+      <c r="I67" s="845"/>
       <c r="J67" s="642">
         <f>SUM(J3:J66)</f>
-        <v>0</v>
+        <v>301758.95999999996</v>
       </c>
       <c r="K67" s="713"/>
       <c r="L67" s="209">
@@ -54115,11 +54398,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="805" t="s">
+      <c r="F68" s="806" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="845"/>
-      <c r="I68" s="846"/>
+      <c r="H68" s="846"/>
+      <c r="I68" s="847"/>
       <c r="J68" s="1"/>
       <c r="K68" s="256"/>
       <c r="L68" s="3"/>
@@ -54130,7 +54413,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="806"/>
+      <c r="F69" s="807"/>
       <c r="J69" s="1"/>
       <c r="K69" s="256"/>
       <c r="L69" s="3"/>
@@ -54773,23 +55056,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="745" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="770" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="746"/>
-      <c r="E1" s="746"/>
-      <c r="F1" s="746"/>
-      <c r="G1" s="746"/>
-      <c r="H1" s="746"/>
-      <c r="I1" s="746"/>
-      <c r="J1" s="746"/>
-      <c r="K1" s="746"/>
-      <c r="L1" s="746"/>
-      <c r="M1" s="746"/>
+      <c r="D1" s="771"/>
+      <c r="E1" s="771"/>
+      <c r="F1" s="771"/>
+      <c r="G1" s="771"/>
+      <c r="H1" s="771"/>
+      <c r="I1" s="771"/>
+      <c r="J1" s="771"/>
+      <c r="K1" s="771"/>
+      <c r="L1" s="771"/>
+      <c r="M1" s="771"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -54799,21 +55082,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
     </row>
@@ -54828,14 +55111,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -54845,14 +55128,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="796" t="s">
+      <c r="W4" s="781" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="796"/>
+      <c r="X4" s="781"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -54903,8 +55186,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="781"/>
+      <c r="X5" s="781"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -55675,7 +55958,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="800">
+      <c r="W19" s="785">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -55727,7 +56010,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="801"/>
+      <c r="W20" s="786"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -55776,8 +56059,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="802"/>
-      <c r="X21" s="802"/>
+      <c r="W21" s="787"/>
+      <c r="X21" s="787"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -55878,8 +56161,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="803"/>
-      <c r="X23" s="803"/>
+      <c r="W23" s="788"/>
+      <c r="X23" s="788"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -55933,8 +56216,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="803"/>
-      <c r="X24" s="803"/>
+      <c r="W24" s="788"/>
+      <c r="X24" s="788"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -55980,8 +56263,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="804"/>
-      <c r="X25" s="804"/>
+      <c r="W25" s="789"/>
+      <c r="X25" s="789"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -56032,8 +56315,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="804"/>
-      <c r="X26" s="804"/>
+      <c r="W26" s="789"/>
+      <c r="X26" s="789"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -56081,9 +56364,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="797"/>
-      <c r="X27" s="798"/>
-      <c r="Y27" s="799"/>
+      <c r="W27" s="782"/>
+      <c r="X27" s="783"/>
+      <c r="Y27" s="784"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56133,9 +56416,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="798"/>
-      <c r="X28" s="798"/>
-      <c r="Y28" s="799"/>
+      <c r="W28" s="783"/>
+      <c r="X28" s="783"/>
+      <c r="Y28" s="784"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56470,11 +56753,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="788">
+      <c r="M36" s="800">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="790">
+      <c r="N36" s="802">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -56482,7 +56765,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="792">
+      <c r="Q36" s="804">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -56517,13 +56800,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="789"/>
-      <c r="N37" s="791"/>
+      <c r="M37" s="801"/>
+      <c r="N37" s="803"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="793"/>
+      <c r="Q37" s="805"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -56813,26 +57096,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="765" t="s">
+      <c r="H52" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="766"/>
+      <c r="I52" s="756"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="767">
+      <c r="K52" s="757">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="794"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="771" t="s">
+      <c r="D53" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="771"/>
+      <c r="E53" s="761"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -56841,29 +57124,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="795" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="795"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="772" t="s">
+      <c r="I54" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="773"/>
-      <c r="K54" s="774">
+      <c r="J54" s="763"/>
+      <c r="K54" s="764">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="774"/>
-      <c r="M54" s="780" t="s">
+      <c r="L54" s="764"/>
+      <c r="M54" s="792" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="781"/>
-      <c r="O54" s="781"/>
-      <c r="P54" s="781"/>
-      <c r="Q54" s="782"/>
+      <c r="N54" s="793"/>
+      <c r="O54" s="793"/>
+      <c r="P54" s="793"/>
+      <c r="Q54" s="794"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -56877,11 +57160,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="783"/>
-      <c r="N55" s="784"/>
-      <c r="O55" s="784"/>
-      <c r="P55" s="784"/>
-      <c r="Q55" s="785"/>
+      <c r="M55" s="795"/>
+      <c r="N55" s="796"/>
+      <c r="O55" s="796"/>
+      <c r="P55" s="796"/>
+      <c r="Q55" s="797"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -56899,11 +57182,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="776">
+      <c r="K56" s="766">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="777"/>
+      <c r="L56" s="767"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -56920,22 +57203,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="754" t="s">
+      <c r="D58" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="755"/>
+      <c r="E58" s="745"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="756" t="s">
+      <c r="I58" s="746" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="757"/>
-      <c r="K58" s="758">
+      <c r="J58" s="747"/>
+      <c r="K58" s="748">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="758"/>
+      <c r="L58" s="748"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -57079,14 +57362,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -57097,17 +57383,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -59525,7 +59808,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="805" t="s">
+      <c r="F87" s="806" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -59538,7 +59821,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="806"/>
+      <c r="F88" s="807"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -59850,23 +60133,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="745" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="770" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="746"/>
-      <c r="E1" s="746"/>
-      <c r="F1" s="746"/>
-      <c r="G1" s="746"/>
-      <c r="H1" s="746"/>
-      <c r="I1" s="746"/>
-      <c r="J1" s="746"/>
-      <c r="K1" s="746"/>
-      <c r="L1" s="746"/>
-      <c r="M1" s="746"/>
+      <c r="D1" s="771"/>
+      <c r="E1" s="771"/>
+      <c r="F1" s="771"/>
+      <c r="G1" s="771"/>
+      <c r="H1" s="771"/>
+      <c r="I1" s="771"/>
+      <c r="J1" s="771"/>
+      <c r="K1" s="771"/>
+      <c r="L1" s="771"/>
+      <c r="M1" s="771"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -59876,24 +60159,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -59908,14 +60191,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -59925,15 +60208,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
-      <c r="W4" s="796" t="s">
+      <c r="R4" s="809"/>
+      <c r="W4" s="781" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="796"/>
+      <c r="X4" s="781"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59994,8 +60277,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="781"/>
+      <c r="X5" s="781"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -60752,7 +61035,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="800">
+      <c r="W19" s="785">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -60804,7 +61087,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="801"/>
+      <c r="W20" s="786"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -60853,8 +61136,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="802"/>
-      <c r="X21" s="802"/>
+      <c r="W21" s="787"/>
+      <c r="X21" s="787"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -60955,8 +61238,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="803"/>
-      <c r="X23" s="803"/>
+      <c r="W23" s="788"/>
+      <c r="X23" s="788"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -61007,8 +61290,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="803"/>
-      <c r="X24" s="803"/>
+      <c r="W24" s="788"/>
+      <c r="X24" s="788"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -61054,8 +61337,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="804"/>
-      <c r="X25" s="804"/>
+      <c r="W25" s="789"/>
+      <c r="X25" s="789"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -61103,8 +61386,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="804"/>
-      <c r="X26" s="804"/>
+      <c r="W26" s="789"/>
+      <c r="X26" s="789"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -61164,9 +61447,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="797"/>
-      <c r="X27" s="798"/>
-      <c r="Y27" s="799"/>
+      <c r="W27" s="782"/>
+      <c r="X27" s="783"/>
+      <c r="Y27" s="784"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61220,9 +61503,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="798"/>
-      <c r="X28" s="798"/>
-      <c r="Y28" s="799"/>
+      <c r="W28" s="783"/>
+      <c r="X28" s="783"/>
+      <c r="Y28" s="784"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -61538,11 +61821,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="788">
+      <c r="M36" s="800">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="790">
+      <c r="N36" s="802">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -61550,7 +61833,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="792">
+      <c r="Q36" s="804">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -61569,13 +61852,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="789"/>
-      <c r="N37" s="791"/>
+      <c r="M37" s="801"/>
+      <c r="N37" s="803"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="793"/>
+      <c r="Q37" s="805"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -61849,26 +62132,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="765" t="s">
+      <c r="H52" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="766"/>
+      <c r="I52" s="756"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="767">
+      <c r="K52" s="757">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="794"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="771" t="s">
+      <c r="D53" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="771"/>
+      <c r="E53" s="761"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -61877,29 +62160,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="795" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="795"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="772" t="s">
+      <c r="I54" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="773"/>
-      <c r="K54" s="774">
+      <c r="J54" s="763"/>
+      <c r="K54" s="764">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="774"/>
-      <c r="M54" s="780" t="s">
+      <c r="L54" s="764"/>
+      <c r="M54" s="792" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="781"/>
-      <c r="O54" s="781"/>
-      <c r="P54" s="781"/>
-      <c r="Q54" s="782"/>
+      <c r="N54" s="793"/>
+      <c r="O54" s="793"/>
+      <c r="P54" s="793"/>
+      <c r="Q54" s="794"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -61913,11 +62196,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="783"/>
-      <c r="N55" s="784"/>
-      <c r="O55" s="784"/>
-      <c r="P55" s="784"/>
-      <c r="Q55" s="785"/>
+      <c r="M55" s="795"/>
+      <c r="N55" s="796"/>
+      <c r="O55" s="796"/>
+      <c r="P55" s="796"/>
+      <c r="Q55" s="797"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -61935,11 +62218,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="776">
+      <c r="K56" s="766">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="777"/>
+      <c r="L56" s="767"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -61956,22 +62239,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="754" t="s">
+      <c r="D58" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="755"/>
+      <c r="E58" s="745"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="756" t="s">
+      <c r="I58" s="746" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="757"/>
-      <c r="K58" s="758">
+      <c r="J58" s="747"/>
+      <c r="K58" s="748">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="758"/>
+      <c r="L58" s="748"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -62115,20 +62398,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -62138,13 +62414,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64534,7 +64817,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="805" t="s">
+      <c r="F75" s="806" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -64547,7 +64830,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="806"/>
+      <c r="F76" s="807"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -64839,23 +65122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -64865,24 +65148,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -64897,14 +65180,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -64914,15 +65197,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
-      <c r="W4" s="796" t="s">
+      <c r="R4" s="809"/>
+      <c r="W4" s="781" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="796"/>
+      <c r="X4" s="781"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -64973,8 +65256,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="781"/>
+      <c r="X5" s="781"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -65738,7 +66021,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="800">
+      <c r="W19" s="785">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -65791,7 +66074,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="801"/>
+      <c r="W20" s="786"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -65840,8 +66123,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="802"/>
-      <c r="X21" s="802"/>
+      <c r="W21" s="787"/>
+      <c r="X21" s="787"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -65941,8 +66224,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="803"/>
-      <c r="X23" s="803"/>
+      <c r="W23" s="788"/>
+      <c r="X23" s="788"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -65997,8 +66280,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="803"/>
-      <c r="X24" s="803"/>
+      <c r="W24" s="788"/>
+      <c r="X24" s="788"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -66043,8 +66326,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="804"/>
-      <c r="X25" s="804"/>
+      <c r="W25" s="789"/>
+      <c r="X25" s="789"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -66092,8 +66375,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="804"/>
-      <c r="X26" s="804"/>
+      <c r="W26" s="789"/>
+      <c r="X26" s="789"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -66147,9 +66430,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="797"/>
-      <c r="X27" s="798"/>
-      <c r="Y27" s="799"/>
+      <c r="W27" s="782"/>
+      <c r="X27" s="783"/>
+      <c r="Y27" s="784"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66203,9 +66486,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="798"/>
-      <c r="X28" s="798"/>
-      <c r="Y28" s="799"/>
+      <c r="W28" s="783"/>
+      <c r="X28" s="783"/>
+      <c r="Y28" s="784"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -66516,11 +66799,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="788">
+      <c r="M36" s="800">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="790">
+      <c r="N36" s="802">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -66528,7 +66811,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="792">
+      <c r="Q36" s="804">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -66553,13 +66836,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="789"/>
-      <c r="N37" s="791"/>
+      <c r="M37" s="801"/>
+      <c r="N37" s="803"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="793"/>
+      <c r="Q37" s="805"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -66852,26 +67135,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="765" t="s">
+      <c r="H52" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="766"/>
+      <c r="I52" s="756"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="767">
+      <c r="K52" s="757">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="794"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="771" t="s">
+      <c r="D53" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="771"/>
+      <c r="E53" s="761"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -66880,22 +67163,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="795" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="795"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="772" t="s">
+      <c r="I54" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="773"/>
-      <c r="K54" s="774">
+      <c r="J54" s="763"/>
+      <c r="K54" s="764">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="774"/>
+      <c r="L54" s="764"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -66936,11 +67219,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="776">
+      <c r="K56" s="766">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="777"/>
+      <c r="L56" s="767"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -66957,22 +67240,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="754" t="s">
+      <c r="D58" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="755"/>
+      <c r="E58" s="745"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="756" t="s">
+      <c r="I58" s="746" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="757"/>
-      <c r="K58" s="758">
+      <c r="J58" s="747"/>
+      <c r="K58" s="748">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="758"/>
+      <c r="L58" s="748"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -67116,20 +67399,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -67145,6 +67414,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -68841,12 +69124,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="811" t="s">
+      <c r="B43" s="812" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="812"/>
-      <c r="D43" s="812"/>
-      <c r="E43" s="813"/>
+      <c r="C43" s="813"/>
+      <c r="D43" s="813"/>
+      <c r="E43" s="814"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68874,10 +69157,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="814"/>
-      <c r="C44" s="815"/>
-      <c r="D44" s="815"/>
-      <c r="E44" s="816"/>
+      <c r="B44" s="815"/>
+      <c r="C44" s="816"/>
+      <c r="D44" s="816"/>
+      <c r="E44" s="817"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68905,10 +69188,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="817"/>
-      <c r="C45" s="818"/>
-      <c r="D45" s="818"/>
-      <c r="E45" s="819"/>
+      <c r="B45" s="818"/>
+      <c r="C45" s="819"/>
+      <c r="D45" s="819"/>
+      <c r="E45" s="820"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -68951,10 +69234,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="826" t="s">
+      <c r="B47" s="827" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="827"/>
+      <c r="C47" s="828"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -68976,8 +69259,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="828"/>
-      <c r="C48" s="829"/>
+      <c r="B48" s="829"/>
+      <c r="C48" s="830"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -68985,11 +69268,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="820" t="s">
+      <c r="J48" s="821" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="821"/>
-      <c r="L48" s="822"/>
+      <c r="K48" s="822"/>
+      <c r="L48" s="823"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -69007,9 +69290,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="823"/>
-      <c r="K49" s="824"/>
-      <c r="L49" s="825"/>
+      <c r="J49" s="824"/>
+      <c r="K49" s="825"/>
+      <c r="L49" s="826"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -69026,10 +69309,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="830" t="s">
+      <c r="I50" s="831" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="831"/>
+      <c r="J50" s="832"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -69050,8 +69333,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="830"/>
-      <c r="J51" s="831"/>
+      <c r="I51" s="831"/>
+      <c r="J51" s="832"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -69070,8 +69353,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="830"/>
-      <c r="J52" s="831"/>
+      <c r="I52" s="831"/>
+      <c r="J52" s="832"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -69090,8 +69373,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="830"/>
-      <c r="J53" s="831"/>
+      <c r="I53" s="831"/>
+      <c r="J53" s="832"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -69110,8 +69393,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="830"/>
-      <c r="J54" s="831"/>
+      <c r="I54" s="831"/>
+      <c r="J54" s="832"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -69130,8 +69413,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="830"/>
-      <c r="J55" s="831"/>
+      <c r="I55" s="831"/>
+      <c r="J55" s="832"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -69150,8 +69433,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="830"/>
-      <c r="J56" s="831"/>
+      <c r="I56" s="831"/>
+      <c r="J56" s="832"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -69170,8 +69453,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="830"/>
-      <c r="J57" s="831"/>
+      <c r="I57" s="831"/>
+      <c r="J57" s="832"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -69190,8 +69473,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="830"/>
-      <c r="J58" s="831"/>
+      <c r="I58" s="831"/>
+      <c r="J58" s="832"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -69210,8 +69493,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="830"/>
-      <c r="J59" s="831"/>
+      <c r="I59" s="831"/>
+      <c r="J59" s="832"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -69230,8 +69513,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="830"/>
-      <c r="J60" s="831"/>
+      <c r="I60" s="831"/>
+      <c r="J60" s="832"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -69250,8 +69533,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="830"/>
-      <c r="J61" s="831"/>
+      <c r="I61" s="831"/>
+      <c r="J61" s="832"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -69270,8 +69553,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="830"/>
-      <c r="J62" s="831"/>
+      <c r="I62" s="831"/>
+      <c r="J62" s="832"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -69290,8 +69573,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="830"/>
-      <c r="J63" s="831"/>
+      <c r="I63" s="831"/>
+      <c r="J63" s="832"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -69310,8 +69593,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="830"/>
-      <c r="J64" s="831"/>
+      <c r="I64" s="831"/>
+      <c r="J64" s="832"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -69330,8 +69613,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="830"/>
-      <c r="J65" s="831"/>
+      <c r="I65" s="831"/>
+      <c r="J65" s="832"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -69350,8 +69633,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="830"/>
-      <c r="J66" s="831"/>
+      <c r="I66" s="831"/>
+      <c r="J66" s="832"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -69370,8 +69653,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="830"/>
-      <c r="J67" s="831"/>
+      <c r="I67" s="831"/>
+      <c r="J67" s="832"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -69390,8 +69673,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="830"/>
-      <c r="J68" s="831"/>
+      <c r="I68" s="831"/>
+      <c r="J68" s="832"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -69410,8 +69693,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="830"/>
-      <c r="J69" s="831"/>
+      <c r="I69" s="831"/>
+      <c r="J69" s="832"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -69430,8 +69713,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="830"/>
-      <c r="J70" s="831"/>
+      <c r="I70" s="831"/>
+      <c r="J70" s="832"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -69450,8 +69733,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="830"/>
-      <c r="J71" s="831"/>
+      <c r="I71" s="831"/>
+      <c r="J71" s="832"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -69470,8 +69753,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="830"/>
-      <c r="J72" s="831"/>
+      <c r="I72" s="831"/>
+      <c r="J72" s="832"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -69490,8 +69773,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="830"/>
-      <c r="J73" s="831"/>
+      <c r="I73" s="831"/>
+      <c r="J73" s="832"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -69510,8 +69793,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="830"/>
-      <c r="J74" s="831"/>
+      <c r="I74" s="831"/>
+      <c r="J74" s="832"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -69530,8 +69813,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="830"/>
-      <c r="J75" s="831"/>
+      <c r="I75" s="831"/>
+      <c r="J75" s="832"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -69550,8 +69833,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="830"/>
-      <c r="J76" s="831"/>
+      <c r="I76" s="831"/>
+      <c r="J76" s="832"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -69570,8 +69853,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="830"/>
-      <c r="J77" s="831"/>
+      <c r="I77" s="831"/>
+      <c r="J77" s="832"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -69592,8 +69875,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="832"/>
-      <c r="J78" s="833"/>
+      <c r="I78" s="833"/>
+      <c r="J78" s="834"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -69638,7 +69921,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="805" t="s">
+      <c r="F80" s="806" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -69650,7 +69933,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="806"/>
+      <c r="F81" s="807"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -69938,23 +70221,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="743"/>
-      <c r="C1" s="809" t="s">
+      <c r="B1" s="768"/>
+      <c r="C1" s="810" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="810"/>
-      <c r="E1" s="810"/>
-      <c r="F1" s="810"/>
-      <c r="G1" s="810"/>
-      <c r="H1" s="810"/>
-      <c r="I1" s="810"/>
-      <c r="J1" s="810"/>
-      <c r="K1" s="810"/>
-      <c r="L1" s="810"/>
-      <c r="M1" s="810"/>
+      <c r="D1" s="811"/>
+      <c r="E1" s="811"/>
+      <c r="F1" s="811"/>
+      <c r="G1" s="811"/>
+      <c r="H1" s="811"/>
+      <c r="I1" s="811"/>
+      <c r="J1" s="811"/>
+      <c r="K1" s="811"/>
+      <c r="L1" s="811"/>
+      <c r="M1" s="811"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="744"/>
+      <c r="B2" s="769"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -69964,24 +70247,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="747" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="748"/>
+      <c r="B3" s="772" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="773"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="749" t="s">
+      <c r="H3" s="774" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="749"/>
+      <c r="I3" s="774"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="786" t="s">
+      <c r="P3" s="798" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="807" t="s">
+      <c r="R3" s="808" t="s">
         <v>216</v>
       </c>
     </row>
@@ -69996,14 +70279,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="750" t="s">
+      <c r="E4" s="775" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="751"/>
-      <c r="H4" s="752" t="s">
+      <c r="F4" s="776"/>
+      <c r="H4" s="777" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="753"/>
+      <c r="I4" s="778"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -70013,15 +70296,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="787"/>
+      <c r="P4" s="799"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="808"/>
-      <c r="W4" s="796" t="s">
+      <c r="R4" s="809"/>
+      <c r="W4" s="781" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="796"/>
+      <c r="X4" s="781"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70072,8 +70355,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="781"/>
+      <c r="X5" s="781"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -70834,7 +71117,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="800">
+      <c r="W19" s="785">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -70886,7 +71169,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="801"/>
+      <c r="W20" s="786"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -70935,8 +71218,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="802"/>
-      <c r="X21" s="802"/>
+      <c r="W21" s="787"/>
+      <c r="X21" s="787"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -71035,8 +71318,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="803"/>
-      <c r="X23" s="803"/>
+      <c r="W23" s="788"/>
+      <c r="X23" s="788"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -71091,8 +71374,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="803"/>
-      <c r="X24" s="803"/>
+      <c r="W24" s="788"/>
+      <c r="X24" s="788"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -71140,8 +71423,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="804"/>
-      <c r="X25" s="804"/>
+      <c r="W25" s="789"/>
+      <c r="X25" s="789"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -71189,8 +71472,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="804"/>
-      <c r="X26" s="804"/>
+      <c r="W26" s="789"/>
+      <c r="X26" s="789"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -71238,9 +71521,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="797"/>
-      <c r="X27" s="798"/>
-      <c r="Y27" s="799"/>
+      <c r="W27" s="782"/>
+      <c r="X27" s="783"/>
+      <c r="Y27" s="784"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71288,9 +71571,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="798"/>
-      <c r="X28" s="798"/>
-      <c r="Y28" s="799"/>
+      <c r="W28" s="783"/>
+      <c r="X28" s="783"/>
+      <c r="Y28" s="784"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -71631,11 +71914,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="788">
+      <c r="M36" s="800">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="790">
+      <c r="N36" s="802">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -71643,7 +71926,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="834">
+      <c r="Q36" s="835">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -71668,13 +71951,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="789"/>
-      <c r="N37" s="791"/>
+      <c r="M37" s="801"/>
+      <c r="N37" s="803"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="835"/>
+      <c r="Q37" s="836"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -71724,11 +72007,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="836">
+      <c r="M39" s="837">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="837"/>
+      <c r="N39" s="838"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -71976,26 +72259,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="765" t="s">
+      <c r="H52" s="755" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="766"/>
+      <c r="I52" s="756"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="767">
+      <c r="K52" s="757">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="794"/>
+      <c r="L52" s="790"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="771" t="s">
+      <c r="D53" s="761" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="771"/>
+      <c r="E53" s="761"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -72004,22 +72287,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="795" t="s">
+      <c r="D54" s="791" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="795"/>
+      <c r="E54" s="791"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="772" t="s">
+      <c r="I54" s="762" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="773"/>
-      <c r="K54" s="774">
+      <c r="J54" s="763"/>
+      <c r="K54" s="764">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="774"/>
+      <c r="L54" s="764"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -72060,11 +72343,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="776">
+      <c r="K56" s="766">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="777"/>
+      <c r="L56" s="767"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -72081,22 +72364,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="754" t="s">
+      <c r="D58" s="744" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="755"/>
+      <c r="E58" s="745"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="756" t="s">
+      <c r="I58" s="746" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="757"/>
-      <c r="K58" s="758">
+      <c r="J58" s="747"/>
+      <c r="K58" s="748">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="758"/>
+      <c r="L58" s="748"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -72240,6 +72523,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -72256,20 +72553,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
